--- a/June2015/ISWRPQAQ_stats.xlsx
+++ b/June2015/ISWRPQAQ_stats.xlsx
@@ -815,10 +815,10 @@
         <v>695</v>
       </c>
       <c r="AI4">
-        <v>131.3103597122303</v>
+        <v>131.3105035971223</v>
       </c>
       <c r="AJ4">
-        <v>49.67781710299136</v>
+        <v>49.67770380673517</v>
       </c>
       <c r="AK4">
         <v>60.2</v>
@@ -839,10 +839,10 @@
         <v>695</v>
       </c>
       <c r="AQ4">
-        <v>34.67375539568348</v>
+        <v>34.67376978417269</v>
       </c>
       <c r="AR4">
-        <v>21.67561853896473</v>
+        <v>21.67559925490681</v>
       </c>
       <c r="AS4">
         <v>1.35</v>
@@ -887,10 +887,10 @@
         <v>695</v>
       </c>
       <c r="BG4">
-        <v>-2.481351223021584</v>
+        <v>-2.481380000000001</v>
       </c>
       <c r="BH4">
-        <v>2.112077004642484</v>
+        <v>2.112114985875996</v>
       </c>
       <c r="BI4">
         <v>-12.5</v>
@@ -1257,10 +1257,10 @@
         <v>696</v>
       </c>
       <c r="AY6">
-        <v>-0.01228877735632184</v>
+        <v>-0.0122887918678161</v>
       </c>
       <c r="AZ6">
-        <v>0.02743104321759367</v>
+        <v>0.02743103931167367</v>
       </c>
       <c r="BA6">
         <v>-0.211</v>
@@ -1281,10 +1281,10 @@
         <v>696</v>
       </c>
       <c r="BG6">
-        <v>-0.1697818649425286</v>
+        <v>-0.1697818663793103</v>
       </c>
       <c r="BH6">
-        <v>0.1936753580573077</v>
+        <v>0.1936753567994706</v>
       </c>
       <c r="BI6">
         <v>-0.643</v>
@@ -1478,10 +1478,10 @@
         <v>696</v>
       </c>
       <c r="BG7">
-        <v>-0.1197688031609196</v>
+        <v>-0.1197688045977012</v>
       </c>
       <c r="BH7">
-        <v>0.1919458131389088</v>
+        <v>0.1919458122479026</v>
       </c>
       <c r="BI7">
         <v>-0.483</v>
@@ -1651,10 +1651,10 @@
         <v>696</v>
       </c>
       <c r="AY8">
-        <v>-0.009212838751551725</v>
+        <v>-0.009212838816954023</v>
       </c>
       <c r="AZ8">
-        <v>0.02418412945666125</v>
+        <v>0.02418412943126374</v>
       </c>
       <c r="BA8">
         <v>-0.188</v>
@@ -1675,10 +1675,10 @@
         <v>696</v>
       </c>
       <c r="BG8">
-        <v>-0.1093748547456895</v>
+        <v>-0.1093748516321838</v>
       </c>
       <c r="BH8">
-        <v>0.190734667419817</v>
+        <v>0.1907346692085596</v>
       </c>
       <c r="BI8">
         <v>-0.482</v>
@@ -1848,10 +1848,10 @@
         <v>696</v>
       </c>
       <c r="AY9">
-        <v>-0.007954140488505752</v>
+        <v>-0.007954140517241384</v>
       </c>
       <c r="AZ9">
-        <v>0.02282838261633593</v>
+        <v>0.02282838260630678</v>
       </c>
       <c r="BA9">
         <v>-0.179</v>
@@ -1872,10 +1872,10 @@
         <v>696</v>
       </c>
       <c r="BG9">
-        <v>-0.08550112514367811</v>
+        <v>-0.08550112658045972</v>
       </c>
       <c r="BH9">
-        <v>0.1890384193312376</v>
+        <v>0.1890384186813325</v>
       </c>
       <c r="BI9">
         <v>-0.414</v>
@@ -2045,10 +2045,10 @@
         <v>696</v>
       </c>
       <c r="AY10">
-        <v>-0.007345334195402292</v>
+        <v>-0.007345337068965509</v>
       </c>
       <c r="AZ10">
-        <v>0.02174683162795708</v>
+        <v>0.02174683056168602</v>
       </c>
       <c r="BA10">
         <v>-0.169</v>
@@ -2069,10 +2069,10 @@
         <v>696</v>
       </c>
       <c r="BG10">
-        <v>-0.07791140804597696</v>
+        <v>-0.07791169540229879</v>
       </c>
       <c r="BH10">
-        <v>0.1885240369538631</v>
+        <v>0.1885238777289392</v>
       </c>
       <c r="BI10">
         <v>-0.421</v>
@@ -2146,10 +2146,10 @@
         <v>696</v>
       </c>
       <c r="S11">
-        <v>3.846077586206894</v>
+        <v>3.846307471264366</v>
       </c>
       <c r="T11">
-        <v>0.6249380882260294</v>
+        <v>0.624870415574819</v>
       </c>
       <c r="U11">
         <v>2.94</v>
@@ -2218,10 +2218,10 @@
         <v>696</v>
       </c>
       <c r="AQ11">
-        <v>28.89780172413794</v>
+        <v>28.89810344827588</v>
       </c>
       <c r="AR11">
-        <v>16.43470334850726</v>
+        <v>16.4349699851355</v>
       </c>
       <c r="AS11">
         <v>1.27</v>
@@ -2242,10 +2242,10 @@
         <v>696</v>
       </c>
       <c r="AY11">
-        <v>-0.007261657327586216</v>
+        <v>-0.007261640373563227</v>
       </c>
       <c r="AZ11">
-        <v>0.022806931653039</v>
+        <v>0.02280692894282887</v>
       </c>
       <c r="BA11">
         <v>-0.182</v>
@@ -2266,10 +2266,10 @@
         <v>696</v>
       </c>
       <c r="BG11">
-        <v>-0.08095990948275857</v>
+        <v>-0.08094360488505743</v>
       </c>
       <c r="BH11">
-        <v>0.2910823455684552</v>
+        <v>0.2910292654193266</v>
       </c>
       <c r="BI11">
         <v>-1.31</v>
@@ -2439,10 +2439,10 @@
         <v>696</v>
       </c>
       <c r="AY12">
-        <v>-0.005499319209770121</v>
+        <v>-0.005499365818965525</v>
       </c>
       <c r="AZ12">
-        <v>0.02002024168531819</v>
+        <v>0.02002022702990947</v>
       </c>
       <c r="BA12">
         <v>-0.153</v>
@@ -2463,10 +2463,10 @@
         <v>696</v>
       </c>
       <c r="BG12">
-        <v>-0.04074516997126439</v>
+        <v>-0.04074533290229888</v>
       </c>
       <c r="BH12">
-        <v>0.1952034362566661</v>
+        <v>0.1952033417326997</v>
       </c>
       <c r="BI12">
         <v>-0.349</v>
@@ -2833,10 +2833,10 @@
         <v>696</v>
       </c>
       <c r="AY14">
-        <v>-0.004457501580459768</v>
+        <v>-0.004457544683908044</v>
       </c>
       <c r="AZ14">
-        <v>0.018328128739892</v>
+        <v>0.01832810398917113</v>
       </c>
       <c r="BA14">
         <v>-0.138</v>
@@ -3030,10 +3030,10 @@
         <v>696</v>
       </c>
       <c r="AY15">
-        <v>-0.003870708908045973</v>
+        <v>-0.003870723275862065</v>
       </c>
       <c r="AZ15">
-        <v>0.01762465243736063</v>
+        <v>0.01762464754255159</v>
       </c>
       <c r="BA15">
         <v>-0.13</v>
@@ -3054,10 +3054,10 @@
         <v>696</v>
       </c>
       <c r="BG15">
-        <v>-0.01796577298850576</v>
+        <v>-0.01796720977011495</v>
       </c>
       <c r="BH15">
-        <v>0.1890043670141217</v>
+        <v>0.1890025439992897</v>
       </c>
       <c r="BI15">
         <v>-0.296</v>
@@ -3424,10 +3424,10 @@
         <v>696</v>
       </c>
       <c r="AY17">
-        <v>-0.00281069382183908</v>
+        <v>-0.002810708189655172</v>
       </c>
       <c r="AZ17">
-        <v>0.01642262573179439</v>
+        <v>0.01642262055758351</v>
       </c>
       <c r="BA17">
         <v>-0.117</v>
@@ -3448,10 +3448,10 @@
         <v>696</v>
       </c>
       <c r="BG17">
-        <v>-7.403735632183026E-05</v>
+        <v>-7.547413793102742E-05</v>
       </c>
       <c r="BH17">
-        <v>0.187596149640485</v>
+        <v>0.1875943351204169</v>
       </c>
       <c r="BI17">
         <v>-0.265</v>
@@ -3621,10 +3621,10 @@
         <v>696</v>
       </c>
       <c r="AY18">
-        <v>-0.002312025</v>
+        <v>-0.002312068103448276</v>
       </c>
       <c r="AZ18">
-        <v>0.01593895817893441</v>
+        <v>0.0159389414955468</v>
       </c>
       <c r="BA18">
         <v>-0.111</v>
@@ -3645,10 +3645,10 @@
         <v>696</v>
       </c>
       <c r="BG18">
-        <v>0.008391063218390796</v>
+        <v>0.008386752873563209</v>
       </c>
       <c r="BH18">
-        <v>0.1888523617222632</v>
+        <v>0.1888476811150577</v>
       </c>
       <c r="BI18">
         <v>-0.252</v>
@@ -3818,10 +3818,10 @@
         <v>696</v>
       </c>
       <c r="AY19">
-        <v>-0.001834201149425288</v>
+        <v>-0.001834244252873564</v>
       </c>
       <c r="AZ19">
-        <v>0.01549446005225804</v>
+        <v>0.01549444043263812</v>
       </c>
       <c r="BA19">
         <v>-0.105</v>
@@ -3842,10 +3842,10 @@
         <v>696</v>
       </c>
       <c r="BG19">
-        <v>0.01640891522988507</v>
+        <v>0.01640589798850575</v>
       </c>
       <c r="BH19">
-        <v>0.189889167695817</v>
+        <v>0.1898867349893401</v>
       </c>
       <c r="BI19">
         <v>-0.239</v>
@@ -4015,10 +4015,10 @@
         <v>696</v>
       </c>
       <c r="AY20">
-        <v>-0.001398393247126435</v>
+        <v>-0.001398450718390803</v>
       </c>
       <c r="AZ20">
-        <v>0.01504532069480771</v>
+        <v>0.0150453001394527</v>
       </c>
       <c r="BA20">
         <v>-0.0987</v>
@@ -4039,10 +4039,10 @@
         <v>696</v>
       </c>
       <c r="BG20">
-        <v>0.02332953735632182</v>
+        <v>0.02332810057471263</v>
       </c>
       <c r="BH20">
-        <v>0.1885321963691533</v>
+        <v>0.1885309434356166</v>
       </c>
       <c r="BI20">
         <v>-0.228</v>
@@ -4212,10 +4212,10 @@
         <v>696</v>
       </c>
       <c r="AY21">
-        <v>-0.001015944252873563</v>
+        <v>-0.001016116666666667</v>
       </c>
       <c r="AZ21">
-        <v>0.01461209478878958</v>
+        <v>0.01461218390128749</v>
       </c>
       <c r="BA21">
         <v>-0.093</v>
@@ -4236,10 +4236,10 @@
         <v>696</v>
       </c>
       <c r="BG21">
-        <v>0.02904175862068963</v>
+        <v>0.02903888505747124</v>
       </c>
       <c r="BH21">
-        <v>0.1842924052882425</v>
+        <v>0.184289681106803</v>
       </c>
       <c r="BI21">
         <v>-0.221</v>
@@ -4409,10 +4409,10 @@
         <v>696</v>
       </c>
       <c r="AY22">
-        <v>-0.0006641041666666691</v>
+        <v>-0.000664161637931037</v>
       </c>
       <c r="AZ22">
-        <v>0.01421135382194313</v>
+        <v>0.0142113276329777</v>
       </c>
       <c r="BA22">
         <v>-0.08749999999999999</v>
@@ -4433,10 +4433,10 @@
         <v>696</v>
       </c>
       <c r="BG22">
-        <v>0.03417022413793101</v>
+        <v>0.03416735057471262</v>
       </c>
       <c r="BH22">
-        <v>0.1807960233869161</v>
+        <v>0.1807916011433063</v>
       </c>
       <c r="BI22">
         <v>-0.214</v>
@@ -4606,10 +4606,10 @@
         <v>696</v>
       </c>
       <c r="AY23">
-        <v>-0.0002932385057471268</v>
+        <v>-0.0002933965517241379</v>
       </c>
       <c r="AZ23">
-        <v>0.01389887460791602</v>
+        <v>0.01389859460572404</v>
       </c>
       <c r="BA23">
         <v>-0.08210000000000001</v>
@@ -4803,10 +4803,10 @@
         <v>696</v>
       </c>
       <c r="AY24">
-        <v>9.784727011494301E-05</v>
+        <v>9.780416666666719E-05</v>
       </c>
       <c r="AZ24">
-        <v>0.01366675180997151</v>
+        <v>0.01366673360527599</v>
       </c>
       <c r="BA24">
         <v>-0.0769</v>
@@ -5000,10 +5000,10 @@
         <v>696</v>
       </c>
       <c r="AY25">
-        <v>0.0004771288793103451</v>
+        <v>0.0004770570402298853</v>
       </c>
       <c r="AZ25">
-        <v>0.01348374167058583</v>
+        <v>0.0134837133715828</v>
       </c>
       <c r="BA25">
         <v>-0.07190000000000001</v>
@@ -5024,10 +5024,10 @@
         <v>696</v>
       </c>
       <c r="BG25">
-        <v>0.05375300862068967</v>
+        <v>0.05375157183908048</v>
       </c>
       <c r="BH25">
-        <v>0.1888344900075651</v>
+        <v>0.1888333489819952</v>
       </c>
       <c r="BI25">
         <v>-0.198</v>
@@ -5197,10 +5197,10 @@
         <v>696</v>
       </c>
       <c r="AY26">
-        <v>0.0008464797413793105</v>
+        <v>0.000846350431034483</v>
       </c>
       <c r="AZ26">
-        <v>0.01334042697167509</v>
+        <v>0.0133403852665344</v>
       </c>
       <c r="BA26">
         <v>-0.067</v>
@@ -5221,10 +5221,10 @@
         <v>696</v>
       </c>
       <c r="BG26">
-        <v>0.06021522844827582</v>
+        <v>0.06021091810344825</v>
       </c>
       <c r="BH26">
-        <v>0.1925471497127063</v>
+        <v>0.192543205122018</v>
       </c>
       <c r="BI26">
         <v>-0.192</v>
@@ -5394,10 +5394,10 @@
         <v>696</v>
       </c>
       <c r="AY27">
-        <v>0.001200366954022989</v>
+        <v>0.001200137068965518</v>
       </c>
       <c r="AZ27">
-        <v>0.01322030507934969</v>
+        <v>0.01322008255519253</v>
       </c>
       <c r="BA27">
         <v>-0.0622</v>
@@ -5418,10 +5418,10 @@
         <v>696</v>
       </c>
       <c r="BG27">
-        <v>0.06644204741379307</v>
+        <v>0.06643630028735631</v>
       </c>
       <c r="BH27">
-        <v>0.1959888921670299</v>
+        <v>0.1959834062169925</v>
       </c>
       <c r="BI27">
         <v>-0.187</v>
@@ -5591,10 +5591,10 @@
         <v>696</v>
       </c>
       <c r="AY28">
-        <v>0.00153147485632184</v>
+        <v>0.001531316810344829</v>
       </c>
       <c r="AZ28">
-        <v>0.01311441728665893</v>
+        <v>0.01311435228072052</v>
       </c>
       <c r="BA28">
         <v>-0.0575</v>
@@ -5788,10 +5788,10 @@
         <v>696</v>
       </c>
       <c r="AY29">
-        <v>0.001845910775862067</v>
+        <v>0.001845752729885056</v>
       </c>
       <c r="AZ29">
-        <v>0.01302701748509691</v>
+        <v>0.01302695999421249</v>
       </c>
       <c r="BA29">
         <v>-0.053</v>
@@ -5812,10 +5812,10 @@
         <v>696</v>
       </c>
       <c r="BG29">
-        <v>0.0773839137931035</v>
+        <v>0.07737529310344832</v>
       </c>
       <c r="BH29">
-        <v>0.2002102550919218</v>
+        <v>0.2001987293055147</v>
       </c>
       <c r="BI29">
         <v>-0.178</v>
@@ -5985,10 +5985,10 @@
         <v>696</v>
       </c>
       <c r="AY30">
-        <v>0.002145811494252873</v>
+        <v>0.002145624712643677</v>
       </c>
       <c r="AZ30">
-        <v>0.01296140059280877</v>
+        <v>0.01296133723833997</v>
       </c>
       <c r="BA30">
         <v>-0.0485</v>
@@ -6009,10 +6009,10 @@
         <v>696</v>
       </c>
       <c r="BG30">
-        <v>0.08239536350574715</v>
+        <v>0.08238674281609197</v>
       </c>
       <c r="BH30">
-        <v>0.2019913624046101</v>
+        <v>0.2019833082371235</v>
       </c>
       <c r="BI30">
         <v>-0.173</v>
@@ -6182,10 +6182,10 @@
         <v>696</v>
       </c>
       <c r="AY31">
-        <v>0.002431708189655172</v>
+        <v>0.002431219396551723</v>
       </c>
       <c r="AZ31">
-        <v>0.01290872484045557</v>
+        <v>0.01290823309882808</v>
       </c>
       <c r="BA31">
         <v>-0.0443</v>
@@ -6206,10 +6206,10 @@
         <v>696</v>
       </c>
       <c r="BG31">
-        <v>0.08715716666666665</v>
+        <v>0.08714710775862065</v>
       </c>
       <c r="BH31">
-        <v>0.2036107444318241</v>
+        <v>0.2036008201361586</v>
       </c>
       <c r="BI31">
         <v>-0.169</v>
@@ -6355,10 +6355,10 @@
         <v>696</v>
       </c>
       <c r="AQ32">
-        <v>28.90566091954018</v>
+        <v>28.9058045977011</v>
       </c>
       <c r="AR32">
-        <v>16.40691875885533</v>
+        <v>16.40701561424499</v>
       </c>
       <c r="AS32">
         <v>1.26</v>
@@ -6379,10 +6379,10 @@
         <v>696</v>
       </c>
       <c r="AY32">
-        <v>0.002706703304597702</v>
+        <v>0.002706545258620691</v>
       </c>
       <c r="AZ32">
-        <v>0.01287948760461654</v>
+        <v>0.01287943489436749</v>
       </c>
       <c r="BA32">
         <v>-0.0426</v>
@@ -6403,10 +6403,10 @@
         <v>696</v>
       </c>
       <c r="BG32">
-        <v>0.09178189224137938</v>
+        <v>0.09176608764367822</v>
       </c>
       <c r="BH32">
-        <v>0.2052684262263234</v>
+        <v>0.205249478508801</v>
       </c>
       <c r="BI32">
         <v>-0.165</v>
@@ -6576,10 +6576,10 @@
         <v>696</v>
       </c>
       <c r="AY33">
-        <v>0.002975494540229886</v>
+        <v>0.002975132614942531</v>
       </c>
       <c r="AZ33">
-        <v>0.01287251832742075</v>
+        <v>0.01287162272933657</v>
       </c>
       <c r="BA33">
         <v>-0.0409</v>
@@ -6594,16 +6594,16 @@
         <v>0.0075025</v>
       </c>
       <c r="BE33">
-        <v>0.07770000000000001</v>
+        <v>0.0776</v>
       </c>
       <c r="BF33">
         <v>696</v>
       </c>
       <c r="BG33">
-        <v>0.09626824999999992</v>
+        <v>0.09626106609195396</v>
       </c>
       <c r="BH33">
-        <v>0.2069634057839036</v>
+        <v>0.2069566399639193</v>
       </c>
       <c r="BI33">
         <v>-0.16</v>
@@ -6773,10 +6773,10 @@
         <v>696</v>
       </c>
       <c r="AY34">
-        <v>0.003236470258620689</v>
+        <v>0.003235881034482757</v>
       </c>
       <c r="AZ34">
-        <v>0.01287981619659138</v>
+        <v>0.01287933927256915</v>
       </c>
       <c r="BA34">
         <v>-0.0393</v>
@@ -6797,10 +6797,10 @@
         <v>696</v>
       </c>
       <c r="BG34">
-        <v>0.1006398272988505</v>
+        <v>0.1006268954022988</v>
       </c>
       <c r="BH34">
-        <v>0.2087012005913534</v>
+        <v>0.2086877098052392</v>
       </c>
       <c r="BI34">
         <v>-0.156</v>
@@ -6970,10 +6970,10 @@
         <v>696</v>
       </c>
       <c r="AY35">
-        <v>0.003488288936781606</v>
+        <v>0.003487757040229883</v>
       </c>
       <c r="AZ35">
-        <v>0.01290433770842693</v>
+        <v>0.01290395436453691</v>
       </c>
       <c r="BA35">
         <v>-0.0378</v>
@@ -6994,10 +6994,10 @@
         <v>696</v>
       </c>
       <c r="BG35">
-        <v>0.1049299971264368</v>
+        <v>0.1049184885057471</v>
       </c>
       <c r="BH35">
-        <v>0.2104681353279059</v>
+        <v>0.2104569599588595</v>
       </c>
       <c r="BI35">
         <v>-0.153</v>
@@ -7009,7 +7009,7 @@
         <v>-0.000938</v>
       </c>
       <c r="BL35">
-        <v>0.2925</v>
+        <v>0.29225</v>
       </c>
       <c r="BM35">
         <v>0.883</v>
@@ -7143,10 +7143,10 @@
         <v>696</v>
       </c>
       <c r="AQ36">
-        <v>28.88364942528732</v>
+        <v>28.88379310344824</v>
       </c>
       <c r="AR36">
-        <v>16.38540790246485</v>
+        <v>16.38559289036082</v>
       </c>
       <c r="AS36">
         <v>1.26</v>
@@ -7167,10 +7167,10 @@
         <v>696</v>
       </c>
       <c r="AY36">
-        <v>0.003732127729885057</v>
+        <v>0.003731481321839081</v>
       </c>
       <c r="AZ36">
-        <v>0.01294145748938451</v>
+        <v>0.0129403395554082</v>
       </c>
       <c r="BA36">
         <v>-0.0364</v>
@@ -7185,16 +7185,16 @@
         <v>0.008102499999999999</v>
       </c>
       <c r="BE36">
-        <v>0.08260000000000001</v>
+        <v>0.0825</v>
       </c>
       <c r="BF36">
         <v>696</v>
       </c>
       <c r="BG36">
-        <v>0.1090388002873562</v>
+        <v>0.1090215589080459</v>
       </c>
       <c r="BH36">
-        <v>0.2120696641027473</v>
+        <v>0.2120521135723688</v>
       </c>
       <c r="BI36">
         <v>-0.149</v>
@@ -7364,10 +7364,10 @@
         <v>696</v>
       </c>
       <c r="AY37">
-        <v>0.003970661350574712</v>
+        <v>0.003969957327586205</v>
       </c>
       <c r="AZ37">
-        <v>0.01299057804354357</v>
+        <v>0.01298931354610937</v>
       </c>
       <c r="BA37">
         <v>-0.035</v>
@@ -7388,10 +7388,10 @@
         <v>696</v>
       </c>
       <c r="BG37">
-        <v>0.1131008793103448</v>
+        <v>0.1130678347701149</v>
       </c>
       <c r="BH37">
-        <v>0.2137062185150508</v>
+        <v>0.2136662643279173</v>
       </c>
       <c r="BI37">
         <v>-0.145</v>
@@ -7561,10 +7561,10 @@
         <v>696</v>
       </c>
       <c r="AY38">
-        <v>0.004207037931034485</v>
+        <v>0.004206635632183909</v>
       </c>
       <c r="AZ38">
-        <v>0.01305963485688381</v>
+        <v>0.01305952835158218</v>
       </c>
       <c r="BA38">
         <v>-0.0337</v>
@@ -7585,10 +7585,10 @@
         <v>696</v>
       </c>
       <c r="BG38">
-        <v>0.1171923678160919</v>
+        <v>0.1171663620689654</v>
       </c>
       <c r="BH38">
-        <v>0.215517121912907</v>
+        <v>0.215490580408594</v>
       </c>
       <c r="BI38">
         <v>-0.142</v>
@@ -7758,10 +7758,10 @@
         <v>696</v>
       </c>
       <c r="AY39">
-        <v>0.004444846551724138</v>
+        <v>0.004444000431034483</v>
       </c>
       <c r="AZ39">
-        <v>0.01314843402112921</v>
+        <v>0.01314703214793163</v>
       </c>
       <c r="BA39">
         <v>-0.0325</v>
@@ -7782,10 +7782,10 @@
         <v>696</v>
       </c>
       <c r="BG39">
-        <v>0.1214067112068966</v>
+        <v>0.1213851594827586</v>
       </c>
       <c r="BH39">
-        <v>0.2176496326473633</v>
+        <v>0.2176221194559763</v>
       </c>
       <c r="BI39">
         <v>-0.138</v>
@@ -7931,10 +7931,10 @@
         <v>696</v>
       </c>
       <c r="AQ40">
-        <v>28.8697701149425</v>
+        <v>28.86991379310341</v>
       </c>
       <c r="AR40">
-        <v>16.37983361635871</v>
+        <v>16.37980181865633</v>
       </c>
       <c r="AS40">
         <v>1.26</v>
@@ -7955,10 +7955,10 @@
         <v>696</v>
       </c>
       <c r="AY40">
-        <v>0.0046800658045977</v>
+        <v>0.004679146120689655</v>
       </c>
       <c r="AZ40">
-        <v>0.01325813875074347</v>
+        <v>0.01325698992648049</v>
       </c>
       <c r="BA40">
         <v>-0.0313</v>
@@ -7979,10 +7979,10 @@
         <v>696</v>
       </c>
       <c r="BG40">
-        <v>0.1255493362068965</v>
+        <v>0.1255292212643678</v>
       </c>
       <c r="BH40">
-        <v>0.2197051420798826</v>
+        <v>0.2196847511497213</v>
       </c>
       <c r="BI40">
         <v>-0.135</v>
@@ -8152,10 +8152,10 @@
         <v>696</v>
       </c>
       <c r="AY41">
-        <v>0.004905829166666666</v>
+        <v>0.004904493103448275</v>
       </c>
       <c r="AZ41">
-        <v>0.01337816063415855</v>
+        <v>0.01337608763860265</v>
       </c>
       <c r="BA41">
         <v>-0.0301</v>
@@ -8167,7 +8167,7 @@
         <v>-3.355E-05</v>
       </c>
       <c r="BD41">
-        <v>0.00895</v>
+        <v>0.008947500000000001</v>
       </c>
       <c r="BE41">
         <v>0.0907</v>
@@ -8176,10 +8176,10 @@
         <v>696</v>
       </c>
       <c r="BG41">
-        <v>0.1294148491379311</v>
+        <v>0.1293918462643679</v>
       </c>
       <c r="BH41">
-        <v>0.2213285935492605</v>
+        <v>0.2213039522480648</v>
       </c>
       <c r="BI41">
         <v>-0.132</v>
@@ -8349,10 +8349,10 @@
         <v>696</v>
       </c>
       <c r="AY42">
-        <v>0.005124499856321838</v>
+        <v>0.005123722413793102</v>
       </c>
       <c r="AZ42">
-        <v>0.01350571017816075</v>
+        <v>0.01350518734769571</v>
       </c>
       <c r="BA42">
         <v>-0.0291</v>
@@ -8364,7 +8364,7 @@
         <v>-3.27E-05</v>
       </c>
       <c r="BD42">
-        <v>0.009107500000000001</v>
+        <v>0.009097500000000001</v>
       </c>
       <c r="BE42">
         <v>0.0924</v>
@@ -8373,10 +8373,10 @@
         <v>696</v>
       </c>
       <c r="BG42">
-        <v>0.1331143304597702</v>
+        <v>0.1330897456896552</v>
       </c>
       <c r="BH42">
-        <v>0.2228291250813715</v>
+        <v>0.2227989892270511</v>
       </c>
       <c r="BI42">
         <v>-0.128</v>
@@ -8546,10 +8546,10 @@
         <v>696</v>
       </c>
       <c r="AY43">
-        <v>0.005340567097701147</v>
+        <v>0.005339543103448275</v>
       </c>
       <c r="AZ43">
-        <v>0.01364230873102705</v>
+        <v>0.0136400985208507</v>
       </c>
       <c r="BA43">
         <v>-0.028</v>
@@ -8561,7 +8561,7 @@
         <v>-3.14E-05</v>
       </c>
       <c r="BD43">
-        <v>0.00925</v>
+        <v>0.009247500000000001</v>
       </c>
       <c r="BE43">
         <v>0.094</v>
@@ -8570,10 +8570,10 @@
         <v>696</v>
       </c>
       <c r="BG43">
-        <v>0.1368081331896551</v>
+        <v>0.1367635900862068</v>
       </c>
       <c r="BH43">
-        <v>0.22453110611851</v>
+        <v>0.2244825465066888</v>
       </c>
       <c r="BI43">
         <v>-0.125</v>
@@ -8647,10 +8647,10 @@
         <v>696</v>
       </c>
       <c r="S44">
-        <v>3.843793103448277</v>
+        <v>3.843807471264369</v>
       </c>
       <c r="T44">
-        <v>0.6309937192072425</v>
+        <v>0.630986905656185</v>
       </c>
       <c r="U44">
         <v>2.96</v>
@@ -8743,10 +8743,10 @@
         <v>696</v>
       </c>
       <c r="AY44">
-        <v>0.005552999137931034</v>
+        <v>0.005552108333333332</v>
       </c>
       <c r="AZ44">
-        <v>0.01379275432983333</v>
+        <v>0.01379196167770028</v>
       </c>
       <c r="BA44">
         <v>-0.027</v>
@@ -8758,7 +8758,7 @@
         <v>-3.075E-05</v>
       </c>
       <c r="BD44">
-        <v>0.0093925</v>
+        <v>0.009389999999999999</v>
       </c>
       <c r="BE44">
         <v>0.0955</v>
@@ -8767,10 +8767,10 @@
         <v>696</v>
       </c>
       <c r="BG44">
-        <v>0.1403036235632185</v>
+        <v>0.1402432787356322</v>
       </c>
       <c r="BH44">
-        <v>0.2259899900983182</v>
+        <v>0.2259306843757055</v>
       </c>
       <c r="BI44">
         <v>-0.122</v>
@@ -8782,7 +8782,7 @@
         <v>-0.0007555000000000001</v>
       </c>
       <c r="BL44">
-        <v>0.35375</v>
+        <v>0.3535</v>
       </c>
       <c r="BM44">
         <v>0.9330000000000001</v>
@@ -8844,10 +8844,10 @@
         <v>696</v>
       </c>
       <c r="S45">
-        <v>3.842758620689651</v>
+        <v>3.842772988505743</v>
       </c>
       <c r="T45">
-        <v>0.6312740383037837</v>
+        <v>0.6312889043581652</v>
       </c>
       <c r="U45">
         <v>2.95</v>
@@ -8940,10 +8940,10 @@
         <v>696</v>
       </c>
       <c r="AY45">
-        <v>0.005768653160919544</v>
+        <v>0.005767633045977014</v>
       </c>
       <c r="AZ45">
-        <v>0.01397206431292587</v>
+        <v>0.01397075069809892</v>
       </c>
       <c r="BA45">
         <v>-0.026</v>
@@ -8955,7 +8955,7 @@
         <v>-3.01E-05</v>
       </c>
       <c r="BD45">
-        <v>0.009497499999999999</v>
+        <v>0.009495</v>
       </c>
       <c r="BE45">
         <v>0.097</v>
@@ -8964,10 +8964,10 @@
         <v>696</v>
       </c>
       <c r="BG45">
-        <v>0.143818375</v>
+        <v>0.1437551422413793</v>
       </c>
       <c r="BH45">
-        <v>0.2283353138621096</v>
+        <v>0.2282643428781477</v>
       </c>
       <c r="BI45">
         <v>-0.119</v>
@@ -9041,10 +9041,10 @@
         <v>696</v>
       </c>
       <c r="S46">
-        <v>3.84156609195402</v>
+        <v>3.841580459770112</v>
       </c>
       <c r="T46">
-        <v>0.6312390384657163</v>
+        <v>0.6312256679481776</v>
       </c>
       <c r="U46">
         <v>2.95</v>
@@ -9065,10 +9065,10 @@
         <v>696</v>
       </c>
       <c r="AA46">
-        <v>37.96020114942525</v>
+        <v>37.96034482758617</v>
       </c>
       <c r="AB46">
-        <v>2.58572383081892</v>
+        <v>2.585478405626087</v>
       </c>
       <c r="AC46">
         <v>33.5</v>
@@ -9137,10 +9137,10 @@
         <v>696</v>
       </c>
       <c r="AY46">
-        <v>0.00599660675287356</v>
+        <v>0.005994938362068964</v>
       </c>
       <c r="AZ46">
-        <v>0.01417212283136738</v>
+        <v>0.01417077757640325</v>
       </c>
       <c r="BA46">
         <v>-0.0251</v>
@@ -9149,10 +9149,10 @@
         <v>-0.0017825</v>
       </c>
       <c r="BC46">
-        <v>-2.955E-05</v>
+        <v>-2.96E-05</v>
       </c>
       <c r="BD46">
-        <v>0.0098075</v>
+        <v>0.009797500000000001</v>
       </c>
       <c r="BE46">
         <v>0.0985</v>
@@ -9161,10 +9161,10 @@
         <v>696</v>
       </c>
       <c r="BG46">
-        <v>0.1478739468390806</v>
+        <v>0.14783641954023</v>
       </c>
       <c r="BH46">
-        <v>0.232273973499366</v>
+        <v>0.2322354724909768</v>
       </c>
       <c r="BI46">
         <v>-0.117</v>
@@ -9334,10 +9334,10 @@
         <v>696</v>
       </c>
       <c r="AY47">
-        <v>0.006202350718390807</v>
+        <v>0.00620028146551724</v>
       </c>
       <c r="AZ47">
-        <v>0.01433512749491346</v>
+        <v>0.01433180888937405</v>
       </c>
       <c r="BA47">
         <v>-0.0242</v>
@@ -9358,10 +9358,10 @@
         <v>696</v>
       </c>
       <c r="BG47">
-        <v>0.1513627112068966</v>
+        <v>0.1513196077586208</v>
       </c>
       <c r="BH47">
-        <v>0.2332887550484138</v>
+        <v>0.2332435677416332</v>
       </c>
       <c r="BI47">
         <v>-0.114</v>
@@ -9435,10 +9435,10 @@
         <v>696</v>
       </c>
       <c r="S48">
-        <v>3.839482758620689</v>
+        <v>3.83949712643678</v>
       </c>
       <c r="T48">
-        <v>0.6322491697518852</v>
+        <v>0.6322360955903027</v>
       </c>
       <c r="U48">
         <v>2.95</v>
@@ -9531,10 +9531,10 @@
         <v>696</v>
       </c>
       <c r="AY48">
-        <v>0.006368315517241377</v>
+        <v>0.00636532679597701</v>
       </c>
       <c r="AZ48">
-        <v>0.01445133862236472</v>
+        <v>0.01444087755657769</v>
       </c>
       <c r="BA48">
         <v>-0.0233</v>
@@ -9555,10 +9555,10 @@
         <v>696</v>
       </c>
       <c r="BG48">
-        <v>0.1537760129310344</v>
+        <v>0.1537170862068965</v>
       </c>
       <c r="BH48">
-        <v>0.231627926989739</v>
+        <v>0.2315655330547938</v>
       </c>
       <c r="BI48">
         <v>-0.111</v>
@@ -9728,10 +9728,10 @@
         <v>696</v>
       </c>
       <c r="AY49">
-        <v>0.00655811120689655</v>
+        <v>0.00655647341954023</v>
       </c>
       <c r="AZ49">
-        <v>0.01461336933280704</v>
+        <v>0.01461217710239634</v>
       </c>
       <c r="BA49">
         <v>-0.0225</v>
@@ -9752,10 +9752,10 @@
         <v>696</v>
       </c>
       <c r="BG49">
-        <v>0.1570169195402298</v>
+        <v>0.1569493548850574</v>
       </c>
       <c r="BH49">
-        <v>0.2333680762856327</v>
+        <v>0.2332931801871954</v>
       </c>
       <c r="BI49">
         <v>-0.108</v>
@@ -9767,7 +9767,7 @@
         <v>-0.0005820000000000001</v>
       </c>
       <c r="BL49">
-        <v>0.38625</v>
+        <v>0.386</v>
       </c>
       <c r="BM49">
         <v>0.957</v>
@@ -9829,10 +9829,10 @@
         <v>696</v>
       </c>
       <c r="S50">
-        <v>3.837614942528734</v>
+        <v>3.837629310344826</v>
       </c>
       <c r="T50">
-        <v>0.6325765979206245</v>
+        <v>0.6325633455492606</v>
       </c>
       <c r="U50">
         <v>2.94</v>
@@ -9925,10 +9925,10 @@
         <v>696</v>
       </c>
       <c r="AY50">
-        <v>0.006764172844827582</v>
+        <v>0.00676180229885057</v>
       </c>
       <c r="AZ50">
-        <v>0.01480446131901985</v>
+        <v>0.01480262319161713</v>
       </c>
       <c r="BA50">
         <v>-0.0217</v>
@@ -9949,10 +9949,10 @@
         <v>696</v>
       </c>
       <c r="BG50">
-        <v>0.1608767959770114</v>
+        <v>0.1608020704022988</v>
       </c>
       <c r="BH50">
-        <v>0.2366426364802744</v>
+        <v>0.2365597905990452</v>
       </c>
       <c r="BI50">
         <v>-0.106</v>
@@ -10026,10 +10026,10 @@
         <v>696</v>
       </c>
       <c r="S51">
-        <v>3.83633620689655</v>
+        <v>3.836350574712641</v>
       </c>
       <c r="T51">
-        <v>0.632957608599736</v>
+        <v>0.6329821283118975</v>
       </c>
       <c r="U51">
         <v>2.94</v>
@@ -10122,10 +10122,10 @@
         <v>696</v>
       </c>
       <c r="AY51">
-        <v>0.006959966235632187</v>
+        <v>0.006957854022988511</v>
       </c>
       <c r="AZ51">
-        <v>0.01499814110450883</v>
+        <v>0.01499643671458568</v>
       </c>
       <c r="BA51">
         <v>-0.021</v>
@@ -10146,10 +10146,10 @@
         <v>696</v>
       </c>
       <c r="BG51">
-        <v>0.1643743591954024</v>
+        <v>0.164301084770115</v>
       </c>
       <c r="BH51">
-        <v>0.2394927286928229</v>
+        <v>0.2394171587399989</v>
       </c>
       <c r="BI51">
         <v>-0.103</v>
@@ -10223,10 +10223,10 @@
         <v>696</v>
       </c>
       <c r="S52">
-        <v>3.836594827586207</v>
+        <v>3.836623563218391</v>
       </c>
       <c r="T52">
-        <v>0.6332049683964782</v>
+        <v>0.6331951241802977</v>
       </c>
       <c r="U52">
         <v>2.94</v>
@@ -10247,10 +10247,10 @@
         <v>696</v>
       </c>
       <c r="AA52">
-        <v>37.95086206896549</v>
+        <v>37.95100574712642</v>
       </c>
       <c r="AB52">
-        <v>2.590980337996201</v>
+        <v>2.590858110666657</v>
       </c>
       <c r="AC52">
         <v>33.4</v>
@@ -10271,10 +10271,10 @@
         <v>696</v>
       </c>
       <c r="AI52">
-        <v>108.8984195402299</v>
+        <v>108.8985632183908</v>
       </c>
       <c r="AJ52">
-        <v>28.89897780825234</v>
+        <v>28.89891682427118</v>
       </c>
       <c r="AK52">
         <v>59.2</v>
@@ -10319,10 +10319,10 @@
         <v>696</v>
       </c>
       <c r="AY52">
-        <v>0.007162772270114946</v>
+        <v>0.007158889942528735</v>
       </c>
       <c r="AZ52">
-        <v>0.01521154185937642</v>
+        <v>0.01520855528510801</v>
       </c>
       <c r="BA52">
         <v>-0.0202</v>
@@ -10343,10 +10343,10 @@
         <v>696</v>
       </c>
       <c r="BG52">
-        <v>0.1680184051724137</v>
+        <v>0.1679421091954023</v>
       </c>
       <c r="BH52">
-        <v>0.2427522108412472</v>
+        <v>0.2426769028784838</v>
       </c>
       <c r="BI52">
         <v>-0.101</v>
@@ -10358,7 +10358,7 @@
         <v>-0.0005369999999999999</v>
       </c>
       <c r="BL52">
-        <v>0.404</v>
+        <v>0.40325</v>
       </c>
       <c r="BM52">
         <v>1.04</v>
@@ -10516,10 +10516,10 @@
         <v>696</v>
       </c>
       <c r="AY53">
-        <v>0.00734492341954023</v>
+        <v>0.007342006896551723</v>
       </c>
       <c r="AZ53">
-        <v>0.01539619144655881</v>
+        <v>0.01539400304979145</v>
       </c>
       <c r="BA53">
         <v>-0.0195</v>
@@ -10540,10 +10540,10 @@
         <v>696</v>
       </c>
       <c r="BG53">
-        <v>0.171238889367816</v>
+        <v>0.1711768204022988</v>
       </c>
       <c r="BH53">
-        <v>0.2446434550468226</v>
+        <v>0.2445811608427897</v>
       </c>
       <c r="BI53">
         <v>-0.0983</v>
@@ -10641,10 +10641,10 @@
         <v>696</v>
       </c>
       <c r="AA54">
-        <v>37.94597701149422</v>
+        <v>37.94612068965514</v>
       </c>
       <c r="AB54">
-        <v>2.592298703709691</v>
+        <v>2.592049139628256</v>
       </c>
       <c r="AC54">
         <v>33.4</v>
@@ -10713,10 +10713,10 @@
         <v>696</v>
       </c>
       <c r="AY54">
-        <v>0.007521790804597707</v>
+        <v>0.007518960488505746</v>
       </c>
       <c r="AZ54">
-        <v>0.01558149385980675</v>
+        <v>0.0155798453436771</v>
       </c>
       <c r="BA54">
         <v>-0.0188</v>
@@ -10737,10 +10737,10 @@
         <v>696</v>
       </c>
       <c r="BG54">
-        <v>0.1743112341954024</v>
+        <v>0.1742205747126438</v>
       </c>
       <c r="BH54">
-        <v>0.2464650690075964</v>
+        <v>0.2463718561501596</v>
       </c>
       <c r="BI54">
         <v>-0.096</v>
@@ -10814,10 +10814,10 @@
         <v>696</v>
       </c>
       <c r="S55">
-        <v>3.835488505747124</v>
+        <v>3.835502873563217</v>
       </c>
       <c r="T55">
-        <v>0.6338275120059125</v>
+        <v>0.6338170582282264</v>
       </c>
       <c r="U55">
         <v>2.93</v>
@@ -10910,10 +10910,10 @@
         <v>696</v>
       </c>
       <c r="AY55">
-        <v>0.00770181278735632</v>
+        <v>0.007698163362068971</v>
       </c>
       <c r="AZ55">
-        <v>0.01578047179012496</v>
+        <v>0.0157778091240291</v>
       </c>
       <c r="BA55">
         <v>-0.0182</v>
@@ -10925,7 +10925,7 @@
         <v>-2.245E-05</v>
       </c>
       <c r="BD55">
-        <v>0.0115</v>
+        <v>0.011425</v>
       </c>
       <c r="BE55">
         <v>0.111</v>
@@ -10934,10 +10934,10 @@
         <v>696</v>
       </c>
       <c r="BG55">
-        <v>0.1774877399425287</v>
+        <v>0.1773924784482759</v>
       </c>
       <c r="BH55">
-        <v>0.2489292212191992</v>
+        <v>0.2488286623235941</v>
       </c>
       <c r="BI55">
         <v>-0.0936</v>
@@ -11083,10 +11083,10 @@
         <v>696</v>
       </c>
       <c r="AQ56">
-        <v>28.82482758620693</v>
+        <v>28.82511494252877</v>
       </c>
       <c r="AR56">
-        <v>16.3596932381976</v>
+        <v>16.36000238301879</v>
       </c>
       <c r="AS56">
         <v>1.26</v>
@@ -11107,10 +11107,10 @@
         <v>696</v>
       </c>
       <c r="AY56">
-        <v>0.007881024712643679</v>
+        <v>0.00787792227011494</v>
       </c>
       <c r="AZ56">
-        <v>0.01598106849857019</v>
+        <v>0.01597860543842697</v>
       </c>
       <c r="BA56">
         <v>-0.0175</v>
@@ -11131,10 +11131,10 @@
         <v>696</v>
       </c>
       <c r="BG56">
-        <v>0.1808069683908046</v>
+        <v>0.1806974841954023</v>
       </c>
       <c r="BH56">
-        <v>0.2516577050752526</v>
+        <v>0.251546850784283</v>
       </c>
       <c r="BI56">
         <v>-0.0914</v>
@@ -11208,10 +11208,10 @@
         <v>696</v>
       </c>
       <c r="S57">
-        <v>3.833735632183905</v>
+        <v>3.833749999999998</v>
       </c>
       <c r="T57">
-        <v>0.6342755311641438</v>
+        <v>0.6342730643373441</v>
       </c>
       <c r="U57">
         <v>2.92</v>
@@ -11256,10 +11256,10 @@
         <v>696</v>
       </c>
       <c r="AI57">
-        <v>108.8682471264367</v>
+        <v>108.8698275862068</v>
       </c>
       <c r="AJ57">
-        <v>28.89245771142471</v>
+        <v>28.89275994992843</v>
       </c>
       <c r="AK57">
         <v>59.2</v>
@@ -11304,10 +11304,10 @@
         <v>696</v>
       </c>
       <c r="AY57">
-        <v>0.008057013649425288</v>
+        <v>0.008053203160919545</v>
       </c>
       <c r="AZ57">
-        <v>0.0161747479106968</v>
+        <v>0.01617196191516223</v>
       </c>
       <c r="BA57">
         <v>-0.0169</v>
@@ -11328,10 +11328,10 @@
         <v>696</v>
       </c>
       <c r="BG57">
-        <v>0.1840917083333332</v>
+        <v>0.1839533477011493</v>
       </c>
       <c r="BH57">
-        <v>0.2539790794593266</v>
+        <v>0.2538325766040713</v>
       </c>
       <c r="BI57">
         <v>-0.0891</v>
@@ -11343,7 +11343,7 @@
         <v>-0.0004725</v>
       </c>
       <c r="BL57">
-        <v>0.433</v>
+        <v>0.43225</v>
       </c>
       <c r="BM57">
         <v>1.07</v>
@@ -11429,10 +11429,10 @@
         <v>696</v>
       </c>
       <c r="AA58">
-        <v>37.94353448275859</v>
+        <v>37.94382183908043</v>
       </c>
       <c r="AB58">
-        <v>2.593259359987304</v>
+        <v>2.592938233333389</v>
       </c>
       <c r="AC58">
         <v>33.4</v>
@@ -11501,10 +11501,10 @@
         <v>696</v>
       </c>
       <c r="AY58">
-        <v>0.008226425287356327</v>
+        <v>0.008220161063218398</v>
       </c>
       <c r="AZ58">
-        <v>0.01637760491251422</v>
+        <v>0.01636355152310338</v>
       </c>
       <c r="BA58">
         <v>-0.0163</v>
@@ -11525,10 +11525,10 @@
         <v>696</v>
       </c>
       <c r="BG58">
-        <v>0.1869826149425287</v>
+        <v>0.1868488520114942</v>
       </c>
       <c r="BH58">
-        <v>0.2555673685486334</v>
+        <v>0.2553880474484027</v>
       </c>
       <c r="BI58">
         <v>-0.08699999999999999</v>
@@ -11602,10 +11602,10 @@
         <v>696</v>
       </c>
       <c r="S59">
-        <v>3.831637931034479</v>
+        <v>3.831681034482755</v>
       </c>
       <c r="T59">
-        <v>0.6348152541070008</v>
+        <v>0.634789415248659</v>
       </c>
       <c r="U59">
         <v>2.92</v>
@@ -11650,10 +11650,10 @@
         <v>696</v>
       </c>
       <c r="AI59">
-        <v>108.8556034482758</v>
+        <v>108.8557471264367</v>
       </c>
       <c r="AJ59">
-        <v>28.88955745087259</v>
+        <v>28.88949616219962</v>
       </c>
       <c r="AK59">
         <v>59.2</v>
@@ -11698,10 +11698,10 @@
         <v>696</v>
       </c>
       <c r="AY59">
-        <v>0.008386529597701153</v>
+        <v>0.008382019540229886</v>
       </c>
       <c r="AZ59">
-        <v>0.01656413133880539</v>
+        <v>0.01655965766756795</v>
       </c>
       <c r="BA59">
         <v>-0.0157</v>
@@ -11722,10 +11722,10 @@
         <v>696</v>
       </c>
       <c r="BG59">
-        <v>0.1897781393678159</v>
+        <v>0.1896387701149424</v>
       </c>
       <c r="BH59">
-        <v>0.2572832292443749</v>
+        <v>0.2571342441308403</v>
       </c>
       <c r="BI59">
         <v>-0.0848</v>
@@ -11799,10 +11799,10 @@
         <v>696</v>
       </c>
       <c r="S60">
-        <v>3.830818965517239</v>
+        <v>3.830862068965514</v>
       </c>
       <c r="T60">
-        <v>0.6351502775666784</v>
+        <v>0.6351328901433935</v>
       </c>
       <c r="U60">
         <v>2.92</v>
@@ -11823,10 +11823,10 @@
         <v>696</v>
       </c>
       <c r="AA60">
-        <v>37.94080459770112</v>
+        <v>37.94094827586205</v>
       </c>
       <c r="AB60">
-        <v>2.595547141394633</v>
+        <v>2.595470036619537</v>
       </c>
       <c r="AC60">
         <v>33.4</v>
@@ -11895,10 +11895,10 @@
         <v>696</v>
       </c>
       <c r="AY60">
-        <v>0.008553288793103452</v>
+        <v>0.008548302873563219</v>
       </c>
       <c r="AZ60">
-        <v>0.0167776046685036</v>
+        <v>0.0167659589156464</v>
       </c>
       <c r="BA60">
         <v>-0.0152</v>
@@ -11919,10 +11919,10 @@
         <v>696</v>
       </c>
       <c r="BG60">
-        <v>0.1927248994252874</v>
+        <v>0.1925909827586206</v>
       </c>
       <c r="BH60">
-        <v>0.2594874172977849</v>
+        <v>0.2593460490853338</v>
       </c>
       <c r="BI60">
         <v>-0.0827</v>
@@ -11996,10 +11996,10 @@
         <v>696</v>
       </c>
       <c r="S61">
-        <v>3.829741379310342</v>
+        <v>3.829755747126434</v>
       </c>
       <c r="T61">
-        <v>0.6354407674916087</v>
+        <v>0.6354225450503709</v>
       </c>
       <c r="U61">
         <v>2.92</v>
@@ -12092,10 +12092,10 @@
         <v>696</v>
       </c>
       <c r="AY61">
-        <v>0.008718680172413786</v>
+        <v>0.008713794540229877</v>
       </c>
       <c r="AZ61">
-        <v>0.01697570713359426</v>
+        <v>0.01697228957313195</v>
       </c>
       <c r="BA61">
         <v>-0.0146</v>
@@ -12116,10 +12116,10 @@
         <v>696</v>
       </c>
       <c r="BG61">
-        <v>0.1957093879310342</v>
+        <v>0.1955828089080457</v>
       </c>
       <c r="BH61">
-        <v>0.2617777423216782</v>
+        <v>0.2616503613824796</v>
       </c>
       <c r="BI61">
         <v>-0.08069999999999999</v>
@@ -12169,10 +12169,10 @@
         <v>696</v>
       </c>
       <c r="K62">
-        <v>37.95373563218386</v>
+        <v>37.95387931034479</v>
       </c>
       <c r="L62">
-        <v>2.586230914191521</v>
+        <v>2.586130557460934</v>
       </c>
       <c r="M62">
         <v>33.4</v>
@@ -12193,10 +12193,10 @@
         <v>696</v>
       </c>
       <c r="S62">
-        <v>3.828936781609196</v>
+        <v>3.828951149425288</v>
       </c>
       <c r="T62">
-        <v>0.6356921263087363</v>
+        <v>0.6356737029349211</v>
       </c>
       <c r="U62">
         <v>2.91</v>
@@ -12265,10 +12265,10 @@
         <v>696</v>
       </c>
       <c r="AQ62">
-        <v>28.80637931034485</v>
+        <v>28.80652298850577</v>
       </c>
       <c r="AR62">
-        <v>16.34881370196847</v>
+        <v>16.34890649482249</v>
       </c>
       <c r="AS62">
         <v>1.26</v>
@@ -12289,10 +12289,10 @@
         <v>696</v>
       </c>
       <c r="AY62">
-        <v>0.008881839080459785</v>
+        <v>0.008876767097701159</v>
       </c>
       <c r="AZ62">
-        <v>0.01717560720249963</v>
+        <v>0.01717172243396275</v>
       </c>
       <c r="BA62">
         <v>-0.0141</v>
@@ -12313,10 +12313,10 @@
         <v>696</v>
       </c>
       <c r="BG62">
-        <v>0.1986681580459771</v>
+        <v>0.1985230301724139</v>
       </c>
       <c r="BH62">
-        <v>0.264060197873792</v>
+        <v>0.2638748389996554</v>
       </c>
       <c r="BI62">
         <v>-0.07870000000000001</v>
@@ -12325,7 +12325,7 @@
         <v>-0.025225</v>
       </c>
       <c r="BK62">
-        <v>-0.00042</v>
+        <v>-0.0004195</v>
       </c>
       <c r="BL62">
         <v>0.45975</v>
@@ -12390,10 +12390,10 @@
         <v>696</v>
       </c>
       <c r="S63">
-        <v>3.82794540229885</v>
+        <v>3.828002873563218</v>
       </c>
       <c r="T63">
-        <v>0.6361651768735856</v>
+        <v>0.6361244211067683</v>
       </c>
       <c r="U63">
         <v>2.91</v>
@@ -12486,10 +12486,10 @@
         <v>696</v>
       </c>
       <c r="AY63">
-        <v>0.009044540804597699</v>
+        <v>0.009039611494252874</v>
       </c>
       <c r="AZ63">
-        <v>0.01738672268024243</v>
+        <v>0.0173833922646639</v>
       </c>
       <c r="BA63">
         <v>-0.0136</v>
@@ -12510,10 +12510,10 @@
         <v>696</v>
       </c>
       <c r="BG63">
-        <v>0.2016080632183907</v>
+        <v>0.2014270114942528</v>
       </c>
       <c r="BH63">
-        <v>0.266399556725632</v>
+        <v>0.266214308834029</v>
       </c>
       <c r="BI63">
         <v>-0.0767</v>
@@ -12525,7 +12525,7 @@
         <v>-0.00041</v>
       </c>
       <c r="BL63">
-        <v>0.465</v>
+        <v>0.46475</v>
       </c>
       <c r="BM63">
         <v>1.13</v>
@@ -12587,10 +12587,10 @@
         <v>696</v>
       </c>
       <c r="S64">
-        <v>3.827169540229882</v>
+        <v>3.827198275862066</v>
       </c>
       <c r="T64">
-        <v>0.636400991179669</v>
+        <v>0.6363913965092391</v>
       </c>
       <c r="U64">
         <v>2.91</v>
@@ -12659,10 +12659,10 @@
         <v>696</v>
       </c>
       <c r="AQ64">
-        <v>28.80173850574713</v>
+        <v>28.80188218390805</v>
       </c>
       <c r="AR64">
-        <v>16.34627122668697</v>
+        <v>16.34636231437191</v>
       </c>
       <c r="AS64">
         <v>1.26</v>
@@ -12683,10 +12683,10 @@
         <v>696</v>
       </c>
       <c r="AY64">
-        <v>0.009211056465517228</v>
+        <v>0.009206085057471248</v>
       </c>
       <c r="AZ64">
-        <v>0.01760325432303593</v>
+        <v>0.01759970421901575</v>
       </c>
       <c r="BA64">
         <v>-0.0131</v>
@@ -12707,10 +12707,10 @@
         <v>696</v>
       </c>
       <c r="BG64">
-        <v>0.2047216321839081</v>
+        <v>0.2045403836206898</v>
       </c>
       <c r="BH64">
-        <v>0.2692663408616107</v>
+        <v>0.2690718389728707</v>
       </c>
       <c r="BI64">
         <v>-0.07480000000000001</v>
@@ -12722,7 +12722,7 @@
         <v>-0.0004</v>
       </c>
       <c r="BL64">
-        <v>0.47075</v>
+        <v>0.47</v>
       </c>
       <c r="BM64">
         <v>1.16</v>
@@ -12856,10 +12856,10 @@
         <v>696</v>
       </c>
       <c r="AQ65">
-        <v>28.79706896551723</v>
+        <v>28.79721264367815</v>
       </c>
       <c r="AR65">
-        <v>16.34358553779458</v>
+        <v>16.3435217356316</v>
       </c>
       <c r="AS65">
         <v>1.26</v>
@@ -12880,10 +12880,10 @@
         <v>696</v>
       </c>
       <c r="AY65">
-        <v>0.009373231465517242</v>
+        <v>0.009367869971264368</v>
       </c>
       <c r="AZ65">
-        <v>0.0178092067053319</v>
+        <v>0.01780455299132405</v>
       </c>
       <c r="BA65">
         <v>-0.0126</v>
@@ -12895,7 +12895,7 @@
         <v>-1.77E-05</v>
       </c>
       <c r="BD65">
-        <v>0.0128</v>
+        <v>0.012725</v>
       </c>
       <c r="BE65">
         <v>0.124</v>
@@ -12904,10 +12904,10 @@
         <v>696</v>
       </c>
       <c r="BG65">
-        <v>0.2078035459770115</v>
+        <v>0.2076237859195402</v>
       </c>
       <c r="BH65">
-        <v>0.2715311964103009</v>
+        <v>0.2713431050274562</v>
       </c>
       <c r="BI65">
         <v>-0.07290000000000001</v>
@@ -12916,10 +12916,10 @@
         <v>-0.02255</v>
       </c>
       <c r="BK65">
-        <v>-0.000392</v>
+        <v>-0.0003915</v>
       </c>
       <c r="BL65">
-        <v>0.476</v>
+        <v>0.47575</v>
       </c>
       <c r="BM65">
         <v>1.15</v>
@@ -13053,10 +13053,10 @@
         <v>696</v>
       </c>
       <c r="AQ66">
-        <v>28.79249999999999</v>
+        <v>28.7926436781609</v>
       </c>
       <c r="AR66">
-        <v>16.34187339233856</v>
+        <v>16.34204734915611</v>
       </c>
       <c r="AS66">
         <v>1.26</v>
@@ -13077,10 +13077,10 @@
         <v>696</v>
       </c>
       <c r="AY66">
-        <v>0.009525327887931052</v>
+        <v>0.009517771652298871</v>
       </c>
       <c r="AZ66">
-        <v>0.01800874009162413</v>
+        <v>0.01799545489395721</v>
       </c>
       <c r="BA66">
         <v>-0.0121</v>
@@ -13101,10 +13101,10 @@
         <v>696</v>
       </c>
       <c r="BG66">
-        <v>0.2105883247126438</v>
+        <v>0.2103928922413794</v>
       </c>
       <c r="BH66">
-        <v>0.2732052910111237</v>
+        <v>0.2729773709193679</v>
       </c>
       <c r="BI66">
         <v>-0.07099999999999999</v>
@@ -13116,7 +13116,7 @@
         <v>-0.0003325</v>
       </c>
       <c r="BL66">
-        <v>0.481</v>
+        <v>0.48075</v>
       </c>
       <c r="BM66">
         <v>1.12</v>
@@ -13154,10 +13154,10 @@
         <v>696</v>
       </c>
       <c r="K67">
-        <v>37.94626436781609</v>
+        <v>37.94640804597702</v>
       </c>
       <c r="L67">
-        <v>2.594318720222214</v>
+        <v>2.594097067822962</v>
       </c>
       <c r="M67">
         <v>33.4</v>
@@ -13178,10 +13178,10 @@
         <v>696</v>
       </c>
       <c r="S67">
-        <v>3.825086206896555</v>
+        <v>3.825158045977015</v>
       </c>
       <c r="T67">
-        <v>0.6369251617124463</v>
+        <v>0.6368998459997065</v>
       </c>
       <c r="U67">
         <v>2.9</v>
@@ -13274,10 +13274,10 @@
         <v>696</v>
       </c>
       <c r="AY67">
-        <v>0.009675217672413798</v>
+        <v>0.009668477442528736</v>
       </c>
       <c r="AZ67">
-        <v>0.01821656353930913</v>
+        <v>0.01821211824565106</v>
       </c>
       <c r="BA67">
         <v>-0.0117</v>
@@ -13298,10 +13298,10 @@
         <v>696</v>
       </c>
       <c r="BG67">
-        <v>0.2131316249999998</v>
+        <v>0.2129333132183907</v>
       </c>
       <c r="BH67">
-        <v>0.2747546474644911</v>
+        <v>0.2745498921315999</v>
       </c>
       <c r="BI67">
         <v>-0.0692</v>
@@ -13351,10 +13351,10 @@
         <v>696</v>
       </c>
       <c r="K68">
-        <v>37.94525862068965</v>
+        <v>37.94540229885057</v>
       </c>
       <c r="L68">
-        <v>2.595586833869324</v>
+        <v>2.59535980160618</v>
       </c>
       <c r="M68">
         <v>33.4</v>
@@ -13375,10 +13375,10 @@
         <v>696</v>
       </c>
       <c r="S68">
-        <v>3.824396551724141</v>
+        <v>3.824439655172416</v>
       </c>
       <c r="T68">
-        <v>0.6371611347102196</v>
+        <v>0.6371272999591702</v>
       </c>
       <c r="U68">
         <v>2.9</v>
@@ -13423,10 +13423,10 @@
         <v>696</v>
       </c>
       <c r="AI68">
-        <v>108.7849137931034</v>
+        <v>108.7850574712643</v>
       </c>
       <c r="AJ68">
-        <v>28.87475439105303</v>
+        <v>28.87453496084958</v>
       </c>
       <c r="AK68">
         <v>59.1</v>
@@ -13471,10 +13471,10 @@
         <v>696</v>
       </c>
       <c r="AY68">
-        <v>0.009822599999999992</v>
+        <v>0.009815428735632179</v>
       </c>
       <c r="AZ68">
-        <v>0.01842696384161775</v>
+        <v>0.01841509585081132</v>
       </c>
       <c r="BA68">
         <v>-0.0113</v>
@@ -13495,10 +13495,10 @@
         <v>696</v>
       </c>
       <c r="BG68">
-        <v>0.2156940488505746</v>
+        <v>0.2154610818965516</v>
       </c>
       <c r="BH68">
-        <v>0.2765368949402289</v>
+        <v>0.2762547574179328</v>
       </c>
       <c r="BI68">
         <v>-0.0674</v>
@@ -13510,7 +13510,7 @@
         <v>-0.0003195</v>
       </c>
       <c r="BL68">
-        <v>0.491</v>
+        <v>0.49075</v>
       </c>
       <c r="BM68">
         <v>1.14</v>
@@ -13548,10 +13548,10 @@
         <v>696</v>
       </c>
       <c r="K69">
-        <v>37.9442528735632</v>
+        <v>37.94439655172412</v>
       </c>
       <c r="L69">
-        <v>2.597219601193987</v>
+        <v>2.59698168648347</v>
       </c>
       <c r="M69">
         <v>33.4</v>
@@ -13572,10 +13572,10 @@
         <v>696</v>
       </c>
       <c r="S69">
-        <v>3.823448275862074</v>
+        <v>3.823520114942533</v>
       </c>
       <c r="T69">
-        <v>0.6372252395769155</v>
+        <v>0.6371791202240416</v>
       </c>
       <c r="U69">
         <v>2.9</v>
@@ -13620,10 +13620,10 @@
         <v>696</v>
       </c>
       <c r="AI69">
-        <v>108.7728448275862</v>
+        <v>108.7742816091954</v>
       </c>
       <c r="AJ69">
-        <v>28.81972737546334</v>
+        <v>28.8196138657003</v>
       </c>
       <c r="AK69">
         <v>59.1</v>
@@ -13668,10 +13668,10 @@
         <v>696</v>
       </c>
       <c r="AY69">
-        <v>0.009965543965517239</v>
+        <v>0.009956908908045969</v>
       </c>
       <c r="AZ69">
-        <v>0.0186233915016447</v>
+        <v>0.01860826149173877</v>
       </c>
       <c r="BA69">
         <v>-0.0108</v>
@@ -13692,10 +13692,10 @@
         <v>696</v>
       </c>
       <c r="BG69">
-        <v>0.2181675071839078</v>
+        <v>0.2179404482758618</v>
       </c>
       <c r="BH69">
-        <v>0.2780275125650272</v>
+        <v>0.2777918708700857</v>
       </c>
       <c r="BI69">
         <v>-0.06560000000000001</v>
@@ -13707,7 +13707,7 @@
         <v>-0.000313</v>
       </c>
       <c r="BL69">
-        <v>0.496</v>
+        <v>0.49575</v>
       </c>
       <c r="BM69">
         <v>1.14</v>
@@ -13769,10 +13769,10 @@
         <v>696</v>
       </c>
       <c r="S70">
-        <v>3.822744252873568</v>
+        <v>3.822758620689661</v>
       </c>
       <c r="T70">
-        <v>0.6374976467464103</v>
+        <v>0.6374791896146598</v>
       </c>
       <c r="U70">
         <v>2.9</v>
@@ -13865,10 +13865,10 @@
         <v>696</v>
       </c>
       <c r="AY70">
-        <v>0.01010225574712644</v>
+        <v>0.0100924426724138</v>
       </c>
       <c r="AZ70">
-        <v>0.0188120100553476</v>
+        <v>0.01879645119634117</v>
       </c>
       <c r="BA70">
         <v>-0.0104</v>
@@ -13889,10 +13889,10 @@
         <v>696</v>
       </c>
       <c r="BG70">
-        <v>0.2204799123563219</v>
+        <v>0.2202425545977013</v>
       </c>
       <c r="BH70">
-        <v>0.279085103130106</v>
+        <v>0.2788438019034462</v>
       </c>
       <c r="BI70">
         <v>-0.0639</v>
@@ -13904,7 +13904,7 @@
         <v>-0.000307</v>
       </c>
       <c r="BL70">
-        <v>0.501</v>
+        <v>0.50075</v>
       </c>
       <c r="BM70">
         <v>1.13</v>
@@ -13966,10 +13966,10 @@
         <v>696</v>
       </c>
       <c r="S71">
-        <v>3.822155172413798</v>
+        <v>3.822227011494258</v>
       </c>
       <c r="T71">
-        <v>0.6377732928001758</v>
+        <v>0.6377476645534896</v>
       </c>
       <c r="U71">
         <v>2.89</v>
@@ -13990,10 +13990,10 @@
         <v>696</v>
       </c>
       <c r="AA71">
-        <v>37.93218390804598</v>
+        <v>37.9323275862069</v>
       </c>
       <c r="AB71">
-        <v>2.605638346913504</v>
+        <v>2.605390822340707</v>
       </c>
       <c r="AC71">
         <v>33.4</v>
@@ -14014,10 +14014,10 @@
         <v>696</v>
       </c>
       <c r="AI71">
-        <v>108.7587643678161</v>
+        <v>108.758908045977</v>
       </c>
       <c r="AJ71">
-        <v>28.80849811016021</v>
+        <v>28.80844012942759</v>
       </c>
       <c r="AK71">
         <v>59.1</v>
@@ -14062,10 +14062,10 @@
         <v>696</v>
       </c>
       <c r="AY71">
-        <v>0.01022741678160919</v>
+        <v>0.01021851880747126</v>
       </c>
       <c r="AZ71">
-        <v>0.01898540833141496</v>
+        <v>0.01897948377486574</v>
       </c>
       <c r="BA71">
         <v>-0.01</v>
@@ -14086,10 +14086,10 @@
         <v>696</v>
       </c>
       <c r="BG71">
-        <v>0.2225402639367818</v>
+        <v>0.2222786260057472</v>
       </c>
       <c r="BH71">
-        <v>0.2797644139140011</v>
+        <v>0.2794585144909188</v>
       </c>
       <c r="BI71">
         <v>-0.0622</v>
@@ -14101,7 +14101,7 @@
         <v>-0.000139</v>
       </c>
       <c r="BL71">
-        <v>0.506</v>
+        <v>0.50575</v>
       </c>
       <c r="BM71">
         <v>1.1</v>
@@ -14163,10 +14163,10 @@
         <v>696</v>
       </c>
       <c r="S72">
-        <v>3.821451149425293</v>
+        <v>3.821494252873569</v>
       </c>
       <c r="T72">
-        <v>0.6380532829276816</v>
+        <v>0.638033000180587</v>
       </c>
       <c r="U72">
         <v>2.89</v>
@@ -14211,10 +14211,10 @@
         <v>696</v>
       </c>
       <c r="AI72">
-        <v>108.7505747126437</v>
+        <v>108.7520114942529</v>
       </c>
       <c r="AJ72">
-        <v>28.80795752800638</v>
+        <v>28.80904377348044</v>
       </c>
       <c r="AK72">
         <v>59.1</v>
@@ -14259,10 +14259,10 @@
         <v>696</v>
       </c>
       <c r="AY72">
-        <v>0.01035442557471264</v>
+        <v>0.01034519410919539</v>
       </c>
       <c r="AZ72">
-        <v>0.01916311956907548</v>
+        <v>0.01915568394234391</v>
       </c>
       <c r="BA72">
         <v>-0.009639999999999999</v>
@@ -14283,10 +14283,10 @@
         <v>696</v>
       </c>
       <c r="BG72">
-        <v>0.224678346264368</v>
+        <v>0.2243862169540232</v>
       </c>
       <c r="BH72">
-        <v>0.2808132596039339</v>
+        <v>0.2804428213787786</v>
       </c>
       <c r="BI72">
         <v>-0.0605</v>
@@ -14298,7 +14298,7 @@
         <v>0.000845</v>
       </c>
       <c r="BL72">
-        <v>0.511</v>
+        <v>0.51075</v>
       </c>
       <c r="BM72">
         <v>1.09</v>
@@ -14360,10 +14360,10 @@
         <v>696</v>
       </c>
       <c r="S73">
-        <v>3.820632183908052</v>
+        <v>3.820689655172419</v>
       </c>
       <c r="T73">
-        <v>0.6380815692190884</v>
+        <v>0.6380760976758215</v>
       </c>
       <c r="U73">
         <v>2.89</v>
@@ -14408,10 +14408,10 @@
         <v>696</v>
       </c>
       <c r="AI73">
-        <v>108.7330459770115</v>
+        <v>108.7344827586207</v>
       </c>
       <c r="AJ73">
-        <v>28.80157819273326</v>
+        <v>28.80206608330948</v>
       </c>
       <c r="AK73">
         <v>59.1</v>
@@ -14456,10 +14456,10 @@
         <v>696</v>
       </c>
       <c r="AY73">
-        <v>0.0104784375</v>
+        <v>0.01047005545977011</v>
       </c>
       <c r="AZ73">
-        <v>0.01933863078157744</v>
+        <v>0.01933173610222801</v>
       </c>
       <c r="BA73">
         <v>-0.00927</v>
@@ -14480,10 +14480,10 @@
         <v>696</v>
       </c>
       <c r="BG73">
-        <v>0.2267634310344827</v>
+        <v>0.2265041910919539</v>
       </c>
       <c r="BH73">
-        <v>0.2817585187125777</v>
+        <v>0.2814847703152202</v>
       </c>
       <c r="BI73">
         <v>-0.0589</v>
@@ -14495,7 +14495,7 @@
         <v>0.001795</v>
       </c>
       <c r="BL73">
-        <v>0.51575</v>
+        <v>0.5155000000000001</v>
       </c>
       <c r="BM73">
         <v>1.08</v>
@@ -14557,10 +14557,10 @@
         <v>696</v>
       </c>
       <c r="S74">
-        <v>3.8198275862069</v>
+        <v>3.81989942528736</v>
       </c>
       <c r="T74">
-        <v>0.6382800397001565</v>
+        <v>0.638248156514873</v>
       </c>
       <c r="U74">
         <v>2.89</v>
@@ -14581,10 +14581,10 @@
         <v>696</v>
       </c>
       <c r="AA74">
-        <v>37.92902298850576</v>
+        <v>37.92916666666668</v>
       </c>
       <c r="AB74">
-        <v>2.608936974631673</v>
+        <v>2.608695452985428</v>
       </c>
       <c r="AC74">
         <v>33.4</v>
@@ -14605,10 +14605,10 @@
         <v>696</v>
       </c>
       <c r="AI74">
-        <v>108.7242816091954</v>
+        <v>108.7258620689655</v>
       </c>
       <c r="AJ74">
-        <v>28.80312981696532</v>
+        <v>28.80294735325163</v>
       </c>
       <c r="AK74">
         <v>59.1</v>
@@ -14629,10 +14629,10 @@
         <v>696</v>
       </c>
       <c r="AQ74">
-        <v>28.78057471264367</v>
+        <v>28.78071839080458</v>
       </c>
       <c r="AR74">
-        <v>16.33797188835339</v>
+        <v>16.33807994146862</v>
       </c>
       <c r="AS74">
         <v>1.26</v>
@@ -14653,10 +14653,10 @@
         <v>696</v>
       </c>
       <c r="AY74">
-        <v>0.01059275488505746</v>
+        <v>0.01058356824712643</v>
       </c>
       <c r="AZ74">
-        <v>0.01950835585690404</v>
+        <v>0.01950167550025879</v>
       </c>
       <c r="BA74">
         <v>-0.0089</v>
@@ -14677,10 +14677,10 @@
         <v>696</v>
       </c>
       <c r="BG74">
-        <v>0.2285513117816089</v>
+        <v>0.2282606106321836</v>
       </c>
       <c r="BH74">
-        <v>0.2822142738151087</v>
+        <v>0.2818768001447611</v>
       </c>
       <c r="BI74">
         <v>-0.0573</v>
@@ -14692,7 +14692,7 @@
         <v>0.002725</v>
       </c>
       <c r="BL74">
-        <v>0.52075</v>
+        <v>0.5195000000000001</v>
       </c>
       <c r="BM74">
         <v>1.06</v>
@@ -14754,10 +14754,10 @@
         <v>696</v>
       </c>
       <c r="S75">
-        <v>3.819238505747129</v>
+        <v>3.819281609195404</v>
       </c>
       <c r="T75">
-        <v>0.6386517908372563</v>
+        <v>0.6386095966903668</v>
       </c>
       <c r="U75">
         <v>2.89</v>
@@ -14802,10 +14802,10 @@
         <v>696</v>
       </c>
       <c r="AI75">
-        <v>108.7208333333333</v>
+        <v>108.7209770114943</v>
       </c>
       <c r="AJ75">
-        <v>28.80463661509337</v>
+        <v>28.80454784574878</v>
       </c>
       <c r="AK75">
         <v>59.1</v>
@@ -14826,10 +14826,10 @@
         <v>696</v>
       </c>
       <c r="AQ75">
-        <v>28.77899425287355</v>
+        <v>28.77928160919539</v>
       </c>
       <c r="AR75">
-        <v>16.33738558974112</v>
+        <v>16.33749780691909</v>
       </c>
       <c r="AS75">
         <v>1.26</v>
@@ -14850,10 +14850,10 @@
         <v>696</v>
       </c>
       <c r="AY75">
-        <v>0.01070606278735633</v>
+        <v>0.01069481853448276</v>
       </c>
       <c r="AZ75">
-        <v>0.01967962531352997</v>
+        <v>0.01966401570166787</v>
       </c>
       <c r="BA75">
         <v>-0.00855</v>
@@ -14874,10 +14874,10 @@
         <v>696</v>
       </c>
       <c r="BG75">
-        <v>0.2302950675287358</v>
+        <v>0.2299846091954023</v>
       </c>
       <c r="BH75">
-        <v>0.2827817272415407</v>
+        <v>0.2824199786475609</v>
       </c>
       <c r="BI75">
         <v>-0.0557</v>
@@ -14889,7 +14889,7 @@
         <v>0.003625</v>
       </c>
       <c r="BL75">
-        <v>0.525</v>
+        <v>0.5245</v>
       </c>
       <c r="BM75">
         <v>1.04</v>
@@ -14951,10 +14951,10 @@
         <v>696</v>
       </c>
       <c r="S76">
-        <v>3.818879310344828</v>
+        <v>3.818908045977012</v>
       </c>
       <c r="T76">
-        <v>0.6388590615471944</v>
+        <v>0.6388196963791357</v>
       </c>
       <c r="U76">
         <v>2.89</v>
@@ -14999,10 +14999,10 @@
         <v>696</v>
       </c>
       <c r="AI76">
-        <v>108.7109195402299</v>
+        <v>108.7125</v>
       </c>
       <c r="AJ76">
-        <v>28.80004488934087</v>
+        <v>28.80081286947376</v>
       </c>
       <c r="AK76">
         <v>59.1</v>
@@ -15023,10 +15023,10 @@
         <v>696</v>
       </c>
       <c r="AQ76">
-        <v>28.77698275862068</v>
+        <v>28.7771264367816</v>
       </c>
       <c r="AR76">
-        <v>16.33586005794602</v>
+        <v>16.33602893077617</v>
       </c>
       <c r="AS76">
         <v>1.26</v>
@@ -15047,10 +15047,10 @@
         <v>696</v>
       </c>
       <c r="AY76">
-        <v>0.01081749051724139</v>
+        <v>0.01080692859195403</v>
       </c>
       <c r="AZ76">
-        <v>0.01983442219538626</v>
+        <v>0.01982624416867707</v>
       </c>
       <c r="BA76">
         <v>-0.008200000000000001</v>
@@ -15071,10 +15071,10 @@
         <v>696</v>
       </c>
       <c r="BG76">
-        <v>0.2321493433908043</v>
+        <v>0.2318386522988504</v>
       </c>
       <c r="BH76">
-        <v>0.283631435142855</v>
+        <v>0.2833052768628507</v>
       </c>
       <c r="BI76">
         <v>-0.0541</v>
@@ -15086,7 +15086,7 @@
         <v>0.004500000000000001</v>
       </c>
       <c r="BL76">
-        <v>0.5297500000000001</v>
+        <v>0.52825</v>
       </c>
       <c r="BM76">
         <v>1.03</v>
@@ -15148,10 +15148,10 @@
         <v>696</v>
       </c>
       <c r="S77">
-        <v>3.818491379310343</v>
+        <v>3.818534482758619</v>
       </c>
       <c r="T77">
-        <v>0.6390229907126894</v>
+        <v>0.6390148726299892</v>
       </c>
       <c r="U77">
         <v>2.88</v>
@@ -15172,10 +15172,10 @@
         <v>696</v>
       </c>
       <c r="AA77">
-        <v>37.92816091954025</v>
+        <v>37.92830459770117</v>
       </c>
       <c r="AB77">
-        <v>2.609282832635497</v>
+        <v>2.609217859991706</v>
       </c>
       <c r="AC77">
         <v>33.4</v>
@@ -15196,10 +15196,10 @@
         <v>696</v>
       </c>
       <c r="AI77">
-        <v>108.6936781609196</v>
+        <v>108.6951149425288</v>
       </c>
       <c r="AJ77">
-        <v>28.7955590147101</v>
+        <v>28.79579913883827</v>
       </c>
       <c r="AK77">
         <v>59.1</v>
@@ -15220,10 +15220,10 @@
         <v>696</v>
       </c>
       <c r="AQ77">
-        <v>28.77626436781608</v>
+        <v>28.77655172413791</v>
       </c>
       <c r="AR77">
-        <v>16.33574144234096</v>
+        <v>16.33575947388698</v>
       </c>
       <c r="AS77">
         <v>1.26</v>
@@ -15244,10 +15244,10 @@
         <v>696</v>
       </c>
       <c r="AY77">
-        <v>0.01092862535775863</v>
+        <v>0.0109164660981322</v>
       </c>
       <c r="AZ77">
-        <v>0.01999741542364605</v>
+        <v>0.01998024731124589</v>
       </c>
       <c r="BA77">
         <v>-0.00787</v>
@@ -15268,10 +15268,10 @@
         <v>696</v>
       </c>
       <c r="BG77">
-        <v>0.2339273638074714</v>
+        <v>0.2335865014511495</v>
       </c>
       <c r="BH77">
-        <v>0.2844003167103057</v>
+        <v>0.2839854598527317</v>
       </c>
       <c r="BI77">
         <v>-0.0526</v>
@@ -15283,7 +15283,7 @@
         <v>0.005345000000000001</v>
       </c>
       <c r="BL77">
-        <v>0.5335000000000001</v>
+        <v>0.533</v>
       </c>
       <c r="BM77">
         <v>1.01</v>
@@ -15345,10 +15345,10 @@
         <v>696</v>
       </c>
       <c r="S78">
-        <v>3.81795977011494</v>
+        <v>3.818045977011492</v>
       </c>
       <c r="T78">
-        <v>0.6392341448205089</v>
+        <v>0.6391792652573079</v>
       </c>
       <c r="U78">
         <v>2.88</v>
@@ -15369,10 +15369,10 @@
         <v>696</v>
       </c>
       <c r="AA78">
-        <v>37.92744252873566</v>
+        <v>37.92758620689658</v>
       </c>
       <c r="AB78">
-        <v>2.609772957323804</v>
+        <v>2.609542627812511</v>
       </c>
       <c r="AC78">
         <v>33.4</v>
@@ -15393,10 +15393,10 @@
         <v>696</v>
       </c>
       <c r="AI78">
-        <v>108.6834770114943</v>
+        <v>108.6836206896552</v>
       </c>
       <c r="AJ78">
-        <v>28.79278736586429</v>
+        <v>28.79257681301925</v>
       </c>
       <c r="AK78">
         <v>59.1</v>
@@ -15417,10 +15417,10 @@
         <v>696</v>
       </c>
       <c r="AQ78">
-        <v>28.77353448275861</v>
+        <v>28.77367816091953</v>
       </c>
       <c r="AR78">
-        <v>16.33429575173915</v>
+        <v>16.33442767466496</v>
       </c>
       <c r="AS78">
         <v>1.26</v>
@@ -15441,10 +15441,10 @@
         <v>696</v>
       </c>
       <c r="AY78">
-        <v>0.01105030517241379</v>
+        <v>0.01103718318965518</v>
       </c>
       <c r="AZ78">
-        <v>0.02017404251657076</v>
+        <v>0.0201579764579858</v>
       </c>
       <c r="BA78">
         <v>-0.00754</v>
@@ -15459,16 +15459,16 @@
         <v>0.0143</v>
       </c>
       <c r="BE78">
-        <v>0.138</v>
+        <v>0.137</v>
       </c>
       <c r="BF78">
         <v>696</v>
       </c>
       <c r="BG78">
-        <v>0.2359928232758622</v>
+        <v>0.2356649022988506</v>
       </c>
       <c r="BH78">
-        <v>0.2860827679498426</v>
+        <v>0.2857364567692217</v>
       </c>
       <c r="BI78">
         <v>-0.0511</v>
@@ -15480,7 +15480,7 @@
         <v>0.00617</v>
       </c>
       <c r="BL78">
-        <v>0.53825</v>
+        <v>0.537</v>
       </c>
       <c r="BM78">
         <v>1.05</v>
@@ -15542,10 +15542,10 @@
         <v>696</v>
       </c>
       <c r="S79">
-        <v>3.817327586206893</v>
+        <v>3.817370689655169</v>
       </c>
       <c r="T79">
-        <v>0.6394102828380678</v>
+        <v>0.6394207004591259</v>
       </c>
       <c r="U79">
         <v>2.88</v>
@@ -15614,10 +15614,10 @@
         <v>696</v>
       </c>
       <c r="AQ79">
-        <v>28.76304597701148</v>
+        <v>28.76333333333332</v>
       </c>
       <c r="AR79">
-        <v>16.28841992074216</v>
+        <v>16.28862374190269</v>
       </c>
       <c r="AS79">
         <v>1.26</v>
@@ -15638,10 +15638,10 @@
         <v>696</v>
       </c>
       <c r="AY79">
-        <v>0.01117309295977011</v>
+        <v>0.01116093060344828</v>
       </c>
       <c r="AZ79">
-        <v>0.02035042803741292</v>
+        <v>0.02034078929958678</v>
       </c>
       <c r="BA79">
         <v>-0.00722</v>
@@ -15653,7 +15653,7 @@
         <v>0.000645</v>
       </c>
       <c r="BD79">
-        <v>0.0144</v>
+        <v>0.014325</v>
       </c>
       <c r="BE79">
         <v>0.138</v>
@@ -15662,10 +15662,10 @@
         <v>696</v>
       </c>
       <c r="BG79">
-        <v>0.2382184166666669</v>
+        <v>0.2378575646551725</v>
       </c>
       <c r="BH79">
-        <v>0.2878736954012922</v>
+        <v>0.2874571808787601</v>
       </c>
       <c r="BI79">
         <v>-0.0496</v>
@@ -15677,10 +15677,10 @@
         <v>0.006970000000000001</v>
       </c>
       <c r="BL79">
-        <v>0.54225</v>
+        <v>0.541</v>
       </c>
       <c r="BM79">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="80" spans="1:65">
@@ -15715,10 +15715,10 @@
         <v>696</v>
       </c>
       <c r="K80">
-        <v>37.93864942528734</v>
+        <v>37.93879310344826</v>
       </c>
       <c r="L80">
-        <v>2.59998625631668</v>
+        <v>2.599737835760785</v>
       </c>
       <c r="M80">
         <v>33.4</v>
@@ -15739,10 +15739,10 @@
         <v>696</v>
       </c>
       <c r="S80">
-        <v>3.816652298850573</v>
+        <v>3.816738505747124</v>
       </c>
       <c r="T80">
-        <v>0.6392397686374469</v>
+        <v>0.639228735373094</v>
       </c>
       <c r="U80">
         <v>2.88</v>
@@ -15787,10 +15787,10 @@
         <v>696</v>
       </c>
       <c r="AI80">
-        <v>108.6704022988506</v>
+        <v>108.6705459770115</v>
       </c>
       <c r="AJ80">
-        <v>28.78585109797949</v>
+        <v>28.78563006291066</v>
       </c>
       <c r="AK80">
         <v>59.1</v>
@@ -15835,10 +15835,10 @@
         <v>696</v>
       </c>
       <c r="AY80">
-        <v>0.0112875313218391</v>
+        <v>0.0112723063218391</v>
       </c>
       <c r="AZ80">
-        <v>0.02052810722118122</v>
+        <v>0.02050870069072992</v>
       </c>
       <c r="BA80">
         <v>-0.00691</v>
@@ -15850,7 +15850,7 @@
         <v>0.000693</v>
       </c>
       <c r="BD80">
-        <v>0.014525</v>
+        <v>0.014425</v>
       </c>
       <c r="BE80">
         <v>0.139</v>
@@ -15859,10 +15859,10 @@
         <v>696</v>
       </c>
       <c r="BG80">
-        <v>0.2400942241379314</v>
+        <v>0.239711978448276</v>
       </c>
       <c r="BH80">
-        <v>0.2889269285244476</v>
+        <v>0.2885042216230422</v>
       </c>
       <c r="BI80">
         <v>-0.0481</v>
@@ -15874,7 +15874,7 @@
         <v>0.007755</v>
       </c>
       <c r="BL80">
-        <v>0.54625</v>
+        <v>0.54425</v>
       </c>
       <c r="BM80">
         <v>1.03</v>
@@ -15912,10 +15912,10 @@
         <v>696</v>
       </c>
       <c r="K81">
-        <v>37.93735632183908</v>
+        <v>37.93764367816092</v>
       </c>
       <c r="L81">
-        <v>2.602198499286055</v>
+        <v>2.601707722410816</v>
       </c>
       <c r="M81">
         <v>33.4</v>
@@ -15936,10 +15936,10 @@
         <v>696</v>
       </c>
       <c r="S81">
-        <v>3.816235632183905</v>
+        <v>3.816264367816089</v>
       </c>
       <c r="T81">
-        <v>0.6394383071994769</v>
+        <v>0.6394224995156129</v>
       </c>
       <c r="U81">
         <v>2.88</v>
@@ -15960,10 +15960,10 @@
         <v>696</v>
       </c>
       <c r="AA81">
-        <v>37.92528735632187</v>
+        <v>37.92571839080463</v>
       </c>
       <c r="AB81">
-        <v>2.611550145394847</v>
+        <v>2.611339313140277</v>
       </c>
       <c r="AC81">
         <v>33.4</v>
@@ -15984,10 +15984,10 @@
         <v>696</v>
       </c>
       <c r="AI81">
-        <v>108.6586206896552</v>
+        <v>108.6602011494253</v>
       </c>
       <c r="AJ81">
-        <v>28.78376511524982</v>
+        <v>28.78513524190453</v>
       </c>
       <c r="AK81">
         <v>59.1</v>
@@ -16032,10 +16032,10 @@
         <v>696</v>
       </c>
       <c r="AY81">
-        <v>0.01139492586206897</v>
+        <v>0.01138183505747127</v>
       </c>
       <c r="AZ81">
-        <v>0.02069404584959717</v>
+        <v>0.02067501674616479</v>
       </c>
       <c r="BA81">
         <v>-0.00661</v>
@@ -16056,10 +16056,10 @@
         <v>696</v>
       </c>
       <c r="BG81">
-        <v>0.2418989770114942</v>
+        <v>0.2415167298850571</v>
       </c>
       <c r="BH81">
-        <v>0.2900440534855879</v>
+        <v>0.2896141132505726</v>
       </c>
       <c r="BI81">
         <v>-0.0467</v>
@@ -16068,10 +16068,10 @@
         <v>-0.010825</v>
       </c>
       <c r="BK81">
-        <v>0.008525</v>
+        <v>0.00852</v>
       </c>
       <c r="BL81">
-        <v>0.55</v>
+        <v>0.548</v>
       </c>
       <c r="BM81">
         <v>1.02</v>
@@ -16133,10 +16133,10 @@
         <v>696</v>
       </c>
       <c r="S82">
-        <v>3.81574712643678</v>
+        <v>3.815804597701148</v>
       </c>
       <c r="T82">
-        <v>0.6394901425649763</v>
+        <v>0.6394718475252775</v>
       </c>
       <c r="U82">
         <v>2.88</v>
@@ -16157,10 +16157,10 @@
         <v>696</v>
       </c>
       <c r="AA82">
-        <v>37.92370689655176</v>
+        <v>37.92399425287359</v>
       </c>
       <c r="AB82">
-        <v>2.612878683774855</v>
+        <v>2.612418955674396</v>
       </c>
       <c r="AC82">
         <v>33.4</v>
@@ -16205,10 +16205,10 @@
         <v>696</v>
       </c>
       <c r="AQ82">
-        <v>28.76011494252873</v>
+        <v>28.76040229885056</v>
       </c>
       <c r="AR82">
-        <v>16.28717212453125</v>
+        <v>16.28740693253915</v>
       </c>
       <c r="AS82">
         <v>1.26</v>
@@ -16229,10 +16229,10 @@
         <v>696</v>
       </c>
       <c r="AY82">
-        <v>0.01150026652298851</v>
+        <v>0.01148612658045978</v>
       </c>
       <c r="AZ82">
-        <v>0.02085099933911111</v>
+        <v>0.02083225421426238</v>
       </c>
       <c r="BA82">
         <v>-0.00632</v>
@@ -16253,10 +16253,10 @@
         <v>696</v>
       </c>
       <c r="BG82">
-        <v>0.2435830272988507</v>
+        <v>0.2431963175287358</v>
       </c>
       <c r="BH82">
-        <v>0.2909456894817521</v>
+        <v>0.290532048953488</v>
       </c>
       <c r="BI82">
         <v>-0.0453</v>
@@ -16268,7 +16268,7 @@
         <v>0.009549999999999999</v>
       </c>
       <c r="BL82">
-        <v>0.55325</v>
+        <v>0.55125</v>
       </c>
       <c r="BM82">
         <v>1.01</v>
@@ -16306,10 +16306,10 @@
         <v>696</v>
       </c>
       <c r="K83">
-        <v>37.93649425287354</v>
+        <v>37.93663793103447</v>
       </c>
       <c r="L83">
-        <v>2.603078710141118</v>
+        <v>2.602979956021801</v>
       </c>
       <c r="M83">
         <v>33.4</v>
@@ -16330,10 +16330,10 @@
         <v>696</v>
       </c>
       <c r="S83">
-        <v>3.815287356321838</v>
+        <v>3.815359195402299</v>
       </c>
       <c r="T83">
-        <v>0.6397885695371641</v>
+        <v>0.6397345562400841</v>
       </c>
       <c r="U83">
         <v>2.88</v>
@@ -16426,10 +16426,10 @@
         <v>696</v>
       </c>
       <c r="AY83">
-        <v>0.01160457313218391</v>
+        <v>0.01158759956896552</v>
       </c>
       <c r="AZ83">
-        <v>0.02100761817220852</v>
+        <v>0.02098791707923373</v>
       </c>
       <c r="BA83">
         <v>-0.00603</v>
@@ -16441,19 +16441,19 @@
         <v>0.000854</v>
       </c>
       <c r="BD83">
-        <v>0.01475</v>
+        <v>0.014725</v>
       </c>
       <c r="BE83">
-        <v>0.142</v>
+        <v>0.141</v>
       </c>
       <c r="BF83">
         <v>696</v>
       </c>
       <c r="BG83">
-        <v>0.245312221264368</v>
+        <v>0.2448953721264369</v>
       </c>
       <c r="BH83">
-        <v>0.2920883837528652</v>
+        <v>0.291596918551942</v>
       </c>
       <c r="BI83">
         <v>-0.0439</v>
@@ -16465,10 +16465,10 @@
         <v>0.0106</v>
       </c>
       <c r="BL83">
-        <v>0.5570000000000001</v>
+        <v>0.5545</v>
       </c>
       <c r="BM83">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="84" spans="1:65">
@@ -16503,13 +16503,13 @@
         <v>696</v>
       </c>
       <c r="K84">
-        <v>37.93965517241377</v>
+        <v>37.94137931034481</v>
       </c>
       <c r="L84">
-        <v>2.602534878650414</v>
+        <v>2.601938479319073</v>
       </c>
       <c r="M84">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="N84">
         <v>36.1</v>
@@ -16527,16 +16527,16 @@
         <v>696</v>
       </c>
       <c r="S84">
-        <v>3.817629310344825</v>
+        <v>3.819511494252876</v>
       </c>
       <c r="T84">
-        <v>0.6405184370077589</v>
+        <v>0.6405820576082054</v>
       </c>
       <c r="U84">
         <v>2.85</v>
       </c>
       <c r="V84">
-        <v>3.28</v>
+        <v>3.2875</v>
       </c>
       <c r="W84">
         <v>3.665</v>
@@ -16545,7 +16545,7 @@
         <v>4.23</v>
       </c>
       <c r="Y84">
-        <v>5.26</v>
+        <v>5.27</v>
       </c>
       <c r="Z84">
         <v>696</v>
@@ -16575,16 +16575,16 @@
         <v>696</v>
       </c>
       <c r="AI84">
-        <v>108.6541666666666</v>
+        <v>108.6643678160919</v>
       </c>
       <c r="AJ84">
-        <v>28.77917832246202</v>
+        <v>28.78028692648832</v>
       </c>
       <c r="AK84">
         <v>59.1</v>
       </c>
       <c r="AL84">
-        <v>93.5</v>
+        <v>93.57499999999999</v>
       </c>
       <c r="AM84">
         <v>112</v>
@@ -16599,10 +16599,10 @@
         <v>696</v>
       </c>
       <c r="AQ84">
-        <v>28.76360632183909</v>
+        <v>28.76521551724139</v>
       </c>
       <c r="AR84">
-        <v>16.29518683618232</v>
+        <v>16.29573079845282</v>
       </c>
       <c r="AS84">
         <v>1.25</v>
@@ -16623,10 +16623,10 @@
         <v>696</v>
       </c>
       <c r="AY84">
-        <v>0.01171178419540232</v>
+        <v>0.01170050589080461</v>
       </c>
       <c r="AZ84">
-        <v>0.02117568157792039</v>
+        <v>0.02116741806170446</v>
       </c>
       <c r="BA84">
         <v>-0.00575</v>
@@ -16647,10 +16647,10 @@
         <v>696</v>
       </c>
       <c r="BG84">
-        <v>0.2471727686781608</v>
+        <v>0.2467622629310343</v>
       </c>
       <c r="BH84">
-        <v>0.2936463990782889</v>
+        <v>0.2931907365662355</v>
       </c>
       <c r="BI84">
         <v>-0.0425</v>
@@ -16662,7 +16662,7 @@
         <v>0.01205</v>
       </c>
       <c r="BL84">
-        <v>0.5600000000000001</v>
+        <v>0.5575000000000001</v>
       </c>
       <c r="BM84">
         <v>1.04</v>
@@ -16700,10 +16700,10 @@
         <v>696</v>
       </c>
       <c r="K85">
-        <v>37.95589080459769</v>
+        <v>37.97543103448275</v>
       </c>
       <c r="L85">
-        <v>2.60298551548306</v>
+        <v>2.603862617990127</v>
       </c>
       <c r="M85">
         <v>33.4</v>
@@ -16715,7 +16715,7 @@
         <v>38.15000000000001</v>
       </c>
       <c r="P85">
-        <v>40</v>
+        <v>40.025</v>
       </c>
       <c r="Q85">
         <v>41.8</v>
@@ -16724,25 +16724,25 @@
         <v>696</v>
       </c>
       <c r="S85">
-        <v>3.833089080459772</v>
+        <v>3.854798850574714</v>
       </c>
       <c r="T85">
-        <v>0.6410289149103149</v>
+        <v>0.6411051293031597</v>
       </c>
       <c r="U85">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="V85">
-        <v>3.3</v>
+        <v>3.33</v>
       </c>
       <c r="W85">
-        <v>3.675</v>
+        <v>3.7</v>
       </c>
       <c r="X85">
-        <v>4.24</v>
+        <v>4.2525</v>
       </c>
       <c r="Y85">
-        <v>5.28</v>
+        <v>5.29</v>
       </c>
       <c r="Z85">
         <v>696</v>
@@ -16772,10 +16772,10 @@
         <v>696</v>
       </c>
       <c r="AI85">
-        <v>108.7033045977011</v>
+        <v>108.775</v>
       </c>
       <c r="AJ85">
-        <v>28.7904466169257</v>
+        <v>28.79646823368817</v>
       </c>
       <c r="AK85">
         <v>59.1</v>
@@ -16796,10 +16796,10 @@
         <v>696</v>
       </c>
       <c r="AQ85">
-        <v>28.77821839080459</v>
+        <v>28.79817528735631</v>
       </c>
       <c r="AR85">
-        <v>16.31381409562097</v>
+        <v>16.33457776516898</v>
       </c>
       <c r="AS85">
         <v>1.25</v>
@@ -16820,19 +16820,19 @@
         <v>696</v>
       </c>
       <c r="AY85">
-        <v>0.01183680323275862</v>
+        <v>0.0118285665086207</v>
       </c>
       <c r="AZ85">
-        <v>0.02136729573308137</v>
+        <v>0.02135641468487123</v>
       </c>
       <c r="BA85">
         <v>-0.00549</v>
       </c>
       <c r="BB85">
-        <v>-0.0003365</v>
+        <v>-0.00033725</v>
       </c>
       <c r="BC85">
-        <v>0.001033</v>
+        <v>0.001034</v>
       </c>
       <c r="BD85">
         <v>0.01485</v>
@@ -16844,22 +16844,22 @@
         <v>696</v>
       </c>
       <c r="BG85">
-        <v>0.2494853491379311</v>
+        <v>0.2492171048850576</v>
       </c>
       <c r="BH85">
-        <v>0.2960521906319074</v>
+        <v>0.2957857963230962</v>
       </c>
       <c r="BI85">
         <v>-0.0412</v>
       </c>
       <c r="BJ85">
-        <v>-0.0094</v>
+        <v>-0.009424999999999999</v>
       </c>
       <c r="BK85">
-        <v>0.01375</v>
+        <v>0.0137</v>
       </c>
       <c r="BL85">
-        <v>0.5632499999999999</v>
+        <v>0.5615</v>
       </c>
       <c r="BM85">
         <v>1.08</v>
@@ -16897,13 +16897,13 @@
         <v>696</v>
       </c>
       <c r="K86">
-        <v>37.93204022988505</v>
+        <v>37.94367816091953</v>
       </c>
       <c r="L86">
-        <v>2.60283616834455</v>
+        <v>2.603343777868568</v>
       </c>
       <c r="M86">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="N86">
         <v>36.1</v>
@@ -16915,40 +16915,40 @@
         <v>40</v>
       </c>
       <c r="Q86">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="R86">
         <v>696</v>
       </c>
       <c r="S86">
-        <v>3.808433908045976</v>
+        <v>3.823548850574711</v>
       </c>
       <c r="T86">
-        <v>0.6403571316517234</v>
+        <v>0.6412083179144717</v>
       </c>
       <c r="U86">
-        <v>2.85</v>
+        <v>2.83</v>
       </c>
       <c r="V86">
-        <v>3.28</v>
+        <v>3.3</v>
       </c>
       <c r="W86">
-        <v>3.65</v>
+        <v>3.67</v>
       </c>
       <c r="X86">
-        <v>4.21</v>
+        <v>4.2275</v>
       </c>
       <c r="Y86">
-        <v>5.24</v>
+        <v>5.29</v>
       </c>
       <c r="Z86">
         <v>696</v>
       </c>
       <c r="AA86">
-        <v>37.92140804597705</v>
+        <v>37.92183908045981</v>
       </c>
       <c r="AB86">
-        <v>2.613443666644936</v>
+        <v>2.612881219572144</v>
       </c>
       <c r="AC86">
         <v>33.4</v>
@@ -16969,10 +16969,10 @@
         <v>696</v>
       </c>
       <c r="AI86">
-        <v>108.6146551724138</v>
+        <v>108.6741379310345</v>
       </c>
       <c r="AJ86">
-        <v>28.76981908098946</v>
+        <v>28.79647296755069</v>
       </c>
       <c r="AK86">
         <v>59.1</v>
@@ -16987,16 +16987,16 @@
         <v>117</v>
       </c>
       <c r="AO86">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AP86">
         <v>696</v>
       </c>
       <c r="AQ86">
-        <v>28.75247126436781</v>
+        <v>28.76504310344827</v>
       </c>
       <c r="AR86">
-        <v>16.28281555865443</v>
+        <v>16.2945360749369</v>
       </c>
       <c r="AS86">
         <v>1.25</v>
@@ -17005,22 +17005,22 @@
         <v>14.85</v>
       </c>
       <c r="AU86">
-        <v>31.6</v>
+        <v>31.65</v>
       </c>
       <c r="AV86">
         <v>40.15</v>
       </c>
       <c r="AW86">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AX86">
         <v>696</v>
       </c>
       <c r="AY86">
-        <v>0.01195031019971264</v>
+        <v>0.01193369472844827</v>
       </c>
       <c r="AZ86">
-        <v>0.02152922218234714</v>
+        <v>0.02150577060060499</v>
       </c>
       <c r="BA86">
         <v>-0.00522</v>
@@ -17041,22 +17041,22 @@
         <v>696</v>
       </c>
       <c r="BG86">
-        <v>0.2515526910775862</v>
+        <v>0.2511364483908043</v>
       </c>
       <c r="BH86">
-        <v>0.2978821595599788</v>
+        <v>0.2974144209178858</v>
       </c>
       <c r="BI86">
-        <v>-0.0398</v>
+        <v>-0.0399</v>
       </c>
       <c r="BJ86">
-        <v>-0.009129999999999999</v>
+        <v>-0.0091375</v>
       </c>
       <c r="BK86">
         <v>0.0153</v>
       </c>
       <c r="BL86">
-        <v>0.5662499999999999</v>
+        <v>0.56375</v>
       </c>
       <c r="BM86">
         <v>1.08</v>
@@ -17094,13 +17094,13 @@
         <v>696</v>
       </c>
       <c r="K87">
-        <v>37.90114942528735</v>
+        <v>37.95172413793102</v>
       </c>
       <c r="L87">
-        <v>2.600885040417451</v>
+        <v>2.604328972532449</v>
       </c>
       <c r="M87">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="N87">
         <v>36.1</v>
@@ -17112,31 +17112,31 @@
         <v>40</v>
       </c>
       <c r="Q87">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="R87">
         <v>696</v>
       </c>
       <c r="S87">
-        <v>3.778649425287353</v>
+        <v>3.829870689655171</v>
       </c>
       <c r="T87">
-        <v>0.6405015238860782</v>
+        <v>0.6411268052242692</v>
       </c>
       <c r="U87">
-        <v>2.81</v>
+        <v>2.86</v>
       </c>
       <c r="V87">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="W87">
-        <v>3.62</v>
+        <v>3.675</v>
       </c>
       <c r="X87">
-        <v>4.19</v>
+        <v>4.24</v>
       </c>
       <c r="Y87">
-        <v>5.23</v>
+        <v>5.27</v>
       </c>
       <c r="Z87">
         <v>696</v>
@@ -17166,16 +17166,16 @@
         <v>696</v>
       </c>
       <c r="AI87">
-        <v>108.523132183908</v>
+        <v>108.6754310344828</v>
       </c>
       <c r="AJ87">
-        <v>28.74439870545034</v>
+        <v>28.77138841246365</v>
       </c>
       <c r="AK87">
-        <v>59</v>
+        <v>59.1</v>
       </c>
       <c r="AL87">
-        <v>93.40000000000001</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AM87">
         <v>112</v>
@@ -17190,40 +17190,40 @@
         <v>696</v>
       </c>
       <c r="AQ87">
-        <v>28.73147988505745</v>
+        <v>28.77360632183907</v>
       </c>
       <c r="AR87">
-        <v>16.27377952747754</v>
+        <v>16.31124858142633</v>
       </c>
       <c r="AS87">
         <v>1.25</v>
       </c>
       <c r="AT87">
-        <v>14.775</v>
+        <v>14.85</v>
       </c>
       <c r="AU87">
-        <v>31.6</v>
+        <v>31.65</v>
       </c>
       <c r="AV87">
         <v>40.15</v>
       </c>
       <c r="AW87">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AX87">
         <v>696</v>
       </c>
       <c r="AY87">
-        <v>0.01205054426724137</v>
+        <v>0.01205447498563218</v>
       </c>
       <c r="AZ87">
-        <v>0.02167699695446531</v>
+        <v>0.02169825632344454</v>
       </c>
       <c r="BA87">
-        <v>-0.00495</v>
+        <v>-0.00496</v>
       </c>
       <c r="BB87">
-        <v>-0.00030725</v>
+        <v>-0.00030825</v>
       </c>
       <c r="BC87">
         <v>0.0012</v>
@@ -17238,22 +17238,22 @@
         <v>696</v>
       </c>
       <c r="BG87">
-        <v>0.253365658045977</v>
+        <v>0.2532803060344828</v>
       </c>
       <c r="BH87">
-        <v>0.2992759042240026</v>
+        <v>0.2992075703995705</v>
       </c>
       <c r="BI87">
-        <v>-0.0384</v>
+        <v>-0.0385</v>
       </c>
       <c r="BJ87">
-        <v>-0.0087825</v>
+        <v>-0.008799999999999999</v>
       </c>
       <c r="BK87">
-        <v>0.01685</v>
+        <v>0.0169</v>
       </c>
       <c r="BL87">
-        <v>0.5692499999999999</v>
+        <v>0.5672499999999999</v>
       </c>
       <c r="BM87">
         <v>1.08</v>
@@ -17291,10 +17291,10 @@
         <v>696</v>
       </c>
       <c r="K88">
-        <v>37.92729885057469</v>
+        <v>37.93778735632181</v>
       </c>
       <c r="L88">
-        <v>2.603335249235553</v>
+        <v>2.604295343054297</v>
       </c>
       <c r="M88">
         <v>33.3</v>
@@ -17315,19 +17315,19 @@
         <v>696</v>
       </c>
       <c r="S88">
-        <v>3.806408045977011</v>
+        <v>3.816321839080455</v>
       </c>
       <c r="T88">
-        <v>0.6416314862864525</v>
+        <v>0.6414522461106158</v>
       </c>
       <c r="U88">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="V88">
-        <v>3.2775</v>
+        <v>3.2875</v>
       </c>
       <c r="W88">
-        <v>3.65</v>
+        <v>3.655</v>
       </c>
       <c r="X88">
         <v>4.2125</v>
@@ -17339,10 +17339,10 @@
         <v>696</v>
       </c>
       <c r="AA88">
-        <v>37.92025862068968</v>
+        <v>37.9204022988506</v>
       </c>
       <c r="AB88">
-        <v>2.614625261248756</v>
+        <v>2.614527836750985</v>
       </c>
       <c r="AC88">
         <v>33.4</v>
@@ -17363,10 +17363,10 @@
         <v>696</v>
       </c>
       <c r="AI88">
-        <v>108.596408045977</v>
+        <v>108.6295977011494</v>
       </c>
       <c r="AJ88">
-        <v>28.74843307635201</v>
+        <v>28.77475537995157</v>
       </c>
       <c r="AK88">
         <v>59</v>
@@ -17387,16 +17387,16 @@
         <v>696</v>
       </c>
       <c r="AQ88">
-        <v>28.75275862068966</v>
+        <v>28.75977011494253</v>
       </c>
       <c r="AR88">
-        <v>16.29585998990901</v>
+        <v>16.29208209345516</v>
       </c>
       <c r="AS88">
         <v>1.25</v>
       </c>
       <c r="AT88">
-        <v>14.775</v>
+        <v>14.85</v>
       </c>
       <c r="AU88">
         <v>31.6</v>
@@ -17411,10 +17411,10 @@
         <v>696</v>
       </c>
       <c r="AY88">
-        <v>0.01217199709770115</v>
+        <v>0.01216591928160919</v>
       </c>
       <c r="AZ88">
-        <v>0.02186449406116736</v>
+        <v>0.02187555106135487</v>
       </c>
       <c r="BA88">
         <v>-0.0047</v>
@@ -17435,10 +17435,10 @@
         <v>696</v>
       </c>
       <c r="BG88">
-        <v>0.2556936178160921</v>
+        <v>0.2553059439655172</v>
       </c>
       <c r="BH88">
-        <v>0.3015511462363478</v>
+        <v>0.3010859656145092</v>
       </c>
       <c r="BI88">
         <v>-0.0371</v>
@@ -17447,10 +17447,10 @@
         <v>-0.0084425</v>
       </c>
       <c r="BK88">
-        <v>0.01845</v>
+        <v>0.0184</v>
       </c>
       <c r="BL88">
-        <v>0.5725</v>
+        <v>0.5702499999999999</v>
       </c>
       <c r="BM88">
         <v>1.11</v>
@@ -17488,13 +17488,13 @@
         <v>696</v>
       </c>
       <c r="K89">
-        <v>37.94497126436779</v>
+        <v>37.92356321839079</v>
       </c>
       <c r="L89">
-        <v>2.604402028725716</v>
+        <v>2.603858112374593</v>
       </c>
       <c r="M89">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="N89">
         <v>36.1</v>
@@ -17506,40 +17506,40 @@
         <v>40</v>
       </c>
       <c r="Q89">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="R89">
         <v>696</v>
       </c>
       <c r="S89">
-        <v>3.82297413793103</v>
+        <v>3.80044540229885</v>
       </c>
       <c r="T89">
-        <v>0.6418078597419897</v>
+        <v>0.6414849700491627</v>
       </c>
       <c r="U89">
-        <v>2.85</v>
+        <v>2.81</v>
       </c>
       <c r="V89">
-        <v>3.29</v>
+        <v>3.27</v>
       </c>
       <c r="W89">
-        <v>3.665</v>
+        <v>3.645</v>
       </c>
       <c r="X89">
-        <v>4.24</v>
+        <v>4.205</v>
       </c>
       <c r="Y89">
-        <v>5.28</v>
+        <v>5.26</v>
       </c>
       <c r="Z89">
         <v>696</v>
       </c>
       <c r="AA89">
-        <v>37.91896551724141</v>
+        <v>37.91925287356325</v>
       </c>
       <c r="AB89">
-        <v>2.616392611060525</v>
+        <v>2.615901019923132</v>
       </c>
       <c r="AC89">
         <v>33.4</v>
@@ -17560,16 +17560,16 @@
         <v>696</v>
       </c>
       <c r="AI89">
-        <v>108.648132183908</v>
+        <v>108.5810344827586</v>
       </c>
       <c r="AJ89">
-        <v>28.76949167403734</v>
+        <v>28.75547491580241</v>
       </c>
       <c r="AK89">
-        <v>59.1</v>
+        <v>59</v>
       </c>
       <c r="AL89">
-        <v>93.59999999999999</v>
+        <v>93.5</v>
       </c>
       <c r="AM89">
         <v>112</v>
@@ -17584,43 +17584,43 @@
         <v>696</v>
       </c>
       <c r="AQ89">
-        <v>28.76399425287358</v>
+        <v>28.7451436781609</v>
       </c>
       <c r="AR89">
-        <v>16.30054694302292</v>
+        <v>16.27939929537254</v>
       </c>
       <c r="AS89">
         <v>1.25</v>
       </c>
       <c r="AT89">
-        <v>14.85</v>
+        <v>14.775</v>
       </c>
       <c r="AU89">
-        <v>31.65</v>
+        <v>31.6</v>
       </c>
       <c r="AV89">
         <v>40.15</v>
       </c>
       <c r="AW89">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AX89">
         <v>696</v>
       </c>
       <c r="AY89">
-        <v>0.01229654957758621</v>
+        <v>0.01227052819683908</v>
       </c>
       <c r="AZ89">
-        <v>0.02206392186843456</v>
+        <v>0.0220301265334517</v>
       </c>
       <c r="BA89">
-        <v>-0.00447</v>
+        <v>-0.00446</v>
       </c>
       <c r="BB89">
         <v>-0.00027825</v>
       </c>
       <c r="BC89">
-        <v>0.001365</v>
+        <v>0.00136</v>
       </c>
       <c r="BD89">
         <v>0.01525</v>
@@ -17632,22 +17632,22 @@
         <v>696</v>
       </c>
       <c r="BG89">
-        <v>0.2578598281609195</v>
+        <v>0.2571970642241379</v>
       </c>
       <c r="BH89">
-        <v>0.3035673925072296</v>
+        <v>0.3028594385580694</v>
       </c>
       <c r="BI89">
         <v>-0.0359</v>
       </c>
       <c r="BJ89">
-        <v>-0.008115000000000001</v>
+        <v>-0.008110000000000001</v>
       </c>
       <c r="BK89">
         <v>0.02</v>
       </c>
       <c r="BL89">
-        <v>0.576</v>
+        <v>0.5734999999999999</v>
       </c>
       <c r="BM89">
         <v>1.12</v>
@@ -17685,10 +17685,10 @@
         <v>696</v>
       </c>
       <c r="K90">
-        <v>37.93304597701147</v>
+        <v>37.93922413793102</v>
       </c>
       <c r="L90">
-        <v>2.605732458240146</v>
+        <v>2.60566598483191</v>
       </c>
       <c r="M90">
         <v>33.3</v>
@@ -17709,25 +17709,25 @@
         <v>696</v>
       </c>
       <c r="S90">
-        <v>3.810545977011496</v>
+        <v>3.816307471264361</v>
       </c>
       <c r="T90">
-        <v>0.6416628493777415</v>
+        <v>0.6421795286771554</v>
       </c>
       <c r="U90">
-        <v>2.83</v>
+        <v>2.84</v>
       </c>
       <c r="V90">
-        <v>3.28</v>
+        <v>3.29</v>
       </c>
       <c r="W90">
-        <v>3.655</v>
+        <v>3.67</v>
       </c>
       <c r="X90">
-        <v>4.2225</v>
+        <v>4.2325</v>
       </c>
       <c r="Y90">
-        <v>5.26</v>
+        <v>5.29</v>
       </c>
       <c r="Z90">
         <v>696</v>
@@ -17757,10 +17757,10 @@
         <v>696</v>
       </c>
       <c r="AI90">
-        <v>108.6100574712643</v>
+        <v>108.6242816091954</v>
       </c>
       <c r="AJ90">
-        <v>28.76981955811965</v>
+        <v>28.76960875598379</v>
       </c>
       <c r="AK90">
         <v>59.1</v>
@@ -17781,10 +17781,10 @@
         <v>696</v>
       </c>
       <c r="AQ90">
-        <v>28.75206896551723</v>
+        <v>28.75594827586209</v>
       </c>
       <c r="AR90">
-        <v>16.28943663633124</v>
+        <v>16.28951056647076</v>
       </c>
       <c r="AS90">
         <v>1.25</v>
@@ -17805,10 +17805,10 @@
         <v>696</v>
       </c>
       <c r="AY90">
-        <v>0.01240594396551724</v>
+        <v>0.01238673725574713</v>
       </c>
       <c r="AZ90">
-        <v>0.02223348989987101</v>
+        <v>0.02221565968196237</v>
       </c>
       <c r="BA90">
         <v>-0.00422</v>
@@ -17829,22 +17829,22 @@
         <v>696</v>
       </c>
       <c r="BG90">
-        <v>0.2598565186781608</v>
+        <v>0.2593640704022988</v>
       </c>
       <c r="BH90">
-        <v>0.305230648268372</v>
+        <v>0.3047052683230674</v>
       </c>
       <c r="BI90">
         <v>-0.0346</v>
       </c>
       <c r="BJ90">
-        <v>-0.007777500000000001</v>
+        <v>-0.0077875</v>
       </c>
       <c r="BK90">
         <v>0.0215</v>
       </c>
       <c r="BL90">
-        <v>0.579</v>
+        <v>0.57675</v>
       </c>
       <c r="BM90">
         <v>1.12</v>
@@ -17882,10 +17882,10 @@
         <v>696</v>
       </c>
       <c r="K91">
-        <v>37.92614942528734</v>
+        <v>37.92356321839081</v>
       </c>
       <c r="L91">
-        <v>2.605225540288107</v>
+        <v>2.603907844410924</v>
       </c>
       <c r="M91">
         <v>33.3</v>
@@ -17900,19 +17900,19 @@
         <v>40</v>
       </c>
       <c r="Q91">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="R91">
         <v>696</v>
       </c>
       <c r="S91">
-        <v>3.803204022988504</v>
+        <v>3.799798850574712</v>
       </c>
       <c r="T91">
-        <v>0.6418291700246905</v>
+        <v>0.6414834110676092</v>
       </c>
       <c r="U91">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
       <c r="V91">
         <v>3.27</v>
@@ -17921,19 +17921,19 @@
         <v>3.645</v>
       </c>
       <c r="X91">
-        <v>4.1975</v>
+        <v>4.195</v>
       </c>
       <c r="Y91">
-        <v>5.26</v>
+        <v>5.22</v>
       </c>
       <c r="Z91">
         <v>696</v>
       </c>
       <c r="AA91">
-        <v>37.91853448275864</v>
+        <v>37.91867816091956</v>
       </c>
       <c r="AB91">
-        <v>2.617146258774321</v>
+        <v>2.616895074885734</v>
       </c>
       <c r="AC91">
         <v>33.3</v>
@@ -17954,10 +17954,10 @@
         <v>696</v>
       </c>
       <c r="AI91">
-        <v>108.5867816091953</v>
+        <v>108.5752873563218</v>
       </c>
       <c r="AJ91">
-        <v>28.75941981161024</v>
+        <v>28.75687005668165</v>
       </c>
       <c r="AK91">
         <v>59</v>
@@ -17978,10 +17978,10 @@
         <v>696</v>
       </c>
       <c r="AQ91">
-        <v>28.74326149425286</v>
+        <v>28.73938218390802</v>
       </c>
       <c r="AR91">
-        <v>16.27803077445525</v>
+        <v>16.27693004101819</v>
       </c>
       <c r="AS91">
         <v>1.25</v>
@@ -18002,10 +18002,10 @@
         <v>696</v>
       </c>
       <c r="AY91">
-        <v>0.01251762389367816</v>
+        <v>0.01249405942528734</v>
       </c>
       <c r="AZ91">
-        <v>0.02240126723922485</v>
+        <v>0.02237863584066273</v>
       </c>
       <c r="BA91">
         <v>-0.00399</v>
@@ -18026,22 +18026,22 @@
         <v>696</v>
       </c>
       <c r="BG91">
-        <v>0.2619911752873562</v>
+        <v>0.2613405560344826</v>
       </c>
       <c r="BH91">
-        <v>0.3072456864966973</v>
+        <v>0.3065392736776385</v>
       </c>
       <c r="BI91">
         <v>-0.0334</v>
       </c>
       <c r="BJ91">
-        <v>-0.0074625</v>
+        <v>-0.00746</v>
       </c>
       <c r="BK91">
-        <v>0.02305</v>
+        <v>0.023</v>
       </c>
       <c r="BL91">
-        <v>0.5825</v>
+        <v>0.5792499999999999</v>
       </c>
       <c r="BM91">
         <v>1.14</v>
@@ -18079,10 +18079,10 @@
         <v>696</v>
       </c>
       <c r="K92">
-        <v>37.92212643678161</v>
+        <v>37.92385057471263</v>
       </c>
       <c r="L92">
-        <v>2.605014327105017</v>
+        <v>2.604921761196773</v>
       </c>
       <c r="M92">
         <v>33.3</v>
@@ -18103,25 +18103,25 @@
         <v>696</v>
       </c>
       <c r="S92">
-        <v>3.8</v>
+        <v>3.801192528735631</v>
       </c>
       <c r="T92">
-        <v>0.6418366183105454</v>
+        <v>0.6416692599294004</v>
       </c>
       <c r="U92">
-        <v>2.81</v>
+        <v>2.84</v>
       </c>
       <c r="V92">
-        <v>3.2675</v>
+        <v>3.27</v>
       </c>
       <c r="W92">
         <v>3.64</v>
       </c>
       <c r="X92">
-        <v>4.2</v>
+        <v>4.215</v>
       </c>
       <c r="Y92">
-        <v>5.24</v>
+        <v>5.25</v>
       </c>
       <c r="Z92">
         <v>696</v>
@@ -18151,13 +18151,13 @@
         <v>696</v>
       </c>
       <c r="AI92">
-        <v>108.5662356321838</v>
+        <v>108.567816091954</v>
       </c>
       <c r="AJ92">
-        <v>28.7540009486914</v>
+        <v>28.76445996277874</v>
       </c>
       <c r="AK92">
-        <v>59</v>
+        <v>59.1</v>
       </c>
       <c r="AL92">
         <v>93.5</v>
@@ -18175,16 +18175,16 @@
         <v>696</v>
       </c>
       <c r="AQ92">
-        <v>28.73932471264366</v>
+        <v>28.74132183908045</v>
       </c>
       <c r="AR92">
-        <v>16.27654534353987</v>
+        <v>16.27720820740478</v>
       </c>
       <c r="AS92">
         <v>1.25</v>
       </c>
       <c r="AT92">
-        <v>14.775</v>
+        <v>14.85</v>
       </c>
       <c r="AU92">
         <v>31.6</v>
@@ -18199,10 +18199,10 @@
         <v>696</v>
       </c>
       <c r="AY92">
-        <v>0.01263725987068964</v>
+        <v>0.01261473040229884</v>
       </c>
       <c r="AZ92">
-        <v>0.02258635957057745</v>
+        <v>0.02255180548148206</v>
       </c>
       <c r="BA92">
         <v>-0.00376</v>
@@ -18223,22 +18223,22 @@
         <v>696</v>
       </c>
       <c r="BG92">
-        <v>0.2642778060344827</v>
+        <v>0.2636872873563219</v>
       </c>
       <c r="BH92">
-        <v>0.3096294278403286</v>
+        <v>0.3089879776383299</v>
       </c>
       <c r="BI92">
         <v>-0.0321</v>
       </c>
       <c r="BJ92">
-        <v>-0.007140000000000001</v>
+        <v>-0.007147499999999999</v>
       </c>
       <c r="BK92">
         <v>0.0245</v>
       </c>
       <c r="BL92">
-        <v>0.5854999999999999</v>
+        <v>0.5822499999999999</v>
       </c>
       <c r="BM92">
         <v>1.17</v>
@@ -18276,10 +18276,10 @@
         <v>696</v>
       </c>
       <c r="K93">
-        <v>37.91896551724138</v>
+        <v>37.91954022988505</v>
       </c>
       <c r="L93">
-        <v>2.605541867771178</v>
+        <v>2.606421028858192</v>
       </c>
       <c r="M93">
         <v>33.3</v>
@@ -18300,25 +18300,25 @@
         <v>696</v>
       </c>
       <c r="S93">
-        <v>3.796896551724132</v>
+        <v>3.797183908045978</v>
       </c>
       <c r="T93">
-        <v>0.6421408623696069</v>
+        <v>0.6417216954992949</v>
       </c>
       <c r="U93">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="V93">
-        <v>3.27</v>
+        <v>3.26</v>
       </c>
       <c r="W93">
-        <v>3.645</v>
+        <v>3.63</v>
       </c>
       <c r="X93">
-        <v>4.2125</v>
+        <v>4.215</v>
       </c>
       <c r="Y93">
-        <v>5.26</v>
+        <v>5.24</v>
       </c>
       <c r="Z93">
         <v>696</v>
@@ -18348,13 +18348,13 @@
         <v>696</v>
       </c>
       <c r="AI93">
-        <v>108.5497126436781</v>
+        <v>108.5538793103448</v>
       </c>
       <c r="AJ93">
-        <v>28.72812023094512</v>
+        <v>28.76345126743641</v>
       </c>
       <c r="AK93">
-        <v>59</v>
+        <v>59.1</v>
       </c>
       <c r="AL93">
         <v>93.5</v>
@@ -18372,16 +18372,16 @@
         <v>696</v>
       </c>
       <c r="AQ93">
-        <v>28.73893678160918</v>
+        <v>28.73701149425285</v>
       </c>
       <c r="AR93">
-        <v>16.27634996172586</v>
+        <v>16.27519283594973</v>
       </c>
       <c r="AS93">
         <v>1.25</v>
       </c>
       <c r="AT93">
-        <v>14.775</v>
+        <v>14.85</v>
       </c>
       <c r="AU93">
         <v>31.6</v>
@@ -18396,10 +18396,10 @@
         <v>696</v>
       </c>
       <c r="AY93">
-        <v>0.01275583791666668</v>
+        <v>0.01273648729885057</v>
       </c>
       <c r="AZ93">
-        <v>0.02277189758100732</v>
+        <v>0.02274447772883379</v>
       </c>
       <c r="BA93">
         <v>-0.00353</v>
@@ -18411,31 +18411,31 @@
         <v>0.00167</v>
       </c>
       <c r="BD93">
-        <v>0.015725</v>
+        <v>0.01565</v>
       </c>
       <c r="BE93">
-        <v>0.151</v>
+        <v>0.15</v>
       </c>
       <c r="BF93">
         <v>696</v>
       </c>
       <c r="BG93">
-        <v>0.2665130431034486</v>
+        <v>0.2659905632183909</v>
       </c>
       <c r="BH93">
-        <v>0.3117939903574652</v>
+        <v>0.3112412164177239</v>
       </c>
       <c r="BI93">
         <v>-0.0313</v>
       </c>
       <c r="BJ93">
-        <v>-0.0067025</v>
+        <v>-0.006705</v>
       </c>
       <c r="BK93">
-        <v>0.026</v>
+        <v>0.02595</v>
       </c>
       <c r="BL93">
-        <v>0.5885</v>
+        <v>0.5854999999999999</v>
       </c>
       <c r="BM93">
         <v>1.17</v>
@@ -18473,13 +18473,13 @@
         <v>696</v>
       </c>
       <c r="K94">
-        <v>37.9274425287356</v>
+        <v>37.94094827586205</v>
       </c>
       <c r="L94">
-        <v>2.606937575369256</v>
+        <v>2.607472100359904</v>
       </c>
       <c r="M94">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="N94">
         <v>36.1</v>
@@ -18488,43 +18488,43 @@
         <v>38.15000000000001</v>
       </c>
       <c r="P94">
-        <v>40</v>
+        <v>40.025</v>
       </c>
       <c r="Q94">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="R94">
         <v>696</v>
       </c>
       <c r="S94">
-        <v>3.803951149425287</v>
+        <v>3.818304597701152</v>
       </c>
       <c r="T94">
-        <v>0.642237135813075</v>
+        <v>0.6419798506724942</v>
       </c>
       <c r="U94">
-        <v>2.83</v>
+        <v>2.86</v>
       </c>
       <c r="V94">
-        <v>3.27</v>
+        <v>3.2875</v>
       </c>
       <c r="W94">
-        <v>3.645</v>
+        <v>3.655</v>
       </c>
       <c r="X94">
-        <v>4.2225</v>
+        <v>4.237500000000001</v>
       </c>
       <c r="Y94">
-        <v>5.25</v>
+        <v>5.27</v>
       </c>
       <c r="Z94">
         <v>696</v>
       </c>
       <c r="AA94">
-        <v>37.91724137931035</v>
+        <v>37.9175287356322</v>
       </c>
       <c r="AB94">
-        <v>2.617339278169315</v>
+        <v>2.617430820459734</v>
       </c>
       <c r="AC94">
         <v>33.3</v>
@@ -18545,16 +18545,16 @@
         <v>696</v>
       </c>
       <c r="AI94">
-        <v>108.5646551724138</v>
+        <v>108.6193965517241</v>
       </c>
       <c r="AJ94">
-        <v>28.75285035647651</v>
+        <v>28.77253056856103</v>
       </c>
       <c r="AK94">
         <v>59.1</v>
       </c>
       <c r="AL94">
-        <v>93.5</v>
+        <v>93.57499999999999</v>
       </c>
       <c r="AM94">
         <v>112</v>
@@ -18569,10 +18569,10 @@
         <v>696</v>
       </c>
       <c r="AQ94">
-        <v>28.74038793103445</v>
+        <v>28.74734195402298</v>
       </c>
       <c r="AR94">
-        <v>16.2759267258287</v>
+        <v>16.27856401240358</v>
       </c>
       <c r="AS94">
         <v>1.25</v>
@@ -18581,7 +18581,7 @@
         <v>14.85</v>
       </c>
       <c r="AU94">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="AV94">
         <v>40.15</v>
@@ -18593,10 +18593,10 @@
         <v>696</v>
       </c>
       <c r="AY94">
-        <v>0.01288050794540231</v>
+        <v>0.01286692211206898</v>
       </c>
       <c r="AZ94">
-        <v>0.02297534706973949</v>
+        <v>0.022964502832179</v>
       </c>
       <c r="BA94">
         <v>-0.00335</v>
@@ -18605,7 +18605,7 @@
         <v>-0.00019325</v>
       </c>
       <c r="BC94">
-        <v>0.001745</v>
+        <v>0.00175</v>
       </c>
       <c r="BD94">
         <v>0.015825</v>
@@ -18617,25 +18617,25 @@
         <v>696</v>
       </c>
       <c r="BG94">
-        <v>0.26889503045977</v>
+        <v>0.2684237923850575</v>
       </c>
       <c r="BH94">
-        <v>0.3142526372811263</v>
+        <v>0.3137142201271524</v>
       </c>
       <c r="BI94">
         <v>-0.0311</v>
       </c>
       <c r="BJ94">
-        <v>-0.0059225</v>
+        <v>-0.0059325</v>
       </c>
       <c r="BK94">
-        <v>0.02745</v>
+        <v>0.0274</v>
       </c>
       <c r="BL94">
-        <v>0.59275</v>
+        <v>0.58975</v>
       </c>
       <c r="BM94">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="95" spans="1:65">
@@ -18670,10 +18670,10 @@
         <v>696</v>
       </c>
       <c r="K95">
-        <v>37.9242816091954</v>
+        <v>37.92270114942527</v>
       </c>
       <c r="L95">
-        <v>2.607007612533033</v>
+        <v>2.606434020803985</v>
       </c>
       <c r="M95">
         <v>33.3</v>
@@ -18688,16 +18688,16 @@
         <v>40</v>
       </c>
       <c r="Q95">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="R95">
         <v>696</v>
       </c>
       <c r="S95">
-        <v>3.801781609195401</v>
+        <v>3.800890804597701</v>
       </c>
       <c r="T95">
-        <v>0.6421933983387912</v>
+        <v>0.6428205022641625</v>
       </c>
       <c r="U95">
         <v>2.82</v>
@@ -18706,22 +18706,22 @@
         <v>3.27</v>
       </c>
       <c r="W95">
-        <v>3.645</v>
+        <v>3.65</v>
       </c>
       <c r="X95">
-        <v>4.205</v>
+        <v>4.215</v>
       </c>
       <c r="Y95">
-        <v>5.24</v>
+        <v>5.27</v>
       </c>
       <c r="Z95">
         <v>696</v>
       </c>
       <c r="AA95">
-        <v>37.91580459770116</v>
+        <v>37.91594827586209</v>
       </c>
       <c r="AB95">
-        <v>2.618310221581712</v>
+        <v>2.618070291095968</v>
       </c>
       <c r="AC95">
         <v>33.3</v>
@@ -18742,16 +18742,16 @@
         <v>696</v>
       </c>
       <c r="AI95">
-        <v>108.5603448275862</v>
+        <v>108.5564655172413</v>
       </c>
       <c r="AJ95">
-        <v>28.75258500777146</v>
+        <v>28.73826293807768</v>
       </c>
       <c r="AK95">
         <v>59</v>
       </c>
       <c r="AL95">
-        <v>93.47499999999999</v>
+        <v>93.5</v>
       </c>
       <c r="AM95">
         <v>112</v>
@@ -18766,10 +18766,10 @@
         <v>696</v>
       </c>
       <c r="AQ95">
-        <v>28.73660919540228</v>
+        <v>28.73997126436779</v>
       </c>
       <c r="AR95">
-        <v>16.27383978327352</v>
+        <v>16.27637396202518</v>
       </c>
       <c r="AS95">
         <v>1.25</v>
@@ -18790,10 +18790,10 @@
         <v>696</v>
       </c>
       <c r="AY95">
-        <v>0.01300432815229884</v>
+        <v>0.01297835258189655</v>
       </c>
       <c r="AZ95">
-        <v>0.02317064876699083</v>
+        <v>0.02313073830073622</v>
       </c>
       <c r="BA95">
         <v>-0.00325</v>
@@ -18805,31 +18805,31 @@
         <v>0.001815</v>
       </c>
       <c r="BD95">
-        <v>0.015925</v>
+        <v>0.01585</v>
       </c>
       <c r="BE95">
-        <v>0.153</v>
+        <v>0.152</v>
       </c>
       <c r="BF95">
         <v>696</v>
       </c>
       <c r="BG95">
-        <v>0.2711834164655172</v>
+        <v>0.2705609874568966</v>
       </c>
       <c r="BH95">
-        <v>0.3167361557870398</v>
+        <v>0.3160265058575864</v>
       </c>
       <c r="BI95">
         <v>-0.0308</v>
       </c>
       <c r="BJ95">
-        <v>-0.00505</v>
+        <v>-0.005055</v>
       </c>
       <c r="BK95">
         <v>0.0287</v>
       </c>
       <c r="BL95">
-        <v>0.597</v>
+        <v>0.5922499999999999</v>
       </c>
       <c r="BM95">
         <v>1.24</v>
@@ -18867,10 +18867,10 @@
         <v>696</v>
       </c>
       <c r="K96">
-        <v>37.93333333333332</v>
+        <v>37.92499999999999</v>
       </c>
       <c r="L96">
-        <v>2.60782625835484</v>
+        <v>2.608487805816529</v>
       </c>
       <c r="M96">
         <v>33.3</v>
@@ -18885,31 +18885,31 @@
         <v>40</v>
       </c>
       <c r="Q96">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="R96">
         <v>696</v>
       </c>
       <c r="S96">
-        <v>3.810603448275864</v>
+        <v>3.80251436781609</v>
       </c>
       <c r="T96">
-        <v>0.6429437096227689</v>
+        <v>0.6425841487949088</v>
       </c>
       <c r="U96">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="V96">
-        <v>3.28</v>
+        <v>3.27</v>
       </c>
       <c r="W96">
-        <v>3.65</v>
+        <v>3.64</v>
       </c>
       <c r="X96">
         <v>4.2225</v>
       </c>
       <c r="Y96">
-        <v>5.26</v>
+        <v>5.25</v>
       </c>
       <c r="Z96">
         <v>696</v>
@@ -18939,13 +18939,13 @@
         <v>696</v>
       </c>
       <c r="AI96">
-        <v>108.5771551724138</v>
+        <v>108.5512931034483</v>
       </c>
       <c r="AJ96">
-        <v>28.749062337346</v>
+        <v>28.72278064223381</v>
       </c>
       <c r="AK96">
-        <v>59</v>
+        <v>59.1</v>
       </c>
       <c r="AL96">
         <v>93.5</v>
@@ -18963,10 +18963,10 @@
         <v>696</v>
       </c>
       <c r="AQ96">
-        <v>28.74310344827582</v>
+        <v>28.73964080459768</v>
       </c>
       <c r="AR96">
-        <v>16.27620510171288</v>
+        <v>16.27608513595353</v>
       </c>
       <c r="AS96">
         <v>1.25</v>
@@ -18987,16 +18987,16 @@
         <v>696</v>
       </c>
       <c r="AY96">
-        <v>0.01312518906465517</v>
+        <v>0.01310508316522988</v>
       </c>
       <c r="AZ96">
-        <v>0.02335474071990851</v>
+        <v>0.02333513175602083</v>
       </c>
       <c r="BA96">
         <v>-0.00315</v>
       </c>
       <c r="BB96">
-        <v>-0.00016625</v>
+        <v>-0.0001655</v>
       </c>
       <c r="BC96">
         <v>0.001885</v>
@@ -19011,22 +19011,22 @@
         <v>696</v>
       </c>
       <c r="BG96">
-        <v>0.27355339612069</v>
+        <v>0.2729775636206896</v>
       </c>
       <c r="BH96">
-        <v>0.3191399637216524</v>
+        <v>0.3185037022038715</v>
       </c>
       <c r="BI96">
         <v>-0.0306</v>
       </c>
       <c r="BJ96">
-        <v>-0.0039075</v>
+        <v>-0.003915</v>
       </c>
       <c r="BK96">
         <v>0.02955</v>
       </c>
       <c r="BL96">
-        <v>0.60025</v>
+        <v>0.597</v>
       </c>
       <c r="BM96">
         <v>1.25</v>
@@ -19064,10 +19064,10 @@
         <v>696</v>
       </c>
       <c r="K97">
-        <v>37.92672413793102</v>
+        <v>37.92772988505746</v>
       </c>
       <c r="L97">
-        <v>2.608608584991224</v>
+        <v>2.608716659383943</v>
       </c>
       <c r="M97">
         <v>33.3</v>
@@ -19088,34 +19088,34 @@
         <v>696</v>
       </c>
       <c r="S97">
-        <v>3.804482758620682</v>
+        <v>3.80461206896551</v>
       </c>
       <c r="T97">
-        <v>0.6429668349000934</v>
+        <v>0.6426763904315757</v>
       </c>
       <c r="U97">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="V97">
-        <v>3.2775</v>
+        <v>3.27</v>
       </c>
       <c r="W97">
-        <v>3.65</v>
+        <v>3.645</v>
       </c>
       <c r="X97">
-        <v>4.22</v>
+        <v>4.2075</v>
       </c>
       <c r="Y97">
-        <v>5.25</v>
+        <v>5.23</v>
       </c>
       <c r="Z97">
         <v>696</v>
       </c>
       <c r="AA97">
-        <v>37.9153735632184</v>
+        <v>37.91551724137932</v>
       </c>
       <c r="AB97">
-        <v>2.61890347279507</v>
+        <v>2.618789992924297</v>
       </c>
       <c r="AC97">
         <v>33.3</v>
@@ -19136,16 +19136,16 @@
         <v>696</v>
       </c>
       <c r="AI97">
-        <v>108.5548850574713</v>
+        <v>108.5610632183909</v>
       </c>
       <c r="AJ97">
-        <v>28.73742110533463</v>
+        <v>28.75037778452369</v>
       </c>
       <c r="AK97">
         <v>59.1</v>
       </c>
       <c r="AL97">
-        <v>93.5</v>
+        <v>93.47499999999999</v>
       </c>
       <c r="AM97">
         <v>112</v>
@@ -19160,10 +19160,10 @@
         <v>696</v>
       </c>
       <c r="AQ97">
-        <v>28.73748563218389</v>
+        <v>28.73616379310343</v>
       </c>
       <c r="AR97">
-        <v>16.27427555217111</v>
+        <v>16.27334462875494</v>
       </c>
       <c r="AS97">
         <v>1.25</v>
@@ -19184,10 +19184,10 @@
         <v>696</v>
       </c>
       <c r="AY97">
-        <v>0.01323949581896552</v>
+        <v>0.01321722977011494</v>
       </c>
       <c r="AZ97">
-        <v>0.02354537598905713</v>
+        <v>0.02351618763892284</v>
       </c>
       <c r="BA97">
         <v>-0.00305</v>
@@ -19208,13 +19208,13 @@
         <v>696</v>
       </c>
       <c r="BG97">
-        <v>0.2757044376436782</v>
+        <v>0.2750674380747128</v>
       </c>
       <c r="BH97">
-        <v>0.3209235623270691</v>
+        <v>0.3201944418301495</v>
       </c>
       <c r="BI97">
-        <v>-0.0303</v>
+        <v>-0.0304</v>
       </c>
       <c r="BJ97">
         <v>-0.0029825</v>
@@ -19223,7 +19223,7 @@
         <v>0.0303</v>
       </c>
       <c r="BL97">
-        <v>0.604</v>
+        <v>0.60025</v>
       </c>
       <c r="BM97">
         <v>1.24</v>
@@ -19261,10 +19261,10 @@
         <v>696</v>
       </c>
       <c r="K98">
-        <v>37.92255747126435</v>
+        <v>37.9221264367816</v>
       </c>
       <c r="L98">
-        <v>2.608148781920757</v>
+        <v>2.608579991581622</v>
       </c>
       <c r="M98">
         <v>33.3</v>
@@ -19279,28 +19279,28 @@
         <v>40</v>
       </c>
       <c r="Q98">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="R98">
         <v>696</v>
       </c>
       <c r="S98">
-        <v>3.800186781609195</v>
+        <v>3.799899425287353</v>
       </c>
       <c r="T98">
-        <v>0.6430740871852905</v>
+        <v>0.6431810478969121</v>
       </c>
       <c r="U98">
-        <v>2.81</v>
+        <v>2.8</v>
       </c>
       <c r="V98">
         <v>3.27</v>
       </c>
       <c r="W98">
-        <v>3.64</v>
+        <v>3.645</v>
       </c>
       <c r="X98">
-        <v>4.22</v>
+        <v>4.2075</v>
       </c>
       <c r="Y98">
         <v>5.26</v>
@@ -19333,16 +19333,16 @@
         <v>696</v>
       </c>
       <c r="AI98">
-        <v>108.5366379310345</v>
+        <v>108.5389367816091</v>
       </c>
       <c r="AJ98">
-        <v>28.73018155162931</v>
+        <v>28.7253432539107</v>
       </c>
       <c r="AK98">
         <v>59</v>
       </c>
       <c r="AL98">
-        <v>93.5</v>
+        <v>93.47499999999999</v>
       </c>
       <c r="AM98">
         <v>112</v>
@@ -19357,10 +19357,10 @@
         <v>696</v>
       </c>
       <c r="AQ98">
-        <v>28.73479885057469</v>
+        <v>28.73340517241378</v>
       </c>
       <c r="AR98">
-        <v>16.27293254986422</v>
+        <v>16.27265325850613</v>
       </c>
       <c r="AS98">
         <v>1.25</v>
@@ -19381,22 +19381,22 @@
         <v>696</v>
       </c>
       <c r="AY98">
-        <v>0.01334857057471265</v>
+        <v>0.01331985004310346</v>
       </c>
       <c r="AZ98">
-        <v>0.02372879035343387</v>
+        <v>0.02369848903064655</v>
       </c>
       <c r="BA98">
-        <v>-0.00296</v>
+        <v>-0.00295</v>
       </c>
       <c r="BB98">
         <v>-0.00013825</v>
       </c>
       <c r="BC98">
-        <v>0.00202</v>
+        <v>0.002015</v>
       </c>
       <c r="BD98">
-        <v>0.01625</v>
+        <v>0.016225</v>
       </c>
       <c r="BE98">
         <v>0.156</v>
@@ -19405,25 +19405,25 @@
         <v>696</v>
       </c>
       <c r="BG98">
-        <v>0.2776366896551724</v>
+        <v>0.2768085790229882</v>
       </c>
       <c r="BH98">
-        <v>0.3222109717636508</v>
+        <v>0.3212622749074278</v>
       </c>
       <c r="BI98">
         <v>-0.0301</v>
       </c>
       <c r="BJ98">
-        <v>-0.00258</v>
+        <v>-0.0025775</v>
       </c>
       <c r="BK98">
         <v>0.0308</v>
       </c>
       <c r="BL98">
-        <v>0.6074999999999999</v>
+        <v>0.60325</v>
       </c>
       <c r="BM98">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="99" spans="1:65">
@@ -19458,10 +19458,10 @@
         <v>696</v>
       </c>
       <c r="K99">
-        <v>37.9080459770115</v>
+        <v>37.91839080459768</v>
       </c>
       <c r="L99">
-        <v>2.608148532240521</v>
+        <v>2.608978575098962</v>
       </c>
       <c r="M99">
         <v>33.3</v>
@@ -19482,25 +19482,25 @@
         <v>696</v>
       </c>
       <c r="S99">
-        <v>3.784755747126437</v>
+        <v>3.794468390804596</v>
       </c>
       <c r="T99">
-        <v>0.6431222832323145</v>
+        <v>0.6427074066091135</v>
       </c>
       <c r="U99">
-        <v>2.79</v>
+        <v>2.82</v>
       </c>
       <c r="V99">
-        <v>3.2575</v>
+        <v>3.26</v>
       </c>
       <c r="W99">
-        <v>3.62</v>
+        <v>3.64</v>
       </c>
       <c r="X99">
-        <v>4.19</v>
+        <v>4.1925</v>
       </c>
       <c r="Y99">
-        <v>5.23</v>
+        <v>5.22</v>
       </c>
       <c r="Z99">
         <v>696</v>
@@ -19530,16 +19530,16 @@
         <v>696</v>
       </c>
       <c r="AI99">
-        <v>108.4826149425287</v>
+        <v>108.5035919540229</v>
       </c>
       <c r="AJ99">
-        <v>28.70979828331755</v>
+        <v>28.70761213116733</v>
       </c>
       <c r="AK99">
-        <v>59</v>
+        <v>59.1</v>
       </c>
       <c r="AL99">
-        <v>93.40000000000001</v>
+        <v>93.47499999999999</v>
       </c>
       <c r="AM99">
         <v>112</v>
@@ -19554,10 +19554,10 @@
         <v>696</v>
       </c>
       <c r="AQ99">
-        <v>28.72189655172412</v>
+        <v>28.73117816091952</v>
       </c>
       <c r="AR99">
-        <v>16.26718089404683</v>
+        <v>16.27103073563158</v>
       </c>
       <c r="AS99">
         <v>1.25</v>
@@ -19569,7 +19569,7 @@
         <v>31.6</v>
       </c>
       <c r="AV99">
-        <v>40.125</v>
+        <v>40.15</v>
       </c>
       <c r="AW99">
         <v>112</v>
@@ -19578,10 +19578,10 @@
         <v>696</v>
       </c>
       <c r="AY99">
-        <v>0.0134500928347701</v>
+        <v>0.01342552608333333</v>
       </c>
       <c r="AZ99">
-        <v>0.02389929969301838</v>
+        <v>0.02388060725936094</v>
       </c>
       <c r="BA99">
         <v>-0.00286</v>
@@ -19602,22 +19602,22 @@
         <v>696</v>
       </c>
       <c r="BG99">
-        <v>0.2793257606321837</v>
+        <v>0.2786542485632185</v>
       </c>
       <c r="BH99">
-        <v>0.3233531417558062</v>
+        <v>0.322644691299584</v>
       </c>
       <c r="BI99">
-        <v>-0.0298</v>
+        <v>-0.0299</v>
       </c>
       <c r="BJ99">
         <v>-0.002255</v>
       </c>
       <c r="BK99">
-        <v>0.0314</v>
+        <v>0.03145</v>
       </c>
       <c r="BL99">
-        <v>0.6105</v>
+        <v>0.60675</v>
       </c>
       <c r="BM99">
         <v>1.22</v>
@@ -19655,10 +19655,10 @@
         <v>696</v>
       </c>
       <c r="K100">
-        <v>37.91910919540229</v>
+        <v>37.91479885057471</v>
       </c>
       <c r="L100">
-        <v>2.608512861614888</v>
+        <v>2.608651232810687</v>
       </c>
       <c r="M100">
         <v>33.3</v>
@@ -19673,16 +19673,16 @@
         <v>40</v>
       </c>
       <c r="Q100">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="R100">
         <v>696</v>
       </c>
       <c r="S100">
-        <v>3.796566091954022</v>
+        <v>3.793117816091951</v>
       </c>
       <c r="T100">
-        <v>0.6437121356718233</v>
+        <v>0.6432305317960646</v>
       </c>
       <c r="U100">
         <v>2.81</v>
@@ -19691,22 +19691,22 @@
         <v>3.26</v>
       </c>
       <c r="W100">
-        <v>3.635</v>
+        <v>3.63</v>
       </c>
       <c r="X100">
-        <v>4.22</v>
+        <v>4.202500000000001</v>
       </c>
       <c r="Y100">
-        <v>5.26</v>
+        <v>5.23</v>
       </c>
       <c r="Z100">
         <v>696</v>
       </c>
       <c r="AA100">
-        <v>37.91408045977011</v>
+        <v>37.91436781609195</v>
       </c>
       <c r="AB100">
-        <v>2.620473352674678</v>
+        <v>2.619972080097015</v>
       </c>
       <c r="AC100">
         <v>33.3</v>
@@ -19727,16 +19727,16 @@
         <v>696</v>
       </c>
       <c r="AI100">
-        <v>108.5123563218391</v>
+        <v>108.5028735632183</v>
       </c>
       <c r="AJ100">
-        <v>28.70024625105876</v>
+        <v>28.71140234861886</v>
       </c>
       <c r="AK100">
         <v>59</v>
       </c>
       <c r="AL100">
-        <v>93.5</v>
+        <v>93.47499999999999</v>
       </c>
       <c r="AM100">
         <v>112</v>
@@ -19751,10 +19751,10 @@
         <v>696</v>
       </c>
       <c r="AQ100">
-        <v>28.7323132183908</v>
+        <v>28.72775862068963</v>
       </c>
       <c r="AR100">
-        <v>16.27208708477676</v>
+        <v>16.26998943208229</v>
       </c>
       <c r="AS100">
         <v>1.25</v>
@@ -19775,10 +19775,10 @@
         <v>696</v>
       </c>
       <c r="AY100">
-        <v>0.01356061836206897</v>
+        <v>0.01352808330459769</v>
       </c>
       <c r="AZ100">
-        <v>0.02409341222246957</v>
+        <v>0.02403323853241464</v>
       </c>
       <c r="BA100">
         <v>-0.00277</v>
@@ -19790,7 +19790,7 @@
         <v>0.002145</v>
       </c>
       <c r="BD100">
-        <v>0.01645</v>
+        <v>0.016425</v>
       </c>
       <c r="BE100">
         <v>0.158</v>
@@ -19799,10 +19799,10 @@
         <v>696</v>
       </c>
       <c r="BG100">
-        <v>0.2813319454022991</v>
+        <v>0.2806005459770117</v>
       </c>
       <c r="BH100">
-        <v>0.32516920472056</v>
+        <v>0.3243726811302141</v>
       </c>
       <c r="BI100">
         <v>-0.0297</v>
@@ -19814,7 +19814,7 @@
         <v>0.03215</v>
       </c>
       <c r="BL100">
-        <v>0.614</v>
+        <v>0.61075</v>
       </c>
       <c r="BM100">
         <v>1.24</v>
@@ -19852,10 +19852,10 @@
         <v>696</v>
       </c>
       <c r="K101">
-        <v>37.94727011494252</v>
+        <v>37.93175287356321</v>
       </c>
       <c r="L101">
-        <v>2.611550109772702</v>
+        <v>2.610501278109879</v>
       </c>
       <c r="M101">
         <v>33.3</v>
@@ -19870,31 +19870,31 @@
         <v>40.025</v>
       </c>
       <c r="Q101">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="R101">
         <v>696</v>
       </c>
       <c r="S101">
-        <v>3.824037356321839</v>
+        <v>3.808893678160918</v>
       </c>
       <c r="T101">
-        <v>0.6441711589754193</v>
+        <v>0.6435620837074507</v>
       </c>
       <c r="U101">
-        <v>2.84</v>
+        <v>2.83</v>
       </c>
       <c r="V101">
-        <v>3.2975</v>
+        <v>3.28</v>
       </c>
       <c r="W101">
-        <v>3.675</v>
+        <v>3.65</v>
       </c>
       <c r="X101">
-        <v>4.25</v>
+        <v>4.2175</v>
       </c>
       <c r="Y101">
-        <v>5.29</v>
+        <v>5.24</v>
       </c>
       <c r="Z101">
         <v>696</v>
@@ -19924,16 +19924,16 @@
         <v>696</v>
       </c>
       <c r="AI101">
-        <v>108.5966954022987</v>
+        <v>108.5435344827586</v>
       </c>
       <c r="AJ101">
-        <v>28.74492591819189</v>
+        <v>28.72664947033704</v>
       </c>
       <c r="AK101">
         <v>59.1</v>
       </c>
       <c r="AL101">
-        <v>93.59999999999999</v>
+        <v>93.55</v>
       </c>
       <c r="AM101">
         <v>112</v>
@@ -19948,10 +19948,10 @@
         <v>696</v>
       </c>
       <c r="AQ101">
-        <v>28.75011494252872</v>
+        <v>28.73583333333332</v>
       </c>
       <c r="AR101">
-        <v>16.28501851090254</v>
+        <v>16.27238179789604</v>
       </c>
       <c r="AS101">
         <v>1.25</v>
@@ -19963,31 +19963,31 @@
         <v>31.6</v>
       </c>
       <c r="AV101">
-        <v>40.225</v>
+        <v>40.15</v>
       </c>
       <c r="AW101">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AX101">
         <v>696</v>
       </c>
       <c r="AY101">
-        <v>0.01368182854885057</v>
+        <v>0.01363171380747127</v>
       </c>
       <c r="AZ101">
-        <v>0.02429230492945199</v>
+        <v>0.02421012605916724</v>
       </c>
       <c r="BA101">
         <v>-0.00268</v>
       </c>
       <c r="BB101">
-        <v>-0.0001095</v>
+        <v>-0.00010925</v>
       </c>
       <c r="BC101">
         <v>0.00219</v>
       </c>
       <c r="BD101">
-        <v>0.01655</v>
+        <v>0.01645</v>
       </c>
       <c r="BE101">
         <v>0.159</v>
@@ -19996,22 +19996,22 @@
         <v>696</v>
       </c>
       <c r="BG101">
-        <v>0.2835814612068966</v>
+        <v>0.2824384310344827</v>
       </c>
       <c r="BH101">
-        <v>0.3274084077347432</v>
+        <v>0.3261594792734957</v>
       </c>
       <c r="BI101">
-        <v>-0.0295</v>
+        <v>-0.0294</v>
       </c>
       <c r="BJ101">
         <v>-0.001645</v>
       </c>
       <c r="BK101">
-        <v>0.0329</v>
+        <v>0.03295</v>
       </c>
       <c r="BL101">
-        <v>0.618</v>
+        <v>0.61375</v>
       </c>
       <c r="BM101">
         <v>1.26</v>
@@ -20049,10 +20049,10 @@
         <v>696</v>
       </c>
       <c r="K102">
-        <v>37.93089080459767</v>
+        <v>37.91968390804596</v>
       </c>
       <c r="L102">
-        <v>2.61008168446315</v>
+        <v>2.609572949560674</v>
       </c>
       <c r="M102">
         <v>33.3</v>
@@ -20067,31 +20067,31 @@
         <v>40</v>
       </c>
       <c r="Q102">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="R102">
         <v>696</v>
       </c>
       <c r="S102">
-        <v>3.808534482758619</v>
+        <v>3.797988505747125</v>
       </c>
       <c r="T102">
-        <v>0.6446966886776775</v>
+        <v>0.6440498929554246</v>
       </c>
       <c r="U102">
         <v>2.79</v>
       </c>
       <c r="V102">
-        <v>3.28</v>
+        <v>3.27</v>
       </c>
       <c r="W102">
-        <v>3.655</v>
+        <v>3.64</v>
       </c>
       <c r="X102">
-        <v>4.23</v>
+        <v>4.21</v>
       </c>
       <c r="Y102">
-        <v>5.27</v>
+        <v>5.25</v>
       </c>
       <c r="Z102">
         <v>696</v>
@@ -20121,10 +20121,10 @@
         <v>696</v>
       </c>
       <c r="AI102">
-        <v>108.5507183908045</v>
+        <v>108.5173850574712</v>
       </c>
       <c r="AJ102">
-        <v>28.71812100927421</v>
+        <v>28.71697363969157</v>
       </c>
       <c r="AK102">
         <v>59</v>
@@ -20145,10 +20145,10 @@
         <v>696</v>
       </c>
       <c r="AQ102">
-        <v>28.73548850574713</v>
+        <v>28.7273132183908</v>
       </c>
       <c r="AR102">
-        <v>16.27244756295364</v>
+        <v>16.2692936476173</v>
       </c>
       <c r="AS102">
         <v>1.25</v>
@@ -20169,22 +20169,22 @@
         <v>696</v>
       </c>
       <c r="AY102">
-        <v>0.01377238820114943</v>
+        <v>0.01374737952586207</v>
       </c>
       <c r="AZ102">
-        <v>0.02443631000592978</v>
+        <v>0.0243972711531514</v>
       </c>
       <c r="BA102">
-        <v>-0.00258</v>
+        <v>-0.00259</v>
       </c>
       <c r="BB102">
-        <v>-0.0001007</v>
+        <v>-0.000100775</v>
       </c>
       <c r="BC102">
-        <v>0.002235</v>
+        <v>0.00224</v>
       </c>
       <c r="BD102">
-        <v>0.016625</v>
+        <v>0.01655</v>
       </c>
       <c r="BE102">
         <v>0.16</v>
@@ -20193,10 +20193,10 @@
         <v>696</v>
       </c>
       <c r="BG102">
-        <v>0.2852565104885058</v>
+        <v>0.2845767383620688</v>
       </c>
       <c r="BH102">
-        <v>0.3291905132673602</v>
+        <v>0.3284478072530024</v>
       </c>
       <c r="BI102">
         <v>-0.0293</v>
@@ -20205,10 +20205,10 @@
         <v>-0.001345</v>
       </c>
       <c r="BK102">
-        <v>0.03365</v>
+        <v>0.0337</v>
       </c>
       <c r="BL102">
-        <v>0.6205000000000001</v>
+        <v>0.617</v>
       </c>
       <c r="BM102">
         <v>1.29</v>
@@ -20246,16 +20246,16 @@
         <v>696</v>
       </c>
       <c r="K103">
-        <v>37.90977011494251</v>
+        <v>37.89152298850574</v>
       </c>
       <c r="L103">
-        <v>2.610684621259555</v>
+        <v>2.607703028958734</v>
       </c>
       <c r="M103">
         <v>33.3</v>
       </c>
       <c r="N103">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="O103">
         <v>38.15000000000001</v>
@@ -20270,25 +20270,25 @@
         <v>696</v>
       </c>
       <c r="S103">
-        <v>3.786522988505743</v>
+        <v>3.770043103448276</v>
       </c>
       <c r="T103">
-        <v>0.6435407737885165</v>
+        <v>0.6434194831002128</v>
       </c>
       <c r="U103">
-        <v>2.8</v>
+        <v>2.79</v>
       </c>
       <c r="V103">
-        <v>3.26</v>
+        <v>3.23</v>
       </c>
       <c r="W103">
-        <v>3.625</v>
+        <v>3.61</v>
       </c>
       <c r="X103">
-        <v>4.1875</v>
+        <v>4.185</v>
       </c>
       <c r="Y103">
-        <v>5.21</v>
+        <v>5.22</v>
       </c>
       <c r="Z103">
         <v>696</v>
@@ -20318,16 +20318,16 @@
         <v>696</v>
       </c>
       <c r="AI103">
-        <v>108.4597701149425</v>
+        <v>108.4260057471264</v>
       </c>
       <c r="AJ103">
-        <v>28.66251992223295</v>
+        <v>28.66987839256684</v>
       </c>
       <c r="AK103">
         <v>59</v>
       </c>
       <c r="AL103">
-        <v>93.47499999999999</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AM103">
         <v>112</v>
@@ -20342,10 +20342,10 @@
         <v>696</v>
       </c>
       <c r="AQ103">
-        <v>28.72193965517242</v>
+        <v>28.70688218390803</v>
       </c>
       <c r="AR103">
-        <v>16.26776120139786</v>
+        <v>16.26091954244764</v>
       </c>
       <c r="AS103">
         <v>1.25</v>
@@ -20357,7 +20357,7 @@
         <v>31.6</v>
       </c>
       <c r="AV103">
-        <v>40.15</v>
+        <v>40.125</v>
       </c>
       <c r="AW103">
         <v>112</v>
@@ -20366,34 +20366,34 @@
         <v>696</v>
       </c>
       <c r="AY103">
-        <v>0.0138842610445402</v>
+        <v>0.01385066611350573</v>
       </c>
       <c r="AZ103">
-        <v>0.02461752437983508</v>
+        <v>0.0245710848775697</v>
       </c>
       <c r="BA103">
         <v>-0.0025</v>
       </c>
       <c r="BB103">
-        <v>-8.960000000000001E-05</v>
+        <v>-8.97E-05</v>
       </c>
       <c r="BC103">
-        <v>0.00229</v>
+        <v>0.002285</v>
       </c>
       <c r="BD103">
         <v>0.01665</v>
       </c>
       <c r="BE103">
-        <v>0.161</v>
+        <v>0.16</v>
       </c>
       <c r="BF103">
         <v>696</v>
       </c>
       <c r="BG103">
-        <v>0.2873286988505747</v>
+        <v>0.2865351057471264</v>
       </c>
       <c r="BH103">
-        <v>0.3312475212809834</v>
+        <v>0.3304195919094643</v>
       </c>
       <c r="BI103">
         <v>-0.029</v>
@@ -20402,10 +20402,10 @@
         <v>-0.00105875</v>
       </c>
       <c r="BK103">
-        <v>0.0344</v>
+        <v>0.03435</v>
       </c>
       <c r="BL103">
-        <v>0.62475</v>
+        <v>0.62</v>
       </c>
       <c r="BM103">
         <v>1.3</v>
@@ -20443,10 +20443,10 @@
         <v>696</v>
       </c>
       <c r="K104">
-        <v>37.93635057471266</v>
+        <v>37.92155172413791</v>
       </c>
       <c r="L104">
-        <v>2.611234810979589</v>
+        <v>2.60940102395082</v>
       </c>
       <c r="M104">
         <v>33.3</v>
@@ -20467,22 +20467,22 @@
         <v>696</v>
       </c>
       <c r="S104">
-        <v>3.814798850574713</v>
+        <v>3.799410919540233</v>
       </c>
       <c r="T104">
-        <v>0.6446070375523268</v>
+        <v>0.6450837416800033</v>
       </c>
       <c r="U104">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="V104">
-        <v>3.28</v>
+        <v>3.27</v>
       </c>
       <c r="W104">
-        <v>3.65</v>
+        <v>3.645</v>
       </c>
       <c r="X104">
-        <v>4.215</v>
+        <v>4.22</v>
       </c>
       <c r="Y104">
         <v>5.27</v>
@@ -20515,10 +20515,10 @@
         <v>696</v>
       </c>
       <c r="AI104">
-        <v>108.5545977011495</v>
+        <v>108.5218390804597</v>
       </c>
       <c r="AJ104">
-        <v>28.72209149734419</v>
+        <v>28.71402805703858</v>
       </c>
       <c r="AK104">
         <v>59</v>
@@ -20539,10 +20539,10 @@
         <v>696</v>
       </c>
       <c r="AQ104">
-        <v>28.73573275862068</v>
+        <v>28.72616379310345</v>
       </c>
       <c r="AR104">
-        <v>16.27177305370294</v>
+        <v>16.26837958958958</v>
       </c>
       <c r="AS104">
         <v>1.25</v>
@@ -20554,7 +20554,7 @@
         <v>31.6</v>
       </c>
       <c r="AV104">
-        <v>40.15</v>
+        <v>40.125</v>
       </c>
       <c r="AW104">
         <v>112</v>
@@ -20563,16 +20563,16 @@
         <v>696</v>
       </c>
       <c r="AY104">
-        <v>0.01399706309195403</v>
+        <v>0.01395879237931032</v>
       </c>
       <c r="AZ104">
-        <v>0.02479977453935835</v>
+        <v>0.02474187167686499</v>
       </c>
       <c r="BA104">
         <v>-0.00242</v>
       </c>
       <c r="BB104">
-        <v>-7.835000000000001E-05</v>
+        <v>-7.825E-05</v>
       </c>
       <c r="BC104">
         <v>0.00233</v>
@@ -20581,28 +20581,28 @@
         <v>0.01675</v>
       </c>
       <c r="BE104">
-        <v>0.162</v>
+        <v>0.161</v>
       </c>
       <c r="BF104">
         <v>696</v>
       </c>
       <c r="BG104">
-        <v>0.2894479607758619</v>
+        <v>0.2885288805459768</v>
       </c>
       <c r="BH104">
-        <v>0.3332690555563293</v>
+        <v>0.3322828000538351</v>
       </c>
       <c r="BI104">
-        <v>-0.0288</v>
+        <v>-0.0289</v>
       </c>
       <c r="BJ104">
-        <v>-0.00078</v>
+        <v>-0.0007795</v>
       </c>
       <c r="BK104">
         <v>0.0351</v>
       </c>
       <c r="BL104">
-        <v>0.62875</v>
+        <v>0.6245000000000001</v>
       </c>
       <c r="BM104">
         <v>1.31</v>
@@ -20640,19 +20640,19 @@
         <v>696</v>
       </c>
       <c r="K105">
-        <v>37.91781609195401</v>
+        <v>37.93620689655172</v>
       </c>
       <c r="L105">
-        <v>2.612443680976311</v>
+        <v>2.613635409175549</v>
       </c>
       <c r="M105">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="N105">
         <v>36.1</v>
       </c>
       <c r="O105">
-        <v>38.1</v>
+        <v>38.15000000000001</v>
       </c>
       <c r="P105">
         <v>40</v>
@@ -20664,25 +20664,25 @@
         <v>696</v>
       </c>
       <c r="S105">
-        <v>3.796666666666667</v>
+        <v>3.814109195402295</v>
       </c>
       <c r="T105">
-        <v>0.6484084185281879</v>
+        <v>0.6489964003194109</v>
       </c>
       <c r="U105">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="V105">
-        <v>3.27</v>
+        <v>3.2875</v>
       </c>
       <c r="W105">
-        <v>3.645</v>
+        <v>3.67</v>
       </c>
       <c r="X105">
-        <v>4.2225</v>
+        <v>4.2125</v>
       </c>
       <c r="Y105">
-        <v>5.34</v>
+        <v>5.33</v>
       </c>
       <c r="Z105">
         <v>696</v>
@@ -20712,16 +20712,16 @@
         <v>696</v>
       </c>
       <c r="AI105">
-        <v>108.5102011494253</v>
+        <v>108.5544540229885</v>
       </c>
       <c r="AJ105">
-        <v>28.71541980601604</v>
+        <v>28.71290302768114</v>
       </c>
       <c r="AK105">
-        <v>59</v>
+        <v>58.9</v>
       </c>
       <c r="AL105">
-        <v>93.40000000000001</v>
+        <v>93.57499999999999</v>
       </c>
       <c r="AM105">
         <v>112</v>
@@ -20730,16 +20730,16 @@
         <v>117</v>
       </c>
       <c r="AO105">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AP105">
         <v>696</v>
       </c>
       <c r="AQ105">
-        <v>28.72534482758621</v>
+        <v>28.74145114942531</v>
       </c>
       <c r="AR105">
-        <v>16.27260866261701</v>
+        <v>16.2864931121201</v>
       </c>
       <c r="AS105">
         <v>1.25</v>
@@ -20760,34 +20760,34 @@
         <v>696</v>
       </c>
       <c r="AY105">
-        <v>0.01409006886494252</v>
+        <v>0.01407007607758621</v>
       </c>
       <c r="AZ105">
-        <v>0.02495217317306324</v>
+        <v>0.02493029885709676</v>
       </c>
       <c r="BA105">
-        <v>-0.00233</v>
+        <v>-0.00234</v>
       </c>
       <c r="BB105">
-        <v>-6.0625E-05</v>
+        <v>-6.055E-05</v>
       </c>
       <c r="BC105">
-        <v>0.002385</v>
+        <v>0.00238</v>
       </c>
       <c r="BD105">
-        <v>0.016925</v>
+        <v>0.016825</v>
       </c>
       <c r="BE105">
-        <v>0.163</v>
+        <v>0.162</v>
       </c>
       <c r="BF105">
         <v>696</v>
       </c>
       <c r="BG105">
-        <v>0.2911287787356322</v>
+        <v>0.2905448060344826</v>
       </c>
       <c r="BH105">
-        <v>0.3346847001244623</v>
+        <v>0.3340489938515587</v>
       </c>
       <c r="BI105">
         <v>-0.0287</v>
@@ -20796,13 +20796,13 @@
         <v>-0.00063325</v>
       </c>
       <c r="BK105">
-        <v>0.03585</v>
+        <v>0.0359</v>
       </c>
       <c r="BL105">
-        <v>0.633</v>
+        <v>0.6285000000000001</v>
       </c>
       <c r="BM105">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="106" spans="1:65">
@@ -20837,10 +20837,10 @@
         <v>696</v>
       </c>
       <c r="K106">
-        <v>37.95014367816089</v>
+        <v>37.92428160919538</v>
       </c>
       <c r="L106">
-        <v>2.613258938851095</v>
+        <v>2.611926062612296</v>
       </c>
       <c r="M106">
         <v>33.3</v>
@@ -20849,7 +20849,7 @@
         <v>36.1</v>
       </c>
       <c r="O106">
-        <v>38.15000000000001</v>
+        <v>38.1</v>
       </c>
       <c r="P106">
         <v>40</v>
@@ -20861,34 +20861,34 @@
         <v>696</v>
       </c>
       <c r="S106">
-        <v>3.828951149425289</v>
+        <v>3.801910919540236</v>
       </c>
       <c r="T106">
-        <v>0.6453164237944212</v>
+        <v>0.6474594051072907</v>
       </c>
       <c r="U106">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="V106">
-        <v>3.3</v>
+        <v>3.28</v>
       </c>
       <c r="W106">
-        <v>3.67</v>
+        <v>3.65</v>
       </c>
       <c r="X106">
-        <v>4.2425</v>
+        <v>4.21</v>
       </c>
       <c r="Y106">
-        <v>5.29</v>
+        <v>5.31</v>
       </c>
       <c r="Z106">
         <v>696</v>
       </c>
       <c r="AA106">
-        <v>37.91364942528735</v>
+        <v>37.91379310344827</v>
       </c>
       <c r="AB106">
-        <v>2.621054851206978</v>
+        <v>2.620974497831542</v>
       </c>
       <c r="AC106">
         <v>33.3</v>
@@ -20909,16 +20909,16 @@
         <v>696</v>
       </c>
       <c r="AI106">
-        <v>108.5850574712644</v>
+        <v>108.5260057471264</v>
       </c>
       <c r="AJ106">
-        <v>28.72037214939195</v>
+        <v>28.7180323191193</v>
       </c>
       <c r="AK106">
-        <v>59.1</v>
+        <v>59</v>
       </c>
       <c r="AL106">
-        <v>93.5</v>
+        <v>93.47499999999999</v>
       </c>
       <c r="AM106">
         <v>112</v>
@@ -20933,10 +20933,10 @@
         <v>696</v>
       </c>
       <c r="AQ106">
-        <v>28.74760057471265</v>
+        <v>28.72895114942531</v>
       </c>
       <c r="AR106">
-        <v>16.27617655652649</v>
+        <v>16.27559597575326</v>
       </c>
       <c r="AS106">
         <v>1.25</v>
@@ -20945,58 +20945,58 @@
         <v>14.775</v>
       </c>
       <c r="AU106">
-        <v>31.65</v>
+        <v>31.6</v>
       </c>
       <c r="AV106">
-        <v>40.15</v>
+        <v>40.2</v>
       </c>
       <c r="AW106">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AX106">
         <v>696</v>
       </c>
       <c r="AY106">
-        <v>0.01421201041666667</v>
+        <v>0.01415236260057471</v>
       </c>
       <c r="AZ106">
-        <v>0.02515112368063967</v>
+        <v>0.0250672651284512</v>
       </c>
       <c r="BA106">
         <v>-0.00225</v>
       </c>
       <c r="BB106">
-        <v>-5.6025E-05</v>
+        <v>-5.595E-05</v>
       </c>
       <c r="BC106">
         <v>0.00242</v>
       </c>
       <c r="BD106">
-        <v>0.01695</v>
+        <v>0.01685</v>
       </c>
       <c r="BE106">
-        <v>0.164</v>
+        <v>0.163</v>
       </c>
       <c r="BF106">
         <v>696</v>
       </c>
       <c r="BG106">
-        <v>0.2933504820402303</v>
+        <v>0.2920253412356329</v>
       </c>
       <c r="BH106">
-        <v>0.3366616352161354</v>
+        <v>0.3352358568129218</v>
       </c>
       <c r="BI106">
         <v>-0.0285</v>
       </c>
       <c r="BJ106">
-        <v>-0.0006212500000000001</v>
+        <v>-0.000626</v>
       </c>
       <c r="BK106">
-        <v>0.03655</v>
+        <v>0.0365</v>
       </c>
       <c r="BL106">
-        <v>0.6355</v>
+        <v>0.6315</v>
       </c>
       <c r="BM106">
         <v>1.32</v>
@@ -21034,10 +21034,10 @@
         <v>696</v>
       </c>
       <c r="K107">
-        <v>37.93060344827586</v>
+        <v>37.94999999999999</v>
       </c>
       <c r="L107">
-        <v>2.613263938507675</v>
+        <v>2.613776451445205</v>
       </c>
       <c r="M107">
         <v>33.3</v>
@@ -21058,40 +21058,40 @@
         <v>696</v>
       </c>
       <c r="S107">
-        <v>3.807672413793098</v>
+        <v>3.826307471264363</v>
       </c>
       <c r="T107">
-        <v>0.645066088087489</v>
+        <v>0.6456272508592041</v>
       </c>
       <c r="U107">
-        <v>2.81</v>
+        <v>2.82</v>
       </c>
       <c r="V107">
-        <v>3.27</v>
+        <v>3.2975</v>
       </c>
       <c r="W107">
-        <v>3.65</v>
+        <v>3.68</v>
       </c>
       <c r="X107">
-        <v>4.23</v>
+        <v>4.2425</v>
       </c>
       <c r="Y107">
-        <v>5.26</v>
+        <v>5.31</v>
       </c>
       <c r="Z107">
         <v>696</v>
       </c>
       <c r="AA107">
-        <v>37.91120689655172</v>
+        <v>37.91221264367815</v>
       </c>
       <c r="AB107">
-        <v>2.622369894779506</v>
+        <v>2.621753543704333</v>
       </c>
       <c r="AC107">
         <v>33.3</v>
       </c>
       <c r="AD107">
-        <v>36</v>
+        <v>36.075</v>
       </c>
       <c r="AE107">
         <v>38.15000000000001</v>
@@ -21106,16 +21106,16 @@
         <v>696</v>
       </c>
       <c r="AI107">
-        <v>108.5163793103448</v>
+        <v>108.5725574712644</v>
       </c>
       <c r="AJ107">
-        <v>28.68887015726694</v>
+        <v>28.70636221180841</v>
       </c>
       <c r="AK107">
         <v>59.1</v>
       </c>
       <c r="AL107">
-        <v>93.5</v>
+        <v>93.57499999999999</v>
       </c>
       <c r="AM107">
         <v>112</v>
@@ -21130,10 +21130,10 @@
         <v>696</v>
       </c>
       <c r="AQ107">
-        <v>28.7314511494253</v>
+        <v>28.74646551724135</v>
       </c>
       <c r="AR107">
-        <v>16.2705391364397</v>
+        <v>16.2833155862761</v>
       </c>
       <c r="AS107">
         <v>1.25</v>
@@ -21145,19 +21145,19 @@
         <v>31.6</v>
       </c>
       <c r="AV107">
-        <v>40.15</v>
+        <v>40.225</v>
       </c>
       <c r="AW107">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AX107">
         <v>696</v>
       </c>
       <c r="AY107">
-        <v>0.01429222511925286</v>
+        <v>0.01426122438649424</v>
       </c>
       <c r="AZ107">
-        <v>0.0252924633425381</v>
+        <v>0.02524800172533294</v>
       </c>
       <c r="BA107">
         <v>-0.00217</v>
@@ -21169,7 +21169,7 @@
         <v>0.002465</v>
       </c>
       <c r="BD107">
-        <v>0.01705</v>
+        <v>0.01695</v>
       </c>
       <c r="BE107">
         <v>0.164</v>
@@ -21178,22 +21178,22 @@
         <v>696</v>
       </c>
       <c r="BG107">
-        <v>0.2947970684913797</v>
+        <v>0.2940203952011493</v>
       </c>
       <c r="BH107">
-        <v>0.3379993018411159</v>
+        <v>0.3371881934475625</v>
       </c>
       <c r="BI107">
         <v>-0.0283</v>
       </c>
       <c r="BJ107">
-        <v>-0.0005610000000000001</v>
+        <v>-0.0005655</v>
       </c>
       <c r="BK107">
         <v>0.03725000000000001</v>
       </c>
       <c r="BL107">
-        <v>0.63875</v>
+        <v>0.63475</v>
       </c>
       <c r="BM107">
         <v>1.34</v>
@@ -21231,10 +21231,10 @@
         <v>696</v>
       </c>
       <c r="K108">
-        <v>37.90818965517239</v>
+        <v>37.91767241379309</v>
       </c>
       <c r="L108">
-        <v>2.612577028974358</v>
+        <v>2.611577055809793</v>
       </c>
       <c r="M108">
         <v>33.3</v>
@@ -21255,34 +21255,34 @@
         <v>696</v>
       </c>
       <c r="S108">
-        <v>3.787025862068961</v>
+        <v>3.795272988505745</v>
       </c>
       <c r="T108">
-        <v>0.6451380350144281</v>
+        <v>0.645208290647051</v>
       </c>
       <c r="U108">
-        <v>2.79</v>
+        <v>2.8</v>
       </c>
       <c r="V108">
-        <v>3.25</v>
+        <v>3.26</v>
       </c>
       <c r="W108">
-        <v>3.635</v>
+        <v>3.645</v>
       </c>
       <c r="X108">
-        <v>4.21</v>
+        <v>4.22</v>
       </c>
       <c r="Y108">
-        <v>5.26</v>
+        <v>5.27</v>
       </c>
       <c r="Z108">
         <v>696</v>
       </c>
       <c r="AA108">
-        <v>37.90948275862069</v>
+        <v>37.91020114942528</v>
       </c>
       <c r="AB108">
-        <v>2.623578042762385</v>
+        <v>2.622980229285327</v>
       </c>
       <c r="AC108">
         <v>33.3</v>
@@ -21303,10 +21303,10 @@
         <v>696</v>
       </c>
       <c r="AI108">
-        <v>108.4701149425288</v>
+        <v>108.4863505747127</v>
       </c>
       <c r="AJ108">
-        <v>28.68270324272994</v>
+        <v>28.68370555741111</v>
       </c>
       <c r="AK108">
         <v>59</v>
@@ -21327,10 +21327,10 @@
         <v>696</v>
       </c>
       <c r="AQ108">
-        <v>28.71518678160917</v>
+        <v>28.72173850574712</v>
       </c>
       <c r="AR108">
-        <v>16.26326749473642</v>
+        <v>16.26614604155488</v>
       </c>
       <c r="AS108">
         <v>1.25</v>
@@ -21351,22 +21351,22 @@
         <v>696</v>
       </c>
       <c r="AY108">
-        <v>0.01438294083333333</v>
+        <v>0.01435923102586207</v>
       </c>
       <c r="AZ108">
-        <v>0.02542203256303528</v>
+        <v>0.025410317496037</v>
       </c>
       <c r="BA108">
-        <v>-0.00208</v>
+        <v>-0.00209</v>
       </c>
       <c r="BB108">
-        <v>-3.57E-05</v>
+        <v>-3.565E-05</v>
       </c>
       <c r="BC108">
-        <v>0.002505</v>
+        <v>0.0025</v>
       </c>
       <c r="BD108">
-        <v>0.017125</v>
+        <v>0.01705</v>
       </c>
       <c r="BE108">
         <v>0.165</v>
@@ -21375,25 +21375,25 @@
         <v>696</v>
       </c>
       <c r="BG108">
-        <v>0.2966150906609191</v>
+        <v>0.2958506814655174</v>
       </c>
       <c r="BH108">
-        <v>0.3399475642096627</v>
+        <v>0.3390904858992771</v>
       </c>
       <c r="BI108">
-        <v>-0.028</v>
+        <v>-0.0281</v>
       </c>
       <c r="BJ108">
-        <v>-0.0005222499999999999</v>
+        <v>-0.00052475</v>
       </c>
       <c r="BK108">
         <v>0.0379</v>
       </c>
       <c r="BL108">
-        <v>0.64275</v>
+        <v>0.63825</v>
       </c>
       <c r="BM108">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="109" spans="1:65">
@@ -21428,58 +21428,58 @@
         <v>696</v>
       </c>
       <c r="K109">
-        <v>37.88951149425286</v>
+        <v>37.90890804597701</v>
       </c>
       <c r="L109">
-        <v>2.611092396301972</v>
+        <v>2.612654530933455</v>
       </c>
       <c r="M109">
         <v>33.3</v>
       </c>
       <c r="N109">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="O109">
-        <v>38.1</v>
+        <v>38.15000000000001</v>
       </c>
       <c r="P109">
         <v>40</v>
       </c>
       <c r="Q109">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="R109">
         <v>696</v>
       </c>
       <c r="S109">
-        <v>3.768132183908044</v>
+        <v>3.788692528735631</v>
       </c>
       <c r="T109">
-        <v>0.6449955349118566</v>
+        <v>0.6453600971284811</v>
       </c>
       <c r="U109">
-        <v>2.77</v>
+        <v>2.79</v>
       </c>
       <c r="V109">
-        <v>3.2375</v>
+        <v>3.2575</v>
       </c>
       <c r="W109">
-        <v>3.61</v>
+        <v>3.64</v>
       </c>
       <c r="X109">
-        <v>4.185</v>
+        <v>4.21</v>
       </c>
       <c r="Y109">
-        <v>5.24</v>
+        <v>5.27</v>
       </c>
       <c r="Z109">
         <v>696</v>
       </c>
       <c r="AA109">
-        <v>37.90775862068966</v>
+        <v>37.9080459770115</v>
       </c>
       <c r="AB109">
-        <v>2.625458672760175</v>
+        <v>2.624970008058531</v>
       </c>
       <c r="AC109">
         <v>33.3</v>
@@ -21500,16 +21500,16 @@
         <v>696</v>
       </c>
       <c r="AI109">
-        <v>108.4146551724137</v>
+        <v>108.4757183908046</v>
       </c>
       <c r="AJ109">
-        <v>28.68348459504209</v>
+        <v>28.6837883082655</v>
       </c>
       <c r="AK109">
         <v>59</v>
       </c>
       <c r="AL109">
-        <v>93.40000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="AM109">
         <v>112</v>
@@ -21524,10 +21524,10 @@
         <v>696</v>
       </c>
       <c r="AQ109">
-        <v>28.69913793103447</v>
+        <v>28.71594827586206</v>
       </c>
       <c r="AR109">
-        <v>16.25625105147474</v>
+        <v>16.26296058131063</v>
       </c>
       <c r="AS109">
         <v>1.25</v>
@@ -21548,10 +21548,10 @@
         <v>696</v>
       </c>
       <c r="AY109">
-        <v>0.01449312248563219</v>
+        <v>0.01445428997126437</v>
       </c>
       <c r="AZ109">
-        <v>0.02560890492454742</v>
+        <v>0.02555316813904441</v>
       </c>
       <c r="BA109">
         <v>-0.00201</v>
@@ -21563,7 +21563,7 @@
         <v>0.00254</v>
       </c>
       <c r="BD109">
-        <v>0.017225</v>
+        <v>0.01715</v>
       </c>
       <c r="BE109">
         <v>0.166</v>
@@ -21572,22 +21572,22 @@
         <v>696</v>
       </c>
       <c r="BG109">
-        <v>0.2986869827586212</v>
+        <v>0.2977636178160921</v>
       </c>
       <c r="BH109">
-        <v>0.3420809921659362</v>
+        <v>0.3410893334340619</v>
       </c>
       <c r="BI109">
         <v>-0.0279</v>
       </c>
       <c r="BJ109">
-        <v>-0.000491</v>
+        <v>-0.0004935</v>
       </c>
       <c r="BK109">
         <v>0.03855</v>
       </c>
       <c r="BL109">
-        <v>0.646</v>
+        <v>0.6415</v>
       </c>
       <c r="BM109">
         <v>1.37</v>
@@ -21625,10 +21625,10 @@
         <v>696</v>
       </c>
       <c r="K110">
-        <v>37.94956896551723</v>
+        <v>37.98218390804595</v>
       </c>
       <c r="L110">
-        <v>2.615817923912953</v>
+        <v>2.618313774596976</v>
       </c>
       <c r="M110">
         <v>33.3</v>
@@ -21637,10 +21637,10 @@
         <v>36.1</v>
       </c>
       <c r="O110">
-        <v>38.15000000000001</v>
+        <v>38.2</v>
       </c>
       <c r="P110">
-        <v>40.025</v>
+        <v>40.1</v>
       </c>
       <c r="Q110">
         <v>41.8</v>
@@ -21649,34 +21649,34 @@
         <v>696</v>
       </c>
       <c r="S110">
-        <v>3.827356321839077</v>
+        <v>3.859482758620686</v>
       </c>
       <c r="T110">
-        <v>0.6458756095935893</v>
+        <v>0.6467566161745983</v>
       </c>
       <c r="U110">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="V110">
-        <v>3.29</v>
+        <v>3.33</v>
       </c>
       <c r="W110">
-        <v>3.67</v>
+        <v>3.7</v>
       </c>
       <c r="X110">
-        <v>4.25</v>
+        <v>4.2725</v>
       </c>
       <c r="Y110">
-        <v>5.29</v>
+        <v>5.33</v>
       </c>
       <c r="Z110">
         <v>696</v>
       </c>
       <c r="AA110">
-        <v>37.90761494252874</v>
+        <v>37.90775862068966</v>
       </c>
       <c r="AB110">
-        <v>2.625708439052798</v>
+        <v>2.625458672760175</v>
       </c>
       <c r="AC110">
         <v>33.3</v>
@@ -21697,16 +21697,16 @@
         <v>696</v>
       </c>
       <c r="AI110">
-        <v>108.5636494252874</v>
+        <v>108.6563218390805</v>
       </c>
       <c r="AJ110">
-        <v>28.70359490007672</v>
+        <v>28.73185763973656</v>
       </c>
       <c r="AK110">
         <v>59.1</v>
       </c>
       <c r="AL110">
-        <v>93.57499999999999</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AM110">
         <v>112</v>
@@ -21721,43 +21721,43 @@
         <v>696</v>
       </c>
       <c r="AQ110">
-        <v>28.74199712643676</v>
+        <v>28.76856321839079</v>
       </c>
       <c r="AR110">
-        <v>16.27354996243438</v>
+        <v>16.29064207536501</v>
       </c>
       <c r="AS110">
         <v>1.25</v>
       </c>
       <c r="AT110">
-        <v>14.775</v>
+        <v>14.875</v>
       </c>
       <c r="AU110">
-        <v>31.65</v>
+        <v>31.7</v>
       </c>
       <c r="AV110">
-        <v>40.15</v>
+        <v>40.225</v>
       </c>
       <c r="AW110">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AX110">
         <v>696</v>
       </c>
       <c r="AY110">
-        <v>0.01460871162356321</v>
+        <v>0.01458400910919539</v>
       </c>
       <c r="AZ110">
-        <v>0.02580360938193799</v>
+        <v>0.0257656411895034</v>
       </c>
       <c r="BA110">
-        <v>-0.00194</v>
+        <v>-0.00193</v>
       </c>
       <c r="BB110">
         <v>-2.1E-05</v>
       </c>
       <c r="BC110">
-        <v>0.00259</v>
+        <v>0.002585</v>
       </c>
       <c r="BD110">
         <v>0.017325</v>
@@ -21769,22 +21769,22 @@
         <v>696</v>
       </c>
       <c r="BG110">
-        <v>0.3009054747701147</v>
+        <v>0.3002521288936779</v>
       </c>
       <c r="BH110">
-        <v>0.3442901362231973</v>
+        <v>0.3435864321681981</v>
       </c>
       <c r="BI110">
         <v>-0.0278</v>
       </c>
       <c r="BJ110">
-        <v>-0.00046375</v>
+        <v>-0.000464</v>
       </c>
       <c r="BK110">
         <v>0.0393</v>
       </c>
       <c r="BL110">
-        <v>0.65025</v>
+        <v>0.646</v>
       </c>
       <c r="BM110">
         <v>1.38</v>
@@ -21822,13 +21822,13 @@
         <v>696</v>
       </c>
       <c r="K111">
-        <v>37.92514367816089</v>
+        <v>37.92442528735631</v>
       </c>
       <c r="L111">
-        <v>2.613894799430984</v>
+        <v>2.615560731967704</v>
       </c>
       <c r="M111">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="N111">
         <v>36.1</v>
@@ -21846,34 +21846,34 @@
         <v>696</v>
       </c>
       <c r="S111">
-        <v>3.802169540229881</v>
+        <v>3.804554597701154</v>
       </c>
       <c r="T111">
-        <v>0.6471429450736805</v>
+        <v>0.6470129060628733</v>
       </c>
       <c r="U111">
-        <v>2.74</v>
+        <v>2.77</v>
       </c>
       <c r="V111">
-        <v>3.27</v>
+        <v>3.28</v>
       </c>
       <c r="W111">
         <v>3.645</v>
       </c>
       <c r="X111">
-        <v>4.2125</v>
+        <v>4.202500000000001</v>
       </c>
       <c r="Y111">
-        <v>5.27</v>
+        <v>5.3</v>
       </c>
       <c r="Z111">
         <v>696</v>
       </c>
       <c r="AA111">
-        <v>37.90689655172413</v>
+        <v>37.90718390804597</v>
       </c>
       <c r="AB111">
-        <v>2.626956796261969</v>
+        <v>2.626457548193023</v>
       </c>
       <c r="AC111">
         <v>33.3</v>
@@ -21894,16 +21894,16 @@
         <v>696</v>
       </c>
       <c r="AI111">
-        <v>108.5004310344827</v>
+        <v>108.5047413793104</v>
       </c>
       <c r="AJ111">
-        <v>28.69509295203924</v>
+        <v>28.69197702899367</v>
       </c>
       <c r="AK111">
         <v>59</v>
       </c>
       <c r="AL111">
-        <v>93.5</v>
+        <v>93.47499999999999</v>
       </c>
       <c r="AM111">
         <v>112</v>
@@ -21918,10 +21918,10 @@
         <v>696</v>
       </c>
       <c r="AQ111">
-        <v>28.7224712643678</v>
+        <v>28.72469827586207</v>
       </c>
       <c r="AR111">
-        <v>16.26533550861481</v>
+        <v>16.26559548419897</v>
       </c>
       <c r="AS111">
         <v>1.25</v>
@@ -21933,7 +21933,7 @@
         <v>31.6</v>
       </c>
       <c r="AV111">
-        <v>40.125</v>
+        <v>40.2</v>
       </c>
       <c r="AW111">
         <v>112</v>
@@ -21942,13 +21942,13 @@
         <v>696</v>
       </c>
       <c r="AY111">
-        <v>0.01470120464080459</v>
+        <v>0.01466424400862067</v>
       </c>
       <c r="AZ111">
-        <v>0.02596227319943023</v>
+        <v>0.02590710124979779</v>
       </c>
       <c r="BA111">
-        <v>-0.00186</v>
+        <v>-0.00185</v>
       </c>
       <c r="BB111">
         <v>-2.0425E-05</v>
@@ -21957,7 +21957,7 @@
         <v>0.002625</v>
       </c>
       <c r="BD111">
-        <v>0.017425</v>
+        <v>0.0174</v>
       </c>
       <c r="BE111">
         <v>0.168</v>
@@ -21966,22 +21966,22 @@
         <v>696</v>
       </c>
       <c r="BG111">
-        <v>0.302537358189655</v>
+        <v>0.3016516363505751</v>
       </c>
       <c r="BH111">
-        <v>0.3455978677158114</v>
+        <v>0.3446164581630073</v>
       </c>
       <c r="BI111">
         <v>-0.0276</v>
       </c>
       <c r="BJ111">
-        <v>-0.00045725</v>
+        <v>-0.0004575</v>
       </c>
       <c r="BK111">
-        <v>0.03995</v>
+        <v>0.03985</v>
       </c>
       <c r="BL111">
-        <v>0.65325</v>
+        <v>0.64875</v>
       </c>
       <c r="BM111">
         <v>1.38</v>
@@ -22019,22 +22019,22 @@
         <v>696</v>
       </c>
       <c r="K112">
-        <v>37.91206896551723</v>
+        <v>37.96364942528734</v>
       </c>
       <c r="L112">
-        <v>2.614909828476736</v>
+        <v>2.61802010161498</v>
       </c>
       <c r="M112">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="N112">
         <v>36.1</v>
       </c>
       <c r="O112">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="P112">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="Q112">
         <v>41.8</v>
@@ -22043,25 +22043,25 @@
         <v>696</v>
       </c>
       <c r="S112">
-        <v>3.790474137931031</v>
+        <v>3.840818965517238</v>
       </c>
       <c r="T112">
-        <v>0.6479727584806853</v>
+        <v>0.6488872968504564</v>
       </c>
       <c r="U112">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="V112">
-        <v>3.26</v>
+        <v>3.31</v>
       </c>
       <c r="W112">
-        <v>3.64</v>
+        <v>3.69</v>
       </c>
       <c r="X112">
-        <v>4.21</v>
+        <v>4.25</v>
       </c>
       <c r="Y112">
-        <v>5.31</v>
+        <v>5.33</v>
       </c>
       <c r="Z112">
         <v>696</v>
@@ -22091,16 +22091,16 @@
         <v>696</v>
       </c>
       <c r="AI112">
-        <v>108.4689655172415</v>
+        <v>108.6034482758621</v>
       </c>
       <c r="AJ112">
-        <v>28.68464130830053</v>
+        <v>28.71084450880594</v>
       </c>
       <c r="AK112">
         <v>59</v>
       </c>
       <c r="AL112">
-        <v>93.40000000000001</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AM112">
         <v>112</v>
@@ -22115,43 +22115,43 @@
         <v>696</v>
       </c>
       <c r="AQ112">
-        <v>28.71285919540231</v>
+        <v>28.75221264367816</v>
       </c>
       <c r="AR112">
-        <v>16.26048258286412</v>
+        <v>16.2837066111019</v>
       </c>
       <c r="AS112">
         <v>1.25</v>
       </c>
       <c r="AT112">
-        <v>14.775</v>
+        <v>14.8</v>
       </c>
       <c r="AU112">
-        <v>31.6</v>
+        <v>31.65</v>
       </c>
       <c r="AV112">
         <v>40.2</v>
       </c>
       <c r="AW112">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AX112">
         <v>696</v>
       </c>
       <c r="AY112">
-        <v>0.01477663010057471</v>
+        <v>0.01478157926724139</v>
       </c>
       <c r="AZ112">
-        <v>0.02607419417418993</v>
+        <v>0.02610954000063367</v>
       </c>
       <c r="BA112">
         <v>-0.00178</v>
       </c>
       <c r="BB112">
-        <v>-2.0375E-05</v>
+        <v>-2.04E-05</v>
       </c>
       <c r="BC112">
-        <v>0.00266</v>
+        <v>0.002665</v>
       </c>
       <c r="BD112">
         <v>0.0175</v>
@@ -22163,22 +22163,22 @@
         <v>696</v>
       </c>
       <c r="BG112">
-        <v>0.303975303448276</v>
+        <v>0.3038051969827589</v>
       </c>
       <c r="BH112">
-        <v>0.3466584540020169</v>
+        <v>0.3464965266778208</v>
       </c>
       <c r="BI112">
-        <v>-0.0274</v>
+        <v>-0.0275</v>
       </c>
       <c r="BJ112">
-        <v>-0.00044825</v>
+        <v>-0.00044925</v>
       </c>
       <c r="BK112">
-        <v>0.04055</v>
+        <v>0.0406</v>
       </c>
       <c r="BL112">
-        <v>0.6567500000000001</v>
+        <v>0.6537500000000001</v>
       </c>
       <c r="BM112">
         <v>1.38</v>

--- a/June2015/ISWRPQAQ_stats.xlsx
+++ b/June2015/ISWRPQAQ_stats.xlsx
@@ -815,10 +815,10 @@
         <v>695</v>
       </c>
       <c r="AI4">
-        <v>131.3105035971223</v>
+        <v>131.3103597122303</v>
       </c>
       <c r="AJ4">
-        <v>49.67770380673517</v>
+        <v>49.67781710299136</v>
       </c>
       <c r="AK4">
         <v>60.2</v>
@@ -839,10 +839,10 @@
         <v>695</v>
       </c>
       <c r="AQ4">
-        <v>34.67376978417269</v>
+        <v>34.67375539568348</v>
       </c>
       <c r="AR4">
-        <v>21.67559925490681</v>
+        <v>21.67561853896473</v>
       </c>
       <c r="AS4">
         <v>1.35</v>
@@ -887,10 +887,10 @@
         <v>695</v>
       </c>
       <c r="BG4">
-        <v>-2.481380000000001</v>
+        <v>-2.481351223021584</v>
       </c>
       <c r="BH4">
-        <v>2.112114985875996</v>
+        <v>2.112077004642484</v>
       </c>
       <c r="BI4">
         <v>-12.5</v>
@@ -1257,10 +1257,10 @@
         <v>696</v>
       </c>
       <c r="AY6">
-        <v>-0.0122887918678161</v>
+        <v>-0.0122887775</v>
       </c>
       <c r="AZ6">
-        <v>0.02743103931167367</v>
+        <v>0.02743104315324116</v>
       </c>
       <c r="BA6">
         <v>-0.211</v>
@@ -1281,10 +1281,10 @@
         <v>696</v>
       </c>
       <c r="BG6">
-        <v>-0.1697818663793103</v>
+        <v>-0.1697818649425286</v>
       </c>
       <c r="BH6">
-        <v>0.1936753567994706</v>
+        <v>0.1936753580573077</v>
       </c>
       <c r="BI6">
         <v>-0.643</v>
@@ -1478,10 +1478,10 @@
         <v>696</v>
       </c>
       <c r="BG7">
-        <v>-0.1197688045977012</v>
+        <v>-0.1197688031609196</v>
       </c>
       <c r="BH7">
-        <v>0.1919458122479026</v>
+        <v>0.1919458131389088</v>
       </c>
       <c r="BI7">
         <v>-0.483</v>
@@ -1651,10 +1651,10 @@
         <v>696</v>
       </c>
       <c r="AY8">
-        <v>-0.009212838816954023</v>
+        <v>-0.009212838751551725</v>
       </c>
       <c r="AZ8">
-        <v>0.02418412943126374</v>
+        <v>0.02418412945666125</v>
       </c>
       <c r="BA8">
         <v>-0.188</v>
@@ -1675,10 +1675,10 @@
         <v>696</v>
       </c>
       <c r="BG8">
-        <v>-0.1093748516321838</v>
+        <v>-0.1093748547456895</v>
       </c>
       <c r="BH8">
-        <v>0.1907346692085596</v>
+        <v>0.190734667419817</v>
       </c>
       <c r="BI8">
         <v>-0.482</v>
@@ -1848,10 +1848,10 @@
         <v>696</v>
       </c>
       <c r="AY9">
-        <v>-0.007954140517241384</v>
+        <v>-0.007954140488505752</v>
       </c>
       <c r="AZ9">
-        <v>0.02282838260630678</v>
+        <v>0.02282838261633593</v>
       </c>
       <c r="BA9">
         <v>-0.179</v>
@@ -1872,10 +1872,10 @@
         <v>696</v>
       </c>
       <c r="BG9">
-        <v>-0.08550112658045972</v>
+        <v>-0.08550112514367811</v>
       </c>
       <c r="BH9">
-        <v>0.1890384186813325</v>
+        <v>0.1890384193312376</v>
       </c>
       <c r="BI9">
         <v>-0.414</v>
@@ -2045,10 +2045,10 @@
         <v>696</v>
       </c>
       <c r="AY10">
-        <v>-0.007345337068965509</v>
+        <v>-0.007345334195402292</v>
       </c>
       <c r="AZ10">
-        <v>0.02174683056168602</v>
+        <v>0.02174683162795708</v>
       </c>
       <c r="BA10">
         <v>-0.169</v>
@@ -2069,10 +2069,10 @@
         <v>696</v>
       </c>
       <c r="BG10">
-        <v>-0.07791169540229879</v>
+        <v>-0.07791140804597696</v>
       </c>
       <c r="BH10">
-        <v>0.1885238777289392</v>
+        <v>0.1885240369538631</v>
       </c>
       <c r="BI10">
         <v>-0.421</v>
@@ -2146,10 +2146,10 @@
         <v>696</v>
       </c>
       <c r="S11">
-        <v>3.846307471264366</v>
+        <v>3.84604885057471</v>
       </c>
       <c r="T11">
-        <v>0.624870415574819</v>
+        <v>0.6249192573330788</v>
       </c>
       <c r="U11">
         <v>2.94</v>
@@ -2218,10 +2218,10 @@
         <v>696</v>
       </c>
       <c r="AQ11">
-        <v>28.89810344827588</v>
+        <v>28.89780172413794</v>
       </c>
       <c r="AR11">
-        <v>16.4349699851355</v>
+        <v>16.43470334850726</v>
       </c>
       <c r="AS11">
         <v>1.27</v>
@@ -2242,10 +2242,10 @@
         <v>696</v>
       </c>
       <c r="AY11">
-        <v>-0.007261640373563227</v>
+        <v>-0.007261657471264377</v>
       </c>
       <c r="AZ11">
-        <v>0.02280692894282887</v>
+        <v>0.02280693160679464</v>
       </c>
       <c r="BA11">
         <v>-0.182</v>
@@ -2266,10 +2266,10 @@
         <v>696</v>
       </c>
       <c r="BG11">
-        <v>-0.08094360488505743</v>
+        <v>-0.08096134626436774</v>
       </c>
       <c r="BH11">
-        <v>0.2910292654193266</v>
+        <v>0.2910850570403791</v>
       </c>
       <c r="BI11">
         <v>-1.31</v>
@@ -2439,10 +2439,10 @@
         <v>696</v>
       </c>
       <c r="AY12">
-        <v>-0.005499365818965525</v>
+        <v>-0.005499319238505753</v>
       </c>
       <c r="AZ12">
-        <v>0.02002022702990947</v>
+        <v>0.02002024167741618</v>
       </c>
       <c r="BA12">
         <v>-0.153</v>
@@ -2463,10 +2463,10 @@
         <v>696</v>
       </c>
       <c r="BG12">
-        <v>-0.04074533290229888</v>
+        <v>-0.04074516997126439</v>
       </c>
       <c r="BH12">
-        <v>0.1952033417326997</v>
+        <v>0.1952034362566661</v>
       </c>
       <c r="BI12">
         <v>-0.349</v>
@@ -2833,10 +2833,10 @@
         <v>696</v>
       </c>
       <c r="AY14">
-        <v>-0.004457544683908044</v>
+        <v>-0.004457501580459768</v>
       </c>
       <c r="AZ14">
-        <v>0.01832810398917113</v>
+        <v>0.018328128739892</v>
       </c>
       <c r="BA14">
         <v>-0.138</v>
@@ -3030,10 +3030,10 @@
         <v>696</v>
       </c>
       <c r="AY15">
-        <v>-0.003870723275862065</v>
+        <v>-0.003870708908045973</v>
       </c>
       <c r="AZ15">
-        <v>0.01762464754255159</v>
+        <v>0.01762465243736063</v>
       </c>
       <c r="BA15">
         <v>-0.13</v>
@@ -3054,10 +3054,10 @@
         <v>696</v>
       </c>
       <c r="BG15">
-        <v>-0.01796720977011495</v>
+        <v>-0.01796577298850576</v>
       </c>
       <c r="BH15">
-        <v>0.1890025439992897</v>
+        <v>0.1890043670141217</v>
       </c>
       <c r="BI15">
         <v>-0.296</v>
@@ -3424,10 +3424,10 @@
         <v>696</v>
       </c>
       <c r="AY17">
-        <v>-0.002810708189655172</v>
+        <v>-0.00281069382183908</v>
       </c>
       <c r="AZ17">
-        <v>0.01642262055758351</v>
+        <v>0.01642262573179439</v>
       </c>
       <c r="BA17">
         <v>-0.117</v>
@@ -3448,10 +3448,10 @@
         <v>696</v>
       </c>
       <c r="BG17">
-        <v>-7.547413793102742E-05</v>
+        <v>-7.403735632183026E-05</v>
       </c>
       <c r="BH17">
-        <v>0.1875943351204169</v>
+        <v>0.187596149640485</v>
       </c>
       <c r="BI17">
         <v>-0.265</v>
@@ -3621,10 +3621,10 @@
         <v>696</v>
       </c>
       <c r="AY18">
-        <v>-0.002312068103448276</v>
+        <v>-0.002312025</v>
       </c>
       <c r="AZ18">
-        <v>0.0159389414955468</v>
+        <v>0.01593895817893441</v>
       </c>
       <c r="BA18">
         <v>-0.111</v>
@@ -3645,10 +3645,10 @@
         <v>696</v>
       </c>
       <c r="BG18">
-        <v>0.008386752873563209</v>
+        <v>0.008391063218390796</v>
       </c>
       <c r="BH18">
-        <v>0.1888476811150577</v>
+        <v>0.1888523617222632</v>
       </c>
       <c r="BI18">
         <v>-0.252</v>
@@ -3818,10 +3818,10 @@
         <v>696</v>
       </c>
       <c r="AY19">
-        <v>-0.001834244252873564</v>
+        <v>-0.001834201149425288</v>
       </c>
       <c r="AZ19">
-        <v>0.01549444043263812</v>
+        <v>0.01549446005225804</v>
       </c>
       <c r="BA19">
         <v>-0.105</v>
@@ -3842,10 +3842,10 @@
         <v>696</v>
       </c>
       <c r="BG19">
-        <v>0.01640589798850575</v>
+        <v>0.01640891522988507</v>
       </c>
       <c r="BH19">
-        <v>0.1898867349893401</v>
+        <v>0.189889167695817</v>
       </c>
       <c r="BI19">
         <v>-0.239</v>
@@ -4015,10 +4015,10 @@
         <v>696</v>
       </c>
       <c r="AY20">
-        <v>-0.001398450718390803</v>
+        <v>-0.001398393247126435</v>
       </c>
       <c r="AZ20">
-        <v>0.0150453001394527</v>
+        <v>0.01504532069480771</v>
       </c>
       <c r="BA20">
         <v>-0.0987</v>
@@ -4039,10 +4039,10 @@
         <v>696</v>
       </c>
       <c r="BG20">
-        <v>0.02332810057471263</v>
+        <v>0.02332953735632182</v>
       </c>
       <c r="BH20">
-        <v>0.1885309434356166</v>
+        <v>0.1885321963691533</v>
       </c>
       <c r="BI20">
         <v>-0.228</v>
@@ -4212,10 +4212,10 @@
         <v>696</v>
       </c>
       <c r="AY21">
-        <v>-0.001016116666666667</v>
+        <v>-0.001015944252873563</v>
       </c>
       <c r="AZ21">
-        <v>0.01461218390128749</v>
+        <v>0.01461209478878958</v>
       </c>
       <c r="BA21">
         <v>-0.093</v>
@@ -4236,10 +4236,10 @@
         <v>696</v>
       </c>
       <c r="BG21">
-        <v>0.02903888505747124</v>
+        <v>0.02904175862068963</v>
       </c>
       <c r="BH21">
-        <v>0.184289681106803</v>
+        <v>0.1842924052882425</v>
       </c>
       <c r="BI21">
         <v>-0.221</v>
@@ -4409,10 +4409,10 @@
         <v>696</v>
       </c>
       <c r="AY22">
-        <v>-0.000664161637931037</v>
+        <v>-0.0006641041666666691</v>
       </c>
       <c r="AZ22">
-        <v>0.0142113276329777</v>
+        <v>0.01421135382194313</v>
       </c>
       <c r="BA22">
         <v>-0.08749999999999999</v>
@@ -4433,10 +4433,10 @@
         <v>696</v>
       </c>
       <c r="BG22">
-        <v>0.03416735057471262</v>
+        <v>0.03417022413793101</v>
       </c>
       <c r="BH22">
-        <v>0.1807916011433063</v>
+        <v>0.1807960233869161</v>
       </c>
       <c r="BI22">
         <v>-0.214</v>
@@ -4606,10 +4606,10 @@
         <v>696</v>
       </c>
       <c r="AY23">
-        <v>-0.0002933965517241379</v>
+        <v>-0.0002932385057471268</v>
       </c>
       <c r="AZ23">
-        <v>0.01389859460572404</v>
+        <v>0.01389887460791602</v>
       </c>
       <c r="BA23">
         <v>-0.08210000000000001</v>
@@ -4803,10 +4803,10 @@
         <v>696</v>
       </c>
       <c r="AY24">
-        <v>9.780416666666719E-05</v>
+        <v>9.784727011494301E-05</v>
       </c>
       <c r="AZ24">
-        <v>0.01366673360527599</v>
+        <v>0.01366675180997151</v>
       </c>
       <c r="BA24">
         <v>-0.0769</v>
@@ -5000,10 +5000,10 @@
         <v>696</v>
       </c>
       <c r="AY25">
-        <v>0.0004770570402298853</v>
+        <v>0.0004771288793103451</v>
       </c>
       <c r="AZ25">
-        <v>0.0134837133715828</v>
+        <v>0.01348374167058583</v>
       </c>
       <c r="BA25">
         <v>-0.07190000000000001</v>
@@ -5024,10 +5024,10 @@
         <v>696</v>
       </c>
       <c r="BG25">
-        <v>0.05375157183908048</v>
+        <v>0.05375300862068967</v>
       </c>
       <c r="BH25">
-        <v>0.1888333489819952</v>
+        <v>0.1888344900075651</v>
       </c>
       <c r="BI25">
         <v>-0.198</v>
@@ -5197,10 +5197,10 @@
         <v>696</v>
       </c>
       <c r="AY26">
-        <v>0.000846350431034483</v>
+        <v>0.0008464797413793105</v>
       </c>
       <c r="AZ26">
-        <v>0.0133403852665344</v>
+        <v>0.01334042697167509</v>
       </c>
       <c r="BA26">
         <v>-0.067</v>
@@ -5221,10 +5221,10 @@
         <v>696</v>
       </c>
       <c r="BG26">
-        <v>0.06021091810344825</v>
+        <v>0.06021522844827582</v>
       </c>
       <c r="BH26">
-        <v>0.192543205122018</v>
+        <v>0.1925471497127063</v>
       </c>
       <c r="BI26">
         <v>-0.192</v>
@@ -5394,10 +5394,10 @@
         <v>696</v>
       </c>
       <c r="AY27">
-        <v>0.001200137068965518</v>
+        <v>0.001200366954022989</v>
       </c>
       <c r="AZ27">
-        <v>0.01322008255519253</v>
+        <v>0.01322030507934969</v>
       </c>
       <c r="BA27">
         <v>-0.0622</v>
@@ -5418,10 +5418,10 @@
         <v>696</v>
       </c>
       <c r="BG27">
-        <v>0.06643630028735631</v>
+        <v>0.06644204741379307</v>
       </c>
       <c r="BH27">
-        <v>0.1959834062169925</v>
+        <v>0.1959888921670299</v>
       </c>
       <c r="BI27">
         <v>-0.187</v>
@@ -5591,10 +5591,10 @@
         <v>696</v>
       </c>
       <c r="AY28">
-        <v>0.001531316810344829</v>
+        <v>0.00153147485632184</v>
       </c>
       <c r="AZ28">
-        <v>0.01311435228072052</v>
+        <v>0.01311441728665893</v>
       </c>
       <c r="BA28">
         <v>-0.0575</v>
@@ -5788,10 +5788,10 @@
         <v>696</v>
       </c>
       <c r="AY29">
-        <v>0.001845752729885056</v>
+        <v>0.001845910775862067</v>
       </c>
       <c r="AZ29">
-        <v>0.01302695999421249</v>
+        <v>0.01302701748509691</v>
       </c>
       <c r="BA29">
         <v>-0.053</v>
@@ -5812,10 +5812,10 @@
         <v>696</v>
       </c>
       <c r="BG29">
-        <v>0.07737529310344832</v>
+        <v>0.0773839137931035</v>
       </c>
       <c r="BH29">
-        <v>0.2001987293055147</v>
+        <v>0.2002102550919218</v>
       </c>
       <c r="BI29">
         <v>-0.178</v>
@@ -5985,10 +5985,10 @@
         <v>696</v>
       </c>
       <c r="AY30">
-        <v>0.002145624712643677</v>
+        <v>0.002145811494252873</v>
       </c>
       <c r="AZ30">
-        <v>0.01296133723833997</v>
+        <v>0.01296140059280877</v>
       </c>
       <c r="BA30">
         <v>-0.0485</v>
@@ -6009,10 +6009,10 @@
         <v>696</v>
       </c>
       <c r="BG30">
-        <v>0.08238674281609197</v>
+        <v>0.08239536350574715</v>
       </c>
       <c r="BH30">
-        <v>0.2019833082371235</v>
+        <v>0.2019913624046101</v>
       </c>
       <c r="BI30">
         <v>-0.173</v>
@@ -6182,10 +6182,10 @@
         <v>696</v>
       </c>
       <c r="AY31">
-        <v>0.002431219396551723</v>
+        <v>0.002431708189655172</v>
       </c>
       <c r="AZ31">
-        <v>0.01290823309882808</v>
+        <v>0.01290872484045557</v>
       </c>
       <c r="BA31">
         <v>-0.0443</v>
@@ -6206,10 +6206,10 @@
         <v>696</v>
       </c>
       <c r="BG31">
-        <v>0.08714710775862065</v>
+        <v>0.08715716666666665</v>
       </c>
       <c r="BH31">
-        <v>0.2036008201361586</v>
+        <v>0.2036107444318241</v>
       </c>
       <c r="BI31">
         <v>-0.169</v>
@@ -6355,10 +6355,10 @@
         <v>696</v>
       </c>
       <c r="AQ32">
-        <v>28.9058045977011</v>
+        <v>28.90566091954018</v>
       </c>
       <c r="AR32">
-        <v>16.40701561424499</v>
+        <v>16.40691875885533</v>
       </c>
       <c r="AS32">
         <v>1.26</v>
@@ -6379,10 +6379,10 @@
         <v>696</v>
       </c>
       <c r="AY32">
-        <v>0.002706545258620691</v>
+        <v>0.002706703304597702</v>
       </c>
       <c r="AZ32">
-        <v>0.01287943489436749</v>
+        <v>0.01287948760461654</v>
       </c>
       <c r="BA32">
         <v>-0.0426</v>
@@ -6403,10 +6403,10 @@
         <v>696</v>
       </c>
       <c r="BG32">
-        <v>0.09176608764367822</v>
+        <v>0.09178189224137938</v>
       </c>
       <c r="BH32">
-        <v>0.205249478508801</v>
+        <v>0.2052684262263234</v>
       </c>
       <c r="BI32">
         <v>-0.165</v>
@@ -6576,10 +6576,10 @@
         <v>696</v>
       </c>
       <c r="AY33">
-        <v>0.002975132614942531</v>
+        <v>0.002975494540229886</v>
       </c>
       <c r="AZ33">
-        <v>0.01287162272933657</v>
+        <v>0.01287251832742075</v>
       </c>
       <c r="BA33">
         <v>-0.0409</v>
@@ -6594,16 +6594,16 @@
         <v>0.0075025</v>
       </c>
       <c r="BE33">
-        <v>0.0776</v>
+        <v>0.07770000000000001</v>
       </c>
       <c r="BF33">
         <v>696</v>
       </c>
       <c r="BG33">
-        <v>0.09626106609195396</v>
+        <v>0.09626824999999992</v>
       </c>
       <c r="BH33">
-        <v>0.2069566399639193</v>
+        <v>0.2069634057839036</v>
       </c>
       <c r="BI33">
         <v>-0.16</v>
@@ -6773,10 +6773,10 @@
         <v>696</v>
       </c>
       <c r="AY34">
-        <v>0.003235881034482757</v>
+        <v>0.003236470258620689</v>
       </c>
       <c r="AZ34">
-        <v>0.01287933927256915</v>
+        <v>0.01287981619659138</v>
       </c>
       <c r="BA34">
         <v>-0.0393</v>
@@ -6797,10 +6797,10 @@
         <v>696</v>
       </c>
       <c r="BG34">
-        <v>0.1006268954022988</v>
+        <v>0.1006398272988505</v>
       </c>
       <c r="BH34">
-        <v>0.2086877098052392</v>
+        <v>0.2087012005913534</v>
       </c>
       <c r="BI34">
         <v>-0.156</v>
@@ -6970,10 +6970,10 @@
         <v>696</v>
       </c>
       <c r="AY35">
-        <v>0.003487757040229883</v>
+        <v>0.003488288936781606</v>
       </c>
       <c r="AZ35">
-        <v>0.01290395436453691</v>
+        <v>0.01290433770842693</v>
       </c>
       <c r="BA35">
         <v>-0.0378</v>
@@ -6994,10 +6994,10 @@
         <v>696</v>
       </c>
       <c r="BG35">
-        <v>0.1049184885057471</v>
+        <v>0.1049299971264368</v>
       </c>
       <c r="BH35">
-        <v>0.2104569599588595</v>
+        <v>0.2104681353279059</v>
       </c>
       <c r="BI35">
         <v>-0.153</v>
@@ -7009,7 +7009,7 @@
         <v>-0.000938</v>
       </c>
       <c r="BL35">
-        <v>0.29225</v>
+        <v>0.2925</v>
       </c>
       <c r="BM35">
         <v>0.883</v>
@@ -7143,10 +7143,10 @@
         <v>696</v>
       </c>
       <c r="AQ36">
-        <v>28.88379310344824</v>
+        <v>28.88364942528732</v>
       </c>
       <c r="AR36">
-        <v>16.38559289036082</v>
+        <v>16.38540790246485</v>
       </c>
       <c r="AS36">
         <v>1.26</v>
@@ -7167,10 +7167,10 @@
         <v>696</v>
       </c>
       <c r="AY36">
-        <v>0.003731481321839081</v>
+        <v>0.003732127729885057</v>
       </c>
       <c r="AZ36">
-        <v>0.0129403395554082</v>
+        <v>0.01294145748938451</v>
       </c>
       <c r="BA36">
         <v>-0.0364</v>
@@ -7185,16 +7185,16 @@
         <v>0.008102499999999999</v>
       </c>
       <c r="BE36">
-        <v>0.0825</v>
+        <v>0.08260000000000001</v>
       </c>
       <c r="BF36">
         <v>696</v>
       </c>
       <c r="BG36">
-        <v>0.1090215589080459</v>
+        <v>0.1090388002873562</v>
       </c>
       <c r="BH36">
-        <v>0.2120521135723688</v>
+        <v>0.2120696641027473</v>
       </c>
       <c r="BI36">
         <v>-0.149</v>
@@ -7364,10 +7364,10 @@
         <v>696</v>
       </c>
       <c r="AY37">
-        <v>0.003969957327586205</v>
+        <v>0.003970661350574712</v>
       </c>
       <c r="AZ37">
-        <v>0.01298931354610937</v>
+        <v>0.01299057804354357</v>
       </c>
       <c r="BA37">
         <v>-0.035</v>
@@ -7388,10 +7388,10 @@
         <v>696</v>
       </c>
       <c r="BG37">
-        <v>0.1130678347701149</v>
+        <v>0.1131008793103448</v>
       </c>
       <c r="BH37">
-        <v>0.2136662643279173</v>
+        <v>0.2137062185150508</v>
       </c>
       <c r="BI37">
         <v>-0.145</v>
@@ -7561,10 +7561,10 @@
         <v>696</v>
       </c>
       <c r="AY38">
-        <v>0.004206635632183909</v>
+        <v>0.004207037931034485</v>
       </c>
       <c r="AZ38">
-        <v>0.01305952835158218</v>
+        <v>0.01305963485688381</v>
       </c>
       <c r="BA38">
         <v>-0.0337</v>
@@ -7585,10 +7585,10 @@
         <v>696</v>
       </c>
       <c r="BG38">
-        <v>0.1171663620689654</v>
+        <v>0.1171923678160919</v>
       </c>
       <c r="BH38">
-        <v>0.215490580408594</v>
+        <v>0.215517121912907</v>
       </c>
       <c r="BI38">
         <v>-0.142</v>
@@ -7758,10 +7758,10 @@
         <v>696</v>
       </c>
       <c r="AY39">
-        <v>0.004444000431034483</v>
+        <v>0.004444846551724138</v>
       </c>
       <c r="AZ39">
-        <v>0.01314703214793163</v>
+        <v>0.01314843402112921</v>
       </c>
       <c r="BA39">
         <v>-0.0325</v>
@@ -7782,10 +7782,10 @@
         <v>696</v>
       </c>
       <c r="BG39">
-        <v>0.1213851594827586</v>
+        <v>0.1214067112068966</v>
       </c>
       <c r="BH39">
-        <v>0.2176221194559763</v>
+        <v>0.2176496326473633</v>
       </c>
       <c r="BI39">
         <v>-0.138</v>
@@ -7931,10 +7931,10 @@
         <v>696</v>
       </c>
       <c r="AQ40">
-        <v>28.86991379310341</v>
+        <v>28.8697701149425</v>
       </c>
       <c r="AR40">
-        <v>16.37980181865633</v>
+        <v>16.37983361635871</v>
       </c>
       <c r="AS40">
         <v>1.26</v>
@@ -7955,10 +7955,10 @@
         <v>696</v>
       </c>
       <c r="AY40">
-        <v>0.004679146120689655</v>
+        <v>0.0046800658045977</v>
       </c>
       <c r="AZ40">
-        <v>0.01325698992648049</v>
+        <v>0.01325813875074347</v>
       </c>
       <c r="BA40">
         <v>-0.0313</v>
@@ -7979,10 +7979,10 @@
         <v>696</v>
       </c>
       <c r="BG40">
-        <v>0.1255292212643678</v>
+        <v>0.1255493362068965</v>
       </c>
       <c r="BH40">
-        <v>0.2196847511497213</v>
+        <v>0.2197051420798826</v>
       </c>
       <c r="BI40">
         <v>-0.135</v>
@@ -8152,10 +8152,10 @@
         <v>696</v>
       </c>
       <c r="AY41">
-        <v>0.004904493103448275</v>
+        <v>0.004905829166666666</v>
       </c>
       <c r="AZ41">
-        <v>0.01337608763860265</v>
+        <v>0.01337816063415855</v>
       </c>
       <c r="BA41">
         <v>-0.0301</v>
@@ -8167,7 +8167,7 @@
         <v>-3.355E-05</v>
       </c>
       <c r="BD41">
-        <v>0.008947500000000001</v>
+        <v>0.00895</v>
       </c>
       <c r="BE41">
         <v>0.0907</v>
@@ -8176,10 +8176,10 @@
         <v>696</v>
       </c>
       <c r="BG41">
-        <v>0.1293918462643679</v>
+        <v>0.1294148491379311</v>
       </c>
       <c r="BH41">
-        <v>0.2213039522480648</v>
+        <v>0.2213285935492605</v>
       </c>
       <c r="BI41">
         <v>-0.132</v>
@@ -8349,10 +8349,10 @@
         <v>696</v>
       </c>
       <c r="AY42">
-        <v>0.005123722413793102</v>
+        <v>0.005124499856321838</v>
       </c>
       <c r="AZ42">
-        <v>0.01350518734769571</v>
+        <v>0.01350571017816075</v>
       </c>
       <c r="BA42">
         <v>-0.0291</v>
@@ -8364,7 +8364,7 @@
         <v>-3.27E-05</v>
       </c>
       <c r="BD42">
-        <v>0.009097500000000001</v>
+        <v>0.009107500000000001</v>
       </c>
       <c r="BE42">
         <v>0.0924</v>
@@ -8373,10 +8373,10 @@
         <v>696</v>
       </c>
       <c r="BG42">
-        <v>0.1330897456896552</v>
+        <v>0.1331143304597702</v>
       </c>
       <c r="BH42">
-        <v>0.2227989892270511</v>
+        <v>0.2228291250813715</v>
       </c>
       <c r="BI42">
         <v>-0.128</v>
@@ -8546,10 +8546,10 @@
         <v>696</v>
       </c>
       <c r="AY43">
-        <v>0.005339543103448275</v>
+        <v>0.005340567097701147</v>
       </c>
       <c r="AZ43">
-        <v>0.0136400985208507</v>
+        <v>0.01364230873102705</v>
       </c>
       <c r="BA43">
         <v>-0.028</v>
@@ -8561,7 +8561,7 @@
         <v>-3.14E-05</v>
       </c>
       <c r="BD43">
-        <v>0.009247500000000001</v>
+        <v>0.00925</v>
       </c>
       <c r="BE43">
         <v>0.094</v>
@@ -8570,10 +8570,10 @@
         <v>696</v>
       </c>
       <c r="BG43">
-        <v>0.1367635900862068</v>
+        <v>0.1368081331896551</v>
       </c>
       <c r="BH43">
-        <v>0.2244825465066888</v>
+        <v>0.22453110611851</v>
       </c>
       <c r="BI43">
         <v>-0.125</v>
@@ -8647,10 +8647,10 @@
         <v>696</v>
       </c>
       <c r="S44">
-        <v>3.843807471264369</v>
+        <v>3.843793103448277</v>
       </c>
       <c r="T44">
-        <v>0.630986905656185</v>
+        <v>0.6309937192072425</v>
       </c>
       <c r="U44">
         <v>2.96</v>
@@ -8743,10 +8743,10 @@
         <v>696</v>
       </c>
       <c r="AY44">
-        <v>0.005552108333333332</v>
+        <v>0.005552999137931034</v>
       </c>
       <c r="AZ44">
-        <v>0.01379196167770028</v>
+        <v>0.01379275432983333</v>
       </c>
       <c r="BA44">
         <v>-0.027</v>
@@ -8758,7 +8758,7 @@
         <v>-3.075E-05</v>
       </c>
       <c r="BD44">
-        <v>0.009389999999999999</v>
+        <v>0.0093925</v>
       </c>
       <c r="BE44">
         <v>0.0955</v>
@@ -8767,10 +8767,10 @@
         <v>696</v>
       </c>
       <c r="BG44">
-        <v>0.1402432787356322</v>
+        <v>0.1403036235632185</v>
       </c>
       <c r="BH44">
-        <v>0.2259306843757055</v>
+        <v>0.2259899900983182</v>
       </c>
       <c r="BI44">
         <v>-0.122</v>
@@ -8782,7 +8782,7 @@
         <v>-0.0007555000000000001</v>
       </c>
       <c r="BL44">
-        <v>0.3535</v>
+        <v>0.35375</v>
       </c>
       <c r="BM44">
         <v>0.9330000000000001</v>
@@ -8844,10 +8844,10 @@
         <v>696</v>
       </c>
       <c r="S45">
-        <v>3.842772988505743</v>
+        <v>3.842758620689651</v>
       </c>
       <c r="T45">
-        <v>0.6312889043581652</v>
+        <v>0.6312740383037837</v>
       </c>
       <c r="U45">
         <v>2.95</v>
@@ -8940,10 +8940,10 @@
         <v>696</v>
       </c>
       <c r="AY45">
-        <v>0.005767633045977014</v>
+        <v>0.005768653160919544</v>
       </c>
       <c r="AZ45">
-        <v>0.01397075069809892</v>
+        <v>0.01397206431292587</v>
       </c>
       <c r="BA45">
         <v>-0.026</v>
@@ -8955,7 +8955,7 @@
         <v>-3.01E-05</v>
       </c>
       <c r="BD45">
-        <v>0.009495</v>
+        <v>0.009497499999999999</v>
       </c>
       <c r="BE45">
         <v>0.097</v>
@@ -8964,10 +8964,10 @@
         <v>696</v>
       </c>
       <c r="BG45">
-        <v>0.1437551422413793</v>
+        <v>0.143818375</v>
       </c>
       <c r="BH45">
-        <v>0.2282643428781477</v>
+        <v>0.2283353138621096</v>
       </c>
       <c r="BI45">
         <v>-0.119</v>
@@ -9041,10 +9041,10 @@
         <v>696</v>
       </c>
       <c r="S46">
-        <v>3.841580459770112</v>
+        <v>3.84156609195402</v>
       </c>
       <c r="T46">
-        <v>0.6312256679481776</v>
+        <v>0.6312390384657163</v>
       </c>
       <c r="U46">
         <v>2.95</v>
@@ -9065,10 +9065,10 @@
         <v>696</v>
       </c>
       <c r="AA46">
-        <v>37.96034482758617</v>
+        <v>37.96020114942525</v>
       </c>
       <c r="AB46">
-        <v>2.585478405626087</v>
+        <v>2.58572383081892</v>
       </c>
       <c r="AC46">
         <v>33.5</v>
@@ -9137,10 +9137,10 @@
         <v>696</v>
       </c>
       <c r="AY46">
-        <v>0.005994938362068964</v>
+        <v>0.00599660675287356</v>
       </c>
       <c r="AZ46">
-        <v>0.01417077757640325</v>
+        <v>0.01417212283136738</v>
       </c>
       <c r="BA46">
         <v>-0.0251</v>
@@ -9149,10 +9149,10 @@
         <v>-0.0017825</v>
       </c>
       <c r="BC46">
-        <v>-2.96E-05</v>
+        <v>-2.955E-05</v>
       </c>
       <c r="BD46">
-        <v>0.009797500000000001</v>
+        <v>0.0098075</v>
       </c>
       <c r="BE46">
         <v>0.0985</v>
@@ -9161,10 +9161,10 @@
         <v>696</v>
       </c>
       <c r="BG46">
-        <v>0.14783641954023</v>
+        <v>0.1478739468390806</v>
       </c>
       <c r="BH46">
-        <v>0.2322354724909768</v>
+        <v>0.232273973499366</v>
       </c>
       <c r="BI46">
         <v>-0.117</v>
@@ -9334,10 +9334,10 @@
         <v>696</v>
       </c>
       <c r="AY47">
-        <v>0.00620028146551724</v>
+        <v>0.006202350718390807</v>
       </c>
       <c r="AZ47">
-        <v>0.01433180888937405</v>
+        <v>0.01433512749491346</v>
       </c>
       <c r="BA47">
         <v>-0.0242</v>
@@ -9358,10 +9358,10 @@
         <v>696</v>
       </c>
       <c r="BG47">
-        <v>0.1513196077586208</v>
+        <v>0.1513627112068966</v>
       </c>
       <c r="BH47">
-        <v>0.2332435677416332</v>
+        <v>0.2332887550484138</v>
       </c>
       <c r="BI47">
         <v>-0.114</v>
@@ -9435,10 +9435,10 @@
         <v>696</v>
       </c>
       <c r="S48">
-        <v>3.83949712643678</v>
+        <v>3.839482758620689</v>
       </c>
       <c r="T48">
-        <v>0.6322360955903027</v>
+        <v>0.6322491697518852</v>
       </c>
       <c r="U48">
         <v>2.95</v>
@@ -9531,10 +9531,10 @@
         <v>696</v>
       </c>
       <c r="AY48">
-        <v>0.00636532679597701</v>
+        <v>0.006368315517241377</v>
       </c>
       <c r="AZ48">
-        <v>0.01444087755657769</v>
+        <v>0.01445133862236472</v>
       </c>
       <c r="BA48">
         <v>-0.0233</v>
@@ -9555,10 +9555,10 @@
         <v>696</v>
       </c>
       <c r="BG48">
-        <v>0.1537170862068965</v>
+        <v>0.1537760129310344</v>
       </c>
       <c r="BH48">
-        <v>0.2315655330547938</v>
+        <v>0.231627926989739</v>
       </c>
       <c r="BI48">
         <v>-0.111</v>
@@ -9728,10 +9728,10 @@
         <v>696</v>
       </c>
       <c r="AY49">
-        <v>0.00655647341954023</v>
+        <v>0.00655811120689655</v>
       </c>
       <c r="AZ49">
-        <v>0.01461217710239634</v>
+        <v>0.01461336933280704</v>
       </c>
       <c r="BA49">
         <v>-0.0225</v>
@@ -9752,10 +9752,10 @@
         <v>696</v>
       </c>
       <c r="BG49">
-        <v>0.1569493548850574</v>
+        <v>0.1570169195402298</v>
       </c>
       <c r="BH49">
-        <v>0.2332931801871954</v>
+        <v>0.2333680762856327</v>
       </c>
       <c r="BI49">
         <v>-0.108</v>
@@ -9767,7 +9767,7 @@
         <v>-0.0005820000000000001</v>
       </c>
       <c r="BL49">
-        <v>0.386</v>
+        <v>0.38625</v>
       </c>
       <c r="BM49">
         <v>0.957</v>
@@ -9829,10 +9829,10 @@
         <v>696</v>
       </c>
       <c r="S50">
-        <v>3.837629310344826</v>
+        <v>3.837614942528734</v>
       </c>
       <c r="T50">
-        <v>0.6325633455492606</v>
+        <v>0.6325765979206245</v>
       </c>
       <c r="U50">
         <v>2.94</v>
@@ -9925,10 +9925,10 @@
         <v>696</v>
       </c>
       <c r="AY50">
-        <v>0.00676180229885057</v>
+        <v>0.006764172844827582</v>
       </c>
       <c r="AZ50">
-        <v>0.01480262319161713</v>
+        <v>0.01480446131901985</v>
       </c>
       <c r="BA50">
         <v>-0.0217</v>
@@ -9949,10 +9949,10 @@
         <v>696</v>
       </c>
       <c r="BG50">
-        <v>0.1608020704022988</v>
+        <v>0.1608767959770114</v>
       </c>
       <c r="BH50">
-        <v>0.2365597905990452</v>
+        <v>0.2366426364802744</v>
       </c>
       <c r="BI50">
         <v>-0.106</v>
@@ -10026,10 +10026,10 @@
         <v>696</v>
       </c>
       <c r="S51">
-        <v>3.836350574712641</v>
+        <v>3.83633620689655</v>
       </c>
       <c r="T51">
-        <v>0.6329821283118975</v>
+        <v>0.632957608599736</v>
       </c>
       <c r="U51">
         <v>2.94</v>
@@ -10122,10 +10122,10 @@
         <v>696</v>
       </c>
       <c r="AY51">
-        <v>0.006957854022988511</v>
+        <v>0.006959966235632187</v>
       </c>
       <c r="AZ51">
-        <v>0.01499643671458568</v>
+        <v>0.01499814110450883</v>
       </c>
       <c r="BA51">
         <v>-0.021</v>
@@ -10146,10 +10146,10 @@
         <v>696</v>
       </c>
       <c r="BG51">
-        <v>0.164301084770115</v>
+        <v>0.1643743591954024</v>
       </c>
       <c r="BH51">
-        <v>0.2394171587399989</v>
+        <v>0.2394927286928229</v>
       </c>
       <c r="BI51">
         <v>-0.103</v>
@@ -10223,10 +10223,10 @@
         <v>696</v>
       </c>
       <c r="S52">
-        <v>3.836623563218391</v>
+        <v>3.836594827586207</v>
       </c>
       <c r="T52">
-        <v>0.6331951241802977</v>
+        <v>0.6332049683964782</v>
       </c>
       <c r="U52">
         <v>2.94</v>
@@ -10247,10 +10247,10 @@
         <v>696</v>
       </c>
       <c r="AA52">
-        <v>37.95100574712642</v>
+        <v>37.95086206896549</v>
       </c>
       <c r="AB52">
-        <v>2.590858110666657</v>
+        <v>2.590980337996201</v>
       </c>
       <c r="AC52">
         <v>33.4</v>
@@ -10271,10 +10271,10 @@
         <v>696</v>
       </c>
       <c r="AI52">
-        <v>108.8985632183908</v>
+        <v>108.8984195402299</v>
       </c>
       <c r="AJ52">
-        <v>28.89891682427118</v>
+        <v>28.89897780825234</v>
       </c>
       <c r="AK52">
         <v>59.2</v>
@@ -10319,10 +10319,10 @@
         <v>696</v>
       </c>
       <c r="AY52">
-        <v>0.007158889942528735</v>
+        <v>0.007162772270114946</v>
       </c>
       <c r="AZ52">
-        <v>0.01520855528510801</v>
+        <v>0.01521154185937642</v>
       </c>
       <c r="BA52">
         <v>-0.0202</v>
@@ -10343,10 +10343,10 @@
         <v>696</v>
       </c>
       <c r="BG52">
-        <v>0.1679421091954023</v>
+        <v>0.1680184051724137</v>
       </c>
       <c r="BH52">
-        <v>0.2426769028784838</v>
+        <v>0.2427522108412472</v>
       </c>
       <c r="BI52">
         <v>-0.101</v>
@@ -10358,7 +10358,7 @@
         <v>-0.0005369999999999999</v>
       </c>
       <c r="BL52">
-        <v>0.40325</v>
+        <v>0.404</v>
       </c>
       <c r="BM52">
         <v>1.04</v>
@@ -10516,10 +10516,10 @@
         <v>696</v>
       </c>
       <c r="AY53">
-        <v>0.007342006896551723</v>
+        <v>0.00734492341954023</v>
       </c>
       <c r="AZ53">
-        <v>0.01539400304979145</v>
+        <v>0.01539619144655881</v>
       </c>
       <c r="BA53">
         <v>-0.0195</v>
@@ -10540,10 +10540,10 @@
         <v>696</v>
       </c>
       <c r="BG53">
-        <v>0.1711768204022988</v>
+        <v>0.171238889367816</v>
       </c>
       <c r="BH53">
-        <v>0.2445811608427897</v>
+        <v>0.2446434550468226</v>
       </c>
       <c r="BI53">
         <v>-0.0983</v>
@@ -10641,10 +10641,10 @@
         <v>696</v>
       </c>
       <c r="AA54">
-        <v>37.94612068965514</v>
+        <v>37.94597701149422</v>
       </c>
       <c r="AB54">
-        <v>2.592049139628256</v>
+        <v>2.592298703709691</v>
       </c>
       <c r="AC54">
         <v>33.4</v>
@@ -10713,10 +10713,10 @@
         <v>696</v>
       </c>
       <c r="AY54">
-        <v>0.007518960488505746</v>
+        <v>0.007521790804597707</v>
       </c>
       <c r="AZ54">
-        <v>0.0155798453436771</v>
+        <v>0.01558149385980675</v>
       </c>
       <c r="BA54">
         <v>-0.0188</v>
@@ -10737,10 +10737,10 @@
         <v>696</v>
       </c>
       <c r="BG54">
-        <v>0.1742205747126438</v>
+        <v>0.1743112341954024</v>
       </c>
       <c r="BH54">
-        <v>0.2463718561501596</v>
+        <v>0.2464650690075964</v>
       </c>
       <c r="BI54">
         <v>-0.096</v>
@@ -10814,10 +10814,10 @@
         <v>696</v>
       </c>
       <c r="S55">
-        <v>3.835502873563217</v>
+        <v>3.835488505747124</v>
       </c>
       <c r="T55">
-        <v>0.6338170582282264</v>
+        <v>0.6338275120059125</v>
       </c>
       <c r="U55">
         <v>2.93</v>
@@ -10910,10 +10910,10 @@
         <v>696</v>
       </c>
       <c r="AY55">
-        <v>0.007698163362068971</v>
+        <v>0.00770181278735632</v>
       </c>
       <c r="AZ55">
-        <v>0.0157778091240291</v>
+        <v>0.01578047179012496</v>
       </c>
       <c r="BA55">
         <v>-0.0182</v>
@@ -10925,7 +10925,7 @@
         <v>-2.245E-05</v>
       </c>
       <c r="BD55">
-        <v>0.011425</v>
+        <v>0.0115</v>
       </c>
       <c r="BE55">
         <v>0.111</v>
@@ -10934,10 +10934,10 @@
         <v>696</v>
       </c>
       <c r="BG55">
-        <v>0.1773924784482759</v>
+        <v>0.1774877399425287</v>
       </c>
       <c r="BH55">
-        <v>0.2488286623235941</v>
+        <v>0.2489292212191992</v>
       </c>
       <c r="BI55">
         <v>-0.0936</v>
@@ -11083,10 +11083,10 @@
         <v>696</v>
       </c>
       <c r="AQ56">
-        <v>28.82511494252877</v>
+        <v>28.82482758620693</v>
       </c>
       <c r="AR56">
-        <v>16.36000238301879</v>
+        <v>16.3596932381976</v>
       </c>
       <c r="AS56">
         <v>1.26</v>
@@ -11107,10 +11107,10 @@
         <v>696</v>
       </c>
       <c r="AY56">
-        <v>0.00787792227011494</v>
+        <v>0.007881024712643679</v>
       </c>
       <c r="AZ56">
-        <v>0.01597860543842697</v>
+        <v>0.01598106849857019</v>
       </c>
       <c r="BA56">
         <v>-0.0175</v>
@@ -11131,10 +11131,10 @@
         <v>696</v>
       </c>
       <c r="BG56">
-        <v>0.1806974841954023</v>
+        <v>0.1808069683908046</v>
       </c>
       <c r="BH56">
-        <v>0.251546850784283</v>
+        <v>0.2516577050752526</v>
       </c>
       <c r="BI56">
         <v>-0.0914</v>
@@ -11208,10 +11208,10 @@
         <v>696</v>
       </c>
       <c r="S57">
-        <v>3.833749999999998</v>
+        <v>3.833735632183905</v>
       </c>
       <c r="T57">
-        <v>0.6342730643373441</v>
+        <v>0.6342755311641438</v>
       </c>
       <c r="U57">
         <v>2.92</v>
@@ -11256,10 +11256,10 @@
         <v>696</v>
       </c>
       <c r="AI57">
-        <v>108.8698275862068</v>
+        <v>108.8682471264367</v>
       </c>
       <c r="AJ57">
-        <v>28.89275994992843</v>
+        <v>28.89245771142471</v>
       </c>
       <c r="AK57">
         <v>59.2</v>
@@ -11304,10 +11304,10 @@
         <v>696</v>
       </c>
       <c r="AY57">
-        <v>0.008053203160919545</v>
+        <v>0.008057013649425288</v>
       </c>
       <c r="AZ57">
-        <v>0.01617196191516223</v>
+        <v>0.0161747479106968</v>
       </c>
       <c r="BA57">
         <v>-0.0169</v>
@@ -11328,10 +11328,10 @@
         <v>696</v>
       </c>
       <c r="BG57">
-        <v>0.1839533477011493</v>
+        <v>0.1840902715517239</v>
       </c>
       <c r="BH57">
-        <v>0.2538325766040713</v>
+        <v>0.2539782783440423</v>
       </c>
       <c r="BI57">
         <v>-0.0891</v>
@@ -11343,7 +11343,7 @@
         <v>-0.0004725</v>
       </c>
       <c r="BL57">
-        <v>0.43225</v>
+        <v>0.433</v>
       </c>
       <c r="BM57">
         <v>1.07</v>
@@ -11429,10 +11429,10 @@
         <v>696</v>
       </c>
       <c r="AA58">
-        <v>37.94382183908043</v>
+        <v>37.94353448275859</v>
       </c>
       <c r="AB58">
-        <v>2.592938233333389</v>
+        <v>2.593259359987304</v>
       </c>
       <c r="AC58">
         <v>33.4</v>
@@ -11501,10 +11501,10 @@
         <v>696</v>
       </c>
       <c r="AY58">
-        <v>0.008220161063218398</v>
+        <v>0.008226425287356327</v>
       </c>
       <c r="AZ58">
-        <v>0.01636355152310338</v>
+        <v>0.01637760491251422</v>
       </c>
       <c r="BA58">
         <v>-0.0163</v>
@@ -11525,10 +11525,10 @@
         <v>696</v>
       </c>
       <c r="BG58">
-        <v>0.1868488520114942</v>
+        <v>0.1869826149425287</v>
       </c>
       <c r="BH58">
-        <v>0.2553880474484027</v>
+        <v>0.2555673685486334</v>
       </c>
       <c r="BI58">
         <v>-0.08699999999999999</v>
@@ -11602,10 +11602,10 @@
         <v>696</v>
       </c>
       <c r="S59">
-        <v>3.831681034482755</v>
+        <v>3.831637931034479</v>
       </c>
       <c r="T59">
-        <v>0.634789415248659</v>
+        <v>0.6348152541070008</v>
       </c>
       <c r="U59">
         <v>2.92</v>
@@ -11650,10 +11650,10 @@
         <v>696</v>
       </c>
       <c r="AI59">
-        <v>108.8557471264367</v>
+        <v>108.8556034482758</v>
       </c>
       <c r="AJ59">
-        <v>28.88949616219962</v>
+        <v>28.88955745087259</v>
       </c>
       <c r="AK59">
         <v>59.2</v>
@@ -11698,10 +11698,10 @@
         <v>696</v>
       </c>
       <c r="AY59">
-        <v>0.008382019540229886</v>
+        <v>0.008386529597701153</v>
       </c>
       <c r="AZ59">
-        <v>0.01655965766756795</v>
+        <v>0.01656413133880539</v>
       </c>
       <c r="BA59">
         <v>-0.0157</v>
@@ -11722,10 +11722,10 @@
         <v>696</v>
       </c>
       <c r="BG59">
-        <v>0.1896387701149424</v>
+        <v>0.1897781393678159</v>
       </c>
       <c r="BH59">
-        <v>0.2571342441308403</v>
+        <v>0.2572832292443749</v>
       </c>
       <c r="BI59">
         <v>-0.0848</v>
@@ -11799,10 +11799,10 @@
         <v>696</v>
       </c>
       <c r="S60">
-        <v>3.830862068965514</v>
+        <v>3.830818965517239</v>
       </c>
       <c r="T60">
-        <v>0.6351328901433935</v>
+        <v>0.6351502775666784</v>
       </c>
       <c r="U60">
         <v>2.92</v>
@@ -11823,10 +11823,10 @@
         <v>696</v>
       </c>
       <c r="AA60">
-        <v>37.94094827586205</v>
+        <v>37.94080459770112</v>
       </c>
       <c r="AB60">
-        <v>2.595470036619537</v>
+        <v>2.595547141394633</v>
       </c>
       <c r="AC60">
         <v>33.4</v>
@@ -11895,10 +11895,10 @@
         <v>696</v>
       </c>
       <c r="AY60">
-        <v>0.008548302873563219</v>
+        <v>0.008553288793103452</v>
       </c>
       <c r="AZ60">
-        <v>0.0167659589156464</v>
+        <v>0.0167776046685036</v>
       </c>
       <c r="BA60">
         <v>-0.0152</v>
@@ -11919,10 +11919,10 @@
         <v>696</v>
       </c>
       <c r="BG60">
-        <v>0.1925909827586206</v>
+        <v>0.1927248994252874</v>
       </c>
       <c r="BH60">
-        <v>0.2593460490853338</v>
+        <v>0.2594874172977849</v>
       </c>
       <c r="BI60">
         <v>-0.0827</v>
@@ -11996,10 +11996,10 @@
         <v>696</v>
       </c>
       <c r="S61">
-        <v>3.829755747126434</v>
+        <v>3.829741379310342</v>
       </c>
       <c r="T61">
-        <v>0.6354225450503709</v>
+        <v>0.6354407674916087</v>
       </c>
       <c r="U61">
         <v>2.92</v>
@@ -12092,10 +12092,10 @@
         <v>696</v>
       </c>
       <c r="AY61">
-        <v>0.008713794540229877</v>
+        <v>0.008718680172413786</v>
       </c>
       <c r="AZ61">
-        <v>0.01697228957313195</v>
+        <v>0.01697570713359426</v>
       </c>
       <c r="BA61">
         <v>-0.0146</v>
@@ -12116,10 +12116,10 @@
         <v>696</v>
       </c>
       <c r="BG61">
-        <v>0.1955828089080457</v>
+        <v>0.1957093879310342</v>
       </c>
       <c r="BH61">
-        <v>0.2616503613824796</v>
+        <v>0.2617777423216782</v>
       </c>
       <c r="BI61">
         <v>-0.08069999999999999</v>
@@ -12169,10 +12169,10 @@
         <v>696</v>
       </c>
       <c r="K62">
-        <v>37.95387931034479</v>
+        <v>37.95373563218386</v>
       </c>
       <c r="L62">
-        <v>2.586130557460934</v>
+        <v>2.586230914191521</v>
       </c>
       <c r="M62">
         <v>33.4</v>
@@ -12193,10 +12193,10 @@
         <v>696</v>
       </c>
       <c r="S62">
-        <v>3.828951149425288</v>
+        <v>3.828936781609196</v>
       </c>
       <c r="T62">
-        <v>0.6356737029349211</v>
+        <v>0.6356921263087363</v>
       </c>
       <c r="U62">
         <v>2.91</v>
@@ -12265,10 +12265,10 @@
         <v>696</v>
       </c>
       <c r="AQ62">
-        <v>28.80652298850577</v>
+        <v>28.80637931034485</v>
       </c>
       <c r="AR62">
-        <v>16.34890649482249</v>
+        <v>16.34881370196847</v>
       </c>
       <c r="AS62">
         <v>1.26</v>
@@ -12289,10 +12289,10 @@
         <v>696</v>
       </c>
       <c r="AY62">
-        <v>0.008876767097701159</v>
+        <v>0.008881839080459785</v>
       </c>
       <c r="AZ62">
-        <v>0.01717172243396275</v>
+        <v>0.01717560720249963</v>
       </c>
       <c r="BA62">
         <v>-0.0141</v>
@@ -12313,10 +12313,10 @@
         <v>696</v>
       </c>
       <c r="BG62">
-        <v>0.1985230301724139</v>
+        <v>0.1986681580459771</v>
       </c>
       <c r="BH62">
-        <v>0.2638748389996554</v>
+        <v>0.264060197873792</v>
       </c>
       <c r="BI62">
         <v>-0.07870000000000001</v>
@@ -12325,7 +12325,7 @@
         <v>-0.025225</v>
       </c>
       <c r="BK62">
-        <v>-0.0004195</v>
+        <v>-0.00042</v>
       </c>
       <c r="BL62">
         <v>0.45975</v>
@@ -12390,10 +12390,10 @@
         <v>696</v>
       </c>
       <c r="S63">
-        <v>3.828002873563218</v>
+        <v>3.82794540229885</v>
       </c>
       <c r="T63">
-        <v>0.6361244211067683</v>
+        <v>0.6361651768735856</v>
       </c>
       <c r="U63">
         <v>2.91</v>
@@ -12486,10 +12486,10 @@
         <v>696</v>
       </c>
       <c r="AY63">
-        <v>0.009039611494252874</v>
+        <v>0.009044540804597699</v>
       </c>
       <c r="AZ63">
-        <v>0.0173833922646639</v>
+        <v>0.01738672268024243</v>
       </c>
       <c r="BA63">
         <v>-0.0136</v>
@@ -12510,10 +12510,10 @@
         <v>696</v>
       </c>
       <c r="BG63">
-        <v>0.2014270114942528</v>
+        <v>0.2016080632183907</v>
       </c>
       <c r="BH63">
-        <v>0.266214308834029</v>
+        <v>0.266399556725632</v>
       </c>
       <c r="BI63">
         <v>-0.0767</v>
@@ -12525,7 +12525,7 @@
         <v>-0.00041</v>
       </c>
       <c r="BL63">
-        <v>0.46475</v>
+        <v>0.465</v>
       </c>
       <c r="BM63">
         <v>1.13</v>
@@ -12587,10 +12587,10 @@
         <v>696</v>
       </c>
       <c r="S64">
-        <v>3.827198275862066</v>
+        <v>3.827169540229882</v>
       </c>
       <c r="T64">
-        <v>0.6363913965092391</v>
+        <v>0.636400991179669</v>
       </c>
       <c r="U64">
         <v>2.91</v>
@@ -12659,10 +12659,10 @@
         <v>696</v>
       </c>
       <c r="AQ64">
-        <v>28.80188218390805</v>
+        <v>28.80173850574713</v>
       </c>
       <c r="AR64">
-        <v>16.34636231437191</v>
+        <v>16.34627122668697</v>
       </c>
       <c r="AS64">
         <v>1.26</v>
@@ -12683,10 +12683,10 @@
         <v>696</v>
       </c>
       <c r="AY64">
-        <v>0.009206085057471248</v>
+        <v>0.009211056465517228</v>
       </c>
       <c r="AZ64">
-        <v>0.01759970421901575</v>
+        <v>0.01760325432303593</v>
       </c>
       <c r="BA64">
         <v>-0.0131</v>
@@ -12707,10 +12707,10 @@
         <v>696</v>
       </c>
       <c r="BG64">
-        <v>0.2045403836206898</v>
+        <v>0.2047216321839081</v>
       </c>
       <c r="BH64">
-        <v>0.2690718389728707</v>
+        <v>0.2692663408616107</v>
       </c>
       <c r="BI64">
         <v>-0.07480000000000001</v>
@@ -12722,7 +12722,7 @@
         <v>-0.0004</v>
       </c>
       <c r="BL64">
-        <v>0.47</v>
+        <v>0.47075</v>
       </c>
       <c r="BM64">
         <v>1.16</v>
@@ -12856,10 +12856,10 @@
         <v>696</v>
       </c>
       <c r="AQ65">
-        <v>28.79721264367815</v>
+        <v>28.79706896551723</v>
       </c>
       <c r="AR65">
-        <v>16.3435217356316</v>
+        <v>16.34358553779458</v>
       </c>
       <c r="AS65">
         <v>1.26</v>
@@ -12880,10 +12880,10 @@
         <v>696</v>
       </c>
       <c r="AY65">
-        <v>0.009367869971264368</v>
+        <v>0.009373231465517242</v>
       </c>
       <c r="AZ65">
-        <v>0.01780455299132405</v>
+        <v>0.0178092067053319</v>
       </c>
       <c r="BA65">
         <v>-0.0126</v>
@@ -12895,7 +12895,7 @@
         <v>-1.77E-05</v>
       </c>
       <c r="BD65">
-        <v>0.012725</v>
+        <v>0.0128</v>
       </c>
       <c r="BE65">
         <v>0.124</v>
@@ -12904,10 +12904,10 @@
         <v>696</v>
       </c>
       <c r="BG65">
-        <v>0.2076237859195402</v>
+        <v>0.2078035459770115</v>
       </c>
       <c r="BH65">
-        <v>0.2713431050274562</v>
+        <v>0.2715311964103009</v>
       </c>
       <c r="BI65">
         <v>-0.07290000000000001</v>
@@ -12916,10 +12916,10 @@
         <v>-0.02255</v>
       </c>
       <c r="BK65">
-        <v>-0.0003915</v>
+        <v>-0.000392</v>
       </c>
       <c r="BL65">
-        <v>0.47575</v>
+        <v>0.476</v>
       </c>
       <c r="BM65">
         <v>1.15</v>
@@ -13053,10 +13053,10 @@
         <v>696</v>
       </c>
       <c r="AQ66">
-        <v>28.7926436781609</v>
+        <v>28.79249999999999</v>
       </c>
       <c r="AR66">
-        <v>16.34204734915611</v>
+        <v>16.34187339233856</v>
       </c>
       <c r="AS66">
         <v>1.26</v>
@@ -13077,10 +13077,10 @@
         <v>696</v>
       </c>
       <c r="AY66">
-        <v>0.009517771652298871</v>
+        <v>0.009525327887931052</v>
       </c>
       <c r="AZ66">
-        <v>0.01799545489395721</v>
+        <v>0.01800874009162413</v>
       </c>
       <c r="BA66">
         <v>-0.0121</v>
@@ -13101,10 +13101,10 @@
         <v>696</v>
       </c>
       <c r="BG66">
-        <v>0.2103928922413794</v>
+        <v>0.2105883247126438</v>
       </c>
       <c r="BH66">
-        <v>0.2729773709193679</v>
+        <v>0.2732052910111237</v>
       </c>
       <c r="BI66">
         <v>-0.07099999999999999</v>
@@ -13116,7 +13116,7 @@
         <v>-0.0003325</v>
       </c>
       <c r="BL66">
-        <v>0.48075</v>
+        <v>0.481</v>
       </c>
       <c r="BM66">
         <v>1.12</v>
@@ -13154,10 +13154,10 @@
         <v>696</v>
       </c>
       <c r="K67">
-        <v>37.94640804597702</v>
+        <v>37.94626436781609</v>
       </c>
       <c r="L67">
-        <v>2.594097067822962</v>
+        <v>2.594318720222214</v>
       </c>
       <c r="M67">
         <v>33.4</v>
@@ -13178,10 +13178,10 @@
         <v>696</v>
       </c>
       <c r="S67">
-        <v>3.825158045977015</v>
+        <v>3.825086206896555</v>
       </c>
       <c r="T67">
-        <v>0.6368998459997065</v>
+        <v>0.6369251617124463</v>
       </c>
       <c r="U67">
         <v>2.9</v>
@@ -13274,10 +13274,10 @@
         <v>696</v>
       </c>
       <c r="AY67">
-        <v>0.009668477442528736</v>
+        <v>0.009675217672413798</v>
       </c>
       <c r="AZ67">
-        <v>0.01821211824565106</v>
+        <v>0.01821656353930913</v>
       </c>
       <c r="BA67">
         <v>-0.0117</v>
@@ -13298,10 +13298,10 @@
         <v>696</v>
       </c>
       <c r="BG67">
-        <v>0.2129333132183907</v>
+        <v>0.2131316249999998</v>
       </c>
       <c r="BH67">
-        <v>0.2745498921315999</v>
+        <v>0.2747546474644911</v>
       </c>
       <c r="BI67">
         <v>-0.0692</v>
@@ -13351,10 +13351,10 @@
         <v>696</v>
       </c>
       <c r="K68">
-        <v>37.94540229885057</v>
+        <v>37.94525862068965</v>
       </c>
       <c r="L68">
-        <v>2.59535980160618</v>
+        <v>2.595586833869324</v>
       </c>
       <c r="M68">
         <v>33.4</v>
@@ -13375,10 +13375,10 @@
         <v>696</v>
       </c>
       <c r="S68">
-        <v>3.824439655172416</v>
+        <v>3.824396551724141</v>
       </c>
       <c r="T68">
-        <v>0.6371272999591702</v>
+        <v>0.6371611347102196</v>
       </c>
       <c r="U68">
         <v>2.9</v>
@@ -13423,10 +13423,10 @@
         <v>696</v>
       </c>
       <c r="AI68">
-        <v>108.7850574712643</v>
+        <v>108.7849137931034</v>
       </c>
       <c r="AJ68">
-        <v>28.87453496084958</v>
+        <v>28.87475439105303</v>
       </c>
       <c r="AK68">
         <v>59.1</v>
@@ -13471,10 +13471,10 @@
         <v>696</v>
       </c>
       <c r="AY68">
-        <v>0.009815428735632179</v>
+        <v>0.009822599999999992</v>
       </c>
       <c r="AZ68">
-        <v>0.01841509585081132</v>
+        <v>0.01842696384161775</v>
       </c>
       <c r="BA68">
         <v>-0.0113</v>
@@ -13495,10 +13495,10 @@
         <v>696</v>
       </c>
       <c r="BG68">
-        <v>0.2154610818965516</v>
+        <v>0.2156940488505746</v>
       </c>
       <c r="BH68">
-        <v>0.2762547574179328</v>
+        <v>0.2765368949402289</v>
       </c>
       <c r="BI68">
         <v>-0.0674</v>
@@ -13510,7 +13510,7 @@
         <v>-0.0003195</v>
       </c>
       <c r="BL68">
-        <v>0.49075</v>
+        <v>0.491</v>
       </c>
       <c r="BM68">
         <v>1.14</v>
@@ -13548,10 +13548,10 @@
         <v>696</v>
       </c>
       <c r="K69">
-        <v>37.94439655172412</v>
+        <v>37.9442528735632</v>
       </c>
       <c r="L69">
-        <v>2.59698168648347</v>
+        <v>2.597219601193987</v>
       </c>
       <c r="M69">
         <v>33.4</v>
@@ -13572,10 +13572,10 @@
         <v>696</v>
       </c>
       <c r="S69">
-        <v>3.823520114942533</v>
+        <v>3.823448275862074</v>
       </c>
       <c r="T69">
-        <v>0.6371791202240416</v>
+        <v>0.6372252395769155</v>
       </c>
       <c r="U69">
         <v>2.9</v>
@@ -13620,10 +13620,10 @@
         <v>696</v>
       </c>
       <c r="AI69">
-        <v>108.7742816091954</v>
+        <v>108.7728448275862</v>
       </c>
       <c r="AJ69">
-        <v>28.8196138657003</v>
+        <v>28.81972737546334</v>
       </c>
       <c r="AK69">
         <v>59.1</v>
@@ -13668,10 +13668,10 @@
         <v>696</v>
       </c>
       <c r="AY69">
-        <v>0.009956908908045969</v>
+        <v>0.009965543965517239</v>
       </c>
       <c r="AZ69">
-        <v>0.01860826149173877</v>
+        <v>0.0186233915016447</v>
       </c>
       <c r="BA69">
         <v>-0.0108</v>
@@ -13692,10 +13692,10 @@
         <v>696</v>
       </c>
       <c r="BG69">
-        <v>0.2179404482758618</v>
+        <v>0.2181675071839078</v>
       </c>
       <c r="BH69">
-        <v>0.2777918708700857</v>
+        <v>0.2780275125650272</v>
       </c>
       <c r="BI69">
         <v>-0.06560000000000001</v>
@@ -13707,7 +13707,7 @@
         <v>-0.000313</v>
       </c>
       <c r="BL69">
-        <v>0.49575</v>
+        <v>0.496</v>
       </c>
       <c r="BM69">
         <v>1.14</v>
@@ -13769,10 +13769,10 @@
         <v>696</v>
       </c>
       <c r="S70">
-        <v>3.822758620689661</v>
+        <v>3.822744252873568</v>
       </c>
       <c r="T70">
-        <v>0.6374791896146598</v>
+        <v>0.6374976467464103</v>
       </c>
       <c r="U70">
         <v>2.9</v>
@@ -13865,10 +13865,10 @@
         <v>696</v>
       </c>
       <c r="AY70">
-        <v>0.0100924426724138</v>
+        <v>0.01010225574712644</v>
       </c>
       <c r="AZ70">
-        <v>0.01879645119634117</v>
+        <v>0.0188120100553476</v>
       </c>
       <c r="BA70">
         <v>-0.0104</v>
@@ -13889,10 +13889,10 @@
         <v>696</v>
       </c>
       <c r="BG70">
-        <v>0.2202425545977013</v>
+        <v>0.2204799123563219</v>
       </c>
       <c r="BH70">
-        <v>0.2788438019034462</v>
+        <v>0.279085103130106</v>
       </c>
       <c r="BI70">
         <v>-0.0639</v>
@@ -13904,7 +13904,7 @@
         <v>-0.000307</v>
       </c>
       <c r="BL70">
-        <v>0.50075</v>
+        <v>0.501</v>
       </c>
       <c r="BM70">
         <v>1.13</v>
@@ -13966,10 +13966,10 @@
         <v>696</v>
       </c>
       <c r="S71">
-        <v>3.822227011494258</v>
+        <v>3.822155172413798</v>
       </c>
       <c r="T71">
-        <v>0.6377476645534896</v>
+        <v>0.6377732928001758</v>
       </c>
       <c r="U71">
         <v>2.89</v>
@@ -13990,10 +13990,10 @@
         <v>696</v>
       </c>
       <c r="AA71">
-        <v>37.9323275862069</v>
+        <v>37.93218390804598</v>
       </c>
       <c r="AB71">
-        <v>2.605390822340707</v>
+        <v>2.605638346913504</v>
       </c>
       <c r="AC71">
         <v>33.4</v>
@@ -14014,10 +14014,10 @@
         <v>696</v>
       </c>
       <c r="AI71">
-        <v>108.758908045977</v>
+        <v>108.7587643678161</v>
       </c>
       <c r="AJ71">
-        <v>28.80844012942759</v>
+        <v>28.80849811016021</v>
       </c>
       <c r="AK71">
         <v>59.1</v>
@@ -14062,10 +14062,10 @@
         <v>696</v>
       </c>
       <c r="AY71">
-        <v>0.01021851880747126</v>
+        <v>0.01022741678160919</v>
       </c>
       <c r="AZ71">
-        <v>0.01897948377486574</v>
+        <v>0.01898540833141496</v>
       </c>
       <c r="BA71">
         <v>-0.01</v>
@@ -14086,10 +14086,10 @@
         <v>696</v>
       </c>
       <c r="BG71">
-        <v>0.2222786260057472</v>
+        <v>0.2225402639367818</v>
       </c>
       <c r="BH71">
-        <v>0.2794585144909188</v>
+        <v>0.2797644139140011</v>
       </c>
       <c r="BI71">
         <v>-0.0622</v>
@@ -14101,7 +14101,7 @@
         <v>-0.000139</v>
       </c>
       <c r="BL71">
-        <v>0.50575</v>
+        <v>0.506</v>
       </c>
       <c r="BM71">
         <v>1.1</v>
@@ -14163,10 +14163,10 @@
         <v>696</v>
       </c>
       <c r="S72">
-        <v>3.821494252873569</v>
+        <v>3.821451149425293</v>
       </c>
       <c r="T72">
-        <v>0.638033000180587</v>
+        <v>0.6380532829276816</v>
       </c>
       <c r="U72">
         <v>2.89</v>
@@ -14211,10 +14211,10 @@
         <v>696</v>
       </c>
       <c r="AI72">
-        <v>108.7520114942529</v>
+        <v>108.7505747126437</v>
       </c>
       <c r="AJ72">
-        <v>28.80904377348044</v>
+        <v>28.80795752800638</v>
       </c>
       <c r="AK72">
         <v>59.1</v>
@@ -14259,10 +14259,10 @@
         <v>696</v>
       </c>
       <c r="AY72">
-        <v>0.01034519410919539</v>
+        <v>0.01035442557471264</v>
       </c>
       <c r="AZ72">
-        <v>0.01915568394234391</v>
+        <v>0.01916311956907548</v>
       </c>
       <c r="BA72">
         <v>-0.009639999999999999</v>
@@ -14283,10 +14283,10 @@
         <v>696</v>
       </c>
       <c r="BG72">
-        <v>0.2243862169540232</v>
+        <v>0.224678346264368</v>
       </c>
       <c r="BH72">
-        <v>0.2804428213787786</v>
+        <v>0.2808132596039339</v>
       </c>
       <c r="BI72">
         <v>-0.0605</v>
@@ -14298,7 +14298,7 @@
         <v>0.000845</v>
       </c>
       <c r="BL72">
-        <v>0.51075</v>
+        <v>0.511</v>
       </c>
       <c r="BM72">
         <v>1.09</v>
@@ -14360,10 +14360,10 @@
         <v>696</v>
       </c>
       <c r="S73">
-        <v>3.820689655172419</v>
+        <v>3.820632183908052</v>
       </c>
       <c r="T73">
-        <v>0.6380760976758215</v>
+        <v>0.6380815692190884</v>
       </c>
       <c r="U73">
         <v>2.89</v>
@@ -14408,10 +14408,10 @@
         <v>696</v>
       </c>
       <c r="AI73">
-        <v>108.7344827586207</v>
+        <v>108.7330459770115</v>
       </c>
       <c r="AJ73">
-        <v>28.80206608330948</v>
+        <v>28.80157819273326</v>
       </c>
       <c r="AK73">
         <v>59.1</v>
@@ -14456,10 +14456,10 @@
         <v>696</v>
       </c>
       <c r="AY73">
-        <v>0.01047005545977011</v>
+        <v>0.0104784375</v>
       </c>
       <c r="AZ73">
-        <v>0.01933173610222801</v>
+        <v>0.01933863078157744</v>
       </c>
       <c r="BA73">
         <v>-0.00927</v>
@@ -14480,10 +14480,10 @@
         <v>696</v>
       </c>
       <c r="BG73">
-        <v>0.2265041910919539</v>
+        <v>0.2267634310344827</v>
       </c>
       <c r="BH73">
-        <v>0.2814847703152202</v>
+        <v>0.2817585187125777</v>
       </c>
       <c r="BI73">
         <v>-0.0589</v>
@@ -14495,7 +14495,7 @@
         <v>0.001795</v>
       </c>
       <c r="BL73">
-        <v>0.5155000000000001</v>
+        <v>0.51575</v>
       </c>
       <c r="BM73">
         <v>1.08</v>
@@ -14557,10 +14557,10 @@
         <v>696</v>
       </c>
       <c r="S74">
-        <v>3.81989942528736</v>
+        <v>3.8198275862069</v>
       </c>
       <c r="T74">
-        <v>0.638248156514873</v>
+        <v>0.6382800397001565</v>
       </c>
       <c r="U74">
         <v>2.89</v>
@@ -14581,10 +14581,10 @@
         <v>696</v>
       </c>
       <c r="AA74">
-        <v>37.92916666666668</v>
+        <v>37.92902298850576</v>
       </c>
       <c r="AB74">
-        <v>2.608695452985428</v>
+        <v>2.608936974631673</v>
       </c>
       <c r="AC74">
         <v>33.4</v>
@@ -14605,10 +14605,10 @@
         <v>696</v>
       </c>
       <c r="AI74">
-        <v>108.7258620689655</v>
+        <v>108.7242816091954</v>
       </c>
       <c r="AJ74">
-        <v>28.80294735325163</v>
+        <v>28.80312981696532</v>
       </c>
       <c r="AK74">
         <v>59.1</v>
@@ -14629,10 +14629,10 @@
         <v>696</v>
       </c>
       <c r="AQ74">
-        <v>28.78071839080458</v>
+        <v>28.78057471264367</v>
       </c>
       <c r="AR74">
-        <v>16.33807994146862</v>
+        <v>16.33797188835339</v>
       </c>
       <c r="AS74">
         <v>1.26</v>
@@ -14653,10 +14653,10 @@
         <v>696</v>
       </c>
       <c r="AY74">
-        <v>0.01058356824712643</v>
+        <v>0.01059275488505746</v>
       </c>
       <c r="AZ74">
-        <v>0.01950167550025879</v>
+        <v>0.01950835585690404</v>
       </c>
       <c r="BA74">
         <v>-0.0089</v>
@@ -14677,10 +14677,10 @@
         <v>696</v>
       </c>
       <c r="BG74">
-        <v>0.2282606106321836</v>
+        <v>0.2285513117816089</v>
       </c>
       <c r="BH74">
-        <v>0.2818768001447611</v>
+        <v>0.2822142738151087</v>
       </c>
       <c r="BI74">
         <v>-0.0573</v>
@@ -14692,7 +14692,7 @@
         <v>0.002725</v>
       </c>
       <c r="BL74">
-        <v>0.5195000000000001</v>
+        <v>0.52075</v>
       </c>
       <c r="BM74">
         <v>1.06</v>
@@ -14754,10 +14754,10 @@
         <v>696</v>
       </c>
       <c r="S75">
-        <v>3.819281609195404</v>
+        <v>3.819238505747129</v>
       </c>
       <c r="T75">
-        <v>0.6386095966903668</v>
+        <v>0.6386517908372563</v>
       </c>
       <c r="U75">
         <v>2.89</v>
@@ -14802,10 +14802,10 @@
         <v>696</v>
       </c>
       <c r="AI75">
-        <v>108.7209770114943</v>
+        <v>108.7208333333333</v>
       </c>
       <c r="AJ75">
-        <v>28.80454784574878</v>
+        <v>28.80463661509337</v>
       </c>
       <c r="AK75">
         <v>59.1</v>
@@ -14826,10 +14826,10 @@
         <v>696</v>
       </c>
       <c r="AQ75">
-        <v>28.77928160919539</v>
+        <v>28.77899425287355</v>
       </c>
       <c r="AR75">
-        <v>16.33749780691909</v>
+        <v>16.33738558974112</v>
       </c>
       <c r="AS75">
         <v>1.26</v>
@@ -14850,10 +14850,10 @@
         <v>696</v>
       </c>
       <c r="AY75">
-        <v>0.01069481853448276</v>
+        <v>0.01070606278735633</v>
       </c>
       <c r="AZ75">
-        <v>0.01966401570166787</v>
+        <v>0.01967962531352997</v>
       </c>
       <c r="BA75">
         <v>-0.00855</v>
@@ -14874,10 +14874,10 @@
         <v>696</v>
       </c>
       <c r="BG75">
-        <v>0.2299846091954023</v>
+        <v>0.2302950675287358</v>
       </c>
       <c r="BH75">
-        <v>0.2824199786475609</v>
+        <v>0.2827817272415407</v>
       </c>
       <c r="BI75">
         <v>-0.0557</v>
@@ -14889,7 +14889,7 @@
         <v>0.003625</v>
       </c>
       <c r="BL75">
-        <v>0.5245</v>
+        <v>0.525</v>
       </c>
       <c r="BM75">
         <v>1.04</v>
@@ -14951,10 +14951,10 @@
         <v>696</v>
       </c>
       <c r="S76">
-        <v>3.818908045977012</v>
+        <v>3.818879310344828</v>
       </c>
       <c r="T76">
-        <v>0.6388196963791357</v>
+        <v>0.6388590615471944</v>
       </c>
       <c r="U76">
         <v>2.89</v>
@@ -14999,10 +14999,10 @@
         <v>696</v>
       </c>
       <c r="AI76">
-        <v>108.7125</v>
+        <v>108.7109195402299</v>
       </c>
       <c r="AJ76">
-        <v>28.80081286947376</v>
+        <v>28.80004488934087</v>
       </c>
       <c r="AK76">
         <v>59.1</v>
@@ -15023,10 +15023,10 @@
         <v>696</v>
       </c>
       <c r="AQ76">
-        <v>28.7771264367816</v>
+        <v>28.77698275862068</v>
       </c>
       <c r="AR76">
-        <v>16.33602893077617</v>
+        <v>16.33586005794602</v>
       </c>
       <c r="AS76">
         <v>1.26</v>
@@ -15047,10 +15047,10 @@
         <v>696</v>
       </c>
       <c r="AY76">
-        <v>0.01080692859195403</v>
+        <v>0.01081749051724139</v>
       </c>
       <c r="AZ76">
-        <v>0.01982624416867707</v>
+        <v>0.01983442219538626</v>
       </c>
       <c r="BA76">
         <v>-0.008200000000000001</v>
@@ -15071,10 +15071,10 @@
         <v>696</v>
       </c>
       <c r="BG76">
-        <v>0.2318386522988504</v>
+        <v>0.2321493433908043</v>
       </c>
       <c r="BH76">
-        <v>0.2833052768628507</v>
+        <v>0.283631435142855</v>
       </c>
       <c r="BI76">
         <v>-0.0541</v>
@@ -15086,7 +15086,7 @@
         <v>0.004500000000000001</v>
       </c>
       <c r="BL76">
-        <v>0.52825</v>
+        <v>0.5297500000000001</v>
       </c>
       <c r="BM76">
         <v>1.03</v>
@@ -15148,10 +15148,10 @@
         <v>696</v>
       </c>
       <c r="S77">
-        <v>3.818534482758619</v>
+        <v>3.818491379310343</v>
       </c>
       <c r="T77">
-        <v>0.6390148726299892</v>
+        <v>0.6390229907126894</v>
       </c>
       <c r="U77">
         <v>2.88</v>
@@ -15172,10 +15172,10 @@
         <v>696</v>
       </c>
       <c r="AA77">
-        <v>37.92830459770117</v>
+        <v>37.92816091954025</v>
       </c>
       <c r="AB77">
-        <v>2.609217859991706</v>
+        <v>2.609282832635497</v>
       </c>
       <c r="AC77">
         <v>33.4</v>
@@ -15196,10 +15196,10 @@
         <v>696</v>
       </c>
       <c r="AI77">
-        <v>108.6951149425288</v>
+        <v>108.6936781609196</v>
       </c>
       <c r="AJ77">
-        <v>28.79579913883827</v>
+        <v>28.7955590147101</v>
       </c>
       <c r="AK77">
         <v>59.1</v>
@@ -15220,10 +15220,10 @@
         <v>696</v>
       </c>
       <c r="AQ77">
-        <v>28.77655172413791</v>
+        <v>28.77626436781608</v>
       </c>
       <c r="AR77">
-        <v>16.33575947388698</v>
+        <v>16.33574144234096</v>
       </c>
       <c r="AS77">
         <v>1.26</v>
@@ -15244,10 +15244,10 @@
         <v>696</v>
       </c>
       <c r="AY77">
-        <v>0.0109164660981322</v>
+        <v>0.01092862535775863</v>
       </c>
       <c r="AZ77">
-        <v>0.01998024731124589</v>
+        <v>0.01999741542364605</v>
       </c>
       <c r="BA77">
         <v>-0.00787</v>
@@ -15268,10 +15268,10 @@
         <v>696</v>
       </c>
       <c r="BG77">
-        <v>0.2335865014511495</v>
+        <v>0.2339273638074714</v>
       </c>
       <c r="BH77">
-        <v>0.2839854598527317</v>
+        <v>0.2844003167103057</v>
       </c>
       <c r="BI77">
         <v>-0.0526</v>
@@ -15283,7 +15283,7 @@
         <v>0.005345000000000001</v>
       </c>
       <c r="BL77">
-        <v>0.533</v>
+        <v>0.5335000000000001</v>
       </c>
       <c r="BM77">
         <v>1.01</v>
@@ -15345,10 +15345,10 @@
         <v>696</v>
       </c>
       <c r="S78">
-        <v>3.818045977011492</v>
+        <v>3.81795977011494</v>
       </c>
       <c r="T78">
-        <v>0.6391792652573079</v>
+        <v>0.6392341448205089</v>
       </c>
       <c r="U78">
         <v>2.88</v>
@@ -15369,10 +15369,10 @@
         <v>696</v>
       </c>
       <c r="AA78">
-        <v>37.92758620689658</v>
+        <v>37.92744252873566</v>
       </c>
       <c r="AB78">
-        <v>2.609542627812511</v>
+        <v>2.609772957323804</v>
       </c>
       <c r="AC78">
         <v>33.4</v>
@@ -15393,10 +15393,10 @@
         <v>696</v>
       </c>
       <c r="AI78">
-        <v>108.6836206896552</v>
+        <v>108.6834770114943</v>
       </c>
       <c r="AJ78">
-        <v>28.79257681301925</v>
+        <v>28.79278736586429</v>
       </c>
       <c r="AK78">
         <v>59.1</v>
@@ -15417,10 +15417,10 @@
         <v>696</v>
       </c>
       <c r="AQ78">
-        <v>28.77367816091953</v>
+        <v>28.77353448275861</v>
       </c>
       <c r="AR78">
-        <v>16.33442767466496</v>
+        <v>16.33429575173915</v>
       </c>
       <c r="AS78">
         <v>1.26</v>
@@ -15441,10 +15441,10 @@
         <v>696</v>
       </c>
       <c r="AY78">
-        <v>0.01103718318965518</v>
+        <v>0.01105030517241379</v>
       </c>
       <c r="AZ78">
-        <v>0.0201579764579858</v>
+        <v>0.02017404251657076</v>
       </c>
       <c r="BA78">
         <v>-0.00754</v>
@@ -15459,16 +15459,16 @@
         <v>0.0143</v>
       </c>
       <c r="BE78">
-        <v>0.137</v>
+        <v>0.138</v>
       </c>
       <c r="BF78">
         <v>696</v>
       </c>
       <c r="BG78">
-        <v>0.2356649022988506</v>
+        <v>0.2359928232758622</v>
       </c>
       <c r="BH78">
-        <v>0.2857364567692217</v>
+        <v>0.2860827679498426</v>
       </c>
       <c r="BI78">
         <v>-0.0511</v>
@@ -15480,7 +15480,7 @@
         <v>0.00617</v>
       </c>
       <c r="BL78">
-        <v>0.537</v>
+        <v>0.53825</v>
       </c>
       <c r="BM78">
         <v>1.05</v>
@@ -15542,10 +15542,10 @@
         <v>696</v>
       </c>
       <c r="S79">
-        <v>3.817370689655169</v>
+        <v>3.817327586206893</v>
       </c>
       <c r="T79">
-        <v>0.6394207004591259</v>
+        <v>0.6394102828380678</v>
       </c>
       <c r="U79">
         <v>2.88</v>
@@ -15614,10 +15614,10 @@
         <v>696</v>
       </c>
       <c r="AQ79">
-        <v>28.76333333333332</v>
+        <v>28.76304597701148</v>
       </c>
       <c r="AR79">
-        <v>16.28862374190269</v>
+        <v>16.28841992074216</v>
       </c>
       <c r="AS79">
         <v>1.26</v>
@@ -15638,10 +15638,10 @@
         <v>696</v>
       </c>
       <c r="AY79">
-        <v>0.01116093060344828</v>
+        <v>0.01117309295977011</v>
       </c>
       <c r="AZ79">
-        <v>0.02034078929958678</v>
+        <v>0.02035042803741292</v>
       </c>
       <c r="BA79">
         <v>-0.00722</v>
@@ -15653,7 +15653,7 @@
         <v>0.000645</v>
       </c>
       <c r="BD79">
-        <v>0.014325</v>
+        <v>0.0144</v>
       </c>
       <c r="BE79">
         <v>0.138</v>
@@ -15662,10 +15662,10 @@
         <v>696</v>
       </c>
       <c r="BG79">
-        <v>0.2378575646551725</v>
+        <v>0.2382184166666669</v>
       </c>
       <c r="BH79">
-        <v>0.2874571808787601</v>
+        <v>0.2878736954012922</v>
       </c>
       <c r="BI79">
         <v>-0.0496</v>
@@ -15677,10 +15677,10 @@
         <v>0.006970000000000001</v>
       </c>
       <c r="BL79">
-        <v>0.541</v>
+        <v>0.54225</v>
       </c>
       <c r="BM79">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="80" spans="1:65">
@@ -15715,10 +15715,10 @@
         <v>696</v>
       </c>
       <c r="K80">
-        <v>37.93879310344826</v>
+        <v>37.93864942528734</v>
       </c>
       <c r="L80">
-        <v>2.599737835760785</v>
+        <v>2.59998625631668</v>
       </c>
       <c r="M80">
         <v>33.4</v>
@@ -15739,10 +15739,10 @@
         <v>696</v>
       </c>
       <c r="S80">
-        <v>3.816738505747124</v>
+        <v>3.816652298850573</v>
       </c>
       <c r="T80">
-        <v>0.639228735373094</v>
+        <v>0.6392397686374469</v>
       </c>
       <c r="U80">
         <v>2.88</v>
@@ -15787,10 +15787,10 @@
         <v>696</v>
       </c>
       <c r="AI80">
-        <v>108.6705459770115</v>
+        <v>108.6704022988506</v>
       </c>
       <c r="AJ80">
-        <v>28.78563006291066</v>
+        <v>28.78585109797949</v>
       </c>
       <c r="AK80">
         <v>59.1</v>
@@ -15835,10 +15835,10 @@
         <v>696</v>
       </c>
       <c r="AY80">
-        <v>0.0112723063218391</v>
+        <v>0.0112875313218391</v>
       </c>
       <c r="AZ80">
-        <v>0.02050870069072992</v>
+        <v>0.02052810722118122</v>
       </c>
       <c r="BA80">
         <v>-0.00691</v>
@@ -15850,7 +15850,7 @@
         <v>0.000693</v>
       </c>
       <c r="BD80">
-        <v>0.014425</v>
+        <v>0.014525</v>
       </c>
       <c r="BE80">
         <v>0.139</v>
@@ -15859,10 +15859,10 @@
         <v>696</v>
       </c>
       <c r="BG80">
-        <v>0.239711978448276</v>
+        <v>0.2400942241379314</v>
       </c>
       <c r="BH80">
-        <v>0.2885042216230422</v>
+        <v>0.2889269285244476</v>
       </c>
       <c r="BI80">
         <v>-0.0481</v>
@@ -15874,7 +15874,7 @@
         <v>0.007755</v>
       </c>
       <c r="BL80">
-        <v>0.54425</v>
+        <v>0.54625</v>
       </c>
       <c r="BM80">
         <v>1.03</v>
@@ -15912,10 +15912,10 @@
         <v>696</v>
       </c>
       <c r="K81">
-        <v>37.93764367816092</v>
+        <v>37.93735632183908</v>
       </c>
       <c r="L81">
-        <v>2.601707722410816</v>
+        <v>2.602198499286055</v>
       </c>
       <c r="M81">
         <v>33.4</v>
@@ -15936,10 +15936,10 @@
         <v>696</v>
       </c>
       <c r="S81">
-        <v>3.816264367816089</v>
+        <v>3.816235632183905</v>
       </c>
       <c r="T81">
-        <v>0.6394224995156129</v>
+        <v>0.6394383071994769</v>
       </c>
       <c r="U81">
         <v>2.88</v>
@@ -15960,10 +15960,10 @@
         <v>696</v>
       </c>
       <c r="AA81">
-        <v>37.92571839080463</v>
+        <v>37.92528735632187</v>
       </c>
       <c r="AB81">
-        <v>2.611339313140277</v>
+        <v>2.611550145394847</v>
       </c>
       <c r="AC81">
         <v>33.4</v>
@@ -15984,10 +15984,10 @@
         <v>696</v>
       </c>
       <c r="AI81">
-        <v>108.6602011494253</v>
+        <v>108.6586206896552</v>
       </c>
       <c r="AJ81">
-        <v>28.78513524190453</v>
+        <v>28.78376511524982</v>
       </c>
       <c r="AK81">
         <v>59.1</v>
@@ -16032,10 +16032,10 @@
         <v>696</v>
       </c>
       <c r="AY81">
-        <v>0.01138183505747127</v>
+        <v>0.01139492586206897</v>
       </c>
       <c r="AZ81">
-        <v>0.02067501674616479</v>
+        <v>0.02069404584959717</v>
       </c>
       <c r="BA81">
         <v>-0.00661</v>
@@ -16056,10 +16056,10 @@
         <v>696</v>
       </c>
       <c r="BG81">
-        <v>0.2415167298850571</v>
+        <v>0.2418989770114942</v>
       </c>
       <c r="BH81">
-        <v>0.2896141132505726</v>
+        <v>0.2900440534855879</v>
       </c>
       <c r="BI81">
         <v>-0.0467</v>
@@ -16068,10 +16068,10 @@
         <v>-0.010825</v>
       </c>
       <c r="BK81">
-        <v>0.00852</v>
+        <v>0.008525</v>
       </c>
       <c r="BL81">
-        <v>0.548</v>
+        <v>0.55</v>
       </c>
       <c r="BM81">
         <v>1.02</v>
@@ -16133,10 +16133,10 @@
         <v>696</v>
       </c>
       <c r="S82">
-        <v>3.815804597701148</v>
+        <v>3.81574712643678</v>
       </c>
       <c r="T82">
-        <v>0.6394718475252775</v>
+        <v>0.6394901425649763</v>
       </c>
       <c r="U82">
         <v>2.88</v>
@@ -16157,10 +16157,10 @@
         <v>696</v>
       </c>
       <c r="AA82">
-        <v>37.92399425287359</v>
+        <v>37.92370689655176</v>
       </c>
       <c r="AB82">
-        <v>2.612418955674396</v>
+        <v>2.612878683774855</v>
       </c>
       <c r="AC82">
         <v>33.4</v>
@@ -16205,10 +16205,10 @@
         <v>696</v>
       </c>
       <c r="AQ82">
-        <v>28.76040229885056</v>
+        <v>28.76011494252873</v>
       </c>
       <c r="AR82">
-        <v>16.28740693253915</v>
+        <v>16.28717212453125</v>
       </c>
       <c r="AS82">
         <v>1.26</v>
@@ -16229,10 +16229,10 @@
         <v>696</v>
       </c>
       <c r="AY82">
-        <v>0.01148612658045978</v>
+        <v>0.01150026652298851</v>
       </c>
       <c r="AZ82">
-        <v>0.02083225421426238</v>
+        <v>0.02085099933911111</v>
       </c>
       <c r="BA82">
         <v>-0.00632</v>
@@ -16253,10 +16253,10 @@
         <v>696</v>
       </c>
       <c r="BG82">
-        <v>0.2431963175287358</v>
+        <v>0.2435830272988507</v>
       </c>
       <c r="BH82">
-        <v>0.290532048953488</v>
+        <v>0.2909456894817521</v>
       </c>
       <c r="BI82">
         <v>-0.0453</v>
@@ -16268,7 +16268,7 @@
         <v>0.009549999999999999</v>
       </c>
       <c r="BL82">
-        <v>0.55125</v>
+        <v>0.55325</v>
       </c>
       <c r="BM82">
         <v>1.01</v>
@@ -16306,10 +16306,10 @@
         <v>696</v>
       </c>
       <c r="K83">
-        <v>37.93663793103447</v>
+        <v>37.93649425287354</v>
       </c>
       <c r="L83">
-        <v>2.602979956021801</v>
+        <v>2.603078710141118</v>
       </c>
       <c r="M83">
         <v>33.4</v>
@@ -16330,10 +16330,10 @@
         <v>696</v>
       </c>
       <c r="S83">
-        <v>3.815359195402299</v>
+        <v>3.815287356321838</v>
       </c>
       <c r="T83">
-        <v>0.6397345562400841</v>
+        <v>0.6397885695371641</v>
       </c>
       <c r="U83">
         <v>2.88</v>
@@ -16426,10 +16426,10 @@
         <v>696</v>
       </c>
       <c r="AY83">
-        <v>0.01158759956896552</v>
+        <v>0.01160457313218391</v>
       </c>
       <c r="AZ83">
-        <v>0.02098791707923373</v>
+        <v>0.02100761817220852</v>
       </c>
       <c r="BA83">
         <v>-0.00603</v>
@@ -16441,19 +16441,19 @@
         <v>0.000854</v>
       </c>
       <c r="BD83">
-        <v>0.014725</v>
+        <v>0.01475</v>
       </c>
       <c r="BE83">
-        <v>0.141</v>
+        <v>0.142</v>
       </c>
       <c r="BF83">
         <v>696</v>
       </c>
       <c r="BG83">
-        <v>0.2448953721264369</v>
+        <v>0.245312221264368</v>
       </c>
       <c r="BH83">
-        <v>0.291596918551942</v>
+        <v>0.2920883837528652</v>
       </c>
       <c r="BI83">
         <v>-0.0439</v>
@@ -16465,10 +16465,10 @@
         <v>0.0106</v>
       </c>
       <c r="BL83">
-        <v>0.5545</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="BM83">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="84" spans="1:65">
@@ -16503,13 +16503,13 @@
         <v>696</v>
       </c>
       <c r="K84">
-        <v>37.94137931034481</v>
+        <v>37.93965517241377</v>
       </c>
       <c r="L84">
-        <v>2.601938479319073</v>
+        <v>2.602534878650414</v>
       </c>
       <c r="M84">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="N84">
         <v>36.1</v>
@@ -16527,16 +16527,16 @@
         <v>696</v>
       </c>
       <c r="S84">
-        <v>3.819511494252876</v>
+        <v>3.817629310344825</v>
       </c>
       <c r="T84">
-        <v>0.6405820576082054</v>
+        <v>0.6405184370077589</v>
       </c>
       <c r="U84">
         <v>2.85</v>
       </c>
       <c r="V84">
-        <v>3.2875</v>
+        <v>3.28</v>
       </c>
       <c r="W84">
         <v>3.665</v>
@@ -16545,7 +16545,7 @@
         <v>4.23</v>
       </c>
       <c r="Y84">
-        <v>5.27</v>
+        <v>5.26</v>
       </c>
       <c r="Z84">
         <v>696</v>
@@ -16575,16 +16575,16 @@
         <v>696</v>
       </c>
       <c r="AI84">
-        <v>108.6643678160919</v>
+        <v>108.6541666666666</v>
       </c>
       <c r="AJ84">
-        <v>28.78028692648832</v>
+        <v>28.77917832246202</v>
       </c>
       <c r="AK84">
         <v>59.1</v>
       </c>
       <c r="AL84">
-        <v>93.57499999999999</v>
+        <v>93.5</v>
       </c>
       <c r="AM84">
         <v>112</v>
@@ -16599,10 +16599,10 @@
         <v>696</v>
       </c>
       <c r="AQ84">
-        <v>28.76521551724139</v>
+        <v>28.76360632183909</v>
       </c>
       <c r="AR84">
-        <v>16.29573079845282</v>
+        <v>16.29518683618232</v>
       </c>
       <c r="AS84">
         <v>1.25</v>
@@ -16623,10 +16623,10 @@
         <v>696</v>
       </c>
       <c r="AY84">
-        <v>0.01170050589080461</v>
+        <v>0.01171178419540232</v>
       </c>
       <c r="AZ84">
-        <v>0.02116741806170446</v>
+        <v>0.02117568157792039</v>
       </c>
       <c r="BA84">
         <v>-0.00575</v>
@@ -16647,10 +16647,10 @@
         <v>696</v>
       </c>
       <c r="BG84">
-        <v>0.2467622629310343</v>
+        <v>0.2471727686781608</v>
       </c>
       <c r="BH84">
-        <v>0.2931907365662355</v>
+        <v>0.2936463990782889</v>
       </c>
       <c r="BI84">
         <v>-0.0425</v>
@@ -16662,7 +16662,7 @@
         <v>0.01205</v>
       </c>
       <c r="BL84">
-        <v>0.5575000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="BM84">
         <v>1.04</v>
@@ -16700,10 +16700,10 @@
         <v>696</v>
       </c>
       <c r="K85">
-        <v>37.97543103448275</v>
+        <v>37.95589080459769</v>
       </c>
       <c r="L85">
-        <v>2.603862617990127</v>
+        <v>2.60298551548306</v>
       </c>
       <c r="M85">
         <v>33.4</v>
@@ -16715,7 +16715,7 @@
         <v>38.15000000000001</v>
       </c>
       <c r="P85">
-        <v>40.025</v>
+        <v>40</v>
       </c>
       <c r="Q85">
         <v>41.8</v>
@@ -16724,25 +16724,25 @@
         <v>696</v>
       </c>
       <c r="S85">
-        <v>3.854798850574714</v>
+        <v>3.833089080459772</v>
       </c>
       <c r="T85">
-        <v>0.6411051293031597</v>
+        <v>0.6410289149103149</v>
       </c>
       <c r="U85">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="V85">
-        <v>3.33</v>
+        <v>3.3</v>
       </c>
       <c r="W85">
-        <v>3.7</v>
+        <v>3.675</v>
       </c>
       <c r="X85">
-        <v>4.2525</v>
+        <v>4.24</v>
       </c>
       <c r="Y85">
-        <v>5.29</v>
+        <v>5.28</v>
       </c>
       <c r="Z85">
         <v>696</v>
@@ -16772,10 +16772,10 @@
         <v>696</v>
       </c>
       <c r="AI85">
-        <v>108.775</v>
+        <v>108.7033045977011</v>
       </c>
       <c r="AJ85">
-        <v>28.79646823368817</v>
+        <v>28.7904466169257</v>
       </c>
       <c r="AK85">
         <v>59.1</v>
@@ -16796,10 +16796,10 @@
         <v>696</v>
       </c>
       <c r="AQ85">
-        <v>28.79817528735631</v>
+        <v>28.77821839080459</v>
       </c>
       <c r="AR85">
-        <v>16.33457776516898</v>
+        <v>16.31381409562097</v>
       </c>
       <c r="AS85">
         <v>1.25</v>
@@ -16820,19 +16820,19 @@
         <v>696</v>
       </c>
       <c r="AY85">
-        <v>0.0118285665086207</v>
+        <v>0.01183680323275862</v>
       </c>
       <c r="AZ85">
-        <v>0.02135641468487123</v>
+        <v>0.02136729573308137</v>
       </c>
       <c r="BA85">
         <v>-0.00549</v>
       </c>
       <c r="BB85">
-        <v>-0.00033725</v>
+        <v>-0.0003365</v>
       </c>
       <c r="BC85">
-        <v>0.001034</v>
+        <v>0.001033</v>
       </c>
       <c r="BD85">
         <v>0.01485</v>
@@ -16844,22 +16844,22 @@
         <v>696</v>
       </c>
       <c r="BG85">
-        <v>0.2492171048850576</v>
+        <v>0.2494853491379311</v>
       </c>
       <c r="BH85">
-        <v>0.2957857963230962</v>
+        <v>0.2960521906319074</v>
       </c>
       <c r="BI85">
         <v>-0.0412</v>
       </c>
       <c r="BJ85">
-        <v>-0.009424999999999999</v>
+        <v>-0.0094</v>
       </c>
       <c r="BK85">
-        <v>0.0137</v>
+        <v>0.01375</v>
       </c>
       <c r="BL85">
-        <v>0.5615</v>
+        <v>0.5632499999999999</v>
       </c>
       <c r="BM85">
         <v>1.08</v>
@@ -16897,13 +16897,13 @@
         <v>696</v>
       </c>
       <c r="K86">
-        <v>37.94367816091953</v>
+        <v>37.93204022988505</v>
       </c>
       <c r="L86">
-        <v>2.603343777868568</v>
+        <v>2.60283616834455</v>
       </c>
       <c r="M86">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="N86">
         <v>36.1</v>
@@ -16915,40 +16915,40 @@
         <v>40</v>
       </c>
       <c r="Q86">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="R86">
         <v>696</v>
       </c>
       <c r="S86">
-        <v>3.823548850574711</v>
+        <v>3.808433908045976</v>
       </c>
       <c r="T86">
-        <v>0.6412083179144717</v>
+        <v>0.6403571316517234</v>
       </c>
       <c r="U86">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="V86">
-        <v>3.3</v>
+        <v>3.28</v>
       </c>
       <c r="W86">
-        <v>3.67</v>
+        <v>3.65</v>
       </c>
       <c r="X86">
-        <v>4.2275</v>
+        <v>4.21</v>
       </c>
       <c r="Y86">
-        <v>5.29</v>
+        <v>5.24</v>
       </c>
       <c r="Z86">
         <v>696</v>
       </c>
       <c r="AA86">
-        <v>37.92183908045981</v>
+        <v>37.92140804597705</v>
       </c>
       <c r="AB86">
-        <v>2.612881219572144</v>
+        <v>2.613443666644936</v>
       </c>
       <c r="AC86">
         <v>33.4</v>
@@ -16969,10 +16969,10 @@
         <v>696</v>
       </c>
       <c r="AI86">
-        <v>108.6741379310345</v>
+        <v>108.6146551724138</v>
       </c>
       <c r="AJ86">
-        <v>28.79647296755069</v>
+        <v>28.76981908098946</v>
       </c>
       <c r="AK86">
         <v>59.1</v>
@@ -16987,16 +16987,16 @@
         <v>117</v>
       </c>
       <c r="AO86">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AP86">
         <v>696</v>
       </c>
       <c r="AQ86">
-        <v>28.76504310344827</v>
+        <v>28.75247126436781</v>
       </c>
       <c r="AR86">
-        <v>16.2945360749369</v>
+        <v>16.28281555865443</v>
       </c>
       <c r="AS86">
         <v>1.25</v>
@@ -17005,22 +17005,22 @@
         <v>14.85</v>
       </c>
       <c r="AU86">
-        <v>31.65</v>
+        <v>31.6</v>
       </c>
       <c r="AV86">
         <v>40.15</v>
       </c>
       <c r="AW86">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AX86">
         <v>696</v>
       </c>
       <c r="AY86">
-        <v>0.01193369472844827</v>
+        <v>0.01195031019971264</v>
       </c>
       <c r="AZ86">
-        <v>0.02150577060060499</v>
+        <v>0.02152922218234714</v>
       </c>
       <c r="BA86">
         <v>-0.00522</v>
@@ -17041,22 +17041,22 @@
         <v>696</v>
       </c>
       <c r="BG86">
-        <v>0.2511364483908043</v>
+        <v>0.2515526910775862</v>
       </c>
       <c r="BH86">
-        <v>0.2974144209178858</v>
+        <v>0.2978821595599788</v>
       </c>
       <c r="BI86">
-        <v>-0.0399</v>
+        <v>-0.0398</v>
       </c>
       <c r="BJ86">
-        <v>-0.0091375</v>
+        <v>-0.009129999999999999</v>
       </c>
       <c r="BK86">
         <v>0.0153</v>
       </c>
       <c r="BL86">
-        <v>0.56375</v>
+        <v>0.5662499999999999</v>
       </c>
       <c r="BM86">
         <v>1.08</v>
@@ -17094,13 +17094,13 @@
         <v>696</v>
       </c>
       <c r="K87">
-        <v>37.95172413793102</v>
+        <v>37.91120689655171</v>
       </c>
       <c r="L87">
-        <v>2.604328972532449</v>
+        <v>2.602028148147309</v>
       </c>
       <c r="M87">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="N87">
         <v>36.1</v>
@@ -17112,31 +17112,31 @@
         <v>40</v>
       </c>
       <c r="Q87">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="R87">
         <v>696</v>
       </c>
       <c r="S87">
-        <v>3.829870689655171</v>
+        <v>3.789080459770113</v>
       </c>
       <c r="T87">
-        <v>0.6411268052242692</v>
+        <v>0.640282100029065</v>
       </c>
       <c r="U87">
-        <v>2.86</v>
+        <v>2.83</v>
       </c>
       <c r="V87">
-        <v>3.3</v>
+        <v>3.26</v>
       </c>
       <c r="W87">
-        <v>3.675</v>
+        <v>3.63</v>
       </c>
       <c r="X87">
-        <v>4.24</v>
+        <v>4.1975</v>
       </c>
       <c r="Y87">
-        <v>5.27</v>
+        <v>5.22</v>
       </c>
       <c r="Z87">
         <v>696</v>
@@ -17166,16 +17166,16 @@
         <v>696</v>
       </c>
       <c r="AI87">
-        <v>108.6754310344828</v>
+        <v>108.5541666666667</v>
       </c>
       <c r="AJ87">
-        <v>28.77138841246365</v>
+        <v>28.76542008533597</v>
       </c>
       <c r="AK87">
         <v>59.1</v>
       </c>
       <c r="AL87">
-        <v>93.59999999999999</v>
+        <v>93.47499999999999</v>
       </c>
       <c r="AM87">
         <v>112</v>
@@ -17190,10 +17190,10 @@
         <v>696</v>
       </c>
       <c r="AQ87">
-        <v>28.77360632183907</v>
+        <v>28.73955459770114</v>
       </c>
       <c r="AR87">
-        <v>16.31124858142633</v>
+        <v>16.27733207603634</v>
       </c>
       <c r="AS87">
         <v>1.25</v>
@@ -17202,28 +17202,28 @@
         <v>14.85</v>
       </c>
       <c r="AU87">
-        <v>31.65</v>
+        <v>31.6</v>
       </c>
       <c r="AV87">
         <v>40.15</v>
       </c>
       <c r="AW87">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AX87">
         <v>696</v>
       </c>
       <c r="AY87">
-        <v>0.01205447498563218</v>
+        <v>0.01205149008620689</v>
       </c>
       <c r="AZ87">
-        <v>0.02169825632344454</v>
+        <v>0.02167824592469723</v>
       </c>
       <c r="BA87">
-        <v>-0.00496</v>
+        <v>-0.00495</v>
       </c>
       <c r="BB87">
-        <v>-0.00030825</v>
+        <v>-0.0003075</v>
       </c>
       <c r="BC87">
         <v>0.0012</v>
@@ -17238,22 +17238,22 @@
         <v>696</v>
       </c>
       <c r="BG87">
-        <v>0.2532803060344828</v>
+        <v>0.253399642241379</v>
       </c>
       <c r="BH87">
-        <v>0.2992075703995705</v>
+        <v>0.2993107884841609</v>
       </c>
       <c r="BI87">
-        <v>-0.0385</v>
+        <v>-0.0384</v>
       </c>
       <c r="BJ87">
-        <v>-0.008799999999999999</v>
+        <v>-0.008785000000000001</v>
       </c>
       <c r="BK87">
         <v>0.0169</v>
       </c>
       <c r="BL87">
-        <v>0.5672499999999999</v>
+        <v>0.5692499999999999</v>
       </c>
       <c r="BM87">
         <v>1.08</v>
@@ -17291,10 +17291,10 @@
         <v>696</v>
       </c>
       <c r="K88">
-        <v>37.93778735632181</v>
+        <v>37.93462643678159</v>
       </c>
       <c r="L88">
-        <v>2.604295343054297</v>
+        <v>2.603399963709206</v>
       </c>
       <c r="M88">
         <v>33.3</v>
@@ -17309,40 +17309,40 @@
         <v>40</v>
       </c>
       <c r="Q88">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="R88">
         <v>696</v>
       </c>
       <c r="S88">
-        <v>3.816321839080455</v>
+        <v>3.811752873563217</v>
       </c>
       <c r="T88">
-        <v>0.6414522461106158</v>
+        <v>0.6413271553081272</v>
       </c>
       <c r="U88">
-        <v>2.83</v>
+        <v>2.84</v>
       </c>
       <c r="V88">
         <v>3.2875</v>
       </c>
       <c r="W88">
-        <v>3.655</v>
+        <v>3.66</v>
       </c>
       <c r="X88">
-        <v>4.2125</v>
+        <v>4.2325</v>
       </c>
       <c r="Y88">
-        <v>5.26</v>
+        <v>5.28</v>
       </c>
       <c r="Z88">
         <v>696</v>
       </c>
       <c r="AA88">
-        <v>37.9204022988506</v>
+        <v>37.92025862068968</v>
       </c>
       <c r="AB88">
-        <v>2.614527836750985</v>
+        <v>2.614625261248756</v>
       </c>
       <c r="AC88">
         <v>33.4</v>
@@ -17363,16 +17363,16 @@
         <v>696</v>
       </c>
       <c r="AI88">
-        <v>108.6295977011494</v>
+        <v>108.6201149425287</v>
       </c>
       <c r="AJ88">
-        <v>28.77475537995157</v>
+        <v>28.76924162837215</v>
       </c>
       <c r="AK88">
-        <v>59</v>
+        <v>59.1</v>
       </c>
       <c r="AL88">
-        <v>93.5</v>
+        <v>93.57499999999999</v>
       </c>
       <c r="AM88">
         <v>112</v>
@@ -17387,10 +17387,10 @@
         <v>696</v>
       </c>
       <c r="AQ88">
-        <v>28.75977011494253</v>
+        <v>28.75627873563218</v>
       </c>
       <c r="AR88">
-        <v>16.29208209345516</v>
+        <v>16.29090597097927</v>
       </c>
       <c r="AS88">
         <v>1.25</v>
@@ -17411,16 +17411,16 @@
         <v>696</v>
       </c>
       <c r="AY88">
-        <v>0.01216591928160919</v>
+        <v>0.01217364492816093</v>
       </c>
       <c r="AZ88">
-        <v>0.02187555106135487</v>
+        <v>0.02186996541894927</v>
       </c>
       <c r="BA88">
-        <v>-0.0047</v>
+        <v>-0.00471</v>
       </c>
       <c r="BB88">
-        <v>-0.00029325</v>
+        <v>-0.00029375</v>
       </c>
       <c r="BC88">
         <v>0.001285</v>
@@ -17435,22 +17435,22 @@
         <v>696</v>
       </c>
       <c r="BG88">
-        <v>0.2553059439655172</v>
+        <v>0.2556093045977013</v>
       </c>
       <c r="BH88">
-        <v>0.3010859656145092</v>
+        <v>0.3014197267421821</v>
       </c>
       <c r="BI88">
-        <v>-0.0371</v>
+        <v>-0.0372</v>
       </c>
       <c r="BJ88">
-        <v>-0.0084425</v>
+        <v>-0.008455000000000001</v>
       </c>
       <c r="BK88">
-        <v>0.0184</v>
+        <v>0.01845</v>
       </c>
       <c r="BL88">
-        <v>0.5702499999999999</v>
+        <v>0.57275</v>
       </c>
       <c r="BM88">
         <v>1.11</v>
@@ -17488,10 +17488,10 @@
         <v>696</v>
       </c>
       <c r="K89">
-        <v>37.92356321839079</v>
+        <v>37.95186781609193</v>
       </c>
       <c r="L89">
-        <v>2.603858112374593</v>
+        <v>2.605643452433065</v>
       </c>
       <c r="M89">
         <v>33.3</v>
@@ -17506,40 +17506,40 @@
         <v>40</v>
       </c>
       <c r="Q89">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="R89">
         <v>696</v>
       </c>
       <c r="S89">
-        <v>3.80044540229885</v>
+        <v>3.829698275862063</v>
       </c>
       <c r="T89">
-        <v>0.6414849700491627</v>
+        <v>0.6419218409111419</v>
       </c>
       <c r="U89">
-        <v>2.81</v>
+        <v>2.84</v>
       </c>
       <c r="V89">
-        <v>3.27</v>
+        <v>3.3</v>
       </c>
       <c r="W89">
-        <v>3.645</v>
+        <v>3.675</v>
       </c>
       <c r="X89">
-        <v>4.205</v>
+        <v>4.245</v>
       </c>
       <c r="Y89">
-        <v>5.26</v>
+        <v>5.29</v>
       </c>
       <c r="Z89">
         <v>696</v>
       </c>
       <c r="AA89">
-        <v>37.91925287356325</v>
+        <v>37.91896551724141</v>
       </c>
       <c r="AB89">
-        <v>2.615901019923132</v>
+        <v>2.616392611060525</v>
       </c>
       <c r="AC89">
         <v>33.4</v>
@@ -17560,16 +17560,16 @@
         <v>696</v>
       </c>
       <c r="AI89">
-        <v>108.5810344827586</v>
+        <v>108.6708333333333</v>
       </c>
       <c r="AJ89">
-        <v>28.75547491580241</v>
+        <v>28.78688595103322</v>
       </c>
       <c r="AK89">
-        <v>59</v>
+        <v>59.1</v>
       </c>
       <c r="AL89">
-        <v>93.5</v>
+        <v>93.57499999999999</v>
       </c>
       <c r="AM89">
         <v>112</v>
@@ -17578,40 +17578,40 @@
         <v>117</v>
       </c>
       <c r="AO89">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AP89">
         <v>696</v>
       </c>
       <c r="AQ89">
-        <v>28.7451436781609</v>
+        <v>28.76774425287356</v>
       </c>
       <c r="AR89">
-        <v>16.27939929537254</v>
+        <v>16.29457855545723</v>
       </c>
       <c r="AS89">
         <v>1.25</v>
       </c>
       <c r="AT89">
-        <v>14.775</v>
+        <v>14.85</v>
       </c>
       <c r="AU89">
-        <v>31.6</v>
+        <v>31.65</v>
       </c>
       <c r="AV89">
-        <v>40.15</v>
+        <v>40.225</v>
       </c>
       <c r="AW89">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AX89">
         <v>696</v>
       </c>
       <c r="AY89">
-        <v>0.01227052819683908</v>
+        <v>0.0122970823218391</v>
       </c>
       <c r="AZ89">
-        <v>0.0220301265334517</v>
+        <v>0.02206692636802189</v>
       </c>
       <c r="BA89">
         <v>-0.00446</v>
@@ -17632,22 +17632,22 @@
         <v>696</v>
       </c>
       <c r="BG89">
-        <v>0.2571970642241379</v>
+        <v>0.2578984050287356</v>
       </c>
       <c r="BH89">
-        <v>0.3028594385580694</v>
+        <v>0.303638697131379</v>
       </c>
       <c r="BI89">
         <v>-0.0359</v>
       </c>
       <c r="BJ89">
-        <v>-0.008110000000000001</v>
+        <v>-0.0081075</v>
       </c>
       <c r="BK89">
         <v>0.02</v>
       </c>
       <c r="BL89">
-        <v>0.5734999999999999</v>
+        <v>0.576</v>
       </c>
       <c r="BM89">
         <v>1.12</v>
@@ -17685,10 +17685,10 @@
         <v>696</v>
       </c>
       <c r="K90">
-        <v>37.93922413793102</v>
+        <v>37.93175287356323</v>
       </c>
       <c r="L90">
-        <v>2.60566598483191</v>
+        <v>2.604983674535418</v>
       </c>
       <c r="M90">
         <v>33.3</v>
@@ -17703,31 +17703,31 @@
         <v>40</v>
       </c>
       <c r="Q90">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="R90">
         <v>696</v>
       </c>
       <c r="S90">
-        <v>3.816307471264361</v>
+        <v>3.809195402298851</v>
       </c>
       <c r="T90">
-        <v>0.6421795286771554</v>
+        <v>0.6411625563252321</v>
       </c>
       <c r="U90">
         <v>2.84</v>
       </c>
       <c r="V90">
-        <v>3.29</v>
+        <v>3.28</v>
       </c>
       <c r="W90">
-        <v>3.67</v>
+        <v>3.655</v>
       </c>
       <c r="X90">
-        <v>4.2325</v>
+        <v>4.2075</v>
       </c>
       <c r="Y90">
-        <v>5.29</v>
+        <v>5.24</v>
       </c>
       <c r="Z90">
         <v>696</v>
@@ -17757,10 +17757,10 @@
         <v>696</v>
       </c>
       <c r="AI90">
-        <v>108.6242816091954</v>
+        <v>108.6043103448276</v>
       </c>
       <c r="AJ90">
-        <v>28.76960875598379</v>
+        <v>28.77237101651826</v>
       </c>
       <c r="AK90">
         <v>59.1</v>
@@ -17781,10 +17781,10 @@
         <v>696</v>
       </c>
       <c r="AQ90">
-        <v>28.75594827586209</v>
+        <v>28.74795977011494</v>
       </c>
       <c r="AR90">
-        <v>16.28951056647076</v>
+        <v>16.28077398611222</v>
       </c>
       <c r="AS90">
         <v>1.25</v>
@@ -17799,16 +17799,16 @@
         <v>40.15</v>
       </c>
       <c r="AW90">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AX90">
         <v>696</v>
       </c>
       <c r="AY90">
-        <v>0.01238673725574713</v>
+        <v>0.01239949889367816</v>
       </c>
       <c r="AZ90">
-        <v>0.02221565968196237</v>
+        <v>0.02221968856182157</v>
       </c>
       <c r="BA90">
         <v>-0.00422</v>
@@ -17829,22 +17829,22 @@
         <v>696</v>
       </c>
       <c r="BG90">
-        <v>0.2593640704022988</v>
+        <v>0.2597600316091954</v>
       </c>
       <c r="BH90">
-        <v>0.3047052683230674</v>
+        <v>0.3051224205079907</v>
       </c>
       <c r="BI90">
         <v>-0.0346</v>
       </c>
       <c r="BJ90">
-        <v>-0.0077875</v>
+        <v>-0.00778</v>
       </c>
       <c r="BK90">
         <v>0.0215</v>
       </c>
       <c r="BL90">
-        <v>0.57675</v>
+        <v>0.579</v>
       </c>
       <c r="BM90">
         <v>1.12</v>
@@ -17882,10 +17882,10 @@
         <v>696</v>
       </c>
       <c r="K91">
-        <v>37.92356321839081</v>
+        <v>37.93649425287355</v>
       </c>
       <c r="L91">
-        <v>2.603907844410924</v>
+        <v>2.604714333051028</v>
       </c>
       <c r="M91">
         <v>33.3</v>
@@ -17900,40 +17900,40 @@
         <v>40</v>
       </c>
       <c r="Q91">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="R91">
         <v>696</v>
       </c>
       <c r="S91">
-        <v>3.799798850574712</v>
+        <v>3.814209770114944</v>
       </c>
       <c r="T91">
-        <v>0.6414834110676092</v>
+        <v>0.6427857149607831</v>
       </c>
       <c r="U91">
         <v>2.81</v>
       </c>
       <c r="V91">
-        <v>3.27</v>
+        <v>3.29</v>
       </c>
       <c r="W91">
-        <v>3.645</v>
+        <v>3.66</v>
       </c>
       <c r="X91">
-        <v>4.195</v>
+        <v>4.2325</v>
       </c>
       <c r="Y91">
-        <v>5.22</v>
+        <v>5.27</v>
       </c>
       <c r="Z91">
         <v>696</v>
       </c>
       <c r="AA91">
-        <v>37.91867816091956</v>
+        <v>37.91853448275864</v>
       </c>
       <c r="AB91">
-        <v>2.616895074885734</v>
+        <v>2.617146258774321</v>
       </c>
       <c r="AC91">
         <v>33.3</v>
@@ -17954,16 +17954,16 @@
         <v>696</v>
       </c>
       <c r="AI91">
-        <v>108.5752873563218</v>
+        <v>108.6150862068965</v>
       </c>
       <c r="AJ91">
-        <v>28.75687005668165</v>
+        <v>28.7453446113817</v>
       </c>
       <c r="AK91">
         <v>59</v>
       </c>
       <c r="AL91">
-        <v>93.47499999999999</v>
+        <v>93.5</v>
       </c>
       <c r="AM91">
         <v>112</v>
@@ -17978,10 +17978,10 @@
         <v>696</v>
       </c>
       <c r="AQ91">
-        <v>28.73938218390802</v>
+        <v>28.75814655172413</v>
       </c>
       <c r="AR91">
-        <v>16.27693004101819</v>
+        <v>16.29743488264429</v>
       </c>
       <c r="AS91">
         <v>1.25</v>
@@ -17996,16 +17996,16 @@
         <v>40.15</v>
       </c>
       <c r="AW91">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AX91">
         <v>696</v>
       </c>
       <c r="AY91">
-        <v>0.01249405942528734</v>
+        <v>0.01251981215517241</v>
       </c>
       <c r="AZ91">
-        <v>0.02237863584066273</v>
+        <v>0.02241069436562308</v>
       </c>
       <c r="BA91">
         <v>-0.00399</v>
@@ -18014,34 +18014,34 @@
         <v>-0.0002355</v>
       </c>
       <c r="BC91">
-        <v>0.001515</v>
+        <v>0.001525</v>
       </c>
       <c r="BD91">
         <v>0.01545</v>
       </c>
       <c r="BE91">
-        <v>0.148</v>
+        <v>0.149</v>
       </c>
       <c r="BF91">
         <v>696</v>
       </c>
       <c r="BG91">
-        <v>0.2613405560344826</v>
+        <v>0.2620092040229886</v>
       </c>
       <c r="BH91">
-        <v>0.3065392736776385</v>
+        <v>0.3072698602995595</v>
       </c>
       <c r="BI91">
         <v>-0.0334</v>
       </c>
       <c r="BJ91">
-        <v>-0.00746</v>
+        <v>-0.00747</v>
       </c>
       <c r="BK91">
-        <v>0.023</v>
+        <v>0.02305</v>
       </c>
       <c r="BL91">
-        <v>0.5792499999999999</v>
+        <v>0.5825</v>
       </c>
       <c r="BM91">
         <v>1.14</v>
@@ -18079,10 +18079,10 @@
         <v>696</v>
       </c>
       <c r="K92">
-        <v>37.92385057471263</v>
+        <v>37.93103448275861</v>
       </c>
       <c r="L92">
-        <v>2.604921761196773</v>
+        <v>2.605641266621333</v>
       </c>
       <c r="M92">
         <v>33.3</v>
@@ -18103,22 +18103,22 @@
         <v>696</v>
       </c>
       <c r="S92">
-        <v>3.801192528735631</v>
+        <v>3.80729885057471</v>
       </c>
       <c r="T92">
-        <v>0.6416692599294004</v>
+        <v>0.6417524588760816</v>
       </c>
       <c r="U92">
-        <v>2.84</v>
+        <v>2.83</v>
       </c>
       <c r="V92">
         <v>3.27</v>
       </c>
       <c r="W92">
-        <v>3.64</v>
+        <v>3.65</v>
       </c>
       <c r="X92">
-        <v>4.215</v>
+        <v>4.2125</v>
       </c>
       <c r="Y92">
         <v>5.25</v>
@@ -18151,10 +18151,10 @@
         <v>696</v>
       </c>
       <c r="AI92">
-        <v>108.567816091954</v>
+        <v>108.590948275862</v>
       </c>
       <c r="AJ92">
-        <v>28.76445996277874</v>
+        <v>28.75835750840948</v>
       </c>
       <c r="AK92">
         <v>59.1</v>
@@ -18175,10 +18175,10 @@
         <v>696</v>
       </c>
       <c r="AQ92">
-        <v>28.74132183908045</v>
+        <v>28.74458333333333</v>
       </c>
       <c r="AR92">
-        <v>16.27720820740478</v>
+        <v>16.27871053875449</v>
       </c>
       <c r="AS92">
         <v>1.25</v>
@@ -18199,37 +18199,37 @@
         <v>696</v>
       </c>
       <c r="AY92">
-        <v>0.01261473040229884</v>
+        <v>0.01264326866379309</v>
       </c>
       <c r="AZ92">
-        <v>0.02255180548148206</v>
+        <v>0.02259976920330389</v>
       </c>
       <c r="BA92">
         <v>-0.00376</v>
       </c>
       <c r="BB92">
-        <v>-0.00021175</v>
+        <v>-0.0002125</v>
       </c>
       <c r="BC92">
-        <v>0.001595</v>
+        <v>0.0016</v>
       </c>
       <c r="BD92">
         <v>0.01555</v>
       </c>
       <c r="BE92">
-        <v>0.149</v>
+        <v>0.15</v>
       </c>
       <c r="BF92">
         <v>696</v>
       </c>
       <c r="BG92">
-        <v>0.2636872873563219</v>
+        <v>0.2643473563218389</v>
       </c>
       <c r="BH92">
-        <v>0.3089879776383299</v>
+        <v>0.3096941284315509</v>
       </c>
       <c r="BI92">
-        <v>-0.0321</v>
+        <v>-0.0322</v>
       </c>
       <c r="BJ92">
         <v>-0.007147499999999999</v>
@@ -18238,7 +18238,7 @@
         <v>0.0245</v>
       </c>
       <c r="BL92">
-        <v>0.5822499999999999</v>
+        <v>0.5854999999999999</v>
       </c>
       <c r="BM92">
         <v>1.17</v>
@@ -18276,10 +18276,10 @@
         <v>696</v>
       </c>
       <c r="K93">
-        <v>37.91954022988505</v>
+        <v>37.91451149425285</v>
       </c>
       <c r="L93">
-        <v>2.606421028858192</v>
+        <v>2.605777596672618</v>
       </c>
       <c r="M93">
         <v>33.3</v>
@@ -18300,25 +18300,25 @@
         <v>696</v>
       </c>
       <c r="S93">
-        <v>3.797183908045978</v>
+        <v>3.791882183908044</v>
       </c>
       <c r="T93">
-        <v>0.6417216954992949</v>
+        <v>0.641857056565888</v>
       </c>
       <c r="U93">
-        <v>2.84</v>
+        <v>2.81</v>
       </c>
       <c r="V93">
         <v>3.26</v>
       </c>
       <c r="W93">
-        <v>3.63</v>
+        <v>3.635</v>
       </c>
       <c r="X93">
-        <v>4.215</v>
+        <v>4.195</v>
       </c>
       <c r="Y93">
-        <v>5.24</v>
+        <v>5.22</v>
       </c>
       <c r="Z93">
         <v>696</v>
@@ -18348,16 +18348,16 @@
         <v>696</v>
       </c>
       <c r="AI93">
-        <v>108.5538793103448</v>
+        <v>108.5352011494253</v>
       </c>
       <c r="AJ93">
-        <v>28.76345126743641</v>
+        <v>28.7515947026438</v>
       </c>
       <c r="AK93">
-        <v>59.1</v>
+        <v>59</v>
       </c>
       <c r="AL93">
-        <v>93.5</v>
+        <v>93.47499999999999</v>
       </c>
       <c r="AM93">
         <v>112</v>
@@ -18372,16 +18372,16 @@
         <v>696</v>
       </c>
       <c r="AQ93">
-        <v>28.73701149425285</v>
+        <v>28.73150862068964</v>
       </c>
       <c r="AR93">
-        <v>16.27519283594973</v>
+        <v>16.2724572665155</v>
       </c>
       <c r="AS93">
         <v>1.25</v>
       </c>
       <c r="AT93">
-        <v>14.85</v>
+        <v>14.775</v>
       </c>
       <c r="AU93">
         <v>31.6</v>
@@ -18396,10 +18396,10 @@
         <v>696</v>
       </c>
       <c r="AY93">
-        <v>0.01273648729885057</v>
+        <v>0.01275515672413794</v>
       </c>
       <c r="AZ93">
-        <v>0.02274447772883379</v>
+        <v>0.02277166858929365</v>
       </c>
       <c r="BA93">
         <v>-0.00353</v>
@@ -18411,31 +18411,31 @@
         <v>0.00167</v>
       </c>
       <c r="BD93">
-        <v>0.01565</v>
+        <v>0.015725</v>
       </c>
       <c r="BE93">
-        <v>0.15</v>
+        <v>0.151</v>
       </c>
       <c r="BF93">
         <v>696</v>
       </c>
       <c r="BG93">
-        <v>0.2659905632183909</v>
+        <v>0.2664948721264369</v>
       </c>
       <c r="BH93">
-        <v>0.3112412164177239</v>
+        <v>0.3117728937244089</v>
       </c>
       <c r="BI93">
         <v>-0.0313</v>
       </c>
       <c r="BJ93">
-        <v>-0.006705</v>
+        <v>-0.0067025</v>
       </c>
       <c r="BK93">
         <v>0.02595</v>
       </c>
       <c r="BL93">
-        <v>0.5854999999999999</v>
+        <v>0.5885</v>
       </c>
       <c r="BM93">
         <v>1.17</v>
@@ -18473,13 +18473,13 @@
         <v>696</v>
       </c>
       <c r="K94">
-        <v>37.94094827586205</v>
+        <v>37.92011494252871</v>
       </c>
       <c r="L94">
-        <v>2.607472100359904</v>
+        <v>2.606019150756059</v>
       </c>
       <c r="M94">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="N94">
         <v>36.1</v>
@@ -18488,43 +18488,43 @@
         <v>38.15000000000001</v>
       </c>
       <c r="P94">
-        <v>40.025</v>
+        <v>40</v>
       </c>
       <c r="Q94">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="R94">
         <v>696</v>
       </c>
       <c r="S94">
-        <v>3.818304597701152</v>
+        <v>3.798505747126429</v>
       </c>
       <c r="T94">
-        <v>0.6419798506724942</v>
+        <v>0.6422203458539703</v>
       </c>
       <c r="U94">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="V94">
-        <v>3.2875</v>
+        <v>3.27</v>
       </c>
       <c r="W94">
-        <v>3.655</v>
+        <v>3.64</v>
       </c>
       <c r="X94">
-        <v>4.237500000000001</v>
+        <v>4.2125</v>
       </c>
       <c r="Y94">
-        <v>5.27</v>
+        <v>5.25</v>
       </c>
       <c r="Z94">
         <v>696</v>
       </c>
       <c r="AA94">
-        <v>37.9175287356322</v>
+        <v>37.91738505747127</v>
       </c>
       <c r="AB94">
-        <v>2.617430820459734</v>
+        <v>2.617527978949253</v>
       </c>
       <c r="AC94">
         <v>33.3</v>
@@ -18545,16 +18545,16 @@
         <v>696</v>
       </c>
       <c r="AI94">
-        <v>108.6193965517241</v>
+        <v>108.5508620689655</v>
       </c>
       <c r="AJ94">
-        <v>28.77253056856103</v>
+        <v>28.7384524067978</v>
       </c>
       <c r="AK94">
-        <v>59.1</v>
+        <v>59</v>
       </c>
       <c r="AL94">
-        <v>93.57499999999999</v>
+        <v>93.5</v>
       </c>
       <c r="AM94">
         <v>112</v>
@@ -18569,19 +18569,19 @@
         <v>696</v>
       </c>
       <c r="AQ94">
-        <v>28.74734195402298</v>
+        <v>28.73908045977009</v>
       </c>
       <c r="AR94">
-        <v>16.27856401240358</v>
+        <v>16.27614024612415</v>
       </c>
       <c r="AS94">
         <v>1.25</v>
       </c>
       <c r="AT94">
-        <v>14.85</v>
+        <v>14.775</v>
       </c>
       <c r="AU94">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="AV94">
         <v>40.15</v>
@@ -18593,10 +18593,10 @@
         <v>696</v>
       </c>
       <c r="AY94">
-        <v>0.01286692211206898</v>
+        <v>0.01287935866379311</v>
       </c>
       <c r="AZ94">
-        <v>0.022964502832179</v>
+        <v>0.02297362736628731</v>
       </c>
       <c r="BA94">
         <v>-0.00335</v>
@@ -18605,7 +18605,7 @@
         <v>-0.00019325</v>
       </c>
       <c r="BC94">
-        <v>0.00175</v>
+        <v>0.001745</v>
       </c>
       <c r="BD94">
         <v>0.015825</v>
@@ -18617,25 +18617,25 @@
         <v>696</v>
       </c>
       <c r="BG94">
-        <v>0.2684237923850575</v>
+        <v>0.2688437686781609</v>
       </c>
       <c r="BH94">
-        <v>0.3137142201271524</v>
+        <v>0.3141645307392169</v>
       </c>
       <c r="BI94">
         <v>-0.0311</v>
       </c>
       <c r="BJ94">
-        <v>-0.0059325</v>
+        <v>-0.0059125</v>
       </c>
       <c r="BK94">
-        <v>0.0274</v>
+        <v>0.02745</v>
       </c>
       <c r="BL94">
-        <v>0.58975</v>
+        <v>0.59275</v>
       </c>
       <c r="BM94">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="95" spans="1:65">
@@ -18670,10 +18670,10 @@
         <v>696</v>
       </c>
       <c r="K95">
-        <v>37.92270114942527</v>
+        <v>37.93089080459769</v>
       </c>
       <c r="L95">
-        <v>2.606434020803985</v>
+        <v>2.608234290051453</v>
       </c>
       <c r="M95">
         <v>33.3</v>
@@ -18694,34 +18694,34 @@
         <v>696</v>
       </c>
       <c r="S95">
-        <v>3.800890804597701</v>
+        <v>3.808017241379312</v>
       </c>
       <c r="T95">
-        <v>0.6428205022641625</v>
+        <v>0.6425773909027839</v>
       </c>
       <c r="U95">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="V95">
-        <v>3.27</v>
+        <v>3.28</v>
       </c>
       <c r="W95">
         <v>3.65</v>
       </c>
       <c r="X95">
-        <v>4.215</v>
+        <v>4.24</v>
       </c>
       <c r="Y95">
-        <v>5.27</v>
+        <v>5.28</v>
       </c>
       <c r="Z95">
         <v>696</v>
       </c>
       <c r="AA95">
-        <v>37.91594827586209</v>
+        <v>37.91580459770116</v>
       </c>
       <c r="AB95">
-        <v>2.618070291095968</v>
+        <v>2.618310221581712</v>
       </c>
       <c r="AC95">
         <v>33.3</v>
@@ -18742,13 +18742,13 @@
         <v>696</v>
       </c>
       <c r="AI95">
-        <v>108.5564655172413</v>
+        <v>108.5757183908045</v>
       </c>
       <c r="AJ95">
-        <v>28.73826293807768</v>
+        <v>28.75948288127379</v>
       </c>
       <c r="AK95">
-        <v>59</v>
+        <v>59.1</v>
       </c>
       <c r="AL95">
         <v>93.5</v>
@@ -18766,16 +18766,16 @@
         <v>696</v>
       </c>
       <c r="AQ95">
-        <v>28.73997126436779</v>
+        <v>28.7448132183908</v>
       </c>
       <c r="AR95">
-        <v>16.27637396202518</v>
+        <v>16.2840341976193</v>
       </c>
       <c r="AS95">
         <v>1.25</v>
       </c>
       <c r="AT95">
-        <v>14.775</v>
+        <v>14.85</v>
       </c>
       <c r="AU95">
         <v>31.6</v>
@@ -18784,16 +18784,16 @@
         <v>40.15</v>
       </c>
       <c r="AW95">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AX95">
         <v>696</v>
       </c>
       <c r="AY95">
-        <v>0.01297835258189655</v>
+        <v>0.01301065022988507</v>
       </c>
       <c r="AZ95">
-        <v>0.02313073830073622</v>
+        <v>0.02318504224059365</v>
       </c>
       <c r="BA95">
         <v>-0.00325</v>
@@ -18805,31 +18805,31 @@
         <v>0.001815</v>
       </c>
       <c r="BD95">
-        <v>0.01585</v>
+        <v>0.015925</v>
       </c>
       <c r="BE95">
-        <v>0.152</v>
+        <v>0.153</v>
       </c>
       <c r="BF95">
         <v>696</v>
       </c>
       <c r="BG95">
-        <v>0.2705609874568966</v>
+        <v>0.2713191353304599</v>
       </c>
       <c r="BH95">
-        <v>0.3160265058575864</v>
+        <v>0.3168940064521606</v>
       </c>
       <c r="BI95">
         <v>-0.0308</v>
       </c>
       <c r="BJ95">
-        <v>-0.005055</v>
+        <v>-0.005065</v>
       </c>
       <c r="BK95">
         <v>0.0287</v>
       </c>
       <c r="BL95">
-        <v>0.5922499999999999</v>
+        <v>0.5962499999999999</v>
       </c>
       <c r="BM95">
         <v>1.24</v>
@@ -18867,10 +18867,10 @@
         <v>696</v>
       </c>
       <c r="K96">
-        <v>37.92499999999999</v>
+        <v>37.93864942528734</v>
       </c>
       <c r="L96">
-        <v>2.608487805816529</v>
+        <v>2.607948649597018</v>
       </c>
       <c r="M96">
         <v>33.3</v>
@@ -18885,31 +18885,31 @@
         <v>40</v>
       </c>
       <c r="Q96">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="R96">
         <v>696</v>
       </c>
       <c r="S96">
-        <v>3.80251436781609</v>
+        <v>3.81705459770115</v>
       </c>
       <c r="T96">
-        <v>0.6425841487949088</v>
+        <v>0.6433062775995382</v>
       </c>
       <c r="U96">
-        <v>2.83</v>
+        <v>2.82</v>
       </c>
       <c r="V96">
-        <v>3.27</v>
+        <v>3.29</v>
       </c>
       <c r="W96">
-        <v>3.64</v>
+        <v>3.66</v>
       </c>
       <c r="X96">
-        <v>4.2225</v>
+        <v>4.225</v>
       </c>
       <c r="Y96">
-        <v>5.25</v>
+        <v>5.28</v>
       </c>
       <c r="Z96">
         <v>696</v>
@@ -18939,10 +18939,10 @@
         <v>696</v>
       </c>
       <c r="AI96">
-        <v>108.5512931034483</v>
+        <v>108.6033045977011</v>
       </c>
       <c r="AJ96">
-        <v>28.72278064223381</v>
+        <v>28.75011272794729</v>
       </c>
       <c r="AK96">
         <v>59.1</v>
@@ -18963,10 +18963,10 @@
         <v>696</v>
       </c>
       <c r="AQ96">
-        <v>28.73964080459768</v>
+        <v>28.7506465517241</v>
       </c>
       <c r="AR96">
-        <v>16.27608513595353</v>
+        <v>16.27998267763966</v>
       </c>
       <c r="AS96">
         <v>1.25</v>
@@ -18987,10 +18987,10 @@
         <v>696</v>
       </c>
       <c r="AY96">
-        <v>0.01310508316522988</v>
+        <v>0.01312985056896551</v>
       </c>
       <c r="AZ96">
-        <v>0.02333513175602083</v>
+        <v>0.02337301956951121</v>
       </c>
       <c r="BA96">
         <v>-0.00315</v>
@@ -19011,22 +19011,22 @@
         <v>696</v>
       </c>
       <c r="BG96">
-        <v>0.2729775636206896</v>
+        <v>0.2735987239655174</v>
       </c>
       <c r="BH96">
-        <v>0.3185037022038715</v>
+        <v>0.3192136909050041</v>
       </c>
       <c r="BI96">
         <v>-0.0306</v>
       </c>
       <c r="BJ96">
-        <v>-0.003915</v>
+        <v>-0.0038925</v>
       </c>
       <c r="BK96">
         <v>0.02955</v>
       </c>
       <c r="BL96">
-        <v>0.597</v>
+        <v>0.6</v>
       </c>
       <c r="BM96">
         <v>1.25</v>
@@ -19064,10 +19064,10 @@
         <v>696</v>
       </c>
       <c r="K97">
-        <v>37.92772988505746</v>
+        <v>37.93261494252872</v>
       </c>
       <c r="L97">
-        <v>2.608716659383943</v>
+        <v>2.608726264018928</v>
       </c>
       <c r="M97">
         <v>33.3</v>
@@ -19088,34 +19088,34 @@
         <v>696</v>
       </c>
       <c r="S97">
-        <v>3.80461206896551</v>
+        <v>3.810057471264368</v>
       </c>
       <c r="T97">
-        <v>0.6426763904315757</v>
+        <v>0.6430883194557023</v>
       </c>
       <c r="U97">
-        <v>2.83</v>
+        <v>2.82</v>
       </c>
       <c r="V97">
-        <v>3.27</v>
+        <v>3.28</v>
       </c>
       <c r="W97">
-        <v>3.645</v>
+        <v>3.65</v>
       </c>
       <c r="X97">
-        <v>4.2075</v>
+        <v>4.2225</v>
       </c>
       <c r="Y97">
-        <v>5.23</v>
+        <v>5.26</v>
       </c>
       <c r="Z97">
         <v>696</v>
       </c>
       <c r="AA97">
-        <v>37.91551724137932</v>
+        <v>37.91522988505748</v>
       </c>
       <c r="AB97">
-        <v>2.618789992924297</v>
+        <v>2.619016939855388</v>
       </c>
       <c r="AC97">
         <v>33.3</v>
@@ -19136,16 +19136,16 @@
         <v>696</v>
       </c>
       <c r="AI97">
-        <v>108.5610632183909</v>
+        <v>108.5732758620689</v>
       </c>
       <c r="AJ97">
-        <v>28.75037778452369</v>
+        <v>28.74759327883346</v>
       </c>
       <c r="AK97">
         <v>59.1</v>
       </c>
       <c r="AL97">
-        <v>93.47499999999999</v>
+        <v>93.5</v>
       </c>
       <c r="AM97">
         <v>112</v>
@@ -19160,10 +19160,10 @@
         <v>696</v>
       </c>
       <c r="AQ97">
-        <v>28.73616379310343</v>
+        <v>28.74262931034482</v>
       </c>
       <c r="AR97">
-        <v>16.27334462875494</v>
+        <v>16.27696777165113</v>
       </c>
       <c r="AS97">
         <v>1.25</v>
@@ -19184,10 +19184,10 @@
         <v>696</v>
       </c>
       <c r="AY97">
-        <v>0.01321722977011494</v>
+        <v>0.01324616656609195</v>
       </c>
       <c r="AZ97">
-        <v>0.02351618763892284</v>
+        <v>0.02355646298015459</v>
       </c>
       <c r="BA97">
         <v>-0.00305</v>
@@ -19196,7 +19196,7 @@
         <v>-0.00015225</v>
       </c>
       <c r="BC97">
-        <v>0.00195</v>
+        <v>0.001955</v>
       </c>
       <c r="BD97">
         <v>0.016125</v>
@@ -19208,22 +19208,22 @@
         <v>696</v>
       </c>
       <c r="BG97">
-        <v>0.2750674380747128</v>
+        <v>0.2757850076149426</v>
       </c>
       <c r="BH97">
-        <v>0.3201944418301495</v>
+        <v>0.3209792540753649</v>
       </c>
       <c r="BI97">
         <v>-0.0304</v>
       </c>
       <c r="BJ97">
-        <v>-0.0029825</v>
+        <v>-0.00298</v>
       </c>
       <c r="BK97">
         <v>0.0303</v>
       </c>
       <c r="BL97">
-        <v>0.60025</v>
+        <v>0.6034999999999999</v>
       </c>
       <c r="BM97">
         <v>1.24</v>
@@ -19261,10 +19261,10 @@
         <v>696</v>
       </c>
       <c r="K98">
-        <v>37.9221264367816</v>
+        <v>37.9353448275862</v>
       </c>
       <c r="L98">
-        <v>2.608579991581622</v>
+        <v>2.609294542672261</v>
       </c>
       <c r="M98">
         <v>33.3</v>
@@ -19279,31 +19279,31 @@
         <v>40</v>
       </c>
       <c r="Q98">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="R98">
         <v>696</v>
       </c>
       <c r="S98">
-        <v>3.799899425287353</v>
+        <v>3.813362068965515</v>
       </c>
       <c r="T98">
-        <v>0.6431810478969121</v>
+        <v>0.6433047911596417</v>
       </c>
       <c r="U98">
-        <v>2.8</v>
+        <v>2.83</v>
       </c>
       <c r="V98">
-        <v>3.27</v>
+        <v>3.2875</v>
       </c>
       <c r="W98">
-        <v>3.645</v>
+        <v>3.655</v>
       </c>
       <c r="X98">
-        <v>4.2075</v>
+        <v>4.225</v>
       </c>
       <c r="Y98">
-        <v>5.26</v>
+        <v>5.25</v>
       </c>
       <c r="Z98">
         <v>696</v>
@@ -19333,16 +19333,16 @@
         <v>696</v>
       </c>
       <c r="AI98">
-        <v>108.5389367816091</v>
+        <v>108.5785919540229</v>
       </c>
       <c r="AJ98">
-        <v>28.7253432539107</v>
+        <v>28.73748738710307</v>
       </c>
       <c r="AK98">
-        <v>59</v>
+        <v>59.1</v>
       </c>
       <c r="AL98">
-        <v>93.47499999999999</v>
+        <v>93.5</v>
       </c>
       <c r="AM98">
         <v>112</v>
@@ -19357,16 +19357,16 @@
         <v>696</v>
       </c>
       <c r="AQ98">
-        <v>28.73340517241378</v>
+        <v>28.74387931034482</v>
       </c>
       <c r="AR98">
-        <v>16.27265325850613</v>
+        <v>16.2767626182904</v>
       </c>
       <c r="AS98">
         <v>1.25</v>
       </c>
       <c r="AT98">
-        <v>14.775</v>
+        <v>14.85</v>
       </c>
       <c r="AU98">
         <v>31.6</v>
@@ -19381,10 +19381,10 @@
         <v>696</v>
       </c>
       <c r="AY98">
-        <v>0.01331985004310346</v>
+        <v>0.01334866895114943</v>
       </c>
       <c r="AZ98">
-        <v>0.02369848903064655</v>
+        <v>0.02372909813607943</v>
       </c>
       <c r="BA98">
         <v>-0.00295</v>
@@ -19405,10 +19405,10 @@
         <v>696</v>
       </c>
       <c r="BG98">
-        <v>0.2768085790229882</v>
+        <v>0.2776797985632184</v>
       </c>
       <c r="BH98">
-        <v>0.3212622749074278</v>
+        <v>0.3222904948423341</v>
       </c>
       <c r="BI98">
         <v>-0.0301</v>
@@ -19420,10 +19420,10 @@
         <v>0.0308</v>
       </c>
       <c r="BL98">
-        <v>0.60325</v>
+        <v>0.6074999999999999</v>
       </c>
       <c r="BM98">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="99" spans="1:65">
@@ -19458,10 +19458,10 @@
         <v>696</v>
       </c>
       <c r="K99">
-        <v>37.91839080459768</v>
+        <v>37.90675287356323</v>
       </c>
       <c r="L99">
-        <v>2.608978575098962</v>
+        <v>2.608552138858415</v>
       </c>
       <c r="M99">
         <v>33.3</v>
@@ -19482,25 +19482,25 @@
         <v>696</v>
       </c>
       <c r="S99">
-        <v>3.794468390804596</v>
+        <v>3.78487068965517</v>
       </c>
       <c r="T99">
-        <v>0.6427074066091135</v>
+        <v>0.6429549458488251</v>
       </c>
       <c r="U99">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="V99">
-        <v>3.26</v>
+        <v>3.25</v>
       </c>
       <c r="W99">
-        <v>3.64</v>
+        <v>3.62</v>
       </c>
       <c r="X99">
-        <v>4.1925</v>
+        <v>4.195</v>
       </c>
       <c r="Y99">
-        <v>5.22</v>
+        <v>5.23</v>
       </c>
       <c r="Z99">
         <v>696</v>
@@ -19530,13 +19530,13 @@
         <v>696</v>
       </c>
       <c r="AI99">
-        <v>108.5035919540229</v>
+        <v>108.4781609195402</v>
       </c>
       <c r="AJ99">
-        <v>28.70761213116733</v>
+        <v>28.69910955543373</v>
       </c>
       <c r="AK99">
-        <v>59.1</v>
+        <v>59</v>
       </c>
       <c r="AL99">
         <v>93.47499999999999</v>
@@ -19554,10 +19554,10 @@
         <v>696</v>
       </c>
       <c r="AQ99">
-        <v>28.73117816091952</v>
+        <v>28.72400862068964</v>
       </c>
       <c r="AR99">
-        <v>16.27103073563158</v>
+        <v>16.26827767724963</v>
       </c>
       <c r="AS99">
         <v>1.25</v>
@@ -19578,10 +19578,10 @@
         <v>696</v>
       </c>
       <c r="AY99">
-        <v>0.01342552608333333</v>
+        <v>0.01344448948275861</v>
       </c>
       <c r="AZ99">
-        <v>0.02388060725936094</v>
+        <v>0.02389419912430843</v>
       </c>
       <c r="BA99">
         <v>-0.00286</v>
@@ -19602,22 +19602,22 @@
         <v>696</v>
       </c>
       <c r="BG99">
-        <v>0.2786542485632185</v>
+        <v>0.2792094461206897</v>
       </c>
       <c r="BH99">
-        <v>0.322644691299584</v>
+        <v>0.3232202018395096</v>
       </c>
       <c r="BI99">
-        <v>-0.0299</v>
+        <v>-0.0298</v>
       </c>
       <c r="BJ99">
         <v>-0.002255</v>
       </c>
       <c r="BK99">
-        <v>0.03145</v>
+        <v>0.0314</v>
       </c>
       <c r="BL99">
-        <v>0.60675</v>
+        <v>0.6105</v>
       </c>
       <c r="BM99">
         <v>1.22</v>
@@ -19655,10 +19655,10 @@
         <v>696</v>
       </c>
       <c r="K100">
-        <v>37.91479885057471</v>
+        <v>37.93448275862067</v>
       </c>
       <c r="L100">
-        <v>2.608651232810687</v>
+        <v>2.610414232624655</v>
       </c>
       <c r="M100">
         <v>33.3</v>
@@ -19673,40 +19673,40 @@
         <v>40</v>
       </c>
       <c r="Q100">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="R100">
         <v>696</v>
       </c>
       <c r="S100">
-        <v>3.793117816091951</v>
+        <v>3.812327586206891</v>
       </c>
       <c r="T100">
-        <v>0.6432305317960646</v>
+        <v>0.6438439300031761</v>
       </c>
       <c r="U100">
-        <v>2.81</v>
+        <v>2.82</v>
       </c>
       <c r="V100">
-        <v>3.26</v>
+        <v>3.28</v>
       </c>
       <c r="W100">
-        <v>3.63</v>
+        <v>3.655</v>
       </c>
       <c r="X100">
-        <v>4.202500000000001</v>
+        <v>4.23</v>
       </c>
       <c r="Y100">
-        <v>5.23</v>
+        <v>5.27</v>
       </c>
       <c r="Z100">
         <v>696</v>
       </c>
       <c r="AA100">
-        <v>37.91436781609195</v>
+        <v>37.91408045977011</v>
       </c>
       <c r="AB100">
-        <v>2.619972080097015</v>
+        <v>2.620473352674678</v>
       </c>
       <c r="AC100">
         <v>33.3</v>
@@ -19727,16 +19727,16 @@
         <v>696</v>
       </c>
       <c r="AI100">
-        <v>108.5028735632183</v>
+        <v>108.5632183908046</v>
       </c>
       <c r="AJ100">
-        <v>28.71140234861886</v>
+        <v>28.71814502713779</v>
       </c>
       <c r="AK100">
-        <v>59</v>
+        <v>59.1</v>
       </c>
       <c r="AL100">
-        <v>93.47499999999999</v>
+        <v>93.5</v>
       </c>
       <c r="AM100">
         <v>112</v>
@@ -19751,10 +19751,10 @@
         <v>696</v>
       </c>
       <c r="AQ100">
-        <v>28.72775862068963</v>
+        <v>28.74189655172411</v>
       </c>
       <c r="AR100">
-        <v>16.26998943208229</v>
+        <v>16.27580445896317</v>
       </c>
       <c r="AS100">
         <v>1.25</v>
@@ -19775,10 +19775,10 @@
         <v>696</v>
       </c>
       <c r="AY100">
-        <v>0.01352808330459769</v>
+        <v>0.01356189662356322</v>
       </c>
       <c r="AZ100">
-        <v>0.02403323853241464</v>
+        <v>0.02408710096487617</v>
       </c>
       <c r="BA100">
         <v>-0.00277</v>
@@ -19787,10 +19787,10 @@
         <v>-0.00011725</v>
       </c>
       <c r="BC100">
-        <v>0.002145</v>
+        <v>0.00215</v>
       </c>
       <c r="BD100">
-        <v>0.016425</v>
+        <v>0.01645</v>
       </c>
       <c r="BE100">
         <v>0.158</v>
@@ -19799,22 +19799,22 @@
         <v>696</v>
       </c>
       <c r="BG100">
-        <v>0.2806005459770117</v>
+        <v>0.281391195402299</v>
       </c>
       <c r="BH100">
-        <v>0.3243726811302141</v>
+        <v>0.3252222737204532</v>
       </c>
       <c r="BI100">
         <v>-0.0297</v>
       </c>
       <c r="BJ100">
-        <v>-0.00194</v>
+        <v>-0.00195</v>
       </c>
       <c r="BK100">
-        <v>0.03215</v>
+        <v>0.0322</v>
       </c>
       <c r="BL100">
-        <v>0.61075</v>
+        <v>0.61475</v>
       </c>
       <c r="BM100">
         <v>1.24</v>
@@ -19852,49 +19852,49 @@
         <v>696</v>
       </c>
       <c r="K101">
-        <v>37.93175287356321</v>
+        <v>37.87341954022985</v>
       </c>
       <c r="L101">
-        <v>2.610501278109879</v>
+        <v>2.605616032462348</v>
       </c>
       <c r="M101">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="N101">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="O101">
-        <v>38.15000000000001</v>
+        <v>38.1</v>
       </c>
       <c r="P101">
-        <v>40.025</v>
+        <v>39.925</v>
       </c>
       <c r="Q101">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="R101">
         <v>696</v>
       </c>
       <c r="S101">
-        <v>3.808893678160918</v>
+        <v>3.752068965517238</v>
       </c>
       <c r="T101">
-        <v>0.6435620837074507</v>
+        <v>0.6448075064829585</v>
       </c>
       <c r="U101">
-        <v>2.83</v>
+        <v>2.73</v>
       </c>
       <c r="V101">
-        <v>3.28</v>
+        <v>3.22</v>
       </c>
       <c r="W101">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="X101">
-        <v>4.2175</v>
+        <v>4.172499999999999</v>
       </c>
       <c r="Y101">
-        <v>5.24</v>
+        <v>5.27</v>
       </c>
       <c r="Z101">
         <v>696</v>
@@ -19924,16 +19924,16 @@
         <v>696</v>
       </c>
       <c r="AI101">
-        <v>108.5435344827586</v>
+        <v>108.4031609195403</v>
       </c>
       <c r="AJ101">
-        <v>28.72664947033704</v>
+        <v>28.67857177759805</v>
       </c>
       <c r="AK101">
-        <v>59.1</v>
+        <v>58.9</v>
       </c>
       <c r="AL101">
-        <v>93.55</v>
+        <v>93.375</v>
       </c>
       <c r="AM101">
         <v>112</v>
@@ -19948,22 +19948,22 @@
         <v>696</v>
       </c>
       <c r="AQ101">
-        <v>28.73583333333332</v>
+        <v>28.69662356321841</v>
       </c>
       <c r="AR101">
-        <v>16.27238179789604</v>
+        <v>16.25629351356264</v>
       </c>
       <c r="AS101">
         <v>1.25</v>
       </c>
       <c r="AT101">
-        <v>14.85</v>
+        <v>14.775</v>
       </c>
       <c r="AU101">
         <v>31.6</v>
       </c>
       <c r="AV101">
-        <v>40.15</v>
+        <v>40.125</v>
       </c>
       <c r="AW101">
         <v>112</v>
@@ -19972,22 +19972,22 @@
         <v>696</v>
       </c>
       <c r="AY101">
-        <v>0.01363171380747127</v>
+        <v>0.01365555000000001</v>
       </c>
       <c r="AZ101">
-        <v>0.02421012605916724</v>
+        <v>0.02424083144152892</v>
       </c>
       <c r="BA101">
-        <v>-0.00268</v>
+        <v>-0.00267</v>
       </c>
       <c r="BB101">
-        <v>-0.00010925</v>
+        <v>-0.0001095</v>
       </c>
       <c r="BC101">
-        <v>0.00219</v>
+        <v>0.002195</v>
       </c>
       <c r="BD101">
-        <v>0.01645</v>
+        <v>0.016525</v>
       </c>
       <c r="BE101">
         <v>0.159</v>
@@ -19996,22 +19996,22 @@
         <v>696</v>
       </c>
       <c r="BG101">
-        <v>0.2824384310344827</v>
+        <v>0.283022596264368</v>
       </c>
       <c r="BH101">
-        <v>0.3261594792734957</v>
+        <v>0.3268008475982721</v>
       </c>
       <c r="BI101">
         <v>-0.0294</v>
       </c>
       <c r="BJ101">
-        <v>-0.001645</v>
+        <v>-0.00164</v>
       </c>
       <c r="BK101">
         <v>0.03295</v>
       </c>
       <c r="BL101">
-        <v>0.61375</v>
+        <v>0.61825</v>
       </c>
       <c r="BM101">
         <v>1.26</v>
@@ -20049,10 +20049,10 @@
         <v>696</v>
       </c>
       <c r="K102">
-        <v>37.91968390804596</v>
+        <v>37.93218390804596</v>
       </c>
       <c r="L102">
-        <v>2.609572949560674</v>
+        <v>2.611430072248593</v>
       </c>
       <c r="M102">
         <v>33.3</v>
@@ -20067,31 +20067,31 @@
         <v>40</v>
       </c>
       <c r="Q102">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="R102">
         <v>696</v>
       </c>
       <c r="S102">
-        <v>3.797988505747125</v>
+        <v>3.810646551724134</v>
       </c>
       <c r="T102">
-        <v>0.6440498929554246</v>
+        <v>0.6440724846956659</v>
       </c>
       <c r="U102">
-        <v>2.79</v>
+        <v>2.82</v>
       </c>
       <c r="V102">
-        <v>3.27</v>
+        <v>3.28</v>
       </c>
       <c r="W102">
-        <v>3.64</v>
+        <v>3.66</v>
       </c>
       <c r="X102">
-        <v>4.21</v>
+        <v>4.24</v>
       </c>
       <c r="Y102">
-        <v>5.25</v>
+        <v>5.27</v>
       </c>
       <c r="Z102">
         <v>696</v>
@@ -20121,13 +20121,13 @@
         <v>696</v>
       </c>
       <c r="AI102">
-        <v>108.5173850574712</v>
+        <v>108.5400862068966</v>
       </c>
       <c r="AJ102">
-        <v>28.71697363969157</v>
+        <v>28.72245684955544</v>
       </c>
       <c r="AK102">
-        <v>59</v>
+        <v>59.1</v>
       </c>
       <c r="AL102">
         <v>93.5</v>
@@ -20145,10 +20145,10 @@
         <v>696</v>
       </c>
       <c r="AQ102">
-        <v>28.7273132183908</v>
+        <v>28.73863505747125</v>
       </c>
       <c r="AR102">
-        <v>16.2692936476173</v>
+        <v>16.27372958289306</v>
       </c>
       <c r="AS102">
         <v>1.25</v>
@@ -20160,7 +20160,7 @@
         <v>31.6</v>
       </c>
       <c r="AV102">
-        <v>40.125</v>
+        <v>40.15</v>
       </c>
       <c r="AW102">
         <v>112</v>
@@ -20169,22 +20169,22 @@
         <v>696</v>
       </c>
       <c r="AY102">
-        <v>0.01374737952586207</v>
+        <v>0.01377973082183909</v>
       </c>
       <c r="AZ102">
-        <v>0.0243972711531514</v>
+        <v>0.0244471087615707</v>
       </c>
       <c r="BA102">
         <v>-0.00259</v>
       </c>
       <c r="BB102">
-        <v>-0.000100775</v>
+        <v>-0.0001007</v>
       </c>
       <c r="BC102">
         <v>0.00224</v>
       </c>
       <c r="BD102">
-        <v>0.01655</v>
+        <v>0.016625</v>
       </c>
       <c r="BE102">
         <v>0.16</v>
@@ -20193,10 +20193,10 @@
         <v>696</v>
       </c>
       <c r="BG102">
-        <v>0.2845767383620688</v>
+        <v>0.2854240040229886</v>
       </c>
       <c r="BH102">
-        <v>0.3284478072530024</v>
+        <v>0.3293908571999157</v>
       </c>
       <c r="BI102">
         <v>-0.0293</v>
@@ -20208,7 +20208,7 @@
         <v>0.0337</v>
       </c>
       <c r="BL102">
-        <v>0.617</v>
+        <v>0.62175</v>
       </c>
       <c r="BM102">
         <v>1.29</v>
@@ -20246,16 +20246,16 @@
         <v>696</v>
       </c>
       <c r="K103">
-        <v>37.89152298850574</v>
+        <v>37.92054597701148</v>
       </c>
       <c r="L103">
-        <v>2.607703028958734</v>
+        <v>2.610575115811292</v>
       </c>
       <c r="M103">
         <v>33.3</v>
       </c>
       <c r="N103">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="O103">
         <v>38.15000000000001</v>
@@ -20270,25 +20270,25 @@
         <v>696</v>
       </c>
       <c r="S103">
-        <v>3.770043103448276</v>
+        <v>3.797916666666667</v>
       </c>
       <c r="T103">
-        <v>0.6434194831002128</v>
+        <v>0.6442630938155292</v>
       </c>
       <c r="U103">
-        <v>2.79</v>
+        <v>2.8</v>
       </c>
       <c r="V103">
-        <v>3.23</v>
+        <v>3.2675</v>
       </c>
       <c r="W103">
-        <v>3.61</v>
+        <v>3.64</v>
       </c>
       <c r="X103">
-        <v>4.185</v>
+        <v>4.2125</v>
       </c>
       <c r="Y103">
-        <v>5.22</v>
+        <v>5.25</v>
       </c>
       <c r="Z103">
         <v>696</v>
@@ -20318,16 +20318,16 @@
         <v>696</v>
       </c>
       <c r="AI103">
-        <v>108.4260057471264</v>
+        <v>108.5060344827587</v>
       </c>
       <c r="AJ103">
-        <v>28.66987839256684</v>
+        <v>28.69615657856538</v>
       </c>
       <c r="AK103">
         <v>59</v>
       </c>
       <c r="AL103">
-        <v>93.40000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="AM103">
         <v>112</v>
@@ -20336,16 +20336,16 @@
         <v>117</v>
       </c>
       <c r="AO103">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AP103">
         <v>696</v>
       </c>
       <c r="AQ103">
-        <v>28.70688218390803</v>
+        <v>28.7276436781609</v>
       </c>
       <c r="AR103">
-        <v>16.26091954244764</v>
+        <v>16.26963011503477</v>
       </c>
       <c r="AS103">
         <v>1.25</v>
@@ -20357,7 +20357,7 @@
         <v>31.6</v>
       </c>
       <c r="AV103">
-        <v>40.125</v>
+        <v>40.15</v>
       </c>
       <c r="AW103">
         <v>112</v>
@@ -20366,46 +20366,46 @@
         <v>696</v>
       </c>
       <c r="AY103">
-        <v>0.01385066611350573</v>
+        <v>0.01388502057614938</v>
       </c>
       <c r="AZ103">
-        <v>0.0245710848775697</v>
+        <v>0.02461141130274014</v>
       </c>
       <c r="BA103">
         <v>-0.0025</v>
       </c>
       <c r="BB103">
-        <v>-8.97E-05</v>
+        <v>-8.947500000000001E-05</v>
       </c>
       <c r="BC103">
-        <v>0.002285</v>
+        <v>0.00229</v>
       </c>
       <c r="BD103">
-        <v>0.01665</v>
+        <v>0.016725</v>
       </c>
       <c r="BE103">
-        <v>0.16</v>
+        <v>0.161</v>
       </c>
       <c r="BF103">
         <v>696</v>
       </c>
       <c r="BG103">
-        <v>0.2865351057471264</v>
+        <v>0.2873850153735632</v>
       </c>
       <c r="BH103">
-        <v>0.3304195919094643</v>
+        <v>0.3313395438655194</v>
       </c>
       <c r="BI103">
         <v>-0.029</v>
       </c>
       <c r="BJ103">
-        <v>-0.00105875</v>
+        <v>-0.0010595</v>
       </c>
       <c r="BK103">
-        <v>0.03435</v>
+        <v>0.0344</v>
       </c>
       <c r="BL103">
-        <v>0.62</v>
+        <v>0.62475</v>
       </c>
       <c r="BM103">
         <v>1.3</v>
@@ -20443,10 +20443,10 @@
         <v>696</v>
       </c>
       <c r="K104">
-        <v>37.92155172413791</v>
+        <v>37.92543103448275</v>
       </c>
       <c r="L104">
-        <v>2.60940102395082</v>
+        <v>2.612900995541756</v>
       </c>
       <c r="M104">
         <v>33.3</v>
@@ -20458,34 +20458,34 @@
         <v>38.15000000000001</v>
       </c>
       <c r="P104">
-        <v>40</v>
+        <v>40.025</v>
       </c>
       <c r="Q104">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="R104">
         <v>696</v>
       </c>
       <c r="S104">
-        <v>3.799410919540233</v>
+        <v>3.801939655172411</v>
       </c>
       <c r="T104">
-        <v>0.6450837416800033</v>
+        <v>0.6438285681221675</v>
       </c>
       <c r="U104">
-        <v>2.78</v>
+        <v>2.83</v>
       </c>
       <c r="V104">
         <v>3.27</v>
       </c>
       <c r="W104">
-        <v>3.645</v>
+        <v>3.64</v>
       </c>
       <c r="X104">
-        <v>4.22</v>
+        <v>4.202500000000001</v>
       </c>
       <c r="Y104">
-        <v>5.27</v>
+        <v>5.23</v>
       </c>
       <c r="Z104">
         <v>696</v>
@@ -20515,16 +20515,16 @@
         <v>696</v>
       </c>
       <c r="AI104">
-        <v>108.5218390804597</v>
+        <v>108.494540229885</v>
       </c>
       <c r="AJ104">
-        <v>28.71402805703858</v>
+        <v>28.68417454675303</v>
       </c>
       <c r="AK104">
-        <v>59</v>
+        <v>59.1</v>
       </c>
       <c r="AL104">
-        <v>93.5</v>
+        <v>93.55</v>
       </c>
       <c r="AM104">
         <v>112</v>
@@ -20539,10 +20539,10 @@
         <v>696</v>
       </c>
       <c r="AQ104">
-        <v>28.72616379310345</v>
+        <v>28.73060344827585</v>
       </c>
       <c r="AR104">
-        <v>16.26837958958958</v>
+        <v>16.27056938538215</v>
       </c>
       <c r="AS104">
         <v>1.25</v>
@@ -20554,7 +20554,7 @@
         <v>31.6</v>
       </c>
       <c r="AV104">
-        <v>40.125</v>
+        <v>40.15</v>
       </c>
       <c r="AW104">
         <v>112</v>
@@ -20563,46 +20563,46 @@
         <v>696</v>
       </c>
       <c r="AY104">
-        <v>0.01395879237931032</v>
+        <v>0.0139991519841954</v>
       </c>
       <c r="AZ104">
-        <v>0.02474187167686499</v>
+        <v>0.02480944121829215</v>
       </c>
       <c r="BA104">
         <v>-0.00242</v>
       </c>
       <c r="BB104">
-        <v>-7.825E-05</v>
+        <v>-7.832499999999999E-05</v>
       </c>
       <c r="BC104">
-        <v>0.00233</v>
+        <v>0.002335</v>
       </c>
       <c r="BD104">
         <v>0.01675</v>
       </c>
       <c r="BE104">
-        <v>0.161</v>
+        <v>0.162</v>
       </c>
       <c r="BF104">
         <v>696</v>
       </c>
       <c r="BG104">
-        <v>0.2885288805459768</v>
+        <v>0.2894749047413792</v>
       </c>
       <c r="BH104">
-        <v>0.3322828000538351</v>
+        <v>0.3333346434791911</v>
       </c>
       <c r="BI104">
         <v>-0.0289</v>
       </c>
       <c r="BJ104">
-        <v>-0.0007795</v>
+        <v>-0.00078025</v>
       </c>
       <c r="BK104">
-        <v>0.0351</v>
+        <v>0.03515</v>
       </c>
       <c r="BL104">
-        <v>0.6245000000000001</v>
+        <v>0.629</v>
       </c>
       <c r="BM104">
         <v>1.31</v>
@@ -20640,13 +20640,13 @@
         <v>696</v>
       </c>
       <c r="K105">
-        <v>37.93620689655172</v>
+        <v>37.916091954023</v>
       </c>
       <c r="L105">
-        <v>2.613635409175549</v>
+        <v>2.611579022922942</v>
       </c>
       <c r="M105">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="N105">
         <v>36.1</v>
@@ -20658,31 +20658,31 @@
         <v>40</v>
       </c>
       <c r="Q105">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="R105">
         <v>696</v>
       </c>
       <c r="S105">
-        <v>3.814109195402295</v>
+        <v>3.792830459770117</v>
       </c>
       <c r="T105">
-        <v>0.6489964003194109</v>
+        <v>0.6441847493992989</v>
       </c>
       <c r="U105">
-        <v>2.72</v>
+        <v>2.81</v>
       </c>
       <c r="V105">
-        <v>3.2875</v>
+        <v>3.26</v>
       </c>
       <c r="W105">
-        <v>3.67</v>
+        <v>3.63</v>
       </c>
       <c r="X105">
-        <v>4.2125</v>
+        <v>4.2075</v>
       </c>
       <c r="Y105">
-        <v>5.33</v>
+        <v>5.23</v>
       </c>
       <c r="Z105">
         <v>696</v>
@@ -20712,16 +20712,16 @@
         <v>696</v>
       </c>
       <c r="AI105">
-        <v>108.5544540229885</v>
+        <v>108.4760057471264</v>
       </c>
       <c r="AJ105">
-        <v>28.71290302768114</v>
+        <v>28.67631186705099</v>
       </c>
       <c r="AK105">
-        <v>58.9</v>
+        <v>59.1</v>
       </c>
       <c r="AL105">
-        <v>93.57499999999999</v>
+        <v>93.47499999999999</v>
       </c>
       <c r="AM105">
         <v>112</v>
@@ -20736,46 +20736,46 @@
         <v>696</v>
       </c>
       <c r="AQ105">
-        <v>28.74145114942531</v>
+        <v>28.723908045977</v>
       </c>
       <c r="AR105">
-        <v>16.2864931121201</v>
+        <v>16.26787101298537</v>
       </c>
       <c r="AS105">
         <v>1.25</v>
       </c>
       <c r="AT105">
-        <v>14.8</v>
+        <v>14.775</v>
       </c>
       <c r="AU105">
         <v>31.6</v>
       </c>
       <c r="AV105">
-        <v>40.2</v>
+        <v>40.15</v>
       </c>
       <c r="AW105">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AX105">
         <v>696</v>
       </c>
       <c r="AY105">
-        <v>0.01407007607758621</v>
+        <v>0.01408865221264366</v>
       </c>
       <c r="AZ105">
-        <v>0.02493029885709676</v>
+        <v>0.02494272264269647</v>
       </c>
       <c r="BA105">
-        <v>-0.00234</v>
+        <v>-0.00233</v>
       </c>
       <c r="BB105">
-        <v>-6.055E-05</v>
+        <v>-6.04E-05</v>
       </c>
       <c r="BC105">
         <v>0.00238</v>
       </c>
       <c r="BD105">
-        <v>0.016825</v>
+        <v>0.01685</v>
       </c>
       <c r="BE105">
         <v>0.162</v>
@@ -20784,22 +20784,22 @@
         <v>696</v>
       </c>
       <c r="BG105">
-        <v>0.2905448060344826</v>
+        <v>0.2911063922413796</v>
       </c>
       <c r="BH105">
-        <v>0.3340489938515587</v>
+        <v>0.3346308816252927</v>
       </c>
       <c r="BI105">
         <v>-0.0287</v>
       </c>
       <c r="BJ105">
-        <v>-0.00063325</v>
+        <v>-0.000633</v>
       </c>
       <c r="BK105">
-        <v>0.0359</v>
+        <v>0.03585</v>
       </c>
       <c r="BL105">
-        <v>0.6285000000000001</v>
+        <v>0.63175</v>
       </c>
       <c r="BM105">
         <v>1.31</v>
@@ -20837,10 +20837,10 @@
         <v>696</v>
       </c>
       <c r="K106">
-        <v>37.92428160919538</v>
+        <v>37.90919540229884</v>
       </c>
       <c r="L106">
-        <v>2.611926062612296</v>
+        <v>2.611122074584356</v>
       </c>
       <c r="M106">
         <v>33.3</v>
@@ -20855,31 +20855,31 @@
         <v>40</v>
       </c>
       <c r="Q106">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="R106">
         <v>696</v>
       </c>
       <c r="S106">
-        <v>3.801910919540236</v>
+        <v>3.786824712643677</v>
       </c>
       <c r="T106">
-        <v>0.6474594051072907</v>
+        <v>0.6446937621289466</v>
       </c>
       <c r="U106">
         <v>2.76</v>
       </c>
       <c r="V106">
-        <v>3.28</v>
+        <v>3.26</v>
       </c>
       <c r="W106">
-        <v>3.65</v>
+        <v>3.62</v>
       </c>
       <c r="X106">
-        <v>4.21</v>
+        <v>4.192500000000001</v>
       </c>
       <c r="Y106">
-        <v>5.31</v>
+        <v>5.23</v>
       </c>
       <c r="Z106">
         <v>696</v>
@@ -20909,16 +20909,16 @@
         <v>696</v>
       </c>
       <c r="AI106">
-        <v>108.5260057471264</v>
+        <v>108.4584770114943</v>
       </c>
       <c r="AJ106">
-        <v>28.7180323191193</v>
+        <v>28.67825361131939</v>
       </c>
       <c r="AK106">
         <v>59</v>
       </c>
       <c r="AL106">
-        <v>93.47499999999999</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AM106">
         <v>112</v>
@@ -20933,10 +20933,10 @@
         <v>696</v>
       </c>
       <c r="AQ106">
-        <v>28.72895114942531</v>
+        <v>28.71752873563219</v>
       </c>
       <c r="AR106">
-        <v>16.27559597575326</v>
+        <v>16.26440727785345</v>
       </c>
       <c r="AS106">
         <v>1.25</v>
@@ -20948,31 +20948,31 @@
         <v>31.6</v>
       </c>
       <c r="AV106">
-        <v>40.2</v>
+        <v>40.125</v>
       </c>
       <c r="AW106">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AX106">
         <v>696</v>
       </c>
       <c r="AY106">
-        <v>0.01415236260057471</v>
+        <v>0.01417412715517243</v>
       </c>
       <c r="AZ106">
-        <v>0.0250672651284512</v>
+        <v>0.02508274313716784</v>
       </c>
       <c r="BA106">
         <v>-0.00225</v>
       </c>
       <c r="BB106">
-        <v>-5.595E-05</v>
+        <v>-5.575E-05</v>
       </c>
       <c r="BC106">
         <v>0.00242</v>
       </c>
       <c r="BD106">
-        <v>0.01685</v>
+        <v>0.016925</v>
       </c>
       <c r="BE106">
         <v>0.163</v>
@@ -20981,22 +20981,22 @@
         <v>696</v>
       </c>
       <c r="BG106">
-        <v>0.2920253412356329</v>
+        <v>0.2926220742816094</v>
       </c>
       <c r="BH106">
-        <v>0.3352358568129218</v>
+        <v>0.3358200137440875</v>
       </c>
       <c r="BI106">
-        <v>-0.0285</v>
+        <v>-0.0284</v>
       </c>
       <c r="BJ106">
-        <v>-0.000626</v>
+        <v>-0.0006215</v>
       </c>
       <c r="BK106">
         <v>0.0365</v>
       </c>
       <c r="BL106">
-        <v>0.6315</v>
+        <v>0.6355</v>
       </c>
       <c r="BM106">
         <v>1.32</v>
@@ -21034,10 +21034,10 @@
         <v>696</v>
       </c>
       <c r="K107">
-        <v>37.94999999999999</v>
+        <v>37.92313218390804</v>
       </c>
       <c r="L107">
-        <v>2.613776451445205</v>
+        <v>2.613071065075609</v>
       </c>
       <c r="M107">
         <v>33.3</v>
@@ -21058,40 +21058,40 @@
         <v>696</v>
       </c>
       <c r="S107">
-        <v>3.826307471264363</v>
+        <v>3.801652298850574</v>
       </c>
       <c r="T107">
-        <v>0.6456272508592041</v>
+        <v>0.644692107491889</v>
       </c>
       <c r="U107">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="V107">
-        <v>3.2975</v>
+        <v>3.27</v>
       </c>
       <c r="W107">
-        <v>3.68</v>
+        <v>3.64</v>
       </c>
       <c r="X107">
-        <v>4.2425</v>
+        <v>4.22</v>
       </c>
       <c r="Y107">
-        <v>5.31</v>
+        <v>5.26</v>
       </c>
       <c r="Z107">
         <v>696</v>
       </c>
       <c r="AA107">
-        <v>37.91221264367815</v>
+        <v>37.91149425287355</v>
       </c>
       <c r="AB107">
-        <v>2.621753543704333</v>
+        <v>2.622182090373369</v>
       </c>
       <c r="AC107">
         <v>33.3</v>
       </c>
       <c r="AD107">
-        <v>36.075</v>
+        <v>36</v>
       </c>
       <c r="AE107">
         <v>38.15000000000001</v>
@@ -21106,16 +21106,16 @@
         <v>696</v>
       </c>
       <c r="AI107">
-        <v>108.5725574712644</v>
+        <v>108.494827586207</v>
       </c>
       <c r="AJ107">
-        <v>28.70636221180841</v>
+        <v>28.68803779933351</v>
       </c>
       <c r="AK107">
-        <v>59.1</v>
+        <v>59</v>
       </c>
       <c r="AL107">
-        <v>93.57499999999999</v>
+        <v>93.5</v>
       </c>
       <c r="AM107">
         <v>112</v>
@@ -21130,10 +21130,10 @@
         <v>696</v>
       </c>
       <c r="AQ107">
-        <v>28.74646551724135</v>
+        <v>28.72632183908046</v>
       </c>
       <c r="AR107">
-        <v>16.2833155862761</v>
+        <v>16.26809696828894</v>
       </c>
       <c r="AS107">
         <v>1.25</v>
@@ -21145,19 +21145,19 @@
         <v>31.6</v>
       </c>
       <c r="AV107">
-        <v>40.225</v>
+        <v>40.15</v>
       </c>
       <c r="AW107">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AX107">
         <v>696</v>
       </c>
       <c r="AY107">
-        <v>0.01426122438649424</v>
+        <v>0.01428960878448274</v>
       </c>
       <c r="AZ107">
-        <v>0.02524800172533294</v>
+        <v>0.02528939571028679</v>
       </c>
       <c r="BA107">
         <v>-0.00217</v>
@@ -21166,10 +21166,10 @@
         <v>-3.82E-05</v>
       </c>
       <c r="BC107">
-        <v>0.002465</v>
+        <v>0.00246</v>
       </c>
       <c r="BD107">
-        <v>0.01695</v>
+        <v>0.017025</v>
       </c>
       <c r="BE107">
         <v>0.164</v>
@@ -21178,22 +21178,22 @@
         <v>696</v>
       </c>
       <c r="BG107">
-        <v>0.2940203952011493</v>
+        <v>0.2947170184626439</v>
       </c>
       <c r="BH107">
-        <v>0.3371881934475625</v>
+        <v>0.3379211535134163</v>
       </c>
       <c r="BI107">
         <v>-0.0283</v>
       </c>
       <c r="BJ107">
-        <v>-0.0005655</v>
+        <v>-0.00056125</v>
       </c>
       <c r="BK107">
-        <v>0.03725000000000001</v>
+        <v>0.0372</v>
       </c>
       <c r="BL107">
-        <v>0.63475</v>
+        <v>0.63875</v>
       </c>
       <c r="BM107">
         <v>1.34</v>
@@ -21231,10 +21231,10 @@
         <v>696</v>
       </c>
       <c r="K108">
-        <v>37.91767241379309</v>
+        <v>37.92485632183907</v>
       </c>
       <c r="L108">
-        <v>2.611577055809793</v>
+        <v>2.613126792561576</v>
       </c>
       <c r="M108">
         <v>33.3</v>
@@ -21255,22 +21255,22 @@
         <v>696</v>
       </c>
       <c r="S108">
-        <v>3.795272988505745</v>
+        <v>3.803089080459764</v>
       </c>
       <c r="T108">
-        <v>0.645208290647051</v>
+        <v>0.6454411892216841</v>
       </c>
       <c r="U108">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="V108">
-        <v>3.26</v>
+        <v>3.27</v>
       </c>
       <c r="W108">
-        <v>3.645</v>
+        <v>3.64</v>
       </c>
       <c r="X108">
-        <v>4.22</v>
+        <v>4.215</v>
       </c>
       <c r="Y108">
         <v>5.27</v>
@@ -21279,10 +21279,10 @@
         <v>696</v>
       </c>
       <c r="AA108">
-        <v>37.91020114942528</v>
+        <v>37.90962643678161</v>
       </c>
       <c r="AB108">
-        <v>2.622980229285327</v>
+        <v>2.623333456006081</v>
       </c>
       <c r="AC108">
         <v>33.3</v>
@@ -21303,16 +21303,16 @@
         <v>696</v>
       </c>
       <c r="AI108">
-        <v>108.4863505747127</v>
+        <v>108.5035919540229</v>
       </c>
       <c r="AJ108">
-        <v>28.68370555741111</v>
+        <v>28.69258648942968</v>
       </c>
       <c r="AK108">
         <v>59</v>
       </c>
       <c r="AL108">
-        <v>93.5</v>
+        <v>93.47499999999999</v>
       </c>
       <c r="AM108">
         <v>112</v>
@@ -21327,10 +21327,10 @@
         <v>696</v>
       </c>
       <c r="AQ108">
-        <v>28.72173850574712</v>
+        <v>28.72487068965514</v>
       </c>
       <c r="AR108">
-        <v>16.26614604155488</v>
+        <v>16.2673613460546</v>
       </c>
       <c r="AS108">
         <v>1.25</v>
@@ -21351,22 +21351,22 @@
         <v>696</v>
       </c>
       <c r="AY108">
-        <v>0.01435923102586207</v>
+        <v>0.01439056538074712</v>
       </c>
       <c r="AZ108">
-        <v>0.025410317496037</v>
+        <v>0.02544166154897604</v>
       </c>
       <c r="BA108">
         <v>-0.00209</v>
       </c>
       <c r="BB108">
-        <v>-3.565E-05</v>
+        <v>-3.5625E-05</v>
       </c>
       <c r="BC108">
         <v>0.0025</v>
       </c>
       <c r="BD108">
-        <v>0.01705</v>
+        <v>0.017125</v>
       </c>
       <c r="BE108">
         <v>0.165</v>
@@ -21375,22 +21375,22 @@
         <v>696</v>
       </c>
       <c r="BG108">
-        <v>0.2958506814655174</v>
+        <v>0.2967023123563216</v>
       </c>
       <c r="BH108">
-        <v>0.3390904858992771</v>
+        <v>0.3400067976451773</v>
       </c>
       <c r="BI108">
         <v>-0.0281</v>
       </c>
       <c r="BJ108">
-        <v>-0.00052475</v>
+        <v>-0.0005225</v>
       </c>
       <c r="BK108">
         <v>0.0379</v>
       </c>
       <c r="BL108">
-        <v>0.63825</v>
+        <v>0.64225</v>
       </c>
       <c r="BM108">
         <v>1.35</v>
@@ -21428,10 +21428,10 @@
         <v>696</v>
       </c>
       <c r="K109">
-        <v>37.90890804597701</v>
+        <v>37.91695402298848</v>
       </c>
       <c r="L109">
-        <v>2.612654530933455</v>
+        <v>2.614486466909487</v>
       </c>
       <c r="M109">
         <v>33.3</v>
@@ -21440,7 +21440,7 @@
         <v>36.1</v>
       </c>
       <c r="O109">
-        <v>38.15000000000001</v>
+        <v>38.1</v>
       </c>
       <c r="P109">
         <v>40</v>
@@ -21452,16 +21452,16 @@
         <v>696</v>
       </c>
       <c r="S109">
-        <v>3.788692528735631</v>
+        <v>3.795732758620683</v>
       </c>
       <c r="T109">
-        <v>0.6453600971284811</v>
+        <v>0.6467007873316691</v>
       </c>
       <c r="U109">
-        <v>2.79</v>
+        <v>2.75</v>
       </c>
       <c r="V109">
-        <v>3.2575</v>
+        <v>3.27</v>
       </c>
       <c r="W109">
         <v>3.64</v>
@@ -21470,16 +21470,16 @@
         <v>4.21</v>
       </c>
       <c r="Y109">
-        <v>5.27</v>
+        <v>5.29</v>
       </c>
       <c r="Z109">
         <v>696</v>
       </c>
       <c r="AA109">
-        <v>37.9080459770115</v>
+        <v>37.90775862068966</v>
       </c>
       <c r="AB109">
-        <v>2.624970008058531</v>
+        <v>2.625458672760175</v>
       </c>
       <c r="AC109">
         <v>33.3</v>
@@ -21500,16 +21500,16 @@
         <v>696</v>
       </c>
       <c r="AI109">
-        <v>108.4757183908046</v>
+        <v>108.4899425287356</v>
       </c>
       <c r="AJ109">
-        <v>28.6837883082655</v>
+        <v>28.69556628820922</v>
       </c>
       <c r="AK109">
         <v>59</v>
       </c>
       <c r="AL109">
-        <v>93.5</v>
+        <v>93.47499999999999</v>
       </c>
       <c r="AM109">
         <v>112</v>
@@ -21524,10 +21524,10 @@
         <v>696</v>
       </c>
       <c r="AQ109">
-        <v>28.71594827586206</v>
+        <v>28.7205459770115</v>
       </c>
       <c r="AR109">
-        <v>16.26296058131063</v>
+        <v>16.264839891001</v>
       </c>
       <c r="AS109">
         <v>1.25</v>
@@ -21548,22 +21548,22 @@
         <v>696</v>
       </c>
       <c r="AY109">
-        <v>0.01445428997126437</v>
+        <v>0.01449691274425287</v>
       </c>
       <c r="AZ109">
-        <v>0.02555316813904441</v>
+        <v>0.0256121757799524</v>
       </c>
       <c r="BA109">
         <v>-0.00201</v>
       </c>
       <c r="BB109">
-        <v>-3.3925E-05</v>
+        <v>-3.4025E-05</v>
       </c>
       <c r="BC109">
-        <v>0.00254</v>
+        <v>0.002545</v>
       </c>
       <c r="BD109">
-        <v>0.01715</v>
+        <v>0.017225</v>
       </c>
       <c r="BE109">
         <v>0.166</v>
@@ -21572,25 +21572,25 @@
         <v>696</v>
       </c>
       <c r="BG109">
-        <v>0.2977636178160921</v>
+        <v>0.2987937169540235</v>
       </c>
       <c r="BH109">
-        <v>0.3410893334340619</v>
+        <v>0.3422308598307282</v>
       </c>
       <c r="BI109">
         <v>-0.0279</v>
       </c>
       <c r="BJ109">
-        <v>-0.0004935</v>
+        <v>-0.0004929999999999999</v>
       </c>
       <c r="BK109">
-        <v>0.03855</v>
+        <v>0.03865</v>
       </c>
       <c r="BL109">
-        <v>0.6415</v>
+        <v>0.646</v>
       </c>
       <c r="BM109">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="110" spans="1:65">
@@ -21625,10 +21625,10 @@
         <v>696</v>
       </c>
       <c r="K110">
-        <v>37.98218390804595</v>
+        <v>37.92385057471263</v>
       </c>
       <c r="L110">
-        <v>2.618313774596976</v>
+        <v>2.614740748242099</v>
       </c>
       <c r="M110">
         <v>33.3</v>
@@ -21637,10 +21637,10 @@
         <v>36.1</v>
       </c>
       <c r="O110">
-        <v>38.2</v>
+        <v>38.15000000000001</v>
       </c>
       <c r="P110">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="Q110">
         <v>41.8</v>
@@ -21649,34 +21649,34 @@
         <v>696</v>
       </c>
       <c r="S110">
-        <v>3.859482758620686</v>
+        <v>3.801982758620693</v>
       </c>
       <c r="T110">
-        <v>0.6467566161745983</v>
+        <v>0.6466347459473051</v>
       </c>
       <c r="U110">
-        <v>2.85</v>
+        <v>2.78</v>
       </c>
       <c r="V110">
-        <v>3.33</v>
+        <v>3.27</v>
       </c>
       <c r="W110">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="X110">
-        <v>4.2725</v>
+        <v>4.21</v>
       </c>
       <c r="Y110">
-        <v>5.33</v>
+        <v>5.3</v>
       </c>
       <c r="Z110">
         <v>696</v>
       </c>
       <c r="AA110">
-        <v>37.90775862068966</v>
+        <v>37.90761494252874</v>
       </c>
       <c r="AB110">
-        <v>2.625458672760175</v>
+        <v>2.625708439052798</v>
       </c>
       <c r="AC110">
         <v>33.3</v>
@@ -21697,16 +21697,16 @@
         <v>696</v>
       </c>
       <c r="AI110">
-        <v>108.6563218390805</v>
+        <v>108.5030172413794</v>
       </c>
       <c r="AJ110">
-        <v>28.73185763973656</v>
+        <v>28.69607557616692</v>
       </c>
       <c r="AK110">
-        <v>59.1</v>
+        <v>59</v>
       </c>
       <c r="AL110">
-        <v>93.59999999999999</v>
+        <v>93.47499999999999</v>
       </c>
       <c r="AM110">
         <v>112</v>
@@ -21721,34 +21721,34 @@
         <v>696</v>
       </c>
       <c r="AQ110">
-        <v>28.76856321839079</v>
+        <v>28.72362068965517</v>
       </c>
       <c r="AR110">
-        <v>16.29064207536501</v>
+        <v>16.26624915866862</v>
       </c>
       <c r="AS110">
         <v>1.25</v>
       </c>
       <c r="AT110">
-        <v>14.875</v>
+        <v>14.775</v>
       </c>
       <c r="AU110">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="AV110">
-        <v>40.225</v>
+        <v>40.2</v>
       </c>
       <c r="AW110">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AX110">
         <v>696</v>
       </c>
       <c r="AY110">
-        <v>0.01458400910919539</v>
+        <v>0.01460447420977011</v>
       </c>
       <c r="AZ110">
-        <v>0.0257656411895034</v>
+        <v>0.02579808083774284</v>
       </c>
       <c r="BA110">
         <v>-0.00193</v>
@@ -21769,22 +21769,22 @@
         <v>696</v>
       </c>
       <c r="BG110">
-        <v>0.3002521288936779</v>
+        <v>0.3007515423994249</v>
       </c>
       <c r="BH110">
-        <v>0.3435864321681981</v>
+        <v>0.3440751201786456</v>
       </c>
       <c r="BI110">
-        <v>-0.0278</v>
+        <v>-0.0277</v>
       </c>
       <c r="BJ110">
-        <v>-0.000464</v>
+        <v>-0.00046225</v>
       </c>
       <c r="BK110">
         <v>0.0393</v>
       </c>
       <c r="BL110">
-        <v>0.646</v>
+        <v>0.6507500000000001</v>
       </c>
       <c r="BM110">
         <v>1.38</v>
@@ -21822,10 +21822,10 @@
         <v>696</v>
       </c>
       <c r="K111">
-        <v>37.92442528735631</v>
+        <v>37.90948275862069</v>
       </c>
       <c r="L111">
-        <v>2.615560731967704</v>
+        <v>2.613434415535739</v>
       </c>
       <c r="M111">
         <v>33.3</v>
@@ -21834,46 +21834,46 @@
         <v>36.1</v>
       </c>
       <c r="O111">
-        <v>38.1</v>
+        <v>38.15000000000001</v>
       </c>
       <c r="P111">
         <v>40</v>
       </c>
       <c r="Q111">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="R111">
         <v>696</v>
       </c>
       <c r="S111">
-        <v>3.804554597701154</v>
+        <v>3.787830459770112</v>
       </c>
       <c r="T111">
-        <v>0.6470129060628733</v>
+        <v>0.6455550553501487</v>
       </c>
       <c r="U111">
-        <v>2.77</v>
+        <v>2.78</v>
       </c>
       <c r="V111">
-        <v>3.28</v>
+        <v>3.26</v>
       </c>
       <c r="W111">
-        <v>3.645</v>
+        <v>3.63</v>
       </c>
       <c r="X111">
         <v>4.202500000000001</v>
       </c>
       <c r="Y111">
-        <v>5.3</v>
+        <v>5.25</v>
       </c>
       <c r="Z111">
         <v>696</v>
       </c>
       <c r="AA111">
-        <v>37.90718390804597</v>
+        <v>37.90689655172413</v>
       </c>
       <c r="AB111">
-        <v>2.626457548193023</v>
+        <v>2.626956796261969</v>
       </c>
       <c r="AC111">
         <v>33.3</v>
@@ -21894,16 +21894,16 @@
         <v>696</v>
       </c>
       <c r="AI111">
-        <v>108.5047413793104</v>
+        <v>108.4564655172414</v>
       </c>
       <c r="AJ111">
-        <v>28.69197702899367</v>
+        <v>28.68083236566363</v>
       </c>
       <c r="AK111">
         <v>59</v>
       </c>
       <c r="AL111">
-        <v>93.47499999999999</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AM111">
         <v>112</v>
@@ -21918,10 +21918,10 @@
         <v>696</v>
       </c>
       <c r="AQ111">
-        <v>28.72469827586207</v>
+        <v>28.71176724137929</v>
       </c>
       <c r="AR111">
-        <v>16.26559548419897</v>
+        <v>16.26182239233495</v>
       </c>
       <c r="AS111">
         <v>1.25</v>
@@ -21933,7 +21933,7 @@
         <v>31.6</v>
       </c>
       <c r="AV111">
-        <v>40.2</v>
+        <v>40.125</v>
       </c>
       <c r="AW111">
         <v>112</v>
@@ -21942,22 +21942,22 @@
         <v>696</v>
       </c>
       <c r="AY111">
-        <v>0.01466424400862067</v>
+        <v>0.01468828665229884</v>
       </c>
       <c r="AZ111">
-        <v>0.02590710124979779</v>
+        <v>0.02592981949631608</v>
       </c>
       <c r="BA111">
-        <v>-0.00185</v>
+        <v>-0.00186</v>
       </c>
       <c r="BB111">
-        <v>-2.0425E-05</v>
+        <v>-2.06E-05</v>
       </c>
       <c r="BC111">
-        <v>0.002625</v>
+        <v>0.00262</v>
       </c>
       <c r="BD111">
-        <v>0.0174</v>
+        <v>0.017425</v>
       </c>
       <c r="BE111">
         <v>0.168</v>
@@ -21966,22 +21966,22 @@
         <v>696</v>
       </c>
       <c r="BG111">
-        <v>0.3016516363505751</v>
+        <v>0.3023468543103447</v>
       </c>
       <c r="BH111">
-        <v>0.3446164581630073</v>
+        <v>0.3453709550906789</v>
       </c>
       <c r="BI111">
         <v>-0.0276</v>
       </c>
       <c r="BJ111">
-        <v>-0.0004575</v>
+        <v>-0.00045825</v>
       </c>
       <c r="BK111">
         <v>0.03985</v>
       </c>
       <c r="BL111">
-        <v>0.64875</v>
+        <v>0.65225</v>
       </c>
       <c r="BM111">
         <v>1.38</v>
@@ -22019,49 +22019,49 @@
         <v>696</v>
       </c>
       <c r="K112">
-        <v>37.96364942528734</v>
+        <v>37.89396551724136</v>
       </c>
       <c r="L112">
-        <v>2.61802010161498</v>
+        <v>2.612497538513154</v>
       </c>
       <c r="M112">
         <v>33.3</v>
       </c>
       <c r="N112">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="O112">
-        <v>38.2</v>
+        <v>38.15000000000001</v>
       </c>
       <c r="P112">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="Q112">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="R112">
         <v>696</v>
       </c>
       <c r="S112">
-        <v>3.840818965517238</v>
+        <v>3.772054597701151</v>
       </c>
       <c r="T112">
-        <v>0.6488872968504564</v>
+        <v>0.6453938197924679</v>
       </c>
       <c r="U112">
         <v>2.78</v>
       </c>
       <c r="V112">
-        <v>3.31</v>
+        <v>3.2475</v>
       </c>
       <c r="W112">
-        <v>3.69</v>
+        <v>3.61</v>
       </c>
       <c r="X112">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="Y112">
-        <v>5.33</v>
+        <v>5.23</v>
       </c>
       <c r="Z112">
         <v>696</v>
@@ -22091,16 +22091,16 @@
         <v>696</v>
       </c>
       <c r="AI112">
-        <v>108.6034482758621</v>
+        <v>108.4156609195402</v>
       </c>
       <c r="AJ112">
-        <v>28.71084450880594</v>
+        <v>28.67242124401445</v>
       </c>
       <c r="AK112">
         <v>59</v>
       </c>
       <c r="AL112">
-        <v>93.59999999999999</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AM112">
         <v>112</v>
@@ -22109,52 +22109,52 @@
         <v>117</v>
       </c>
       <c r="AO112">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AP112">
         <v>696</v>
       </c>
       <c r="AQ112">
-        <v>28.75221264367816</v>
+        <v>28.69913793103447</v>
       </c>
       <c r="AR112">
-        <v>16.2837066111019</v>
+        <v>16.25644106470725</v>
       </c>
       <c r="AS112">
         <v>1.25</v>
       </c>
       <c r="AT112">
-        <v>14.8</v>
+        <v>14.775</v>
       </c>
       <c r="AU112">
-        <v>31.65</v>
+        <v>31.6</v>
       </c>
       <c r="AV112">
-        <v>40.2</v>
+        <v>40.125</v>
       </c>
       <c r="AW112">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AX112">
         <v>696</v>
       </c>
       <c r="AY112">
-        <v>0.01478157926724139</v>
+        <v>0.01477948535919542</v>
       </c>
       <c r="AZ112">
-        <v>0.02610954000063367</v>
+        <v>0.02609619319599861</v>
       </c>
       <c r="BA112">
         <v>-0.00178</v>
       </c>
       <c r="BB112">
-        <v>-2.04E-05</v>
+        <v>-2.0325E-05</v>
       </c>
       <c r="BC112">
-        <v>0.002665</v>
+        <v>0.00266</v>
       </c>
       <c r="BD112">
-        <v>0.0175</v>
+        <v>0.017525</v>
       </c>
       <c r="BE112">
         <v>0.169</v>
@@ -22163,25 +22163,25 @@
         <v>696</v>
       </c>
       <c r="BG112">
-        <v>0.3038051969827589</v>
+        <v>0.3039364600574714</v>
       </c>
       <c r="BH112">
-        <v>0.3464965266778208</v>
+        <v>0.3465868911377399</v>
       </c>
       <c r="BI112">
-        <v>-0.0275</v>
+        <v>-0.0274</v>
       </c>
       <c r="BJ112">
-        <v>-0.00044925</v>
+        <v>-0.000449</v>
       </c>
       <c r="BK112">
-        <v>0.0406</v>
+        <v>0.04055</v>
       </c>
       <c r="BL112">
-        <v>0.6537500000000001</v>
+        <v>0.65625</v>
       </c>
       <c r="BM112">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/June2015/ISWRPQAQ_stats.xlsx
+++ b/June2015/ISWRPQAQ_stats.xlsx
@@ -767,10 +767,10 @@
         <v>695</v>
       </c>
       <c r="S4">
-        <v>3.110890647482011</v>
+        <v>3.110877697841723</v>
       </c>
       <c r="T4">
-        <v>1.196155893578415</v>
+        <v>1.196138266686654</v>
       </c>
       <c r="U4">
         <v>0.217</v>
@@ -791,10 +791,10 @@
         <v>695</v>
       </c>
       <c r="AA4">
-        <v>37.10503597122305</v>
+        <v>37.10517985611513</v>
       </c>
       <c r="AB4">
-        <v>3.28772329406816</v>
+        <v>3.287506117616944</v>
       </c>
       <c r="AC4">
         <v>29.9</v>
@@ -815,10 +815,10 @@
         <v>695</v>
       </c>
       <c r="AI4">
-        <v>102.7002877697842</v>
+        <v>102.7004316546763</v>
       </c>
       <c r="AJ4">
-        <v>26.28373391481822</v>
+        <v>26.28336632995726</v>
       </c>
       <c r="AK4">
         <v>27.5</v>
@@ -863,10 +863,10 @@
         <v>695</v>
       </c>
       <c r="AY4">
-        <v>0.1575868086330935</v>
+        <v>0.1575344633093524</v>
       </c>
       <c r="AZ4">
-        <v>0.5913953318842442</v>
+        <v>0.5914173741786294</v>
       </c>
       <c r="BA4">
         <v>-1.72</v>
@@ -887,10 +887,10 @@
         <v>695</v>
       </c>
       <c r="BG4">
-        <v>0.2114415669064749</v>
+        <v>0.2113748805755397</v>
       </c>
       <c r="BH4">
-        <v>0.6443976138128485</v>
+        <v>0.6443818848750011</v>
       </c>
       <c r="BI4">
         <v>-1.67</v>
@@ -964,10 +964,10 @@
         <v>696</v>
       </c>
       <c r="S5">
-        <v>3.652005747126434</v>
+        <v>3.651991379310342</v>
       </c>
       <c r="T5">
-        <v>0.893056223690289</v>
+        <v>0.8930450583170872</v>
       </c>
       <c r="U5">
         <v>0.578</v>
@@ -1060,10 +1060,10 @@
         <v>696</v>
       </c>
       <c r="AY5">
-        <v>0.2897638513074717</v>
+        <v>0.2897135076436786</v>
       </c>
       <c r="AZ5">
-        <v>0.326482330174745</v>
+        <v>0.3264522715334605</v>
       </c>
       <c r="BA5">
         <v>-0.114</v>
@@ -1084,10 +1084,10 @@
         <v>696</v>
       </c>
       <c r="BG5">
-        <v>0.3420901073275859</v>
+        <v>0.3420347362068961</v>
       </c>
       <c r="BH5">
-        <v>0.4519220973006077</v>
+        <v>0.4518721418516397</v>
       </c>
       <c r="BI5">
         <v>-0.185</v>
@@ -1099,7 +1099,7 @@
         <v>0.1175</v>
       </c>
       <c r="BL5">
-        <v>0.55125</v>
+        <v>0.551</v>
       </c>
       <c r="BM5">
         <v>1.92</v>
@@ -1164,7 +1164,7 @@
         <v>3.634136494252871</v>
       </c>
       <c r="T6">
-        <v>0.8880317578359714</v>
+        <v>0.8880019444150774</v>
       </c>
       <c r="U6">
         <v>0.581</v>
@@ -1257,10 +1257,10 @@
         <v>696</v>
       </c>
       <c r="AY6">
-        <v>0.2567178275862065</v>
+        <v>0.2566707241379306</v>
       </c>
       <c r="AZ6">
-        <v>0.3200163159136915</v>
+        <v>0.3200028390898992</v>
       </c>
       <c r="BA6">
         <v>-0.138</v>
@@ -1269,7 +1269,7 @@
         <v>0.0095575</v>
       </c>
       <c r="BC6">
-        <v>0.09805</v>
+        <v>0.09795000000000001</v>
       </c>
       <c r="BD6">
         <v>0.455</v>
@@ -1281,13 +1281,13 @@
         <v>696</v>
       </c>
       <c r="BG6">
-        <v>0.3065443577586206</v>
+        <v>0.3064936566091954</v>
       </c>
       <c r="BH6">
-        <v>0.4377472987335643</v>
+        <v>0.4377295056250322</v>
       </c>
       <c r="BI6">
-        <v>-0.224</v>
+        <v>-0.225</v>
       </c>
       <c r="BJ6">
         <v>0.006145</v>
@@ -1454,19 +1454,19 @@
         <v>696</v>
       </c>
       <c r="AY7">
-        <v>0.289290747241379</v>
+        <v>0.2892395400143675</v>
       </c>
       <c r="AZ7">
-        <v>0.3952051983059444</v>
+        <v>0.3951938694639044</v>
       </c>
       <c r="BA7">
-        <v>-0.141</v>
+        <v>-0.142</v>
       </c>
       <c r="BB7">
         <v>0.017</v>
       </c>
       <c r="BC7">
-        <v>0.102</v>
+        <v>0.1015</v>
       </c>
       <c r="BD7">
         <v>0.472</v>
@@ -1478,16 +1478,16 @@
         <v>696</v>
       </c>
       <c r="BG7">
-        <v>0.3475204677011495</v>
+        <v>0.3474791398132184</v>
       </c>
       <c r="BH7">
-        <v>0.5276485797594507</v>
+        <v>0.5276326342670941</v>
       </c>
       <c r="BI7">
         <v>-0.231</v>
       </c>
       <c r="BJ7">
-        <v>0.00818</v>
+        <v>0.008172499999999999</v>
       </c>
       <c r="BK7">
         <v>0.08595</v>
@@ -1579,10 +1579,10 @@
         <v>696</v>
       </c>
       <c r="AA8">
-        <v>37.50790229885054</v>
+        <v>37.50804597701146</v>
       </c>
       <c r="AB8">
-        <v>3.107166591351673</v>
+        <v>3.107075921283043</v>
       </c>
       <c r="AC8">
         <v>30.3</v>
@@ -1651,10 +1651,10 @@
         <v>696</v>
       </c>
       <c r="AY8">
-        <v>0.2533993591954022</v>
+        <v>0.2533423778735631</v>
       </c>
       <c r="AZ8">
-        <v>0.3123462399281525</v>
+        <v>0.3122806194490118</v>
       </c>
       <c r="BA8">
         <v>-0.138</v>
@@ -1675,10 +1675,10 @@
         <v>696</v>
       </c>
       <c r="BG8">
-        <v>0.3033213318965519</v>
+        <v>0.3032361609195405</v>
       </c>
       <c r="BH8">
-        <v>0.4294236872917008</v>
+        <v>0.4293523024695343</v>
       </c>
       <c r="BI8">
         <v>-0.225</v>
@@ -1687,10 +1687,10 @@
         <v>0.006075</v>
       </c>
       <c r="BK8">
-        <v>0.07625</v>
+        <v>0.07615</v>
       </c>
       <c r="BL8">
-        <v>0.475</v>
+        <v>0.47475</v>
       </c>
       <c r="BM8">
         <v>2.04</v>
@@ -1755,7 +1755,7 @@
         <v>3.641244252873559</v>
       </c>
       <c r="T9">
-        <v>0.8880488243083337</v>
+        <v>0.888067618850264</v>
       </c>
       <c r="U9">
         <v>0.582</v>
@@ -1824,10 +1824,10 @@
         <v>696</v>
       </c>
       <c r="AQ9">
-        <v>1.138923275862068</v>
+        <v>1.138921839080459</v>
       </c>
       <c r="AR9">
-        <v>0.6438194515477671</v>
+        <v>0.6438203419673858</v>
       </c>
       <c r="AS9">
         <v>0.0502</v>
@@ -1848,13 +1848,13 @@
         <v>696</v>
       </c>
       <c r="AY9">
-        <v>0.2385316649425288</v>
+        <v>0.2384971306034484</v>
       </c>
       <c r="AZ9">
-        <v>0.292759467197262</v>
+        <v>0.29274610501784</v>
       </c>
       <c r="BA9">
-        <v>-0.127</v>
+        <v>-0.128</v>
       </c>
       <c r="BB9">
         <v>0.0148</v>
@@ -1872,10 +1872,10 @@
         <v>696</v>
       </c>
       <c r="BG9">
-        <v>0.2842016827586208</v>
+        <v>0.2841475321839081</v>
       </c>
       <c r="BH9">
-        <v>0.4039520150107497</v>
+        <v>0.4039230009263635</v>
       </c>
       <c r="BI9">
         <v>-0.208</v>
@@ -1884,7 +1884,7 @@
         <v>0.00691</v>
       </c>
       <c r="BK9">
-        <v>0.07295</v>
+        <v>0.07290000000000001</v>
       </c>
       <c r="BL9">
         <v>0.443</v>
@@ -1973,10 +1973,10 @@
         <v>696</v>
       </c>
       <c r="AA10">
-        <v>37.49525862068963</v>
+        <v>37.49540229885054</v>
       </c>
       <c r="AB10">
-        <v>3.132258328295634</v>
+        <v>3.132145996430998</v>
       </c>
       <c r="AC10">
         <v>30.2</v>
@@ -2045,10 +2045,10 @@
         <v>696</v>
       </c>
       <c r="AY10">
-        <v>0.2627546465517244</v>
+        <v>0.2627070330459773</v>
       </c>
       <c r="AZ10">
-        <v>0.3540428041470867</v>
+        <v>0.3539953927153426</v>
       </c>
       <c r="BA10">
         <v>-0.126</v>
@@ -2069,22 +2069,22 @@
         <v>696</v>
       </c>
       <c r="BG10">
-        <v>0.3166174913793101</v>
+        <v>0.3165605804597699</v>
       </c>
       <c r="BH10">
-        <v>0.4767533262531793</v>
+        <v>0.4767011001743798</v>
       </c>
       <c r="BI10">
-        <v>-0.202</v>
+        <v>-0.203</v>
       </c>
       <c r="BJ10">
-        <v>0.005575</v>
+        <v>0.0055825</v>
       </c>
       <c r="BK10">
-        <v>0.0736</v>
+        <v>0.07355</v>
       </c>
       <c r="BL10">
-        <v>0.4895</v>
+        <v>0.4885</v>
       </c>
       <c r="BM10">
         <v>2.59</v>
@@ -2170,10 +2170,10 @@
         <v>696</v>
       </c>
       <c r="AA11">
-        <v>37.45862068965513</v>
+        <v>37.45890804597697</v>
       </c>
       <c r="AB11">
-        <v>3.157297878459794</v>
+        <v>3.157005404250606</v>
       </c>
       <c r="AC11">
         <v>30.2</v>
@@ -2194,10 +2194,10 @@
         <v>696</v>
       </c>
       <c r="AI11">
-        <v>107.5617816091954</v>
+        <v>107.5619252873563</v>
       </c>
       <c r="AJ11">
-        <v>28.27099903034592</v>
+        <v>28.27082389111043</v>
       </c>
       <c r="AK11">
         <v>59.1</v>
@@ -2242,10 +2242,10 @@
         <v>696</v>
       </c>
       <c r="AY11">
-        <v>0.2832337854885059</v>
+        <v>0.2831662300287358</v>
       </c>
       <c r="AZ11">
-        <v>0.3953244316044027</v>
+        <v>0.3951958632768778</v>
       </c>
       <c r="BA11">
         <v>-0.132</v>
@@ -2266,10 +2266,10 @@
         <v>696</v>
       </c>
       <c r="BG11">
-        <v>0.3429629267241383</v>
+        <v>0.3429237169540232</v>
       </c>
       <c r="BH11">
-        <v>0.5273423143465311</v>
+        <v>0.5273301202637656</v>
       </c>
       <c r="BI11">
         <v>-0.204</v>
@@ -2439,10 +2439,10 @@
         <v>696</v>
       </c>
       <c r="AY12">
-        <v>0.2302941832356319</v>
+        <v>0.2302417700287355</v>
       </c>
       <c r="AZ12">
-        <v>0.297564527100902</v>
+        <v>0.2975417380432813</v>
       </c>
       <c r="BA12">
         <v>-0.146</v>
@@ -2463,16 +2463,16 @@
         <v>696</v>
       </c>
       <c r="BG12">
-        <v>0.2774528967816092</v>
+        <v>0.2774042337212644</v>
       </c>
       <c r="BH12">
-        <v>0.4014737665114366</v>
+        <v>0.4014455971374119</v>
       </c>
       <c r="BI12">
         <v>-0.207</v>
       </c>
       <c r="BJ12">
-        <v>-0.00083025</v>
+        <v>-0.000831</v>
       </c>
       <c r="BK12">
         <v>0.05595</v>
@@ -2636,10 +2636,10 @@
         <v>696</v>
       </c>
       <c r="AY13">
-        <v>0.2271499281609198</v>
+        <v>0.2270939584770117</v>
       </c>
       <c r="AZ13">
-        <v>0.3207641088950943</v>
+        <v>0.3206809894072521</v>
       </c>
       <c r="BA13">
         <v>-0.156</v>
@@ -2654,19 +2654,19 @@
         <v>0.4165</v>
       </c>
       <c r="BE13">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="BF13">
         <v>696</v>
       </c>
       <c r="BG13">
-        <v>0.2761359188218391</v>
+        <v>0.2760696614942529</v>
       </c>
       <c r="BH13">
-        <v>0.4305470658501154</v>
+        <v>0.4304781894454962</v>
       </c>
       <c r="BI13">
-        <v>-0.222</v>
+        <v>-0.223</v>
       </c>
       <c r="BJ13">
         <v>-0.00363</v>
@@ -2713,16 +2713,16 @@
         <v>696</v>
       </c>
       <c r="K14">
-        <v>37.75244252873559</v>
+        <v>37.75459770114939</v>
       </c>
       <c r="L14">
-        <v>2.93446301086927</v>
+        <v>2.934499647852515</v>
       </c>
       <c r="M14">
         <v>30.1</v>
       </c>
       <c r="N14">
-        <v>36</v>
+        <v>36.075</v>
       </c>
       <c r="O14">
         <v>38.15000000000001</v>
@@ -2731,25 +2731,25 @@
         <v>40</v>
       </c>
       <c r="Q14">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="R14">
         <v>696</v>
       </c>
       <c r="S14">
-        <v>3.630025862068964</v>
+        <v>3.633178160919539</v>
       </c>
       <c r="T14">
-        <v>0.8938430949931205</v>
+        <v>0.8938937795265861</v>
       </c>
       <c r="U14">
-        <v>0.5649999999999999</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="V14">
-        <v>3.1575</v>
+        <v>3.16</v>
       </c>
       <c r="W14">
-        <v>3.6</v>
+        <v>3.605</v>
       </c>
       <c r="X14">
         <v>4.2</v>
@@ -2761,10 +2761,10 @@
         <v>696</v>
       </c>
       <c r="AA14">
-        <v>37.46580459770111</v>
+        <v>37.46594827586203</v>
       </c>
       <c r="AB14">
-        <v>3.149759874238057</v>
+        <v>3.149466775500675</v>
       </c>
       <c r="AC14">
         <v>30.2</v>
@@ -2785,10 +2785,10 @@
         <v>696</v>
       </c>
       <c r="AI14">
-        <v>107.5622126436781</v>
+        <v>107.5761494252874</v>
       </c>
       <c r="AJ14">
-        <v>28.23997463142446</v>
+        <v>28.24350652003793</v>
       </c>
       <c r="AK14">
         <v>58.9</v>
@@ -2809,10 +2809,10 @@
         <v>696</v>
       </c>
       <c r="AQ14">
-        <v>1.137027011494253</v>
+        <v>1.137122126436781</v>
       </c>
       <c r="AR14">
-        <v>0.642362801511523</v>
+        <v>0.6424570025634475</v>
       </c>
       <c r="AS14">
         <v>0.0498</v>
@@ -2833,10 +2833,10 @@
         <v>696</v>
       </c>
       <c r="AY14">
-        <v>0.2856569445402297</v>
+        <v>0.2856636599137931</v>
       </c>
       <c r="AZ14">
-        <v>0.373590118946773</v>
+        <v>0.3736800123773405</v>
       </c>
       <c r="BA14">
         <v>-0.137</v>
@@ -2857,22 +2857,22 @@
         <v>696</v>
       </c>
       <c r="BG14">
-        <v>0.3422293465517238</v>
+        <v>0.3422209729885055</v>
       </c>
       <c r="BH14">
-        <v>0.5028066377010842</v>
+        <v>0.5028538354187722</v>
       </c>
       <c r="BI14">
-        <v>-0.222</v>
+        <v>-0.223</v>
       </c>
       <c r="BJ14">
-        <v>0.014975</v>
+        <v>0.01495</v>
       </c>
       <c r="BK14">
-        <v>0.09425</v>
+        <v>0.09429999999999999</v>
       </c>
       <c r="BL14">
-        <v>0.526</v>
+        <v>0.525</v>
       </c>
       <c r="BM14">
         <v>2.73</v>
@@ -3030,10 +3030,10 @@
         <v>696</v>
       </c>
       <c r="AY15">
-        <v>0.2739821919540233</v>
+        <v>0.273954899712644</v>
       </c>
       <c r="AZ15">
-        <v>0.3502035427576453</v>
+        <v>0.350200436196926</v>
       </c>
       <c r="BA15">
         <v>-0.136</v>
@@ -3054,13 +3054,13 @@
         <v>696</v>
       </c>
       <c r="BG15">
-        <v>0.329758528448276</v>
+        <v>0.3296997252873564</v>
       </c>
       <c r="BH15">
-        <v>0.4749736192202363</v>
+        <v>0.4749414771893016</v>
       </c>
       <c r="BI15">
-        <v>-0.221</v>
+        <v>-0.222</v>
       </c>
       <c r="BJ15">
         <v>0.00771</v>
@@ -3227,22 +3227,22 @@
         <v>696</v>
       </c>
       <c r="AY16">
-        <v>0.2586057209770112</v>
+        <v>0.2585406274425285</v>
       </c>
       <c r="AZ16">
-        <v>0.3790371436653721</v>
+        <v>0.3789077265639182</v>
       </c>
       <c r="BA16">
         <v>-0.159</v>
       </c>
       <c r="BB16">
-        <v>-0.0082725</v>
+        <v>-0.008279999999999999</v>
       </c>
       <c r="BC16">
         <v>0.06434999999999999</v>
       </c>
       <c r="BD16">
-        <v>0.45</v>
+        <v>0.44925</v>
       </c>
       <c r="BE16">
         <v>2.12</v>
@@ -3251,10 +3251,10 @@
         <v>696</v>
       </c>
       <c r="BG16">
-        <v>0.3150223767241376</v>
+        <v>0.3149571867816089</v>
       </c>
       <c r="BH16">
-        <v>0.5017575994859245</v>
+        <v>0.5017102729403978</v>
       </c>
       <c r="BI16">
         <v>-0.243</v>
@@ -3400,10 +3400,10 @@
         <v>696</v>
       </c>
       <c r="AQ17">
-        <v>1.128912212643678</v>
+        <v>1.128910775862069</v>
       </c>
       <c r="AR17">
-        <v>0.6387710448812581</v>
+        <v>0.6387714039598257</v>
       </c>
       <c r="AS17">
         <v>0.0495</v>
@@ -3424,10 +3424,10 @@
         <v>696</v>
       </c>
       <c r="AY17">
-        <v>0.2379616540229886</v>
+        <v>0.2379315146551725</v>
       </c>
       <c r="AZ17">
-        <v>0.3305232618111679</v>
+        <v>0.3305115943280026</v>
       </c>
       <c r="BA17">
         <v>-0.168</v>
@@ -3448,10 +3448,10 @@
         <v>696</v>
       </c>
       <c r="BG17">
-        <v>0.2881271122126434</v>
+        <v>0.2880764142241377</v>
       </c>
       <c r="BH17">
-        <v>0.4441453628169142</v>
+        <v>0.4441271192300388</v>
       </c>
       <c r="BI17">
         <v>-0.256</v>
@@ -3525,10 +3525,10 @@
         <v>696</v>
       </c>
       <c r="S18">
-        <v>3.510264367816093</v>
+        <v>3.510250000000001</v>
       </c>
       <c r="T18">
-        <v>0.877081879606616</v>
+        <v>0.8770827860977923</v>
       </c>
       <c r="U18">
         <v>0.5629999999999999</v>
@@ -3537,7 +3537,7 @@
         <v>3.01</v>
       </c>
       <c r="W18">
-        <v>3.455</v>
+        <v>3.45</v>
       </c>
       <c r="X18">
         <v>4.0925</v>
@@ -3573,10 +3573,10 @@
         <v>696</v>
       </c>
       <c r="AI18">
-        <v>106.399856321839</v>
+        <v>106.4012931034482</v>
       </c>
       <c r="AJ18">
-        <v>28.06131493110723</v>
+        <v>28.06157640382886</v>
       </c>
       <c r="AK18">
         <v>58.1</v>
@@ -3621,10 +3621,10 @@
         <v>696</v>
       </c>
       <c r="AY18">
-        <v>0.219670983045977</v>
+        <v>0.2196131403735633</v>
       </c>
       <c r="AZ18">
-        <v>0.3071646382659695</v>
+        <v>0.3070930680630708</v>
       </c>
       <c r="BA18">
         <v>-0.176</v>
@@ -3645,13 +3645,13 @@
         <v>696</v>
       </c>
       <c r="BG18">
-        <v>0.2643224215517244</v>
+        <v>0.2642727321839082</v>
       </c>
       <c r="BH18">
-        <v>0.4122076030603252</v>
+        <v>0.4121883226949969</v>
       </c>
       <c r="BI18">
-        <v>-0.262</v>
+        <v>-0.263</v>
       </c>
       <c r="BJ18">
         <v>-0.00974</v>
@@ -3818,10 +3818,10 @@
         <v>696</v>
       </c>
       <c r="AY19">
-        <v>0.2259377469252873</v>
+        <v>0.2258783821120689</v>
       </c>
       <c r="AZ19">
-        <v>0.3499297072382485</v>
+        <v>0.3498529626161558</v>
       </c>
       <c r="BA19">
         <v>-0.194</v>
@@ -3833,7 +3833,7 @@
         <v>0.05375</v>
       </c>
       <c r="BD19">
-        <v>0.42025</v>
+        <v>0.4195</v>
       </c>
       <c r="BE19">
         <v>1.92</v>
@@ -3842,10 +3842,10 @@
         <v>696</v>
       </c>
       <c r="BG19">
-        <v>0.2738263023793101</v>
+        <v>0.273784934985632</v>
       </c>
       <c r="BH19">
-        <v>0.4577294853829739</v>
+        <v>0.4577138393520628</v>
       </c>
       <c r="BI19">
         <v>-0.254</v>
@@ -3857,7 +3857,7 @@
         <v>0.03115</v>
       </c>
       <c r="BL19">
-        <v>0.44125</v>
+        <v>0.4405</v>
       </c>
       <c r="BM19">
         <v>2.39</v>
@@ -3919,10 +3919,10 @@
         <v>696</v>
       </c>
       <c r="S20">
-        <v>3.405239942528735</v>
+        <v>3.405211206896551</v>
       </c>
       <c r="T20">
-        <v>0.8733404693693465</v>
+        <v>0.8733203767846704</v>
       </c>
       <c r="U20">
         <v>0.534</v>
@@ -4015,10 +4015,10 @@
         <v>696</v>
       </c>
       <c r="AY20">
-        <v>0.250102786178161</v>
+        <v>0.2500552148275862</v>
       </c>
       <c r="AZ20">
-        <v>0.4074793268067674</v>
+        <v>0.4074045974739448</v>
       </c>
       <c r="BA20">
         <v>-0.202</v>
@@ -4027,7 +4027,7 @@
         <v>-0.025975</v>
       </c>
       <c r="BC20">
-        <v>0.05155</v>
+        <v>0.0515</v>
       </c>
       <c r="BD20">
         <v>0.44</v>
@@ -4039,10 +4039,10 @@
         <v>696</v>
       </c>
       <c r="BG20">
-        <v>0.3034160771839082</v>
+        <v>0.3033591812787358</v>
       </c>
       <c r="BH20">
-        <v>0.5242492538213988</v>
+        <v>0.5241725258859626</v>
       </c>
       <c r="BI20">
         <v>-0.221</v>
@@ -4057,7 +4057,7 @@
         <v>0.4855</v>
       </c>
       <c r="BM20">
-        <v>2.93</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="21" spans="1:65">
@@ -4116,10 +4116,10 @@
         <v>696</v>
       </c>
       <c r="S21">
-        <v>3.406162356321838</v>
+        <v>3.406133620689654</v>
       </c>
       <c r="T21">
-        <v>0.8742239614387021</v>
+        <v>0.8742351909927792</v>
       </c>
       <c r="U21">
         <v>0.535</v>
@@ -4212,10 +4212,10 @@
         <v>696</v>
       </c>
       <c r="AY21">
-        <v>0.2462103002873563</v>
+        <v>0.2461583465517241</v>
       </c>
       <c r="AZ21">
-        <v>0.3463381453992767</v>
+        <v>0.3462744867015854</v>
       </c>
       <c r="BA21">
         <v>-0.188</v>
@@ -4236,10 +4236,10 @@
         <v>696</v>
       </c>
       <c r="BG21">
-        <v>0.2948017127873562</v>
+        <v>0.2947542906609195</v>
       </c>
       <c r="BH21">
-        <v>0.4577239176810609</v>
+        <v>0.4577064794973544</v>
       </c>
       <c r="BI21">
         <v>-0.188</v>
@@ -4251,7 +4251,7 @@
         <v>0.0438</v>
       </c>
       <c r="BL21">
-        <v>0.4785</v>
+        <v>0.47825</v>
       </c>
       <c r="BM21">
         <v>2.31</v>
@@ -4409,10 +4409,10 @@
         <v>696</v>
       </c>
       <c r="AY22">
-        <v>0.2381359827586206</v>
+        <v>0.2380898606321838</v>
       </c>
       <c r="AZ22">
-        <v>0.3830201295310801</v>
+        <v>0.3829791031706533</v>
       </c>
       <c r="BA22">
         <v>-0.216</v>
@@ -4424,7 +4424,7 @@
         <v>0.04975</v>
       </c>
       <c r="BD22">
-        <v>0.44825</v>
+        <v>0.448</v>
       </c>
       <c r="BE22">
         <v>2.11</v>
@@ -4433,10 +4433,10 @@
         <v>696</v>
       </c>
       <c r="BG22">
-        <v>0.2884220862068965</v>
+        <v>0.288377775862069</v>
       </c>
       <c r="BH22">
-        <v>0.4932080972409649</v>
+        <v>0.4931883813941658</v>
       </c>
       <c r="BI22">
         <v>-0.215</v>
@@ -4448,7 +4448,7 @@
         <v>0.02535</v>
       </c>
       <c r="BL22">
-        <v>0.46925</v>
+        <v>0.469</v>
       </c>
       <c r="BM22">
         <v>2.6</v>
@@ -4606,16 +4606,16 @@
         <v>696</v>
       </c>
       <c r="AY23">
-        <v>0.2318215071839083</v>
+        <v>0.2317796566091957</v>
       </c>
       <c r="AZ23">
-        <v>0.440233308553106</v>
+        <v>0.4402176495117698</v>
       </c>
       <c r="BA23">
         <v>-0.268</v>
       </c>
       <c r="BB23">
-        <v>-0.066025</v>
+        <v>-0.06605</v>
       </c>
       <c r="BC23">
         <v>0.0187</v>
@@ -4630,10 +4630,10 @@
         <v>696</v>
       </c>
       <c r="BG23">
-        <v>0.2837123932471264</v>
+        <v>0.2836454548850575</v>
       </c>
       <c r="BH23">
-        <v>0.5450304481184101</v>
+        <v>0.5449810586116921</v>
       </c>
       <c r="BI23">
         <v>-0.266</v>
@@ -4710,7 +4710,7 @@
         <v>3.11398132183908</v>
       </c>
       <c r="T24">
-        <v>0.8510740862992175</v>
+        <v>0.851049064650206</v>
       </c>
       <c r="U24">
         <v>0.475</v>
@@ -4731,10 +4731,10 @@
         <v>696</v>
       </c>
       <c r="AA24">
-        <v>37.00301724137931</v>
+        <v>37.00316091954023</v>
       </c>
       <c r="AB24">
-        <v>3.100713230505496</v>
+        <v>3.100455535334381</v>
       </c>
       <c r="AC24">
         <v>30</v>
@@ -4779,10 +4779,10 @@
         <v>696</v>
       </c>
       <c r="AQ24">
-        <v>1.085697844827586</v>
+        <v>1.085696408045977</v>
       </c>
       <c r="AR24">
-        <v>0.6177994698833551</v>
+        <v>0.617799852296738</v>
       </c>
       <c r="AS24">
         <v>0.0469</v>
@@ -4803,10 +4803,10 @@
         <v>696</v>
       </c>
       <c r="AY24">
-        <v>0.2175971494252875</v>
+        <v>0.2175504181034483</v>
       </c>
       <c r="AZ24">
-        <v>0.4236223605075169</v>
+        <v>0.4235724731513181</v>
       </c>
       <c r="BA24">
         <v>-0.285</v>
@@ -4815,7 +4815,7 @@
         <v>-0.068925</v>
       </c>
       <c r="BC24">
-        <v>0.01175</v>
+        <v>0.0117</v>
       </c>
       <c r="BD24">
         <v>0.42175</v>
@@ -4827,10 +4827,10 @@
         <v>696</v>
       </c>
       <c r="BG24">
-        <v>0.2646492313218389</v>
+        <v>0.2646133534482757</v>
       </c>
       <c r="BH24">
-        <v>0.51562428524147</v>
+        <v>0.515609007533624</v>
       </c>
       <c r="BI24">
         <v>-0.285</v>
@@ -4839,7 +4839,7 @@
         <v>-0.0396</v>
       </c>
       <c r="BK24">
-        <v>0.008035</v>
+        <v>0.008029999999999999</v>
       </c>
       <c r="BL24">
         <v>0.4935</v>
@@ -5000,10 +5000,10 @@
         <v>696</v>
       </c>
       <c r="AY25">
-        <v>0.1972105502873565</v>
+        <v>0.1971713548850577</v>
       </c>
       <c r="AZ25">
-        <v>0.370855504141318</v>
+        <v>0.3708377832584166</v>
       </c>
       <c r="BA25">
         <v>-0.294</v>
@@ -5012,7 +5012,7 @@
         <v>-0.0699</v>
       </c>
       <c r="BC25">
-        <v>0.01141</v>
+        <v>0.0114</v>
       </c>
       <c r="BD25">
         <v>0.411</v>
@@ -5024,10 +5024,10 @@
         <v>696</v>
       </c>
       <c r="BG25">
-        <v>0.239632987643678</v>
+        <v>0.2395571097701149</v>
       </c>
       <c r="BH25">
-        <v>0.4571081582988182</v>
+        <v>0.4570257138754891</v>
       </c>
       <c r="BI25">
         <v>-0.321</v>
@@ -5101,10 +5101,10 @@
         <v>696</v>
       </c>
       <c r="S26">
-        <v>2.941037356321835</v>
+        <v>2.941022988505743</v>
       </c>
       <c r="T26">
-        <v>0.8390158666567503</v>
+        <v>0.8389928182714413</v>
       </c>
       <c r="U26">
         <v>0.439</v>
@@ -5197,22 +5197,22 @@
         <v>696</v>
       </c>
       <c r="AY26">
-        <v>0.2150199655172415</v>
+        <v>0.2149817571839081</v>
       </c>
       <c r="AZ26">
-        <v>0.4407974742183299</v>
+        <v>0.4407831222019516</v>
       </c>
       <c r="BA26">
         <v>-0.315</v>
       </c>
       <c r="BB26">
-        <v>-0.080875</v>
+        <v>-0.08094999999999999</v>
       </c>
       <c r="BC26">
-        <v>0.005985</v>
+        <v>0.00598</v>
       </c>
       <c r="BD26">
-        <v>0.42075</v>
+        <v>0.4205</v>
       </c>
       <c r="BE26">
         <v>2.56</v>
@@ -5221,10 +5221,10 @@
         <v>696</v>
       </c>
       <c r="BG26">
-        <v>0.2579035646551726</v>
+        <v>0.2578530014367817</v>
       </c>
       <c r="BH26">
-        <v>0.5244701139174005</v>
+        <v>0.5244274001658222</v>
       </c>
       <c r="BI26">
         <v>-0.377</v>
@@ -5233,10 +5233,10 @@
         <v>-0.0455</v>
       </c>
       <c r="BK26">
-        <v>0.007215</v>
+        <v>0.00721</v>
       </c>
       <c r="BL26">
-        <v>0.47</v>
+        <v>0.4692499999999999</v>
       </c>
       <c r="BM26">
         <v>2.82</v>
@@ -5298,10 +5298,10 @@
         <v>696</v>
       </c>
       <c r="S27">
-        <v>2.885064655172414</v>
+        <v>2.885050287356323</v>
       </c>
       <c r="T27">
-        <v>0.8343096004977758</v>
+        <v>0.834322018504287</v>
       </c>
       <c r="U27">
         <v>0.436</v>
@@ -5322,10 +5322,10 @@
         <v>696</v>
       </c>
       <c r="AA27">
-        <v>36.79382183908042</v>
+        <v>36.79396551724133</v>
       </c>
       <c r="AB27">
-        <v>3.051859542556565</v>
+        <v>3.051758463521082</v>
       </c>
       <c r="AC27">
         <v>30</v>
@@ -5394,10 +5394,10 @@
         <v>696</v>
       </c>
       <c r="AY27">
-        <v>0.1980227557471262</v>
+        <v>0.1979835014367815</v>
       </c>
       <c r="AZ27">
-        <v>0.3736326537226787</v>
+        <v>0.3736138232791955</v>
       </c>
       <c r="BA27">
         <v>-0.31</v>
@@ -5418,25 +5418,25 @@
         <v>696</v>
       </c>
       <c r="BG27">
-        <v>0.2344942327586207</v>
+        <v>0.2344259109195404</v>
       </c>
       <c r="BH27">
-        <v>0.4493633413275522</v>
+        <v>0.4492586846244809</v>
       </c>
       <c r="BI27">
         <v>-0.386</v>
       </c>
       <c r="BJ27">
-        <v>-0.0399</v>
+        <v>-0.039975</v>
       </c>
       <c r="BK27">
-        <v>0.008730000000000002</v>
+        <v>0.008725</v>
       </c>
       <c r="BL27">
-        <v>0.43825</v>
+        <v>0.43725</v>
       </c>
       <c r="BM27">
-        <v>2.26</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="28" spans="1:65">
@@ -5495,10 +5495,10 @@
         <v>696</v>
       </c>
       <c r="S28">
-        <v>2.822301724137934</v>
+        <v>2.822316091954026</v>
       </c>
       <c r="T28">
-        <v>0.831422761362792</v>
+        <v>0.8314428824931931</v>
       </c>
       <c r="U28">
         <v>0.409</v>
@@ -5519,10 +5519,10 @@
         <v>696</v>
       </c>
       <c r="AA28">
-        <v>36.71810344827585</v>
+        <v>36.71824712643676</v>
       </c>
       <c r="AB28">
-        <v>3.083577268695705</v>
+        <v>3.083345436581293</v>
       </c>
       <c r="AC28">
         <v>30</v>
@@ -5543,10 +5543,10 @@
         <v>696</v>
       </c>
       <c r="AI28">
-        <v>99.76206896551713</v>
+        <v>99.76192528735622</v>
       </c>
       <c r="AJ28">
-        <v>27.0171700966213</v>
+        <v>27.01721010310951</v>
       </c>
       <c r="AK28">
         <v>52.9</v>
@@ -5591,10 +5591,10 @@
         <v>696</v>
       </c>
       <c r="AY28">
-        <v>0.2174263333333333</v>
+        <v>0.2173779468390804</v>
       </c>
       <c r="AZ28">
-        <v>0.4432659727689247</v>
+        <v>0.4432324265725375</v>
       </c>
       <c r="BA28">
         <v>-0.313</v>
@@ -5615,10 +5615,10 @@
         <v>696</v>
       </c>
       <c r="BG28">
-        <v>0.2553986839080461</v>
+        <v>0.2553487103448277</v>
       </c>
       <c r="BH28">
-        <v>0.5174367293489254</v>
+        <v>0.5174178334017833</v>
       </c>
       <c r="BI28">
         <v>-0.41</v>
@@ -5788,10 +5788,10 @@
         <v>696</v>
       </c>
       <c r="AY29">
-        <v>0.2449841537356323</v>
+        <v>0.2449443688218391</v>
       </c>
       <c r="AZ29">
-        <v>0.4843593465645443</v>
+        <v>0.4842777807765525</v>
       </c>
       <c r="BA29">
         <v>-0.307</v>
@@ -5803,7 +5803,7 @@
         <v>0.02205</v>
       </c>
       <c r="BD29">
-        <v>0.4425</v>
+        <v>0.44225</v>
       </c>
       <c r="BE29">
         <v>2.73</v>
@@ -5812,10 +5812,10 @@
         <v>696</v>
       </c>
       <c r="BG29">
-        <v>0.2833243770402299</v>
+        <v>0.2832701744109195</v>
       </c>
       <c r="BH29">
-        <v>0.5581908860037218</v>
+        <v>0.5581461479919622</v>
       </c>
       <c r="BI29">
         <v>-0.416</v>
@@ -5985,10 +5985,10 @@
         <v>696</v>
       </c>
       <c r="AY30">
-        <v>0.2572774022988505</v>
+        <v>0.2572468318965516</v>
       </c>
       <c r="AZ30">
-        <v>0.5017433421295708</v>
+        <v>0.5017346338698432</v>
       </c>
       <c r="BA30">
         <v>-0.303</v>
@@ -6009,10 +6009,10 @@
         <v>696</v>
       </c>
       <c r="BG30">
-        <v>0.2949868249999998</v>
+        <v>0.2949184931034483</v>
       </c>
       <c r="BH30">
-        <v>0.5742785160243626</v>
+        <v>0.5741986339834653</v>
       </c>
       <c r="BI30">
         <v>-0.426</v>
@@ -6182,10 +6182,10 @@
         <v>696</v>
       </c>
       <c r="AY31">
-        <v>0.2638089879310344</v>
+        <v>0.2637770830459769</v>
       </c>
       <c r="AZ31">
-        <v>0.4995482956164697</v>
+        <v>0.49953973871791</v>
       </c>
       <c r="BA31">
         <v>-0.295</v>
@@ -6206,10 +6206,10 @@
         <v>696</v>
       </c>
       <c r="BG31">
-        <v>0.2999150817528732</v>
+        <v>0.2998749829022985</v>
       </c>
       <c r="BH31">
-        <v>0.5709676796734948</v>
+        <v>0.5709211933120449</v>
       </c>
       <c r="BI31">
         <v>-0.424</v>
@@ -6379,10 +6379,10 @@
         <v>696</v>
       </c>
       <c r="AY32">
-        <v>0.2425190201149426</v>
+        <v>0.2424579626436781</v>
       </c>
       <c r="AZ32">
-        <v>0.4451116578284822</v>
+        <v>0.4450565284202227</v>
       </c>
       <c r="BA32">
         <v>-0.287</v>
@@ -6403,10 +6403,10 @@
         <v>696</v>
       </c>
       <c r="BG32">
-        <v>0.2746343893678161</v>
+        <v>0.2746090143678162</v>
       </c>
       <c r="BH32">
-        <v>0.5112410487421455</v>
+        <v>0.5112322974599187</v>
       </c>
       <c r="BI32">
         <v>-0.422</v>
@@ -6528,10 +6528,10 @@
         <v>696</v>
       </c>
       <c r="AI33">
-        <v>98.67715517241376</v>
+        <v>98.67701149425282</v>
       </c>
       <c r="AJ33">
-        <v>26.73485981189166</v>
+        <v>26.73494606824202</v>
       </c>
       <c r="AK33">
         <v>50.1</v>
@@ -6576,10 +6576,10 @@
         <v>696</v>
       </c>
       <c r="AY33">
-        <v>0.1886580301724138</v>
+        <v>0.1886131106321839</v>
       </c>
       <c r="AZ33">
-        <v>0.3271927221228385</v>
+        <v>0.3271732112192298</v>
       </c>
       <c r="BA33">
         <v>-0.279</v>
@@ -6600,10 +6600,10 @@
         <v>696</v>
       </c>
       <c r="BG33">
-        <v>0.2154953063218391</v>
+        <v>0.2154332104885058</v>
       </c>
       <c r="BH33">
-        <v>0.3913742811085344</v>
+        <v>0.3912914349916707</v>
       </c>
       <c r="BI33">
         <v>-0.42</v>
@@ -6773,10 +6773,10 @@
         <v>696</v>
       </c>
       <c r="AY34">
-        <v>0.155248860632184</v>
+        <v>0.1552042255747127</v>
       </c>
       <c r="AZ34">
-        <v>0.2610570493798683</v>
+        <v>0.2610236902520359</v>
       </c>
       <c r="BA34">
         <v>-0.269</v>
@@ -6797,10 +6797,10 @@
         <v>696</v>
       </c>
       <c r="BG34">
-        <v>0.1776946583333332</v>
+        <v>0.1776554676724137</v>
       </c>
       <c r="BH34">
-        <v>0.3299469413098498</v>
+        <v>0.3299205747882492</v>
       </c>
       <c r="BI34">
         <v>-0.399</v>
@@ -6850,10 +6850,10 @@
         <v>696</v>
       </c>
       <c r="K35">
-        <v>36.88936781609198</v>
+        <v>36.88994252873565</v>
       </c>
       <c r="L35">
-        <v>2.804395656010741</v>
+        <v>2.804613259659994</v>
       </c>
       <c r="M35">
         <v>29.9</v>
@@ -6862,7 +6862,7 @@
         <v>35.2</v>
       </c>
       <c r="O35">
-        <v>37.25</v>
+        <v>37.3</v>
       </c>
       <c r="P35">
         <v>38.925</v>
@@ -6874,10 +6874,10 @@
         <v>696</v>
       </c>
       <c r="S35">
-        <v>2.769420977011492</v>
+        <v>2.769897988505745</v>
       </c>
       <c r="T35">
-        <v>0.82384853645107</v>
+        <v>0.8239748946349972</v>
       </c>
       <c r="U35">
         <v>0.409</v>
@@ -6922,10 +6922,10 @@
         <v>696</v>
       </c>
       <c r="AI35">
-        <v>99.09583333333333</v>
+        <v>99.09626436781608</v>
       </c>
       <c r="AJ35">
-        <v>26.79694060484098</v>
+        <v>26.79667944336463</v>
       </c>
       <c r="AK35">
         <v>50.9</v>
@@ -6946,10 +6946,10 @@
         <v>696</v>
       </c>
       <c r="AQ35">
-        <v>1.048771839080462</v>
+        <v>1.048790517241382</v>
       </c>
       <c r="AR35">
-        <v>0.5974977444803107</v>
+        <v>0.5975050081695099</v>
       </c>
       <c r="AS35">
         <v>0.045</v>
@@ -6970,10 +6970,10 @@
         <v>696</v>
       </c>
       <c r="AY35">
-        <v>0.1841177040229886</v>
+        <v>0.1840880215517242</v>
       </c>
       <c r="AZ35">
-        <v>0.3080890623199891</v>
+        <v>0.3080834218356884</v>
       </c>
       <c r="BA35">
         <v>-0.248</v>
@@ -6982,7 +6982,7 @@
         <v>-0.020825</v>
       </c>
       <c r="BC35">
-        <v>0.04535</v>
+        <v>0.0453</v>
       </c>
       <c r="BD35">
         <v>0.38925</v>
@@ -6994,10 +6994,10 @@
         <v>696</v>
       </c>
       <c r="BG35">
-        <v>0.209406220402299</v>
+        <v>0.2093724574712645</v>
       </c>
       <c r="BH35">
-        <v>0.4072115734332507</v>
+        <v>0.4072060808054875</v>
       </c>
       <c r="BI35">
         <v>-0.358</v>
@@ -7071,10 +7071,10 @@
         <v>696</v>
       </c>
       <c r="S36">
-        <v>2.746188218390802</v>
+        <v>2.746202586206894</v>
       </c>
       <c r="T36">
-        <v>0.8220598643882169</v>
+        <v>0.8220381394951636</v>
       </c>
       <c r="U36">
         <v>0.405</v>
@@ -7119,10 +7119,10 @@
         <v>696</v>
       </c>
       <c r="AI36">
-        <v>98.94885057471264</v>
+        <v>98.94870689655171</v>
       </c>
       <c r="AJ36">
-        <v>26.72840697991771</v>
+        <v>26.72845919052534</v>
       </c>
       <c r="AK36">
         <v>50.8</v>
@@ -7167,10 +7167,10 @@
         <v>696</v>
       </c>
       <c r="AY36">
-        <v>0.1895362291666667</v>
+        <v>0.1895006946839081</v>
       </c>
       <c r="AZ36">
-        <v>0.3338557276637905</v>
+        <v>0.333847928650248</v>
       </c>
       <c r="BA36">
         <v>-0.252</v>
@@ -7191,16 +7191,16 @@
         <v>696</v>
       </c>
       <c r="BG36">
-        <v>0.2142041159482759</v>
+        <v>0.2141392165229884</v>
       </c>
       <c r="BH36">
-        <v>0.431827258353556</v>
+        <v>0.431786557059478</v>
       </c>
       <c r="BI36">
         <v>-0.395</v>
       </c>
       <c r="BJ36">
-        <v>-0.02745</v>
+        <v>-0.027475</v>
       </c>
       <c r="BK36">
         <v>0.0178</v>
@@ -7316,10 +7316,10 @@
         <v>696</v>
       </c>
       <c r="AI37">
-        <v>98.65818965517248</v>
+        <v>98.65804597701155</v>
       </c>
       <c r="AJ37">
-        <v>26.72017784476862</v>
+        <v>26.72019781252246</v>
       </c>
       <c r="AK37">
         <v>49.9</v>
@@ -7364,10 +7364,10 @@
         <v>696</v>
       </c>
       <c r="AY37">
-        <v>0.1623129942528737</v>
+        <v>0.1622567126436782</v>
       </c>
       <c r="AZ37">
-        <v>0.2913734959329321</v>
+        <v>0.2913495818482036</v>
       </c>
       <c r="BA37">
         <v>-0.266</v>
@@ -7388,22 +7388,22 @@
         <v>696</v>
       </c>
       <c r="BG37">
-        <v>0.1818225061781608</v>
+        <v>0.1817792806034482</v>
       </c>
       <c r="BH37">
-        <v>0.368354913258706</v>
+        <v>0.3683297148819878</v>
       </c>
       <c r="BI37">
         <v>-0.417</v>
       </c>
       <c r="BJ37">
-        <v>-0.031725</v>
+        <v>-0.031825</v>
       </c>
       <c r="BK37">
         <v>0.0155</v>
       </c>
       <c r="BL37">
-        <v>0.345</v>
+        <v>0.3442499999999999</v>
       </c>
       <c r="BM37">
         <v>1.73</v>
@@ -7465,10 +7465,10 @@
         <v>696</v>
       </c>
       <c r="S38">
-        <v>2.702061781609193</v>
+        <v>2.702076149425285</v>
       </c>
       <c r="T38">
-        <v>0.8157481346586843</v>
+        <v>0.8157264908423567</v>
       </c>
       <c r="U38">
         <v>0.401</v>
@@ -7561,10 +7561,10 @@
         <v>696</v>
       </c>
       <c r="AY38">
-        <v>0.1531838247126437</v>
+        <v>0.1531411767241379</v>
       </c>
       <c r="AZ38">
-        <v>0.2817691960058076</v>
+        <v>0.2817488983958528</v>
       </c>
       <c r="BA38">
         <v>-0.269</v>
@@ -7573,7 +7573,7 @@
         <v>-0.0438</v>
       </c>
       <c r="BC38">
-        <v>0.03295</v>
+        <v>0.0329</v>
       </c>
       <c r="BD38">
         <v>0.37125</v>
@@ -7585,22 +7585,22 @@
         <v>696</v>
       </c>
       <c r="BG38">
-        <v>0.1732407015804596</v>
+        <v>0.1731937330459769</v>
       </c>
       <c r="BH38">
-        <v>0.3618900210471405</v>
+        <v>0.3618683993689381</v>
       </c>
       <c r="BI38">
         <v>-0.421</v>
       </c>
       <c r="BJ38">
-        <v>-0.031725</v>
+        <v>-0.03175</v>
       </c>
       <c r="BK38">
         <v>0.01395</v>
       </c>
       <c r="BL38">
-        <v>0.3235</v>
+        <v>0.32275</v>
       </c>
       <c r="BM38">
         <v>1.69</v>
@@ -7758,10 +7758,10 @@
         <v>696</v>
       </c>
       <c r="AY39">
-        <v>0.1546175258620688</v>
+        <v>0.1545781997126436</v>
       </c>
       <c r="AZ39">
-        <v>0.2874307995015747</v>
+        <v>0.2874097897078535</v>
       </c>
       <c r="BA39">
         <v>-0.276</v>
@@ -7770,7 +7770,7 @@
         <v>-0.045025</v>
       </c>
       <c r="BC39">
-        <v>0.03145</v>
+        <v>0.0314</v>
       </c>
       <c r="BD39">
         <v>0.36875</v>
@@ -7782,10 +7782,10 @@
         <v>696</v>
       </c>
       <c r="BG39">
-        <v>0.1743849089080462</v>
+        <v>0.1743391041666668</v>
       </c>
       <c r="BH39">
-        <v>0.3683735255508064</v>
+        <v>0.3683534955124163</v>
       </c>
       <c r="BI39">
         <v>-0.432</v>
@@ -7794,7 +7794,7 @@
         <v>-0.032375</v>
       </c>
       <c r="BK39">
-        <v>0.01295</v>
+        <v>0.0129</v>
       </c>
       <c r="BL39">
         <v>0.3185</v>
@@ -7859,10 +7859,10 @@
         <v>696</v>
       </c>
       <c r="S40">
-        <v>2.667693965517244</v>
+        <v>2.667708333333336</v>
       </c>
       <c r="T40">
-        <v>0.8135042821027447</v>
+        <v>0.8134964519886249</v>
       </c>
       <c r="U40">
         <v>0.395</v>
@@ -7931,10 +7931,10 @@
         <v>696</v>
       </c>
       <c r="AQ40">
-        <v>1.038028735632185</v>
+        <v>1.038030172413794</v>
       </c>
       <c r="AR40">
-        <v>0.5912571002025958</v>
+        <v>0.5912557166607348</v>
       </c>
       <c r="AS40">
         <v>0.0445</v>
@@ -7955,10 +7955,10 @@
         <v>696</v>
       </c>
       <c r="AY40">
-        <v>0.1536946564655173</v>
+        <v>0.1536515341954024</v>
       </c>
       <c r="AZ40">
-        <v>0.282999121611493</v>
+        <v>0.2829850400827024</v>
       </c>
       <c r="BA40">
         <v>-0.278</v>
@@ -7967,7 +7967,7 @@
         <v>-0.042575</v>
       </c>
       <c r="BC40">
-        <v>0.03365</v>
+        <v>0.0336</v>
       </c>
       <c r="BD40">
         <v>0.372</v>
@@ -7979,10 +7979,10 @@
         <v>696</v>
       </c>
       <c r="BG40">
-        <v>0.1725475306034482</v>
+        <v>0.1724990369252872</v>
       </c>
       <c r="BH40">
-        <v>0.3621255643947168</v>
+        <v>0.3621146717186184</v>
       </c>
       <c r="BI40">
         <v>-0.434</v>
@@ -8056,10 +8056,10 @@
         <v>696</v>
       </c>
       <c r="S41">
-        <v>2.65587931034483</v>
+        <v>2.655893678160922</v>
       </c>
       <c r="T41">
-        <v>0.8129233948194036</v>
+        <v>0.812919308190574</v>
       </c>
       <c r="U41">
         <v>0.392</v>
@@ -8080,10 +8080,10 @@
         <v>696</v>
       </c>
       <c r="AA41">
-        <v>36.61839080459771</v>
+        <v>36.61853448275863</v>
       </c>
       <c r="AB41">
-        <v>2.938027674375674</v>
+        <v>2.937813728582059</v>
       </c>
       <c r="AC41">
         <v>30</v>
@@ -8152,16 +8152,16 @@
         <v>696</v>
       </c>
       <c r="AY41">
-        <v>0.1577228556034483</v>
+        <v>0.1576915147988507</v>
       </c>
       <c r="AZ41">
-        <v>0.2899703447253545</v>
+        <v>0.2899582759041945</v>
       </c>
       <c r="BA41">
         <v>-0.28</v>
       </c>
       <c r="BB41">
-        <v>-0.0409</v>
+        <v>-0.041</v>
       </c>
       <c r="BC41">
         <v>0.03535</v>
@@ -8176,10 +8176,10 @@
         <v>696</v>
       </c>
       <c r="BG41">
-        <v>0.176919711494253</v>
+        <v>0.1768762264367816</v>
       </c>
       <c r="BH41">
-        <v>0.3726532653474788</v>
+        <v>0.3726388045909151</v>
       </c>
       <c r="BI41">
         <v>-0.437</v>
@@ -8188,7 +8188,7 @@
         <v>-0.029925</v>
       </c>
       <c r="BK41">
-        <v>0.01595</v>
+        <v>0.0159</v>
       </c>
       <c r="BL41">
         <v>0.319</v>
@@ -8325,10 +8325,10 @@
         <v>696</v>
       </c>
       <c r="AQ42">
-        <v>1.035682327586208</v>
+        <v>1.0356966954023</v>
       </c>
       <c r="AR42">
-        <v>0.5893501842477424</v>
+        <v>0.5893657922690945</v>
       </c>
       <c r="AS42">
         <v>0.0444</v>
@@ -8349,10 +8349,10 @@
         <v>696</v>
       </c>
       <c r="AY42">
-        <v>0.1904468692528736</v>
+        <v>0.1904054798850576</v>
       </c>
       <c r="AZ42">
-        <v>0.3193792173046597</v>
+        <v>0.3193622979811951</v>
       </c>
       <c r="BA42">
         <v>-0.27</v>
@@ -8361,7 +8361,7 @@
         <v>-0.027425</v>
       </c>
       <c r="BC42">
-        <v>0.04685</v>
+        <v>0.0468</v>
       </c>
       <c r="BD42">
         <v>0.41675</v>
@@ -8373,10 +8373,10 @@
         <v>696</v>
       </c>
       <c r="BG42">
-        <v>0.2106203652298853</v>
+        <v>0.2105955004310347</v>
       </c>
       <c r="BH42">
-        <v>0.4004352992549846</v>
+        <v>0.4004316127021207</v>
       </c>
       <c r="BI42">
         <v>-0.422</v>
@@ -8474,10 +8474,10 @@
         <v>696</v>
       </c>
       <c r="AA43">
-        <v>36.51767241379308</v>
+        <v>36.517816091954</v>
       </c>
       <c r="AB43">
-        <v>3.045839863457671</v>
+        <v>3.045619352130466</v>
       </c>
       <c r="AC43">
         <v>30</v>
@@ -8546,10 +8546,10 @@
         <v>696</v>
       </c>
       <c r="AY43">
-        <v>0.2450068304597701</v>
+        <v>0.2449772327586208</v>
       </c>
       <c r="AZ43">
-        <v>0.4339818340141129</v>
+        <v>0.4339693131839342</v>
       </c>
       <c r="BA43">
         <v>-0.272</v>
@@ -8558,7 +8558,7 @@
         <v>-0.027725</v>
       </c>
       <c r="BC43">
-        <v>0.07580000000000001</v>
+        <v>0.07575000000000001</v>
       </c>
       <c r="BD43">
         <v>0.47</v>
@@ -8570,10 +8570,10 @@
         <v>696</v>
       </c>
       <c r="BG43">
-        <v>0.2689891522988507</v>
+        <v>0.2689581034482759</v>
       </c>
       <c r="BH43">
-        <v>0.5027686335452387</v>
+        <v>0.502759674698257</v>
       </c>
       <c r="BI43">
         <v>-0.425</v>
@@ -8582,7 +8582,7 @@
         <v>-0.01875</v>
       </c>
       <c r="BK43">
-        <v>0.0368</v>
+        <v>0.03675</v>
       </c>
       <c r="BL43">
         <v>0.395</v>
@@ -8743,10 +8743,10 @@
         <v>696</v>
       </c>
       <c r="AY44">
-        <v>0.2690751623563216</v>
+        <v>0.2690328893678159</v>
       </c>
       <c r="AZ44">
-        <v>0.4837757138600559</v>
+        <v>0.483729591927914</v>
       </c>
       <c r="BA44">
         <v>-0.284</v>
@@ -8767,10 +8767,10 @@
         <v>696</v>
       </c>
       <c r="BG44">
-        <v>0.2947468347701147</v>
+        <v>0.2947062557471262</v>
       </c>
       <c r="BH44">
-        <v>0.548822945271353</v>
+        <v>0.5488096838319286</v>
       </c>
       <c r="BI44">
         <v>-0.444</v>
@@ -8916,10 +8916,10 @@
         <v>696</v>
       </c>
       <c r="AQ45">
-        <v>1.029181321839083</v>
+        <v>1.029195689655175</v>
       </c>
       <c r="AR45">
-        <v>0.5845431175327797</v>
+        <v>0.5845570447784366</v>
       </c>
       <c r="AS45">
         <v>0.0443</v>
@@ -8940,10 +8940,10 @@
         <v>696</v>
       </c>
       <c r="AY45">
-        <v>0.2804740211206896</v>
+        <v>0.2804347251436781</v>
       </c>
       <c r="AZ45">
-        <v>0.5016562454082648</v>
+        <v>0.5016534762343375</v>
       </c>
       <c r="BA45">
         <v>-0.283</v>
@@ -8952,7 +8952,7 @@
         <v>-0.030225</v>
       </c>
       <c r="BC45">
-        <v>0.07565</v>
+        <v>0.0756</v>
       </c>
       <c r="BD45">
         <v>0.5095000000000001</v>
@@ -8964,10 +8964,10 @@
         <v>696</v>
       </c>
       <c r="BG45">
-        <v>0.3053522337643678</v>
+        <v>0.3053100354885057</v>
       </c>
       <c r="BH45">
-        <v>0.5641508766859518</v>
+        <v>0.5641405097310015</v>
       </c>
       <c r="BI45">
         <v>-0.442</v>
@@ -8976,10 +8976,10 @@
         <v>-0.0203</v>
       </c>
       <c r="BK45">
-        <v>0.04515</v>
+        <v>0.0451</v>
       </c>
       <c r="BL45">
-        <v>0.39875</v>
+        <v>0.3985</v>
       </c>
       <c r="BM45">
         <v>2.82</v>
@@ -9065,10 +9065,10 @@
         <v>696</v>
       </c>
       <c r="AA46">
-        <v>36.43893678160914</v>
+        <v>36.43908045977006</v>
       </c>
       <c r="AB46">
-        <v>3.089069803231241</v>
+        <v>3.088856045725462</v>
       </c>
       <c r="AC46">
         <v>30</v>
@@ -9137,10 +9137,10 @@
         <v>696</v>
       </c>
       <c r="AY46">
-        <v>0.2800360847701148</v>
+        <v>0.2799983405172413</v>
       </c>
       <c r="AZ46">
-        <v>0.5032150762051246</v>
+        <v>0.5031718945868054</v>
       </c>
       <c r="BA46">
         <v>-0.292</v>
@@ -9161,10 +9161,10 @@
         <v>696</v>
       </c>
       <c r="BG46">
-        <v>0.3045524094827592</v>
+        <v>0.3045017629310351</v>
       </c>
       <c r="BH46">
-        <v>0.5642278705815983</v>
+        <v>0.5641533724750474</v>
       </c>
       <c r="BI46">
         <v>-0.455</v>
@@ -9262,10 +9262,10 @@
         <v>696</v>
       </c>
       <c r="AA47">
-        <v>36.42471264367814</v>
+        <v>36.42485632183907</v>
       </c>
       <c r="AB47">
-        <v>3.085108102423393</v>
+        <v>3.08502066400089</v>
       </c>
       <c r="AC47">
         <v>30</v>
@@ -9334,10 +9334,10 @@
         <v>696</v>
       </c>
       <c r="AY47">
-        <v>0.2805167816091952</v>
+        <v>0.2804688074712643</v>
       </c>
       <c r="AZ47">
-        <v>0.5054144188584327</v>
+        <v>0.5053662717553246</v>
       </c>
       <c r="BA47">
         <v>-0.294</v>
@@ -9358,10 +9358,10 @@
         <v>696</v>
       </c>
       <c r="BG47">
-        <v>0.3039297887931034</v>
+        <v>0.3038905071839081</v>
       </c>
       <c r="BH47">
-        <v>0.5639184890400487</v>
+        <v>0.5638947857968059</v>
       </c>
       <c r="BI47">
         <v>-0.458</v>
@@ -9435,10 +9435,10 @@
         <v>696</v>
       </c>
       <c r="S48">
-        <v>2.565696839080461</v>
+        <v>2.565682471264369</v>
       </c>
       <c r="T48">
-        <v>0.8184596438046026</v>
+        <v>0.8184120128464859</v>
       </c>
       <c r="U48">
         <v>0.362</v>
@@ -9531,10 +9531,10 @@
         <v>696</v>
       </c>
       <c r="AY48">
-        <v>0.2738995301724135</v>
+        <v>0.273835909195402</v>
       </c>
       <c r="AZ48">
-        <v>0.4933134035256019</v>
+        <v>0.4932162462594263</v>
       </c>
       <c r="BA48">
         <v>-0.301</v>
@@ -9555,10 +9555,10 @@
         <v>696</v>
       </c>
       <c r="BG48">
-        <v>0.2964277308908045</v>
+        <v>0.2963741818965516</v>
       </c>
       <c r="BH48">
-        <v>0.5508535651428631</v>
+        <v>0.5508224291932448</v>
       </c>
       <c r="BI48">
         <v>-0.469</v>
@@ -9567,7 +9567,7 @@
         <v>-0.02195</v>
       </c>
       <c r="BK48">
-        <v>0.04385</v>
+        <v>0.04380000000000001</v>
       </c>
       <c r="BL48">
         <v>0.40125</v>
@@ -9728,10 +9728,10 @@
         <v>696</v>
       </c>
       <c r="AY49">
-        <v>0.227308741235632</v>
+        <v>0.2272697280172411</v>
       </c>
       <c r="AZ49">
-        <v>0.3800342387726425</v>
+        <v>0.3800202054781404</v>
       </c>
       <c r="BA49">
         <v>-0.312</v>
@@ -9740,7 +9740,7 @@
         <v>-0.03645</v>
       </c>
       <c r="BC49">
-        <v>0.07145</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="BD49">
         <v>0.48925</v>
@@ -9752,10 +9752,10 @@
         <v>696</v>
       </c>
       <c r="BG49">
-        <v>0.2476828418103449</v>
+        <v>0.2476469895114944</v>
       </c>
       <c r="BH49">
-        <v>0.449232513853271</v>
+        <v>0.4492216691543893</v>
       </c>
       <c r="BI49">
         <v>-0.486</v>
@@ -9925,10 +9925,10 @@
         <v>696</v>
       </c>
       <c r="AY50">
-        <v>0.2082861063218389</v>
+        <v>0.2082488318965516</v>
       </c>
       <c r="AZ50">
-        <v>0.3532370004453469</v>
+        <v>0.3532203661580838</v>
       </c>
       <c r="BA50">
         <v>-0.318</v>
@@ -9937,10 +9937,10 @@
         <v>-0.03615</v>
       </c>
       <c r="BC50">
-        <v>0.07225000000000001</v>
+        <v>0.07214999999999999</v>
       </c>
       <c r="BD50">
-        <v>0.4765</v>
+        <v>0.47625</v>
       </c>
       <c r="BE50">
         <v>1.38</v>
@@ -9949,10 +9949,10 @@
         <v>696</v>
       </c>
       <c r="BG50">
-        <v>0.2261194137931038</v>
+        <v>0.22606946408046</v>
       </c>
       <c r="BH50">
-        <v>0.4226447193993377</v>
+        <v>0.4226036515103323</v>
       </c>
       <c r="BI50">
         <v>-0.495</v>
@@ -10098,10 +10098,10 @@
         <v>696</v>
       </c>
       <c r="AQ51">
-        <v>1.019760488505746</v>
+        <v>1.019761925287355</v>
       </c>
       <c r="AR51">
-        <v>0.5797857155179064</v>
+        <v>0.5797850324042776</v>
       </c>
       <c r="AS51">
         <v>0.0438</v>
@@ -10122,10 +10122,10 @@
         <v>696</v>
       </c>
       <c r="AY51">
-        <v>0.2295841551724135</v>
+        <v>0.2295442413793101</v>
       </c>
       <c r="AZ51">
-        <v>0.3938086198394423</v>
+        <v>0.3937968356462037</v>
       </c>
       <c r="BA51">
         <v>-0.31</v>
@@ -10134,7 +10134,7 @@
         <v>-0.025225</v>
       </c>
       <c r="BC51">
-        <v>0.07765</v>
+        <v>0.0776</v>
       </c>
       <c r="BD51">
         <v>0.4765</v>
@@ -10146,10 +10146,10 @@
         <v>696</v>
       </c>
       <c r="BG51">
-        <v>0.2467953002873564</v>
+        <v>0.246760801724138</v>
       </c>
       <c r="BH51">
-        <v>0.4551402831273301</v>
+        <v>0.4551308195694293</v>
       </c>
       <c r="BI51">
         <v>-0.482</v>
@@ -10158,7 +10158,7 @@
         <v>-0.0193</v>
       </c>
       <c r="BK51">
-        <v>0.04595</v>
+        <v>0.04585</v>
       </c>
       <c r="BL51">
         <v>0.36675</v>
@@ -10226,7 +10226,7 @@
         <v>2.536739942528732</v>
       </c>
       <c r="T52">
-        <v>0.8130352385839598</v>
+        <v>0.8130226734382013</v>
       </c>
       <c r="U52">
         <v>0.36</v>
@@ -10319,10 +10319,10 @@
         <v>696</v>
       </c>
       <c r="AY52">
-        <v>0.2416883428160922</v>
+        <v>0.2416574419540232</v>
       </c>
       <c r="AZ52">
-        <v>0.4010366090785973</v>
+        <v>0.4010301104086025</v>
       </c>
       <c r="BA52">
         <v>-0.301</v>
@@ -10334,7 +10334,7 @@
         <v>0.08315</v>
       </c>
       <c r="BD52">
-        <v>0.48325</v>
+        <v>0.4825</v>
       </c>
       <c r="BE52">
         <v>1.98</v>
@@ -10343,10 +10343,10 @@
         <v>696</v>
       </c>
       <c r="BG52">
-        <v>0.2598052320402303</v>
+        <v>0.2597434303160923</v>
       </c>
       <c r="BH52">
-        <v>0.463824457574831</v>
+        <v>0.4637257890710539</v>
       </c>
       <c r="BI52">
         <v>-0.469</v>
@@ -10444,10 +10444,10 @@
         <v>696</v>
       </c>
       <c r="AA53">
-        <v>36.44281609195404</v>
+        <v>36.44310344827588</v>
       </c>
       <c r="AB53">
-        <v>2.985910338142143</v>
+        <v>2.985742354107332</v>
       </c>
       <c r="AC53">
         <v>29.9</v>
@@ -10516,10 +10516,10 @@
         <v>696</v>
       </c>
       <c r="AY53">
-        <v>0.2089972212643676</v>
+        <v>0.2089702672413792</v>
       </c>
       <c r="AZ53">
-        <v>0.3526020087628828</v>
+        <v>0.3525864084378588</v>
       </c>
       <c r="BA53">
         <v>-0.315</v>
@@ -10540,10 +10540,10 @@
         <v>696</v>
       </c>
       <c r="BG53">
-        <v>0.225097416666667</v>
+        <v>0.225061324712644</v>
       </c>
       <c r="BH53">
-        <v>0.406763347629151</v>
+        <v>0.4067500531996313</v>
       </c>
       <c r="BI53">
         <v>-0.489</v>
@@ -10552,7 +10552,7 @@
         <v>-0.021025</v>
       </c>
       <c r="BK53">
-        <v>0.0461</v>
+        <v>0.04604999999999999</v>
       </c>
       <c r="BL53">
         <v>0.37925</v>
@@ -10665,10 +10665,10 @@
         <v>696</v>
       </c>
       <c r="AI54">
-        <v>96.26034482758627</v>
+        <v>96.26048850574718</v>
       </c>
       <c r="AJ54">
-        <v>26.18501810971501</v>
+        <v>26.184889470753</v>
       </c>
       <c r="AK54">
         <v>42.8</v>
@@ -10713,10 +10713,10 @@
         <v>696</v>
       </c>
       <c r="AY54">
-        <v>0.2177478247126437</v>
+        <v>0.2177246781609196</v>
       </c>
       <c r="AZ54">
-        <v>0.4110061098804842</v>
+        <v>0.4109942556602684</v>
       </c>
       <c r="BA54">
         <v>-0.322</v>
@@ -10737,10 +10737,10 @@
         <v>696</v>
       </c>
       <c r="BG54">
-        <v>0.2353001681034483</v>
+        <v>0.2352723663793102</v>
       </c>
       <c r="BH54">
-        <v>0.4565690515917897</v>
+        <v>0.4565595597444841</v>
       </c>
       <c r="BI54">
         <v>-0.5</v>
@@ -10749,7 +10749,7 @@
         <v>-0.021925</v>
       </c>
       <c r="BK54">
-        <v>0.0433</v>
+        <v>0.04325</v>
       </c>
       <c r="BL54">
         <v>0.3975</v>
@@ -10814,10 +10814,10 @@
         <v>696</v>
       </c>
       <c r="S55">
-        <v>2.493998563218388</v>
+        <v>2.493998563218387</v>
       </c>
       <c r="T55">
-        <v>0.8040401928091706</v>
+        <v>0.8040049384208571</v>
       </c>
       <c r="U55">
         <v>0.359</v>
@@ -10910,10 +10910,10 @@
         <v>696</v>
       </c>
       <c r="AY55">
-        <v>0.1767741129310344</v>
+        <v>0.1767368683908045</v>
       </c>
       <c r="AZ55">
-        <v>0.3084690547166974</v>
+        <v>0.3084399930430025</v>
       </c>
       <c r="BA55">
         <v>-0.331</v>
@@ -10922,7 +10922,7 @@
         <v>-0.034125</v>
       </c>
       <c r="BC55">
-        <v>0.0531</v>
+        <v>0.05305</v>
       </c>
       <c r="BD55">
         <v>0.37925</v>
@@ -10934,10 +10934,10 @@
         <v>696</v>
       </c>
       <c r="BG55">
-        <v>0.192530117241379</v>
+        <v>0.192503619827586</v>
       </c>
       <c r="BH55">
-        <v>0.362418238387172</v>
+        <v>0.3624044115128</v>
       </c>
       <c r="BI55">
         <v>-0.515</v>
@@ -10987,10 +10987,10 @@
         <v>696</v>
       </c>
       <c r="K56">
-        <v>36.70287356321839</v>
+        <v>36.70172413793104</v>
       </c>
       <c r="L56">
-        <v>2.777078391515771</v>
+        <v>2.776954993776398</v>
       </c>
       <c r="M56">
         <v>29.9</v>
@@ -11011,10 +11011,10 @@
         <v>696</v>
       </c>
       <c r="S56">
-        <v>2.582791666666667</v>
+        <v>2.581316091954024</v>
       </c>
       <c r="T56">
-        <v>0.810527682094355</v>
+        <v>0.8105548969374675</v>
       </c>
       <c r="U56">
         <v>0.373</v>
@@ -11026,7 +11026,7 @@
         <v>2.485</v>
       </c>
       <c r="X56">
-        <v>3.1525</v>
+        <v>3.145</v>
       </c>
       <c r="Y56">
         <v>4.03</v>
@@ -11035,10 +11035,10 @@
         <v>696</v>
       </c>
       <c r="AA56">
-        <v>36.48764367816092</v>
+        <v>36.48793103448277</v>
       </c>
       <c r="AB56">
-        <v>2.950813504618531</v>
+        <v>2.950624521307391</v>
       </c>
       <c r="AC56">
         <v>29.9</v>
@@ -11059,10 +11059,10 @@
         <v>696</v>
       </c>
       <c r="AI56">
-        <v>96.75589080459773</v>
+        <v>96.74870689655175</v>
       </c>
       <c r="AJ56">
-        <v>26.2440547799241</v>
+        <v>26.24053700857013</v>
       </c>
       <c r="AK56">
         <v>42.8</v>
@@ -11083,10 +11083,10 @@
         <v>696</v>
       </c>
       <c r="AQ56">
-        <v>1.023059051724138</v>
+        <v>1.023031752873563</v>
       </c>
       <c r="AR56">
-        <v>0.5822142481407443</v>
+        <v>0.5822090320164464</v>
       </c>
       <c r="AS56">
         <v>0.0436</v>
@@ -11107,19 +11107,19 @@
         <v>696</v>
       </c>
       <c r="AY56">
-        <v>0.1915442958333333</v>
+        <v>0.1914819778735633</v>
       </c>
       <c r="AZ56">
-        <v>0.2801322336954836</v>
+        <v>0.2800673818419968</v>
       </c>
       <c r="BA56">
         <v>-0.286</v>
       </c>
       <c r="BB56">
-        <v>-0.0034625</v>
+        <v>-0.003455</v>
       </c>
       <c r="BC56">
-        <v>0.08245</v>
+        <v>0.08235000000000001</v>
       </c>
       <c r="BD56">
         <v>0.38525</v>
@@ -11131,10 +11131,10 @@
         <v>696</v>
       </c>
       <c r="BG56">
-        <v>0.2049008349137932</v>
+        <v>0.2048103681034482</v>
       </c>
       <c r="BH56">
-        <v>0.3466951563235329</v>
+        <v>0.3466163591769749</v>
       </c>
       <c r="BI56">
         <v>-0.445</v>
@@ -11143,7 +11143,7 @@
         <v>-0.0027875</v>
       </c>
       <c r="BK56">
-        <v>0.0495</v>
+        <v>0.04944999999999999</v>
       </c>
       <c r="BL56">
         <v>0.3575</v>
@@ -11304,10 +11304,10 @@
         <v>696</v>
       </c>
       <c r="AY57">
-        <v>0.1899586724137932</v>
+        <v>0.189907375</v>
       </c>
       <c r="AZ57">
-        <v>0.2946541056816001</v>
+        <v>0.2946217259062372</v>
       </c>
       <c r="BA57">
         <v>-0.277</v>
@@ -11316,7 +11316,7 @@
         <v>-0.010975</v>
       </c>
       <c r="BC57">
-        <v>0.08235000000000001</v>
+        <v>0.08230000000000001</v>
       </c>
       <c r="BD57">
         <v>0.387</v>
@@ -11328,10 +11328,10 @@
         <v>696</v>
       </c>
       <c r="BG57">
-        <v>0.2045550747126435</v>
+        <v>0.2044912945402299</v>
       </c>
       <c r="BH57">
-        <v>0.352569191338469</v>
+        <v>0.3525037134644964</v>
       </c>
       <c r="BI57">
         <v>-0.432</v>
@@ -11343,7 +11343,7 @@
         <v>0.049</v>
       </c>
       <c r="BL57">
-        <v>0.357</v>
+        <v>0.35625</v>
       </c>
       <c r="BM57">
         <v>1.38</v>
@@ -11453,10 +11453,10 @@
         <v>696</v>
       </c>
       <c r="AI58">
-        <v>96.99238505747125</v>
+        <v>96.99252873563216</v>
       </c>
       <c r="AJ58">
-        <v>26.53066827645704</v>
+        <v>26.53062249008494</v>
       </c>
       <c r="AK58">
         <v>44</v>
@@ -11477,10 +11477,10 @@
         <v>696</v>
       </c>
       <c r="AQ58">
-        <v>1.025816666666668</v>
+        <v>1.025815229885059</v>
       </c>
       <c r="AR58">
-        <v>0.5854072178532036</v>
+        <v>0.5854083713649137</v>
       </c>
       <c r="AS58">
         <v>0.044</v>
@@ -11501,10 +11501,10 @@
         <v>696</v>
       </c>
       <c r="AY58">
-        <v>0.1681019517241381</v>
+        <v>0.1680500820402301</v>
       </c>
       <c r="AZ58">
-        <v>0.307978680264434</v>
+        <v>0.3078998474063068</v>
       </c>
       <c r="BA58">
         <v>-0.299</v>
@@ -11525,16 +11525,16 @@
         <v>696</v>
       </c>
       <c r="BG58">
-        <v>0.1825985237068965</v>
+        <v>0.1825410077586207</v>
       </c>
       <c r="BH58">
-        <v>0.3497013626873986</v>
+        <v>0.3496157215746783</v>
       </c>
       <c r="BI58">
         <v>-0.465</v>
       </c>
       <c r="BJ58">
-        <v>-0.016625</v>
+        <v>-0.0167</v>
       </c>
       <c r="BK58">
         <v>0.0418</v>
@@ -11602,10 +11602,10 @@
         <v>696</v>
       </c>
       <c r="S59">
-        <v>2.547012931034483</v>
+        <v>2.547027298850575</v>
       </c>
       <c r="T59">
-        <v>0.8056451375154766</v>
+        <v>0.8056615320900402</v>
       </c>
       <c r="U59">
         <v>0.37</v>
@@ -11674,10 +11674,10 @@
         <v>696</v>
       </c>
       <c r="AQ59">
-        <v>1.022805172413794</v>
+        <v>1.022819540229886</v>
       </c>
       <c r="AR59">
-        <v>0.5839414095983525</v>
+        <v>0.5839557546980495</v>
       </c>
       <c r="AS59">
         <v>0.0438</v>
@@ -11698,10 +11698,10 @@
         <v>696</v>
       </c>
       <c r="AY59">
-        <v>0.1669565010057472</v>
+        <v>0.1669321535919541</v>
       </c>
       <c r="AZ59">
-        <v>0.3452380787755803</v>
+        <v>0.3452270788166371</v>
       </c>
       <c r="BA59">
         <v>-0.312</v>
@@ -11722,10 +11722,10 @@
         <v>696</v>
       </c>
       <c r="BG59">
-        <v>0.1836144810344827</v>
+        <v>0.1835651306034482</v>
       </c>
       <c r="BH59">
-        <v>0.381893212325455</v>
+        <v>0.3818665474016289</v>
       </c>
       <c r="BI59">
         <v>-0.485</v>
@@ -11871,10 +11871,10 @@
         <v>696</v>
       </c>
       <c r="AQ60">
-        <v>1.020767385057471</v>
+        <v>1.02076882183908</v>
       </c>
       <c r="AR60">
-        <v>0.5819070853044674</v>
+        <v>0.5819065134605543</v>
       </c>
       <c r="AS60">
         <v>0.0437</v>
@@ -11895,10 +11895,10 @@
         <v>696</v>
       </c>
       <c r="AY60">
-        <v>0.2231119396551721</v>
+        <v>0.2230837169540227</v>
       </c>
       <c r="AZ60">
-        <v>0.4155515942806092</v>
+        <v>0.4155373072857197</v>
       </c>
       <c r="BA60">
         <v>-0.309</v>
@@ -11907,10 +11907,10 @@
         <v>-0.0187</v>
       </c>
       <c r="BC60">
-        <v>0.06884999999999999</v>
+        <v>0.0688</v>
       </c>
       <c r="BD60">
-        <v>0.3675</v>
+        <v>0.36725</v>
       </c>
       <c r="BE60">
         <v>2.44</v>
@@ -11919,10 +11919,10 @@
         <v>696</v>
       </c>
       <c r="BG60">
-        <v>0.2504569913793104</v>
+        <v>0.2504225301724138</v>
       </c>
       <c r="BH60">
-        <v>0.4712418603866863</v>
+        <v>0.4711904389263453</v>
       </c>
       <c r="BI60">
         <v>-0.48</v>
@@ -11931,7 +11931,7 @@
         <v>-0.015125</v>
       </c>
       <c r="BK60">
-        <v>0.043</v>
+        <v>0.04295</v>
       </c>
       <c r="BL60">
         <v>0.44125</v>
@@ -11996,10 +11996,10 @@
         <v>696</v>
       </c>
       <c r="S61">
-        <v>2.635847701149421</v>
+        <v>2.635833333333329</v>
       </c>
       <c r="T61">
-        <v>0.6676818049033715</v>
+        <v>0.6676805300200579</v>
       </c>
       <c r="U61">
         <v>1.51</v>
@@ -12068,10 +12068,10 @@
         <v>696</v>
       </c>
       <c r="AQ61">
-        <v>1.02538117816092</v>
+        <v>1.025396982758621</v>
       </c>
       <c r="AR61">
-        <v>0.5857718715764023</v>
+        <v>0.5857883514020781</v>
       </c>
       <c r="AS61">
         <v>0.0437</v>
@@ -12092,10 +12092,10 @@
         <v>696</v>
       </c>
       <c r="AY61">
-        <v>0.2316146551724138</v>
+        <v>0.2315814037356321</v>
       </c>
       <c r="AZ61">
-        <v>0.3474699505881166</v>
+        <v>0.3474426772476504</v>
       </c>
       <c r="BA61">
         <v>-0.31</v>
@@ -12116,10 +12116,10 @@
         <v>696</v>
       </c>
       <c r="BG61">
-        <v>0.2713371120689655</v>
+        <v>0.2713083063218392</v>
       </c>
       <c r="BH61">
-        <v>0.4522979294477364</v>
+        <v>0.4522831521581916</v>
       </c>
       <c r="BI61">
         <v>-0.482</v>
@@ -12128,7 +12128,7 @@
         <v>-0.015225</v>
       </c>
       <c r="BK61">
-        <v>0.052</v>
+        <v>0.05195</v>
       </c>
       <c r="BL61">
         <v>0.618</v>
@@ -12193,10 +12193,10 @@
         <v>696</v>
       </c>
       <c r="S62">
-        <v>2.772772988505746</v>
+        <v>2.772787356321838</v>
       </c>
       <c r="T62">
-        <v>0.6636900855720198</v>
+        <v>0.6636975046956166</v>
       </c>
       <c r="U62">
         <v>1.72</v>
@@ -12289,10 +12289,10 @@
         <v>696</v>
       </c>
       <c r="AY62">
-        <v>0.2070775201149426</v>
+        <v>0.2070483433908046</v>
       </c>
       <c r="AZ62">
-        <v>0.3286316600449576</v>
+        <v>0.3286113964209431</v>
       </c>
       <c r="BA62">
         <v>-0.323</v>
@@ -12313,10 +12313,10 @@
         <v>696</v>
       </c>
       <c r="BG62">
-        <v>0.2636492442528735</v>
+        <v>0.2635861005747125</v>
       </c>
       <c r="BH62">
-        <v>0.4882750557497773</v>
+        <v>0.4881831986674364</v>
       </c>
       <c r="BI62">
         <v>-0.501</v>
@@ -12366,10 +12366,10 @@
         <v>696</v>
       </c>
       <c r="K63">
-        <v>37.08721264367826</v>
+        <v>37.08821839080469</v>
       </c>
       <c r="L63">
-        <v>2.046972213062143</v>
+        <v>2.047108292413942</v>
       </c>
       <c r="M63">
         <v>34.2</v>
@@ -12390,10 +12390,10 @@
         <v>696</v>
       </c>
       <c r="S63">
-        <v>2.967887931034483</v>
+        <v>2.968721264367816</v>
       </c>
       <c r="T63">
-        <v>0.8542156107942732</v>
+        <v>0.8542689768360935</v>
       </c>
       <c r="U63">
         <v>1.69</v>
@@ -12408,7 +12408,7 @@
         <v>3.7</v>
       </c>
       <c r="Y63">
-        <v>5.19</v>
+        <v>5.2</v>
       </c>
       <c r="Z63">
         <v>696</v>
@@ -12438,10 +12438,10 @@
         <v>696</v>
       </c>
       <c r="AI63">
-        <v>99.71681034482755</v>
+        <v>99.71738505747123</v>
       </c>
       <c r="AJ63">
-        <v>29.1518493636725</v>
+        <v>29.15153264578517</v>
       </c>
       <c r="AK63">
         <v>42.4</v>
@@ -12462,10 +12462,10 @@
         <v>696</v>
       </c>
       <c r="AQ63">
-        <v>1.061931752873563</v>
+        <v>1.06193606321839</v>
       </c>
       <c r="AR63">
-        <v>0.6206544773862964</v>
+        <v>0.6206513261405466</v>
       </c>
       <c r="AS63">
         <v>0.0436</v>
@@ -12486,10 +12486,10 @@
         <v>696</v>
       </c>
       <c r="AY63">
-        <v>0.2655855158045977</v>
+        <v>0.2655556566091954</v>
       </c>
       <c r="AZ63">
-        <v>0.4132035612070797</v>
+        <v>0.4131852518651676</v>
       </c>
       <c r="BA63">
         <v>-0.332</v>
@@ -12510,10 +12510,10 @@
         <v>696</v>
       </c>
       <c r="BG63">
-        <v>0.3538623347701145</v>
+        <v>0.3537986436781606</v>
       </c>
       <c r="BH63">
-        <v>0.6341495347029221</v>
+        <v>0.6340737696761841</v>
       </c>
       <c r="BI63">
         <v>-0.515</v>
@@ -12522,10 +12522,10 @@
         <v>-0.019325</v>
       </c>
       <c r="BK63">
-        <v>0.0498</v>
+        <v>0.0497</v>
       </c>
       <c r="BL63">
-        <v>0.583</v>
+        <v>0.5822499999999999</v>
       </c>
       <c r="BM63">
         <v>3.23</v>
@@ -12563,10 +12563,10 @@
         <v>696</v>
       </c>
       <c r="K64">
-        <v>37.42198275862076</v>
+        <v>37.42227011494261</v>
       </c>
       <c r="L64">
-        <v>1.715638465291334</v>
+        <v>1.715802479458425</v>
       </c>
       <c r="M64">
         <v>35.1</v>
@@ -12587,10 +12587,10 @@
         <v>696</v>
       </c>
       <c r="S64">
-        <v>3.304238505747126</v>
+        <v>3.304999999999999</v>
       </c>
       <c r="T64">
-        <v>1.133686922389593</v>
+        <v>1.133808885980375</v>
       </c>
       <c r="U64">
         <v>1.68</v>
@@ -12611,10 +12611,10 @@
         <v>696</v>
       </c>
       <c r="AA64">
-        <v>37.03879310344829</v>
+        <v>37.03893678160922</v>
       </c>
       <c r="AB64">
-        <v>2.128718527678533</v>
+        <v>2.128557052778466</v>
       </c>
       <c r="AC64">
         <v>33.5</v>
@@ -12635,10 +12635,10 @@
         <v>696</v>
       </c>
       <c r="AI64">
-        <v>104.0306034482758</v>
+        <v>104.033764367816</v>
       </c>
       <c r="AJ64">
-        <v>34.16794404424803</v>
+        <v>34.16924184910983</v>
       </c>
       <c r="AK64">
         <v>42.3</v>
@@ -12659,10 +12659,10 @@
         <v>696</v>
       </c>
       <c r="AQ64">
-        <v>1.113061063218391</v>
+        <v>1.113097126436782</v>
       </c>
       <c r="AR64">
-        <v>0.679013365582754</v>
+        <v>0.6790309588668579</v>
       </c>
       <c r="AS64">
         <v>0.0437</v>
@@ -12683,10 +12683,10 @@
         <v>696</v>
       </c>
       <c r="AY64">
-        <v>0.3813908706896552</v>
+        <v>0.3813852571839078</v>
       </c>
       <c r="AZ64">
-        <v>0.5242570463440637</v>
+        <v>0.5242868365157068</v>
       </c>
       <c r="BA64">
         <v>-0.333</v>
@@ -12707,10 +12707,10 @@
         <v>696</v>
       </c>
       <c r="BG64">
-        <v>0.5103293477011488</v>
+        <v>0.5102745890804592</v>
       </c>
       <c r="BH64">
-        <v>0.7973044476309534</v>
+        <v>0.7972348830782885</v>
       </c>
       <c r="BI64">
         <v>-0.517</v>
@@ -12760,10 +12760,10 @@
         <v>696</v>
       </c>
       <c r="K65">
-        <v>37.91321839080467</v>
+        <v>37.91494252873569</v>
       </c>
       <c r="L65">
-        <v>1.348934240017471</v>
+        <v>1.348681529196534</v>
       </c>
       <c r="M65">
         <v>36.1</v>
@@ -12775,7 +12775,7 @@
         <v>37.4</v>
       </c>
       <c r="P65">
-        <v>38.725</v>
+        <v>38.8</v>
       </c>
       <c r="Q65">
         <v>40.5</v>
@@ -12784,16 +12784,16 @@
         <v>696</v>
       </c>
       <c r="S65">
-        <v>3.792959770114943</v>
+        <v>3.794454022988504</v>
       </c>
       <c r="T65">
-        <v>1.442915465336015</v>
+        <v>1.44254540844891</v>
       </c>
       <c r="U65">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V65">
-        <v>2.69</v>
+        <v>2.68</v>
       </c>
       <c r="W65">
         <v>3.53</v>
@@ -12802,16 +12802,16 @@
         <v>4.6225</v>
       </c>
       <c r="Y65">
-        <v>7.62</v>
+        <v>7.63</v>
       </c>
       <c r="Z65">
         <v>696</v>
       </c>
       <c r="AA65">
-        <v>37.44137931034482</v>
+        <v>37.4412356321839</v>
       </c>
       <c r="AB65">
-        <v>1.796178307415985</v>
+        <v>1.796233684528149</v>
       </c>
       <c r="AC65">
         <v>34.3</v>
@@ -12832,10 +12832,10 @@
         <v>696</v>
       </c>
       <c r="AI65">
-        <v>111.083764367816</v>
+        <v>111.0806034482758</v>
       </c>
       <c r="AJ65">
-        <v>41.7073367342464</v>
+        <v>41.70571805156307</v>
       </c>
       <c r="AK65">
         <v>42.4</v>
@@ -12856,13 +12856,13 @@
         <v>696</v>
       </c>
       <c r="AQ65">
-        <v>1.1922658045977</v>
+        <v>1.192422557471263</v>
       </c>
       <c r="AR65">
-        <v>0.7700150512274168</v>
+        <v>0.7701274940099184</v>
       </c>
       <c r="AS65">
-        <v>0.0453</v>
+        <v>0.0454</v>
       </c>
       <c r="AT65">
         <v>0.552</v>
@@ -12880,16 +12880,16 @@
         <v>696</v>
       </c>
       <c r="AY65">
-        <v>0.4652038595833336</v>
+        <v>0.465342148218391</v>
       </c>
       <c r="AZ65">
-        <v>0.5827163038137027</v>
+        <v>0.5829240346627104</v>
       </c>
       <c r="BA65">
         <v>-0.317</v>
       </c>
       <c r="BB65">
-        <v>-0.00552</v>
+        <v>-0.005515</v>
       </c>
       <c r="BC65">
         <v>0.1615</v>
@@ -12904,10 +12904,10 @@
         <v>696</v>
       </c>
       <c r="BG65">
-        <v>0.6434178187500004</v>
+        <v>0.6435479954454029</v>
       </c>
       <c r="BH65">
-        <v>0.9115938817212371</v>
+        <v>0.9117333119187041</v>
       </c>
       <c r="BI65">
         <v>-0.491</v>
@@ -12957,10 +12957,10 @@
         <v>696</v>
       </c>
       <c r="K66">
-        <v>38.48836206896555</v>
+        <v>38.49971264367831</v>
       </c>
       <c r="L66">
-        <v>0.9831352964691499</v>
+        <v>0.9818203197780707</v>
       </c>
       <c r="M66">
         <v>37.2</v>
@@ -12981,22 +12981,22 @@
         <v>696</v>
       </c>
       <c r="S66">
-        <v>4.367571839080461</v>
+        <v>4.377370689655172</v>
       </c>
       <c r="T66">
-        <v>1.758843470734094</v>
+        <v>1.758322405333134</v>
       </c>
       <c r="U66">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V66">
-        <v>2.8375</v>
+        <v>2.84</v>
       </c>
       <c r="W66">
-        <v>4.055</v>
+        <v>4.065</v>
       </c>
       <c r="X66">
-        <v>5.61</v>
+        <v>5.63</v>
       </c>
       <c r="Y66">
         <v>8.609999999999999</v>
@@ -13029,16 +13029,16 @@
         <v>696</v>
       </c>
       <c r="AI66">
-        <v>120.5357758620691</v>
+        <v>120.5692528735633</v>
       </c>
       <c r="AJ66">
-        <v>50.66493315952405</v>
+        <v>50.66276089026074</v>
       </c>
       <c r="AK66">
         <v>42.8</v>
       </c>
       <c r="AL66">
-        <v>89.2</v>
+        <v>89.27500000000001</v>
       </c>
       <c r="AM66">
         <v>112</v>
@@ -13053,10 +13053,10 @@
         <v>696</v>
       </c>
       <c r="AQ66">
-        <v>1.287178304597701</v>
+        <v>1.287485919540229</v>
       </c>
       <c r="AR66">
-        <v>0.8594315197920571</v>
+        <v>0.8594670209768255</v>
       </c>
       <c r="AS66">
         <v>0.0497</v>
@@ -13077,10 +13077,10 @@
         <v>696</v>
       </c>
       <c r="AY66">
-        <v>0.5135222500000001</v>
+        <v>0.5136389568965519</v>
       </c>
       <c r="AZ66">
-        <v>0.5748314030418484</v>
+        <v>0.5749460956840242</v>
       </c>
       <c r="BA66">
         <v>-0.289</v>
@@ -13101,13 +13101,13 @@
         <v>696</v>
       </c>
       <c r="BG66">
-        <v>0.7605327126436781</v>
+        <v>0.7608084497126434</v>
       </c>
       <c r="BH66">
-        <v>0.9874828973292359</v>
+        <v>0.9878380672158342</v>
       </c>
       <c r="BI66">
-        <v>-0.449</v>
+        <v>-0.45</v>
       </c>
       <c r="BJ66">
         <v>0.012775</v>
@@ -13274,10 +13274,10 @@
         <v>696</v>
       </c>
       <c r="AY67">
-        <v>0.4581541379310345</v>
+        <v>0.4581784252873564</v>
       </c>
       <c r="AZ67">
-        <v>0.5233228287394314</v>
+        <v>0.5233642876306684</v>
       </c>
       <c r="BA67">
         <v>-0.271</v>
@@ -13298,10 +13298,10 @@
         <v>696</v>
       </c>
       <c r="BG67">
-        <v>0.7036611149425283</v>
+        <v>0.7036592227011489</v>
       </c>
       <c r="BH67">
-        <v>0.9305415423043144</v>
+        <v>0.9305429009440622</v>
       </c>
       <c r="BI67">
         <v>-0.421</v>
@@ -13471,10 +13471,10 @@
         <v>696</v>
       </c>
       <c r="AY68">
-        <v>0.4152625287356319</v>
+        <v>0.4152207298850573</v>
       </c>
       <c r="AZ68">
-        <v>0.5053901009721652</v>
+        <v>0.5053394863807514</v>
       </c>
       <c r="BA68">
         <v>-0.254</v>
@@ -13495,10 +13495,10 @@
         <v>696</v>
       </c>
       <c r="BG68">
-        <v>0.6417706551724137</v>
+        <v>0.6417402097701149</v>
       </c>
       <c r="BH68">
-        <v>0.8799964399043826</v>
+        <v>0.8799614721182226</v>
       </c>
       <c r="BI68">
         <v>-0.396</v>
@@ -13668,10 +13668,10 @@
         <v>696</v>
       </c>
       <c r="AY69">
-        <v>0.2923171810344827</v>
+        <v>0.2922937629310345</v>
       </c>
       <c r="AZ69">
-        <v>0.3810671372760335</v>
+        <v>0.3810563993816068</v>
       </c>
       <c r="BA69">
         <v>-0.263</v>
@@ -13692,10 +13692,10 @@
         <v>696</v>
       </c>
       <c r="BG69">
-        <v>0.4594694655172418</v>
+        <v>0.4594304008620694</v>
       </c>
       <c r="BH69">
-        <v>0.700217146555379</v>
+        <v>0.7001842531242789</v>
       </c>
       <c r="BI69">
         <v>-0.41</v>
@@ -13769,10 +13769,10 @@
         <v>696</v>
       </c>
       <c r="S70">
-        <v>4.786609195402304</v>
+        <v>4.786623563218395</v>
       </c>
       <c r="T70">
-        <v>1.938186350077709</v>
+        <v>1.938205194152111</v>
       </c>
       <c r="U70">
         <v>2.03</v>
@@ -13865,10 +13865,10 @@
         <v>696</v>
       </c>
       <c r="AY70">
-        <v>0.1838299701752872</v>
+        <v>0.1838063768821838</v>
       </c>
       <c r="AZ70">
-        <v>0.2977772497949817</v>
+        <v>0.2977627666110435</v>
       </c>
       <c r="BA70">
         <v>-0.285</v>
@@ -13889,10 +13889,10 @@
         <v>696</v>
       </c>
       <c r="BG70">
-        <v>0.3096994394683906</v>
+        <v>0.3096642215077584</v>
       </c>
       <c r="BH70">
-        <v>0.6025563095159554</v>
+        <v>0.6025472837878492</v>
       </c>
       <c r="BI70">
         <v>-0.445</v>
@@ -14062,10 +14062,10 @@
         <v>696</v>
       </c>
       <c r="AY71">
-        <v>0.1369247691091954</v>
+        <v>0.1369075099137932</v>
       </c>
       <c r="AZ71">
-        <v>0.2737218689235951</v>
+        <v>0.2737095742001379</v>
       </c>
       <c r="BA71">
         <v>-0.299</v>
@@ -14086,10 +14086,10 @@
         <v>696</v>
       </c>
       <c r="BG71">
-        <v>0.2468612548850578</v>
+        <v>0.2467948005747129</v>
       </c>
       <c r="BH71">
-        <v>0.5704796339743256</v>
+        <v>0.570378828988664</v>
       </c>
       <c r="BI71">
         <v>-0.466</v>
@@ -14101,7 +14101,7 @@
         <v>0.07704999999999999</v>
       </c>
       <c r="BL71">
-        <v>0.30325</v>
+        <v>0.303</v>
       </c>
       <c r="BM71">
         <v>3.78</v>
@@ -14259,10 +14259,10 @@
         <v>696</v>
       </c>
       <c r="AY72">
-        <v>0.1112898477011495</v>
+        <v>0.1112539281609196</v>
       </c>
       <c r="AZ72">
-        <v>0.263198003186626</v>
+        <v>0.2631052068123735</v>
       </c>
       <c r="BA72">
         <v>-0.315</v>
@@ -14283,10 +14283,10 @@
         <v>696</v>
       </c>
       <c r="BG72">
-        <v>0.2127292370689656</v>
+        <v>0.2126765933908047</v>
       </c>
       <c r="BH72">
-        <v>0.5510846131481379</v>
+        <v>0.551031143977222</v>
       </c>
       <c r="BI72">
         <v>-0.49</v>
@@ -14295,7 +14295,7 @@
         <v>-0.006555</v>
       </c>
       <c r="BK72">
-        <v>0.0605</v>
+        <v>0.06045</v>
       </c>
       <c r="BL72">
         <v>0.22825</v>
@@ -14336,10 +14336,10 @@
         <v>696</v>
       </c>
       <c r="K73">
-        <v>38.87456896551746</v>
+        <v>38.87370689655194</v>
       </c>
       <c r="L73">
-        <v>0.6620872496674177</v>
+        <v>0.6617491930802001</v>
       </c>
       <c r="M73">
         <v>38.4</v>
@@ -14360,34 +14360,34 @@
         <v>696</v>
       </c>
       <c r="S73">
-        <v>4.743936781609192</v>
+        <v>4.74120689655172</v>
       </c>
       <c r="T73">
-        <v>1.981468757332665</v>
+        <v>1.981313707854157</v>
       </c>
       <c r="U73">
         <v>1.9</v>
       </c>
       <c r="V73">
-        <v>2.77</v>
+        <v>2.7675</v>
       </c>
       <c r="W73">
-        <v>4.425</v>
+        <v>4.42</v>
       </c>
       <c r="X73">
-        <v>6.2675</v>
+        <v>6.2525</v>
       </c>
       <c r="Y73">
-        <v>8.84</v>
+        <v>8.82</v>
       </c>
       <c r="Z73">
         <v>696</v>
       </c>
       <c r="AA73">
-        <v>38.76522988505739</v>
+        <v>38.76537356321831</v>
       </c>
       <c r="AB73">
-        <v>0.8346097724425919</v>
+        <v>0.834348496856421</v>
       </c>
       <c r="AC73">
         <v>36.7</v>
@@ -14408,10 +14408,10 @@
         <v>696</v>
       </c>
       <c r="AI73">
-        <v>127.2099137931034</v>
+        <v>127.2071839080459</v>
       </c>
       <c r="AJ73">
-        <v>56.02728576770566</v>
+        <v>56.02880482305457</v>
       </c>
       <c r="AK73">
         <v>44.7</v>
@@ -14432,16 +14432,16 @@
         <v>696</v>
       </c>
       <c r="AQ73">
-        <v>1.358785344827586</v>
+        <v>1.358691810344827</v>
       </c>
       <c r="AR73">
-        <v>0.9213824313610977</v>
+        <v>0.9213428721035392</v>
       </c>
       <c r="AS73">
         <v>0.0559</v>
       </c>
       <c r="AT73">
-        <v>0.62325</v>
+        <v>0.623</v>
       </c>
       <c r="AU73">
         <v>1.25</v>
@@ -14456,10 +14456,10 @@
         <v>696</v>
       </c>
       <c r="AY73">
-        <v>0.09307824712643674</v>
+        <v>0.09303834913793096</v>
       </c>
       <c r="AZ73">
-        <v>0.2579508538964269</v>
+        <v>0.2578737130915729</v>
       </c>
       <c r="BA73">
         <v>-0.338</v>
@@ -14480,10 +14480,10 @@
         <v>696</v>
       </c>
       <c r="BG73">
-        <v>0.1891924425287357</v>
+        <v>0.1891256522988507</v>
       </c>
       <c r="BH73">
-        <v>0.5377056127971263</v>
+        <v>0.5375464256365197</v>
       </c>
       <c r="BI73">
         <v>-0.525</v>
@@ -14498,7 +14498,7 @@
         <v>0.18825</v>
       </c>
       <c r="BM73">
-        <v>3.56</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="74" spans="1:65">
@@ -14653,10 +14653,10 @@
         <v>696</v>
       </c>
       <c r="AY74">
-        <v>0.157139654454023</v>
+        <v>0.157097642816092</v>
       </c>
       <c r="AZ74">
-        <v>0.3219456342799819</v>
+        <v>0.3218833055345905</v>
       </c>
       <c r="BA74">
         <v>-0.351</v>
@@ -14677,10 +14677,10 @@
         <v>696</v>
       </c>
       <c r="BG74">
-        <v>0.2800049024425287</v>
+        <v>0.2799787053160919</v>
       </c>
       <c r="BH74">
-        <v>0.5963571512704086</v>
+        <v>0.5963495661261113</v>
       </c>
       <c r="BI74">
         <v>-0.545</v>
@@ -14778,10 +14778,10 @@
         <v>696</v>
       </c>
       <c r="AA75">
-        <v>38.56508620689645</v>
+        <v>38.56522988505737</v>
       </c>
       <c r="AB75">
-        <v>0.9423692740496088</v>
+        <v>0.9423058838463753</v>
       </c>
       <c r="AC75">
         <v>36.8</v>
@@ -14850,10 +14850,10 @@
         <v>696</v>
       </c>
       <c r="AY75">
-        <v>0.22876731795977</v>
+        <v>0.2287336238505746</v>
       </c>
       <c r="AZ75">
-        <v>0.3875512011555829</v>
+        <v>0.3875110845391511</v>
       </c>
       <c r="BA75">
         <v>-0.363</v>
@@ -14874,10 +14874,10 @@
         <v>696</v>
       </c>
       <c r="BG75">
-        <v>0.3785301031609198</v>
+        <v>0.3784831619252877</v>
       </c>
       <c r="BH75">
-        <v>0.664548344651018</v>
+        <v>0.6644986957489931</v>
       </c>
       <c r="BI75">
         <v>-0.5629999999999999</v>
@@ -14889,7 +14889,7 @@
         <v>0.03455</v>
       </c>
       <c r="BL75">
-        <v>0.62125</v>
+        <v>0.621</v>
       </c>
       <c r="BM75">
         <v>3.4</v>
@@ -14999,10 +14999,10 @@
         <v>696</v>
       </c>
       <c r="AI76">
-        <v>126.2693965517241</v>
+        <v>126.2708333333333</v>
       </c>
       <c r="AJ76">
-        <v>55.79640686384656</v>
+        <v>55.79633542950743</v>
       </c>
       <c r="AK76">
         <v>42.4</v>
@@ -15047,10 +15047,10 @@
         <v>696</v>
       </c>
       <c r="AY76">
-        <v>0.2498266321839079</v>
+        <v>0.2497915603448275</v>
       </c>
       <c r="AZ76">
-        <v>0.4162195486779963</v>
+        <v>0.4161649767066242</v>
       </c>
       <c r="BA76">
         <v>-0.374</v>
@@ -15071,10 +15071,10 @@
         <v>696</v>
       </c>
       <c r="BG76">
-        <v>0.4024161968390805</v>
+        <v>0.4023577198275862</v>
       </c>
       <c r="BH76">
-        <v>0.693660077043338</v>
+        <v>0.6935628532768374</v>
       </c>
       <c r="BI76">
         <v>-0.578</v>
@@ -15086,7 +15086,7 @@
         <v>0.03815</v>
       </c>
       <c r="BL76">
-        <v>0.607</v>
+        <v>0.60675</v>
       </c>
       <c r="BM76">
         <v>3.39</v>
@@ -15220,10 +15220,10 @@
         <v>696</v>
       </c>
       <c r="AQ77">
-        <v>1.347156752873562</v>
+        <v>1.347158189655171</v>
       </c>
       <c r="AR77">
-        <v>0.9158950035864483</v>
+        <v>0.9158941935006624</v>
       </c>
       <c r="AS77">
         <v>0.0554</v>
@@ -15244,10 +15244,10 @@
         <v>696</v>
       </c>
       <c r="AY77">
-        <v>0.2697173160919539</v>
+        <v>0.2697001321839079</v>
       </c>
       <c r="AZ77">
-        <v>0.434097964367161</v>
+        <v>0.4340925424117194</v>
       </c>
       <c r="BA77">
         <v>-0.376</v>
@@ -15256,7 +15256,7 @@
         <v>-0.0192</v>
       </c>
       <c r="BC77">
-        <v>0.04475</v>
+        <v>0.0447</v>
       </c>
       <c r="BD77">
         <v>0.512</v>
@@ -15268,10 +15268,10 @@
         <v>696</v>
       </c>
       <c r="BG77">
-        <v>0.4313252060344825</v>
+        <v>0.4313026354885054</v>
       </c>
       <c r="BH77">
-        <v>0.7170947317759976</v>
+        <v>0.7170874081214706</v>
       </c>
       <c r="BI77">
         <v>-0.581</v>
@@ -15441,10 +15441,10 @@
         <v>696</v>
       </c>
       <c r="AY78">
-        <v>0.2968365215517241</v>
+        <v>0.2967987068965517</v>
       </c>
       <c r="AZ78">
-        <v>0.4565055796849414</v>
+        <v>0.4564593299624732</v>
       </c>
       <c r="BA78">
         <v>-0.376</v>
@@ -15465,10 +15465,10 @@
         <v>696</v>
       </c>
       <c r="BG78">
-        <v>0.4796302469827591</v>
+        <v>0.4795418850574716</v>
       </c>
       <c r="BH78">
-        <v>0.7596091494456702</v>
+        <v>0.7594609901230657</v>
       </c>
       <c r="BI78">
         <v>-0.58</v>
@@ -15477,13 +15477,13 @@
         <v>-0.010425</v>
       </c>
       <c r="BK78">
-        <v>0.04090000000000001</v>
+        <v>0.0408</v>
       </c>
       <c r="BL78">
         <v>0.8725000000000001</v>
       </c>
       <c r="BM78">
-        <v>3.42</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="79" spans="1:65">
@@ -15638,10 +15638,10 @@
         <v>696</v>
       </c>
       <c r="AY79">
-        <v>0.3101901637931036</v>
+        <v>0.3101707241379312</v>
       </c>
       <c r="AZ79">
-        <v>0.4670673394865646</v>
+        <v>0.4670611451961213</v>
       </c>
       <c r="BA79">
         <v>-0.374</v>
@@ -15662,10 +15662,10 @@
         <v>696</v>
       </c>
       <c r="BG79">
-        <v>0.5026040722701152</v>
+        <v>0.5025804084770117</v>
       </c>
       <c r="BH79">
-        <v>0.7801224988938419</v>
+        <v>0.7800657038712805</v>
       </c>
       <c r="BI79">
         <v>-0.578</v>
@@ -15674,10 +15674,10 @@
         <v>-0.0101</v>
       </c>
       <c r="BK79">
-        <v>0.04105</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="BL79">
-        <v>0.9572499999999999</v>
+        <v>0.9564999999999999</v>
       </c>
       <c r="BM79">
         <v>3.43</v>
@@ -15763,10 +15763,10 @@
         <v>696</v>
       </c>
       <c r="AA80">
-        <v>38.46135057471268</v>
+        <v>38.46149425287359</v>
       </c>
       <c r="AB80">
-        <v>0.9820770314112656</v>
+        <v>0.9820167517340761</v>
       </c>
       <c r="AC80">
         <v>36.6</v>
@@ -15835,10 +15835,10 @@
         <v>696</v>
       </c>
       <c r="AY80">
-        <v>0.2925177861350573</v>
+        <v>0.2924995963649423</v>
       </c>
       <c r="AZ80">
-        <v>0.442792428320557</v>
+        <v>0.4427862218239202</v>
       </c>
       <c r="BA80">
         <v>-0.366</v>
@@ -15847,7 +15847,7 @@
         <v>-0.01325</v>
       </c>
       <c r="BC80">
-        <v>0.05795</v>
+        <v>0.0579</v>
       </c>
       <c r="BD80">
         <v>0.556</v>
@@ -15859,10 +15859,10 @@
         <v>696</v>
       </c>
       <c r="BG80">
-        <v>0.4651503209770111</v>
+        <v>0.465116208807471</v>
       </c>
       <c r="BH80">
-        <v>0.7342708601057726</v>
+        <v>0.734248301144645</v>
       </c>
       <c r="BI80">
         <v>-0.5649999999999999</v>
@@ -15874,7 +15874,7 @@
         <v>0.0462</v>
       </c>
       <c r="BL80">
-        <v>0.878</v>
+        <v>0.877</v>
       </c>
       <c r="BM80">
         <v>3.45</v>
@@ -15936,10 +15936,10 @@
         <v>696</v>
       </c>
       <c r="S81">
-        <v>4.642442528735633</v>
+        <v>4.642428160919541</v>
       </c>
       <c r="T81">
-        <v>2.002868463734761</v>
+        <v>2.002887698180398</v>
       </c>
       <c r="U81">
         <v>1.77</v>
@@ -16008,10 +16008,10 @@
         <v>696</v>
       </c>
       <c r="AQ81">
-        <v>1.346646120689654</v>
+        <v>1.346660488505746</v>
       </c>
       <c r="AR81">
-        <v>0.9154989680669727</v>
+        <v>0.9155020853882656</v>
       </c>
       <c r="AS81">
         <v>0.0554</v>
@@ -16032,10 +16032,10 @@
         <v>696</v>
       </c>
       <c r="AY81">
-        <v>0.2905631408045977</v>
+        <v>0.2905383821839079</v>
       </c>
       <c r="AZ81">
-        <v>0.4354968478106573</v>
+        <v>0.4354903974744708</v>
       </c>
       <c r="BA81">
         <v>-0.358</v>
@@ -16056,10 +16056,10 @@
         <v>696</v>
       </c>
       <c r="BG81">
-        <v>0.4650002499999999</v>
+        <v>0.4649354482758619</v>
       </c>
       <c r="BH81">
-        <v>0.7299222045473719</v>
+        <v>0.7298619208228032</v>
       </c>
       <c r="BI81">
         <v>-0.554</v>
@@ -16229,10 +16229,10 @@
         <v>696</v>
       </c>
       <c r="AY82">
-        <v>0.3000150790229885</v>
+        <v>0.3000235718390805</v>
       </c>
       <c r="AZ82">
-        <v>0.4487165926301216</v>
+        <v>0.4487601712302967</v>
       </c>
       <c r="BA82">
         <v>-0.363</v>
@@ -16253,16 +16253,16 @@
         <v>696</v>
       </c>
       <c r="BG82">
-        <v>0.4899038649425287</v>
+        <v>0.4898812212643676</v>
       </c>
       <c r="BH82">
-        <v>0.7628193396171854</v>
+        <v>0.76278429760189</v>
       </c>
       <c r="BI82">
         <v>-0.5610000000000001</v>
       </c>
       <c r="BJ82">
-        <v>-0.00944</v>
+        <v>-0.0094425</v>
       </c>
       <c r="BK82">
         <v>0.043</v>
@@ -16402,10 +16402,10 @@
         <v>696</v>
       </c>
       <c r="AQ83">
-        <v>1.346115804597701</v>
+        <v>1.346115948275862</v>
       </c>
       <c r="AR83">
-        <v>0.9153257467146755</v>
+        <v>0.9153255438123413</v>
       </c>
       <c r="AS83">
         <v>0.0553</v>
@@ -16426,10 +16426,10 @@
         <v>696</v>
       </c>
       <c r="AY83">
-        <v>0.2889147988505747</v>
+        <v>0.2888939080459771</v>
       </c>
       <c r="AZ83">
-        <v>0.4334993054137504</v>
+        <v>0.4334872976539162</v>
       </c>
       <c r="BA83">
         <v>-0.363</v>
@@ -16450,10 +16450,10 @@
         <v>696</v>
       </c>
       <c r="BG83">
-        <v>0.4690226982758621</v>
+        <v>0.4689713922413795</v>
       </c>
       <c r="BH83">
-        <v>0.7332137878004106</v>
+        <v>0.733172779523799</v>
       </c>
       <c r="BI83">
         <v>-0.5610000000000001</v>
@@ -16527,10 +16527,10 @@
         <v>696</v>
       </c>
       <c r="S84">
-        <v>4.643247126436782</v>
+        <v>4.643261494252874</v>
       </c>
       <c r="T84">
-        <v>2.004151612429369</v>
+        <v>2.00413726622756</v>
       </c>
       <c r="U84">
         <v>1.77</v>
@@ -16623,10 +16623,10 @@
         <v>696</v>
       </c>
       <c r="AY84">
-        <v>0.2695221883620687</v>
+        <v>0.2695015849137929</v>
       </c>
       <c r="AZ84">
-        <v>0.4058366988999285</v>
+        <v>0.4058277740229127</v>
       </c>
       <c r="BA84">
         <v>-0.358</v>
@@ -16647,10 +16647,10 @@
         <v>696</v>
       </c>
       <c r="BG84">
-        <v>0.4366789834770115</v>
+        <v>0.4366263972701149</v>
       </c>
       <c r="BH84">
-        <v>0.6921134833060753</v>
+        <v>0.6920721457190452</v>
       </c>
       <c r="BI84">
         <v>-0.553</v>
@@ -16796,10 +16796,10 @@
         <v>696</v>
       </c>
       <c r="AQ85">
-        <v>1.347372413793102</v>
+        <v>1.347373850574712</v>
       </c>
       <c r="AR85">
-        <v>0.9158362751251055</v>
+        <v>0.9158353703838699</v>
       </c>
       <c r="AS85">
         <v>0.0554</v>
@@ -16820,10 +16820,10 @@
         <v>696</v>
       </c>
       <c r="AY85">
-        <v>0.2780151852586207</v>
+        <v>0.2779905157183908</v>
       </c>
       <c r="AZ85">
-        <v>0.4204217878307958</v>
+        <v>0.4203916692046063</v>
       </c>
       <c r="BA85">
         <v>-0.351</v>
@@ -16844,10 +16844,10 @@
         <v>696</v>
       </c>
       <c r="BG85">
-        <v>0.4506422710201146</v>
+        <v>0.4506012652586204</v>
       </c>
       <c r="BH85">
-        <v>0.7149833223804861</v>
+        <v>0.7149546203333199</v>
       </c>
       <c r="BI85">
         <v>-0.543</v>
@@ -17017,10 +17017,10 @@
         <v>696</v>
       </c>
       <c r="AY86">
-        <v>0.2826782604885059</v>
+        <v>0.2826659025862071</v>
       </c>
       <c r="AZ86">
-        <v>0.4337008406934689</v>
+        <v>0.4336932154019734</v>
       </c>
       <c r="BA86">
         <v>-0.356</v>
@@ -17041,10 +17041,10 @@
         <v>696</v>
       </c>
       <c r="BG86">
-        <v>0.4533028094827585</v>
+        <v>0.4532845191091954</v>
       </c>
       <c r="BH86">
-        <v>0.7232650363268668</v>
+        <v>0.7232581391318526</v>
       </c>
       <c r="BI86">
         <v>-0.55</v>
@@ -17053,7 +17053,7 @@
         <v>-0.00898</v>
       </c>
       <c r="BK86">
-        <v>0.0406</v>
+        <v>0.04055</v>
       </c>
       <c r="BL86">
         <v>0.8345</v>
@@ -17142,10 +17142,10 @@
         <v>696</v>
       </c>
       <c r="AA87">
-        <v>38.47729885057473</v>
+        <v>38.47744252873566</v>
       </c>
       <c r="AB87">
-        <v>0.9860912750076241</v>
+        <v>0.9859705423395602</v>
       </c>
       <c r="AC87">
         <v>36.6</v>
@@ -17214,10 +17214,10 @@
         <v>696</v>
       </c>
       <c r="AY87">
-        <v>0.2876084396551725</v>
+        <v>0.2875875057471265</v>
       </c>
       <c r="AZ87">
-        <v>0.4366409903456014</v>
+        <v>0.4366157468990767</v>
       </c>
       <c r="BA87">
         <v>-0.358</v>
@@ -17238,10 +17238,10 @@
         <v>696</v>
       </c>
       <c r="BG87">
-        <v>0.4628445071839073</v>
+        <v>0.462816346264367</v>
       </c>
       <c r="BH87">
-        <v>0.7290255573625891</v>
+        <v>0.7289634543304019</v>
       </c>
       <c r="BI87">
         <v>-0.553</v>
@@ -17411,10 +17411,10 @@
         <v>696</v>
       </c>
       <c r="AY88">
-        <v>0.2682849537356325</v>
+        <v>0.268271289942529</v>
       </c>
       <c r="AZ88">
-        <v>0.4079403680245906</v>
+        <v>0.4079328042219804</v>
       </c>
       <c r="BA88">
         <v>-0.363</v>
@@ -17435,10 +17435,10 @@
         <v>696</v>
       </c>
       <c r="BG88">
-        <v>0.4366142587643679</v>
+        <v>0.4365709827586207</v>
       </c>
       <c r="BH88">
-        <v>0.6909145952423901</v>
+        <v>0.6908902455970016</v>
       </c>
       <c r="BI88">
         <v>-0.5610000000000001</v>
@@ -17447,7 +17447,7 @@
         <v>-0.009465000000000001</v>
       </c>
       <c r="BK88">
-        <v>0.03875</v>
+        <v>0.0387</v>
       </c>
       <c r="BL88">
         <v>0.842</v>
@@ -17608,10 +17608,10 @@
         <v>696</v>
       </c>
       <c r="AY89">
-        <v>0.2262651522988507</v>
+        <v>0.226252235632184</v>
       </c>
       <c r="AZ89">
-        <v>0.3506122341822398</v>
+        <v>0.3506079922730926</v>
       </c>
       <c r="BA89">
         <v>-0.36</v>
@@ -17620,7 +17620,7 @@
         <v>-0.0135</v>
       </c>
       <c r="BC89">
-        <v>0.05019999999999999</v>
+        <v>0.05015</v>
       </c>
       <c r="BD89">
         <v>0.4605</v>
@@ -17632,10 +17632,10 @@
         <v>696</v>
       </c>
       <c r="BG89">
-        <v>0.3815452442528736</v>
+        <v>0.3814808764367816</v>
       </c>
       <c r="BH89">
-        <v>0.6275539048459956</v>
+        <v>0.6274986648391759</v>
       </c>
       <c r="BI89">
         <v>-0.5570000000000001</v>
@@ -17685,10 +17685,10 @@
         <v>696</v>
       </c>
       <c r="K90">
-        <v>38.78060344827571</v>
+        <v>38.78290229885042</v>
       </c>
       <c r="L90">
-        <v>0.6555223591791328</v>
+        <v>0.6552571436113478</v>
       </c>
       <c r="M90">
         <v>38.3</v>
@@ -17709,10 +17709,10 @@
         <v>696</v>
       </c>
       <c r="S90">
-        <v>4.666566091954023</v>
+        <v>4.668160919540229</v>
       </c>
       <c r="T90">
-        <v>2.001971723385992</v>
+        <v>2.001873240000894</v>
       </c>
       <c r="U90">
         <v>1.8</v>
@@ -17721,25 +17721,25 @@
         <v>2.67</v>
       </c>
       <c r="W90">
-        <v>4.33</v>
+        <v>4.34</v>
       </c>
       <c r="X90">
-        <v>6.2075</v>
+        <v>6.215</v>
       </c>
       <c r="Y90">
-        <v>8.779999999999999</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="Z90">
         <v>696</v>
       </c>
       <c r="AA90">
-        <v>38.57500000000005</v>
+        <v>38.57514367816096</v>
       </c>
       <c r="AB90">
-        <v>0.9076216053054635</v>
+        <v>0.9073163731078665</v>
       </c>
       <c r="AC90">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="AD90">
         <v>37.9</v>
@@ -17757,13 +17757,13 @@
         <v>696</v>
       </c>
       <c r="AI90">
-        <v>126.3527298850575</v>
+        <v>126.3581896551724</v>
       </c>
       <c r="AJ90">
-        <v>55.8590352572897</v>
+        <v>55.85917278864424</v>
       </c>
       <c r="AK90">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="AL90">
         <v>92.25</v>
@@ -17781,10 +17781,10 @@
         <v>696</v>
       </c>
       <c r="AQ90">
-        <v>1.349445833333332</v>
+        <v>1.349484770114942</v>
       </c>
       <c r="AR90">
-        <v>0.9177086174509672</v>
+        <v>0.9177104172482674</v>
       </c>
       <c r="AS90">
         <v>0.0555</v>
@@ -17805,10 +17805,10 @@
         <v>696</v>
       </c>
       <c r="AY90">
-        <v>0.2114083617816091</v>
+        <v>0.2114050112068964</v>
       </c>
       <c r="AZ90">
-        <v>0.3468154278821465</v>
+        <v>0.3468189646029078</v>
       </c>
       <c r="BA90">
         <v>-0.346</v>
@@ -17829,10 +17829,10 @@
         <v>696</v>
       </c>
       <c r="BG90">
-        <v>0.3748218606321834</v>
+        <v>0.3748133678160916</v>
       </c>
       <c r="BH90">
-        <v>0.6558003420100357</v>
+        <v>0.6557981142594475</v>
       </c>
       <c r="BI90">
         <v>-0.534</v>
@@ -17844,7 +17844,7 @@
         <v>0.03805</v>
       </c>
       <c r="BL90">
-        <v>0.68975</v>
+        <v>0.6904999999999999</v>
       </c>
       <c r="BM90">
         <v>3.4</v>
@@ -17906,10 +17906,10 @@
         <v>696</v>
       </c>
       <c r="S91">
-        <v>4.66913793103448</v>
+        <v>4.669166666666664</v>
       </c>
       <c r="T91">
-        <v>1.997799106556084</v>
+        <v>1.997798758658119</v>
       </c>
       <c r="U91">
         <v>1.81</v>
@@ -17918,7 +17918,7 @@
         <v>2.67</v>
       </c>
       <c r="W91">
-        <v>4.335</v>
+        <v>4.34</v>
       </c>
       <c r="X91">
         <v>6.2</v>
@@ -18002,10 +18002,10 @@
         <v>696</v>
       </c>
       <c r="AY91">
-        <v>0.2191861048850574</v>
+        <v>0.2191698979885056</v>
       </c>
       <c r="AZ91">
-        <v>0.3564393883428963</v>
+        <v>0.3564287168280441</v>
       </c>
       <c r="BA91">
         <v>-0.341</v>
@@ -18026,10 +18026,10 @@
         <v>696</v>
       </c>
       <c r="BG91">
-        <v>0.3899284626436784</v>
+        <v>0.3898682198275864</v>
       </c>
       <c r="BH91">
-        <v>0.6694229487384867</v>
+        <v>0.6693220297849788</v>
       </c>
       <c r="BI91">
         <v>-0.528</v>
@@ -18038,10 +18038,10 @@
         <v>-0.0075925</v>
       </c>
       <c r="BK91">
-        <v>0.03154999999999999</v>
+        <v>0.0315</v>
       </c>
       <c r="BL91">
-        <v>0.7224999999999999</v>
+        <v>0.7215</v>
       </c>
       <c r="BM91">
         <v>3.41</v>
@@ -18103,10 +18103,10 @@
         <v>696</v>
       </c>
       <c r="S92">
-        <v>4.667931034482756</v>
+        <v>4.667945402298848</v>
       </c>
       <c r="T92">
-        <v>1.999508939963089</v>
+        <v>1.999504961009382</v>
       </c>
       <c r="U92">
         <v>1.8</v>
@@ -18175,10 +18175,10 @@
         <v>696</v>
       </c>
       <c r="AQ92">
-        <v>1.349732183908045</v>
+        <v>1.349746551724137</v>
       </c>
       <c r="AR92">
-        <v>0.9175681822579734</v>
+        <v>0.9175811231709169</v>
       </c>
       <c r="AS92">
         <v>0.0555</v>
@@ -18199,10 +18199,10 @@
         <v>696</v>
       </c>
       <c r="AY92">
-        <v>0.2176108893678159</v>
+        <v>0.2175969683908044</v>
       </c>
       <c r="AZ92">
-        <v>0.3584545539379951</v>
+        <v>0.3584454434812551</v>
       </c>
       <c r="BA92">
         <v>-0.346</v>
@@ -18223,10 +18223,10 @@
         <v>696</v>
       </c>
       <c r="BG92">
-        <v>0.389255051724138</v>
+        <v>0.389209665229885</v>
       </c>
       <c r="BH92">
-        <v>0.6732484306216483</v>
+        <v>0.6731979130522062</v>
       </c>
       <c r="BI92">
         <v>-0.535</v>
@@ -18324,10 +18324,10 @@
         <v>696</v>
       </c>
       <c r="AA93">
-        <v>38.58304597701156</v>
+        <v>38.58318965517248</v>
       </c>
       <c r="AB93">
-        <v>0.9098026843781989</v>
+        <v>0.9097500004175523</v>
       </c>
       <c r="AC93">
         <v>36.6</v>
@@ -18396,10 +18396,10 @@
         <v>696</v>
       </c>
       <c r="AY93">
-        <v>0.2039644331896553</v>
+        <v>0.2039480222701151</v>
       </c>
       <c r="AZ93">
-        <v>0.3566266114506793</v>
+        <v>0.3566179674140311</v>
       </c>
       <c r="BA93">
         <v>-0.35</v>
@@ -18420,10 +18420,10 @@
         <v>696</v>
       </c>
       <c r="BG93">
-        <v>0.3753850829022986</v>
+        <v>0.3753496705459768</v>
       </c>
       <c r="BH93">
-        <v>0.6810106298575669</v>
+        <v>0.6809782189169794</v>
       </c>
       <c r="BI93">
         <v>-0.541</v>
@@ -18473,10 +18473,10 @@
         <v>696</v>
       </c>
       <c r="K94">
-        <v>38.77428160919525</v>
+        <v>38.77528735632168</v>
       </c>
       <c r="L94">
-        <v>0.6490165673962559</v>
+        <v>0.6495985949597821</v>
       </c>
       <c r="M94">
         <v>38.3</v>
@@ -18497,22 +18497,22 @@
         <v>696</v>
       </c>
       <c r="S94">
-        <v>4.660272988505744</v>
+        <v>4.661954022988503</v>
       </c>
       <c r="T94">
-        <v>2.005120010449574</v>
+        <v>2.005104759648147</v>
       </c>
       <c r="U94">
         <v>1.78</v>
       </c>
       <c r="V94">
-        <v>2.6575</v>
+        <v>2.66</v>
       </c>
       <c r="W94">
         <v>4.33</v>
       </c>
       <c r="X94">
-        <v>6.1925</v>
+        <v>6.2</v>
       </c>
       <c r="Y94">
         <v>8.77</v>
@@ -18545,16 +18545,16 @@
         <v>696</v>
       </c>
       <c r="AI94">
-        <v>126.3423850574712</v>
+        <v>126.3455459770115</v>
       </c>
       <c r="AJ94">
-        <v>55.85213803628445</v>
+        <v>55.85389942387692</v>
       </c>
       <c r="AK94">
         <v>42.4</v>
       </c>
       <c r="AL94">
-        <v>92.22500000000001</v>
+        <v>92.25</v>
       </c>
       <c r="AM94">
         <v>111</v>
@@ -18569,10 +18569,10 @@
         <v>696</v>
       </c>
       <c r="AQ94">
-        <v>1.349326724137931</v>
+        <v>1.349407183908046</v>
       </c>
       <c r="AR94">
-        <v>0.9176607970072218</v>
+        <v>0.9176694073027591</v>
       </c>
       <c r="AS94">
         <v>0.0555</v>
@@ -18593,10 +18593,10 @@
         <v>696</v>
       </c>
       <c r="AY94">
-        <v>0.1993518649425287</v>
+        <v>0.199327198275862</v>
       </c>
       <c r="AZ94">
-        <v>0.3555486960349518</v>
+        <v>0.355538455279804</v>
       </c>
       <c r="BA94">
         <v>-0.354</v>
@@ -18617,10 +18617,10 @@
         <v>696</v>
       </c>
       <c r="BG94">
-        <v>0.3712233678160916</v>
+        <v>0.3711909231321836</v>
       </c>
       <c r="BH94">
-        <v>0.680984215168512</v>
+        <v>0.6809747779719432</v>
       </c>
       <c r="BI94">
         <v>-0.547</v>
@@ -18694,10 +18694,10 @@
         <v>696</v>
       </c>
       <c r="S95">
-        <v>4.658247126436782</v>
+        <v>4.65823275862069</v>
       </c>
       <c r="T95">
-        <v>2.009899264269162</v>
+        <v>2.009917399173625</v>
       </c>
       <c r="U95">
         <v>1.77</v>
@@ -18790,10 +18790,10 @@
         <v>696</v>
       </c>
       <c r="AY95">
-        <v>0.1740256612068965</v>
+        <v>0.1740050097701149</v>
       </c>
       <c r="AZ95">
-        <v>0.3475817919265636</v>
+        <v>0.3475740523408206</v>
       </c>
       <c r="BA95">
         <v>-0.36</v>
@@ -18802,7 +18802,7 @@
         <v>-0.01715</v>
       </c>
       <c r="BC95">
-        <v>0.02795</v>
+        <v>0.0279</v>
       </c>
       <c r="BD95">
         <v>0.29025</v>
@@ -18814,10 +18814,10 @@
         <v>696</v>
       </c>
       <c r="BG95">
-        <v>0.338150248663793</v>
+        <v>0.3380942317816092</v>
       </c>
       <c r="BH95">
-        <v>0.6771934363804732</v>
+        <v>0.677123282648924</v>
       </c>
       <c r="BI95">
         <v>-0.5570000000000001</v>
@@ -18987,10 +18987,10 @@
         <v>696</v>
       </c>
       <c r="AY96">
-        <v>0.151170125</v>
+        <v>0.151155665229885</v>
       </c>
       <c r="AZ96">
-        <v>0.3422583445343992</v>
+        <v>0.3422520130687514</v>
       </c>
       <c r="BA96">
         <v>-0.357</v>
@@ -19011,10 +19011,10 @@
         <v>696</v>
       </c>
       <c r="BG96">
-        <v>0.309582344827586</v>
+        <v>0.3095483663793101</v>
       </c>
       <c r="BH96">
-        <v>0.6771515008492532</v>
+        <v>0.6771270590018179</v>
       </c>
       <c r="BI96">
         <v>-0.551</v>
@@ -19064,10 +19064,10 @@
         <v>696</v>
       </c>
       <c r="K97">
-        <v>38.77112068965502</v>
+        <v>38.77083333333318</v>
       </c>
       <c r="L97">
-        <v>0.6397048845912349</v>
+        <v>0.6398267713702764</v>
       </c>
       <c r="M97">
         <v>38.3</v>
@@ -19088,10 +19088,10 @@
         <v>696</v>
       </c>
       <c r="S97">
-        <v>4.658764367816093</v>
+        <v>4.658405172413794</v>
       </c>
       <c r="T97">
-        <v>2.016480849841841</v>
+        <v>2.016608638904828</v>
       </c>
       <c r="U97">
         <v>1.75</v>
@@ -19136,10 +19136,10 @@
         <v>696</v>
       </c>
       <c r="AI97">
-        <v>126.3646551724138</v>
+        <v>126.3630747126437</v>
       </c>
       <c r="AJ97">
-        <v>55.92625836621784</v>
+        <v>55.92485529991756</v>
       </c>
       <c r="AK97">
         <v>42.1</v>
@@ -19160,10 +19160,10 @@
         <v>696</v>
       </c>
       <c r="AQ97">
-        <v>1.349638793103448</v>
+        <v>1.349622988505746</v>
       </c>
       <c r="AR97">
-        <v>0.9181929666725221</v>
+        <v>0.9181916526107207</v>
       </c>
       <c r="AS97">
         <v>0.0556</v>
@@ -19184,10 +19184,10 @@
         <v>696</v>
       </c>
       <c r="AY97">
-        <v>0.1413384790229885</v>
+        <v>0.1413256027298851</v>
       </c>
       <c r="AZ97">
-        <v>0.341623391985092</v>
+        <v>0.3416194527929965</v>
       </c>
       <c r="BA97">
         <v>-0.365</v>
@@ -19208,10 +19208,10 @@
         <v>696</v>
       </c>
       <c r="BG97">
-        <v>0.2985411862643675</v>
+        <v>0.2984930377011492</v>
       </c>
       <c r="BH97">
-        <v>0.6757006345392262</v>
+        <v>0.6756477845300454</v>
       </c>
       <c r="BI97">
         <v>-0.5629999999999999</v>
@@ -19223,7 +19223,7 @@
         <v>0.0146</v>
       </c>
       <c r="BL97">
-        <v>0.26425</v>
+        <v>0.2635</v>
       </c>
       <c r="BM97">
         <v>3.43</v>
@@ -19261,10 +19261,10 @@
         <v>696</v>
       </c>
       <c r="K98">
-        <v>38.77399425287343</v>
+        <v>38.77614942528722</v>
       </c>
       <c r="L98">
-        <v>0.6412210653457842</v>
+        <v>0.6410917850983037</v>
       </c>
       <c r="M98">
         <v>38.3</v>
@@ -19285,10 +19285,10 @@
         <v>696</v>
       </c>
       <c r="S98">
-        <v>4.663390804597701</v>
+        <v>4.664885057471264</v>
       </c>
       <c r="T98">
-        <v>2.013437304925326</v>
+        <v>2.013422581170262</v>
       </c>
       <c r="U98">
         <v>1.77</v>
@@ -19300,10 +19300,10 @@
         <v>4.33</v>
       </c>
       <c r="X98">
-        <v>6.21</v>
+        <v>6.2175</v>
       </c>
       <c r="Y98">
-        <v>8.779999999999999</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="Z98">
         <v>696</v>
@@ -19333,10 +19333,10 @@
         <v>696</v>
       </c>
       <c r="AI98">
-        <v>126.3764367816092</v>
+        <v>126.3849137931034</v>
       </c>
       <c r="AJ98">
-        <v>55.91628678148334</v>
+        <v>55.92421274045823</v>
       </c>
       <c r="AK98">
         <v>42.2</v>
@@ -19351,16 +19351,16 @@
         <v>138</v>
       </c>
       <c r="AO98">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AP98">
         <v>696</v>
       </c>
       <c r="AQ98">
-        <v>1.34969066091954</v>
+        <v>1.349716666666666</v>
       </c>
       <c r="AR98">
-        <v>0.9182022268983024</v>
+        <v>0.9181950174092678</v>
       </c>
       <c r="AS98">
         <v>0.0556</v>
@@ -19381,16 +19381,16 @@
         <v>696</v>
       </c>
       <c r="AY98">
-        <v>0.1438010316091954</v>
+        <v>0.1438025560344828</v>
       </c>
       <c r="AZ98">
-        <v>0.3410336954938243</v>
+        <v>0.3410400896796981</v>
       </c>
       <c r="BA98">
         <v>-0.357</v>
       </c>
       <c r="BB98">
-        <v>-0.01415</v>
+        <v>-0.014225</v>
       </c>
       <c r="BC98">
         <v>0.01885</v>
@@ -19405,13 +19405,13 @@
         <v>696</v>
       </c>
       <c r="BG98">
-        <v>0.3013968160919543</v>
+        <v>0.301395574712644</v>
       </c>
       <c r="BH98">
-        <v>0.6750913487051825</v>
+        <v>0.6751240191215393</v>
       </c>
       <c r="BI98">
-        <v>-0.551</v>
+        <v>-0.552</v>
       </c>
       <c r="BJ98">
         <v>-0.0087175</v>
@@ -19554,10 +19554,10 @@
         <v>696</v>
       </c>
       <c r="AQ99">
-        <v>1.350381321839081</v>
+        <v>1.350395689655173</v>
       </c>
       <c r="AR99">
-        <v>0.9180398493546688</v>
+        <v>0.9180372572078332</v>
       </c>
       <c r="AS99">
         <v>0.0556</v>
@@ -19578,10 +19578,10 @@
         <v>696</v>
       </c>
       <c r="AY99">
-        <v>0.1498311389367815</v>
+        <v>0.1498140478448275</v>
       </c>
       <c r="AZ99">
-        <v>0.3123612659504997</v>
+        <v>0.3123531569028206</v>
       </c>
       <c r="BA99">
         <v>-0.345</v>
@@ -19602,10 +19602,10 @@
         <v>696</v>
       </c>
       <c r="BG99">
-        <v>0.3009361416666667</v>
+        <v>0.3009175202586207</v>
       </c>
       <c r="BH99">
-        <v>0.623220112526873</v>
+        <v>0.6232164267989506</v>
       </c>
       <c r="BI99">
         <v>-0.534</v>
@@ -19775,10 +19775,10 @@
         <v>696</v>
       </c>
       <c r="AY100">
-        <v>0.1905599429597701</v>
+        <v>0.1905382649425287</v>
       </c>
       <c r="AZ100">
-        <v>0.3454134177518648</v>
+        <v>0.3454037181830422</v>
       </c>
       <c r="BA100">
         <v>-0.342</v>
@@ -19799,16 +19799,16 @@
         <v>696</v>
       </c>
       <c r="BG100">
-        <v>0.3569491765086209</v>
+        <v>0.3568717576580462</v>
       </c>
       <c r="BH100">
-        <v>0.659659721535143</v>
+        <v>0.6594971646850144</v>
       </c>
       <c r="BI100">
         <v>-0.529</v>
       </c>
       <c r="BJ100">
-        <v>-0.009135000000000001</v>
+        <v>-0.0091375</v>
       </c>
       <c r="BK100">
         <v>0.01175</v>
@@ -19972,10 +19972,10 @@
         <v>696</v>
       </c>
       <c r="AY101">
-        <v>0.1944312487068965</v>
+        <v>0.1944131672413793</v>
       </c>
       <c r="AZ101">
-        <v>0.3285563575973657</v>
+        <v>0.32854663036869</v>
       </c>
       <c r="BA101">
         <v>-0.345</v>
@@ -19996,10 +19996,10 @@
         <v>696</v>
       </c>
       <c r="BG101">
-        <v>0.3439424252873566</v>
+        <v>0.3438924356321841</v>
       </c>
       <c r="BH101">
-        <v>0.6087514693369785</v>
+        <v>0.6086702123597174</v>
       </c>
       <c r="BI101">
         <v>-0.533</v>
@@ -20169,10 +20169,10 @@
         <v>696</v>
       </c>
       <c r="AY102">
-        <v>0.2059276984626437</v>
+        <v>0.2059139545977011</v>
       </c>
       <c r="AZ102">
-        <v>0.3399960132688987</v>
+        <v>0.3399892447606002</v>
       </c>
       <c r="BA102">
         <v>-0.343</v>
@@ -20193,10 +20193,10 @@
         <v>696</v>
       </c>
       <c r="BG102">
-        <v>0.3581425466954022</v>
+        <v>0.3581214688218389</v>
       </c>
       <c r="BH102">
-        <v>0.6217034870390513</v>
+        <v>0.6216912689644405</v>
       </c>
       <c r="BI102">
         <v>-0.53</v>
@@ -20318,10 +20318,10 @@
         <v>696</v>
       </c>
       <c r="AI103">
-        <v>126.1702586206897</v>
+        <v>126.1704022988506</v>
       </c>
       <c r="AJ103">
-        <v>55.71885043711632</v>
+        <v>55.71878221085727</v>
       </c>
       <c r="AK103">
         <v>42.4</v>
@@ -20366,10 +20366,10 @@
         <v>696</v>
       </c>
       <c r="AY103">
-        <v>0.2250415399281609</v>
+        <v>0.225029003821839</v>
       </c>
       <c r="AZ103">
-        <v>0.369143281678199</v>
+        <v>0.3691377554710732</v>
       </c>
       <c r="BA103">
         <v>-0.348</v>
@@ -20390,10 +20390,10 @@
         <v>696</v>
       </c>
       <c r="BG103">
-        <v>0.3963865246551723</v>
+        <v>0.396338451393678</v>
       </c>
       <c r="BH103">
-        <v>0.6755980120631133</v>
+        <v>0.6755435561049922</v>
       </c>
       <c r="BI103">
         <v>-0.538</v>
@@ -20443,10 +20443,10 @@
         <v>696</v>
       </c>
       <c r="K104">
-        <v>38.72887931034475</v>
+        <v>38.72873563218383</v>
       </c>
       <c r="L104">
-        <v>0.6406937852205559</v>
+        <v>0.640711483297467</v>
       </c>
       <c r="M104">
         <v>38.2</v>
@@ -20467,10 +20467,10 @@
         <v>696</v>
       </c>
       <c r="S104">
-        <v>4.604870689655173</v>
+        <v>4.604310344827587</v>
       </c>
       <c r="T104">
-        <v>2.007615855213265</v>
+        <v>2.007699019033861</v>
       </c>
       <c r="U104">
         <v>1.71</v>
@@ -20482,7 +20482,7 @@
         <v>4.28</v>
       </c>
       <c r="X104">
-        <v>6.17</v>
+        <v>6.1625</v>
       </c>
       <c r="Y104">
         <v>8.75</v>
@@ -20515,16 +20515,16 @@
         <v>696</v>
       </c>
       <c r="AI104">
-        <v>126.0633620689655</v>
+        <v>126.0646551724138</v>
       </c>
       <c r="AJ104">
-        <v>55.7186345710697</v>
+        <v>55.72080053494408</v>
       </c>
       <c r="AK104">
         <v>42.2</v>
       </c>
       <c r="AL104">
-        <v>92.075</v>
+        <v>92.05</v>
       </c>
       <c r="AM104">
         <v>111</v>
@@ -20539,10 +20539,10 @@
         <v>696</v>
       </c>
       <c r="AQ104">
-        <v>1.346774712643678</v>
+        <v>1.346743103448276</v>
       </c>
       <c r="AR104">
-        <v>0.9156413980405614</v>
+        <v>0.9156352061827301</v>
       </c>
       <c r="AS104">
         <v>0.0554</v>
@@ -20563,10 +20563,10 @@
         <v>696</v>
       </c>
       <c r="AY104">
-        <v>0.2270886393678158</v>
+        <v>0.2270702485632181</v>
       </c>
       <c r="AZ104">
-        <v>0.3730050566506942</v>
+        <v>0.3729940373402715</v>
       </c>
       <c r="BA104">
         <v>-0.361</v>
@@ -20587,10 +20587,10 @@
         <v>696</v>
       </c>
       <c r="BG104">
-        <v>0.4014405991379312</v>
+        <v>0.4013650316091954</v>
       </c>
       <c r="BH104">
-        <v>0.6793965412848859</v>
+        <v>0.6792587558182945</v>
       </c>
       <c r="BI104">
         <v>-0.5570000000000001</v>
@@ -20599,10 +20599,10 @@
         <v>-0.01255</v>
       </c>
       <c r="BK104">
-        <v>0.0132</v>
+        <v>0.01315</v>
       </c>
       <c r="BL104">
-        <v>0.7805</v>
+        <v>0.78025</v>
       </c>
       <c r="BM104">
         <v>3.45</v>
@@ -20664,10 +20664,10 @@
         <v>696</v>
       </c>
       <c r="S105">
-        <v>4.57597701149425</v>
+        <v>4.575991379310342</v>
       </c>
       <c r="T105">
-        <v>2.019201756814453</v>
+        <v>2.019227687657297</v>
       </c>
       <c r="U105">
         <v>1.66</v>
@@ -20760,10 +20760,10 @@
         <v>696</v>
       </c>
       <c r="AY105">
-        <v>0.2323087422413794</v>
+        <v>0.232291904454023</v>
       </c>
       <c r="AZ105">
-        <v>0.3925552474601047</v>
+        <v>0.3925449756508941</v>
       </c>
       <c r="BA105">
         <v>-0.381</v>
@@ -20784,16 +20784,16 @@
         <v>696</v>
       </c>
       <c r="BG105">
-        <v>0.4144429528735632</v>
+        <v>0.4144002574712644</v>
       </c>
       <c r="BH105">
-        <v>0.7102265692386204</v>
+        <v>0.7101721327624479</v>
       </c>
       <c r="BI105">
         <v>-0.588</v>
       </c>
       <c r="BJ105">
-        <v>-0.01595</v>
+        <v>-0.016025</v>
       </c>
       <c r="BK105">
         <v>0.0104</v>
@@ -20957,10 +20957,10 @@
         <v>696</v>
       </c>
       <c r="AY106">
-        <v>0.2359968563218392</v>
+        <v>0.2359741709770116</v>
       </c>
       <c r="AZ106">
-        <v>0.3968695795012425</v>
+        <v>0.3968574232519598</v>
       </c>
       <c r="BA106">
         <v>-0.386</v>
@@ -20981,10 +20981,10 @@
         <v>696</v>
       </c>
       <c r="BG106">
-        <v>0.4213325316091953</v>
+        <v>0.4213074353448275</v>
       </c>
       <c r="BH106">
-        <v>0.7185768274724292</v>
+        <v>0.7185113865962797</v>
       </c>
       <c r="BI106">
         <v>-0.596</v>
@@ -21130,10 +21130,10 @@
         <v>696</v>
       </c>
       <c r="AQ107">
-        <v>1.342165660919538</v>
+        <v>1.342167097701147</v>
       </c>
       <c r="AR107">
-        <v>0.914148834684934</v>
+        <v>0.9141470424488828</v>
       </c>
       <c r="AS107">
         <v>0.0552</v>
@@ -21154,10 +21154,10 @@
         <v>696</v>
       </c>
       <c r="AY107">
-        <v>0.2258496925287356</v>
+        <v>0.2258301048850574</v>
       </c>
       <c r="AZ107">
-        <v>0.376829414680677</v>
+        <v>0.3768180472165539</v>
       </c>
       <c r="BA107">
         <v>-0.391</v>
@@ -21178,10 +21178,10 @@
         <v>696</v>
       </c>
       <c r="BG107">
-        <v>0.3997954454022988</v>
+        <v>0.3997625675287355</v>
       </c>
       <c r="BH107">
-        <v>0.678211888303936</v>
+        <v>0.6781686113869868</v>
       </c>
       <c r="BI107">
         <v>-0.603</v>
@@ -21351,10 +21351,10 @@
         <v>696</v>
       </c>
       <c r="AY108">
-        <v>0.2156907462643675</v>
+        <v>0.2156723793103446</v>
       </c>
       <c r="AZ108">
-        <v>0.3627303834354386</v>
+        <v>0.3627181289376206</v>
       </c>
       <c r="BA108">
         <v>-0.392</v>
@@ -21375,10 +21375,10 @@
         <v>696</v>
       </c>
       <c r="BG108">
-        <v>0.3775077400862067</v>
+        <v>0.3774736761494251</v>
       </c>
       <c r="BH108">
-        <v>0.6482950414027793</v>
+        <v>0.6482421985729562</v>
       </c>
       <c r="BI108">
         <v>-0.604</v>
@@ -21476,10 +21476,10 @@
         <v>696</v>
       </c>
       <c r="AA109">
-        <v>38.51163793103448</v>
+        <v>38.5117816091954</v>
       </c>
       <c r="AB109">
-        <v>0.8843123026247882</v>
+        <v>0.8842371754527513</v>
       </c>
       <c r="AC109">
         <v>36.7</v>
@@ -21524,10 +21524,10 @@
         <v>696</v>
       </c>
       <c r="AQ109">
-        <v>1.341943103448274</v>
+        <v>1.341944540229883</v>
       </c>
       <c r="AR109">
-        <v>0.9144411799602228</v>
+        <v>0.9144401234605839</v>
       </c>
       <c r="AS109">
         <v>0.0552</v>
@@ -21548,10 +21548,10 @@
         <v>696</v>
       </c>
       <c r="AY109">
-        <v>0.2142002040229885</v>
+        <v>0.2141822801724137</v>
       </c>
       <c r="AZ109">
-        <v>0.3615736216067045</v>
+        <v>0.3615662931471016</v>
       </c>
       <c r="BA109">
         <v>-0.392</v>
@@ -21572,10 +21572,10 @@
         <v>696</v>
       </c>
       <c r="BG109">
-        <v>0.374115164511494</v>
+        <v>0.3740845193965514</v>
       </c>
       <c r="BH109">
-        <v>0.645807470767418</v>
+        <v>0.6457691409340446</v>
       </c>
       <c r="BI109">
         <v>-0.604</v>
@@ -21745,10 +21745,10 @@
         <v>696</v>
       </c>
       <c r="AY110">
-        <v>0.2272188002873561</v>
+        <v>0.2272036206896549</v>
       </c>
       <c r="AZ110">
-        <v>0.3820798954883372</v>
+        <v>0.3820727744961795</v>
       </c>
       <c r="BA110">
         <v>-0.392</v>
@@ -21769,10 +21769,10 @@
         <v>696</v>
       </c>
       <c r="BG110">
-        <v>0.4010223074712647</v>
+        <v>0.4010099511494255</v>
       </c>
       <c r="BH110">
-        <v>0.6870065204368254</v>
+        <v>0.6870006916623206</v>
       </c>
       <c r="BI110">
         <v>-0.603</v>
@@ -21942,10 +21942,10 @@
         <v>696</v>
       </c>
       <c r="AY111">
-        <v>0.2234109424425288</v>
+        <v>0.2233909869109196</v>
       </c>
       <c r="AZ111">
-        <v>0.3635803276183976</v>
+        <v>0.3635653348578555</v>
       </c>
       <c r="BA111">
         <v>-0.383</v>
@@ -21966,10 +21966,10 @@
         <v>696</v>
       </c>
       <c r="BG111">
-        <v>0.3885900414942526</v>
+        <v>0.38852886637931</v>
       </c>
       <c r="BH111">
-        <v>0.6530427203918945</v>
+        <v>0.6529520452210643</v>
       </c>
       <c r="BI111">
         <v>-0.589</v>
@@ -21981,7 +21981,7 @@
         <v>0.0172</v>
       </c>
       <c r="BL111">
-        <v>0.782</v>
+        <v>0.78125</v>
       </c>
       <c r="BM111">
         <v>3.39</v>
@@ -22043,10 +22043,10 @@
         <v>696</v>
       </c>
       <c r="S112">
-        <v>4.571278735632182</v>
+        <v>4.571178160919538</v>
       </c>
       <c r="T112">
-        <v>2.032444663975557</v>
+        <v>2.032482351515065</v>
       </c>
       <c r="U112">
         <v>1.6</v>
@@ -22091,10 +22091,10 @@
         <v>696</v>
       </c>
       <c r="AI112">
-        <v>125.7336206896551</v>
+        <v>125.7321839080459</v>
       </c>
       <c r="AJ112">
-        <v>55.84528903024627</v>
+        <v>55.8456815032444</v>
       </c>
       <c r="AK112">
         <v>41.2</v>
@@ -22139,10 +22139,10 @@
         <v>696</v>
       </c>
       <c r="AY112">
-        <v>0.2011096020114943</v>
+        <v>0.2011085071839082</v>
       </c>
       <c r="AZ112">
-        <v>0.3457731714607232</v>
+        <v>0.3457770046706713</v>
       </c>
       <c r="BA112">
         <v>-0.419</v>
@@ -22163,10 +22163,10 @@
         <v>696</v>
       </c>
       <c r="BG112">
-        <v>0.3387063994252875</v>
+        <v>0.3386937798850576</v>
       </c>
       <c r="BH112">
-        <v>0.611388604064213</v>
+        <v>0.6113942634645373</v>
       </c>
       <c r="BI112">
         <v>-0.645</v>
